--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1420" yWindow="0" windowWidth="19740" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6663" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6807" uniqueCount="643">
   <si>
     <t>Agent.Embod</t>
   </si>
@@ -2445,10 +2445,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F610" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2:K1144"/>
+      <selection pane="bottomRight" activeCell="I630" sqref="I630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23690,6 +23690,15 @@
       <c r="H626" t="s">
         <v>13</v>
       </c>
+      <c r="I626" s="1">
+        <v>1</v>
+      </c>
+      <c r="J626">
+        <v>1</v>
+      </c>
+      <c r="K626">
+        <v>0</v>
+      </c>
     </row>
     <row r="627" spans="1:11">
       <c r="A627" s="2">
@@ -23716,6 +23725,15 @@
       <c r="H627" t="s">
         <v>92</v>
       </c>
+      <c r="I627" s="1">
+        <v>1</v>
+      </c>
+      <c r="J627">
+        <v>1</v>
+      </c>
+      <c r="K627">
+        <v>0</v>
+      </c>
     </row>
     <row r="628" spans="1:11">
       <c r="A628" s="2">
@@ -23742,6 +23760,15 @@
       <c r="H628" t="s">
         <v>69</v>
       </c>
+      <c r="I628" s="1">
+        <v>0</v>
+      </c>
+      <c r="J628">
+        <v>1</v>
+      </c>
+      <c r="K628">
+        <v>1</v>
+      </c>
     </row>
     <row r="629" spans="1:11">
       <c r="A629" s="2">
@@ -23767,6 +23794,15 @@
       </c>
       <c r="H629" t="s">
         <v>13</v>
+      </c>
+      <c r="I629" s="1">
+        <v>1</v>
+      </c>
+      <c r="J629">
+        <v>1</v>
+      </c>
+      <c r="K629">
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:11">
@@ -38615,7 +38651,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="1201" spans="1:8">
+    <row r="1201" spans="1:11">
       <c r="A1201" s="4">
         <v>1</v>
       </c>
@@ -38641,7 +38677,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="1202" spans="1:8">
+    <row r="1202" spans="1:11">
       <c r="A1202" s="3" t="s">
         <v>82</v>
       </c>
@@ -38666,8 +38702,17 @@
       <c r="H1202" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1203" spans="1:8">
+      <c r="I1202" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1202" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1202" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:11">
       <c r="A1203" s="3" t="s">
         <v>82</v>
       </c>
@@ -38692,8 +38737,17 @@
       <c r="H1203" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1204" spans="1:8">
+      <c r="I1203" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1203" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1203" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:11">
       <c r="A1204" s="3" t="s">
         <v>82</v>
       </c>
@@ -38718,8 +38772,17 @@
       <c r="H1204" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1205" spans="1:8">
+      <c r="I1204" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1204" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1204" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:11">
       <c r="A1205" s="3" t="s">
         <v>82</v>
       </c>
@@ -38744,8 +38807,17 @@
       <c r="H1205" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1206" spans="1:8">
+      <c r="I1205" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1205" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1205" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:11">
       <c r="A1206" s="3" t="s">
         <v>82</v>
       </c>
@@ -38770,8 +38842,17 @@
       <c r="H1206" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1207" spans="1:8">
+      <c r="I1206" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1206" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1206" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:11">
       <c r="A1207" s="3" t="s">
         <v>82</v>
       </c>
@@ -38796,8 +38877,17 @@
       <c r="H1207" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1208" spans="1:8">
+      <c r="I1207" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1207" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1207" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:11">
       <c r="A1208" s="3" t="s">
         <v>82</v>
       </c>
@@ -38822,8 +38912,17 @@
       <c r="H1208" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1209" spans="1:8">
+      <c r="I1208" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1208" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1208" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:11">
       <c r="A1209" s="3" t="s">
         <v>82</v>
       </c>
@@ -38848,8 +38947,17 @@
       <c r="H1209" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1210" spans="1:8">
+      <c r="I1209" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1209" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1209" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:11">
       <c r="A1210" s="3" t="s">
         <v>82</v>
       </c>
@@ -38874,8 +38982,17 @@
       <c r="H1210" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1211" spans="1:8">
+      <c r="I1210" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1210" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1210" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:11">
       <c r="A1211" s="3" t="s">
         <v>82</v>
       </c>
@@ -38900,8 +39017,17 @@
       <c r="H1211" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1212" spans="1:8">
+      <c r="I1211" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1211" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1211" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:11">
       <c r="A1212" s="3" t="s">
         <v>82</v>
       </c>
@@ -38926,8 +39052,17 @@
       <c r="H1212" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1213" spans="1:8">
+      <c r="I1212" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1212" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1212" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:11">
       <c r="A1213" s="3" t="s">
         <v>82</v>
       </c>
@@ -38952,8 +39087,17 @@
       <c r="H1213" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1214" spans="1:8">
+      <c r="I1213" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1213" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1213" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:11">
       <c r="A1214" s="3" t="s">
         <v>82</v>
       </c>
@@ -38978,8 +39122,17 @@
       <c r="H1214" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1215" spans="1:8">
+      <c r="I1214" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1214" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1214" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:11">
       <c r="A1215" s="3" t="s">
         <v>82</v>
       </c>
@@ -39004,8 +39157,17 @@
       <c r="H1215" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1216" spans="1:8">
+      <c r="I1215" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1215" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1215" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:11">
       <c r="A1216" s="3" t="s">
         <v>82</v>
       </c>
@@ -39030,8 +39192,17 @@
       <c r="H1216" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1217" spans="1:8">
+      <c r="I1216" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1216" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1216" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:11">
       <c r="A1217" s="3" t="s">
         <v>82</v>
       </c>
@@ -39056,8 +39227,17 @@
       <c r="H1217" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1218" spans="1:8">
+      <c r="I1217" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1217" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1217" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:11">
       <c r="A1218" s="3" t="s">
         <v>82</v>
       </c>
@@ -39082,8 +39262,17 @@
       <c r="H1218" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1219" spans="1:8">
+      <c r="I1218" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1218" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1218" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:11">
       <c r="A1219" s="3" t="s">
         <v>82</v>
       </c>
@@ -39108,8 +39297,17 @@
       <c r="H1219" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1220" spans="1:8">
+      <c r="I1219" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1219" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1219" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:11">
       <c r="A1220" s="3" t="s">
         <v>82</v>
       </c>
@@ -39134,8 +39332,17 @@
       <c r="H1220" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1221" spans="1:8">
+      <c r="I1220" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1220" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1220" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:11">
       <c r="A1221" s="3" t="s">
         <v>82</v>
       </c>
@@ -39160,8 +39367,17 @@
       <c r="H1221" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1222" spans="1:8">
+      <c r="I1221" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1221" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1221" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:11">
       <c r="A1222" s="3" t="s">
         <v>82</v>
       </c>
@@ -39186,8 +39402,17 @@
       <c r="H1222" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1223" spans="1:8">
+      <c r="I1222" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1222" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1222" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:11">
       <c r="A1223" s="3" t="s">
         <v>82</v>
       </c>
@@ -39212,8 +39437,17 @@
       <c r="H1223" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1224" spans="1:8">
+      <c r="I1223" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1223" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1223" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:11">
       <c r="A1224" s="3" t="s">
         <v>82</v>
       </c>
@@ -39238,8 +39472,17 @@
       <c r="H1224" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1225" spans="1:8">
+      <c r="I1224" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1224" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1224" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:11">
       <c r="A1225" s="3" t="s">
         <v>82</v>
       </c>
@@ -39264,8 +39507,17 @@
       <c r="H1225" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1226" spans="1:8">
+      <c r="I1225" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1225" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1225" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:11">
       <c r="A1226" s="3" t="s">
         <v>82</v>
       </c>
@@ -39290,8 +39542,17 @@
       <c r="H1226" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="1227" spans="1:8">
+      <c r="I1226" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1226" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1226" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:11">
       <c r="A1227" s="3" t="s">
         <v>82</v>
       </c>
@@ -39316,8 +39577,17 @@
       <c r="H1227" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="1228" spans="1:8">
+      <c r="I1227" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1227" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1227" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:11">
       <c r="A1228" s="3" t="s">
         <v>82</v>
       </c>
@@ -39342,8 +39612,17 @@
       <c r="H1228" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1229" spans="1:8">
+      <c r="I1228" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1228" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1228" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:11">
       <c r="A1229" s="3" t="s">
         <v>82</v>
       </c>
@@ -39368,8 +39647,17 @@
       <c r="H1229" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="1230" spans="1:8">
+      <c r="I1229" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1229" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1229" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:11">
       <c r="A1230" s="3" t="s">
         <v>82</v>
       </c>
@@ -39394,8 +39682,17 @@
       <c r="H1230" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="1231" spans="1:8">
+      <c r="I1230" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1230" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1230" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:11">
       <c r="A1231" s="3" t="s">
         <v>82</v>
       </c>
@@ -39420,8 +39717,17 @@
       <c r="H1231" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1232" spans="1:8">
+      <c r="I1231" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1231" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1231" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:11">
       <c r="A1232" s="3" t="s">
         <v>82</v>
       </c>
@@ -39446,8 +39752,17 @@
       <c r="H1232" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1233" spans="1:8">
+      <c r="I1232" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1232" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1232" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:11">
       <c r="A1233" s="3" t="s">
         <v>82</v>
       </c>
@@ -39472,8 +39787,17 @@
       <c r="H1233" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1234" spans="1:8">
+      <c r="I1233" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1233" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1233" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:11">
       <c r="A1234" s="3" t="s">
         <v>82</v>
       </c>
@@ -39498,8 +39822,17 @@
       <c r="H1234" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1235" spans="1:8">
+      <c r="I1234" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1234" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1234" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:11">
       <c r="A1235" s="3" t="s">
         <v>82</v>
       </c>
@@ -39524,8 +39857,17 @@
       <c r="H1235" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="1236" spans="1:8">
+      <c r="I1235" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1235" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1235" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:11">
       <c r="A1236" s="3" t="s">
         <v>82</v>
       </c>
@@ -39550,8 +39892,17 @@
       <c r="H1236" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="1237" spans="1:8">
+      <c r="I1236" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1236" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1236" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:11">
       <c r="A1237" s="3" t="s">
         <v>82</v>
       </c>
@@ -39576,8 +39927,17 @@
       <c r="H1237" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="1238" spans="1:8">
+      <c r="I1237" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1237" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1237" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:11">
       <c r="A1238" s="3" t="s">
         <v>82</v>
       </c>
@@ -39602,8 +39962,17 @@
       <c r="H1238" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="1239" spans="1:8">
+      <c r="I1238" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1238" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1238" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:11">
       <c r="A1239" s="3" t="s">
         <v>82</v>
       </c>
@@ -39628,8 +39997,17 @@
       <c r="H1239" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="1240" spans="1:8">
+      <c r="I1239" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1239" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1239" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:11">
       <c r="A1240" s="3" t="s">
         <v>82</v>
       </c>
@@ -39654,8 +40032,17 @@
       <c r="H1240" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="1241" spans="1:8">
+      <c r="I1240" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1240" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1240" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:11">
       <c r="A1241" s="3" t="s">
         <v>82</v>
       </c>
@@ -39680,8 +40067,17 @@
       <c r="H1241" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="1242" spans="1:8">
+      <c r="I1241" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1241" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1241" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:11">
       <c r="A1242" s="3" t="s">
         <v>82</v>
       </c>
@@ -39706,8 +40102,17 @@
       <c r="H1242" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1243" spans="1:8">
+      <c r="I1242" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1242" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1242" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:11">
       <c r="A1243" s="3" t="s">
         <v>82</v>
       </c>
@@ -39732,8 +40137,17 @@
       <c r="H1243" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1244" spans="1:8">
+      <c r="I1243" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1243" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1243" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:11">
       <c r="A1244" s="3" t="s">
         <v>82</v>
       </c>
@@ -39758,8 +40172,17 @@
       <c r="H1244" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="1245" spans="1:8">
+      <c r="I1244" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1244" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1244" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:11">
       <c r="A1245" s="3" t="s">
         <v>82</v>
       </c>
@@ -39784,8 +40207,17 @@
       <c r="H1245" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="1246" spans="1:8">
+      <c r="I1245" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1245" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1245" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:11">
       <c r="A1246" s="3" t="s">
         <v>82</v>
       </c>
@@ -39810,8 +40242,17 @@
       <c r="H1246" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="1247" spans="1:8">
+      <c r="I1246" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1246" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1246" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:11">
       <c r="A1247" s="3" t="s">
         <v>82</v>
       </c>
@@ -39836,8 +40277,17 @@
       <c r="H1247" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="1248" spans="1:8">
+      <c r="I1247" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1247" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1247" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:11">
       <c r="A1248" s="3" t="s">
         <v>82</v>
       </c>
@@ -39862,8 +40312,17 @@
       <c r="H1248" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1249" spans="1:8">
+      <c r="I1248" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1248" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1248" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:11">
       <c r="A1249" s="3" t="s">
         <v>82</v>
       </c>
@@ -39888,8 +40347,17 @@
       <c r="H1249" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="1250" spans="1:8">
+      <c r="I1249" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1249" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1249" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:11">
       <c r="A1250" s="2">
         <v>0</v>
       </c>
@@ -39915,7 +40383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1251" spans="1:8">
+    <row r="1251" spans="1:11">
       <c r="A1251" s="2">
         <v>0</v>
       </c>
@@ -39941,7 +40409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1252" spans="1:8">
+    <row r="1252" spans="1:11">
       <c r="A1252" s="2">
         <v>0</v>
       </c>
@@ -39967,7 +40435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1253" spans="1:8">
+    <row r="1253" spans="1:11">
       <c r="A1253" s="2">
         <v>0</v>
       </c>
@@ -39993,7 +40461,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1254" spans="1:8">
+    <row r="1254" spans="1:11">
       <c r="A1254" s="2">
         <v>0</v>
       </c>
@@ -40019,7 +40487,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="1255" spans="1:8">
+    <row r="1255" spans="1:11">
       <c r="A1255" s="2">
         <v>0</v>
       </c>
@@ -40045,7 +40513,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="1256" spans="1:8">
+    <row r="1256" spans="1:11">
       <c r="A1256" s="2">
         <v>0</v>
       </c>
@@ -40071,7 +40539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1257" spans="1:8">
+    <row r="1257" spans="1:11">
       <c r="A1257" s="2">
         <v>0</v>
       </c>
@@ -40097,7 +40565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1258" spans="1:8">
+    <row r="1258" spans="1:11">
       <c r="A1258" s="2">
         <v>0</v>
       </c>
@@ -40123,7 +40591,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="1259" spans="1:8">
+    <row r="1259" spans="1:11">
       <c r="A1259" s="2">
         <v>0</v>
       </c>
@@ -40149,7 +40617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1260" spans="1:8">
+    <row r="1260" spans="1:11">
       <c r="A1260" s="4">
         <v>0</v>
       </c>
@@ -40175,7 +40643,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="1261" spans="1:8">
+    <row r="1261" spans="1:11">
       <c r="A1261" s="4">
         <v>0</v>
       </c>
@@ -40201,7 +40669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1262" spans="1:8">
+    <row r="1262" spans="1:11">
       <c r="A1262" s="4">
         <v>0</v>
       </c>
@@ -40227,7 +40695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1263" spans="1:8">
+    <row r="1263" spans="1:11">
       <c r="A1263" s="4">
         <v>0</v>
       </c>
@@ -40253,7 +40721,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="1264" spans="1:8">
+    <row r="1264" spans="1:11">
       <c r="A1264" s="4">
         <v>0</v>
       </c>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="0" windowWidth="19740" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-4080" yWindow="0" windowWidth="18700" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6807" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6810" uniqueCount="643">
   <si>
     <t>Agent.Embod</t>
   </si>
@@ -2445,10 +2445,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F610" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F802" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I630" sqref="I630"/>
+      <selection pane="bottomRight" activeCell="I818" sqref="I818"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23830,6 +23830,15 @@
       <c r="H630" t="s">
         <v>69</v>
       </c>
+      <c r="I630" s="1">
+        <v>0</v>
+      </c>
+      <c r="J630">
+        <v>1</v>
+      </c>
+      <c r="K630">
+        <v>0</v>
+      </c>
     </row>
     <row r="631" spans="1:11">
       <c r="A631" s="2">
@@ -23856,6 +23865,15 @@
       <c r="H631" t="s">
         <v>13</v>
       </c>
+      <c r="I631" s="1">
+        <v>0</v>
+      </c>
+      <c r="J631">
+        <v>1</v>
+      </c>
+      <c r="K631">
+        <v>0</v>
+      </c>
     </row>
     <row r="632" spans="1:11">
       <c r="A632" s="2">
@@ -25339,7 +25357,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:11">
       <c r="A689" s="2">
         <v>0</v>
       </c>
@@ -25365,7 +25383,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:11">
       <c r="A690" s="2">
         <v>0</v>
       </c>
@@ -25390,8 +25408,17 @@
       <c r="H690" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="691" spans="1:8">
+      <c r="I690" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J690" t="s">
+        <v>349</v>
+      </c>
+      <c r="K690" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="691" spans="1:11">
       <c r="A691" s="2">
         <v>1</v>
       </c>
@@ -25416,8 +25443,17 @@
       <c r="H691" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="692" spans="1:8">
+      <c r="I691" s="1">
+        <v>0</v>
+      </c>
+      <c r="J691">
+        <v>1</v>
+      </c>
+      <c r="K691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:11">
       <c r="A692" s="2">
         <v>0</v>
       </c>
@@ -25442,8 +25478,17 @@
       <c r="H692" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="693" spans="1:8">
+      <c r="I692" s="1">
+        <v>1</v>
+      </c>
+      <c r="J692">
+        <v>0</v>
+      </c>
+      <c r="K692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:11">
       <c r="A693" s="2">
         <v>0</v>
       </c>
@@ -25468,8 +25513,17 @@
       <c r="H693" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="694" spans="1:8">
+      <c r="I693" s="1">
+        <v>0</v>
+      </c>
+      <c r="J693">
+        <v>1</v>
+      </c>
+      <c r="K693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:11">
       <c r="A694" s="2">
         <v>0</v>
       </c>
@@ -25495,7 +25549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:11">
       <c r="A695" s="2">
         <v>1</v>
       </c>
@@ -25521,7 +25575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:11">
       <c r="A696" s="2">
         <v>1</v>
       </c>
@@ -25547,7 +25601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:11">
       <c r="A697" s="2">
         <v>0</v>
       </c>
@@ -25573,7 +25627,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:11">
       <c r="A698" s="2">
         <v>1</v>
       </c>
@@ -25599,7 +25653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:11">
       <c r="A699" s="2">
         <v>1</v>
       </c>
@@ -25625,7 +25679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:11">
       <c r="A700" s="2">
         <v>1</v>
       </c>
@@ -25651,7 +25705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:11">
       <c r="A701" s="2">
         <v>1</v>
       </c>
@@ -25677,7 +25731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:11">
       <c r="A702" s="2">
         <v>0</v>
       </c>
@@ -25703,7 +25757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:11">
       <c r="A703" s="2">
         <v>0</v>
       </c>
@@ -25729,7 +25783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:11">
       <c r="A704" s="2">
         <v>0</v>
       </c>
@@ -26171,7 +26225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:11">
       <c r="A721" s="2">
         <v>1</v>
       </c>
@@ -26197,7 +26251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="722" spans="1:8">
+    <row r="722" spans="1:11">
       <c r="A722" s="2">
         <v>0</v>
       </c>
@@ -26222,8 +26276,17 @@
       <c r="H722" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="723" spans="1:8">
+      <c r="I722" s="1">
+        <v>0</v>
+      </c>
+      <c r="J722">
+        <v>0</v>
+      </c>
+      <c r="K722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:11">
       <c r="A723" s="2">
         <v>1</v>
       </c>
@@ -26248,8 +26311,17 @@
       <c r="H723" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="724" spans="1:8">
+      <c r="I723" s="1">
+        <v>1</v>
+      </c>
+      <c r="J723">
+        <v>1</v>
+      </c>
+      <c r="K723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:11">
       <c r="A724" s="2">
         <v>1</v>
       </c>
@@ -26274,8 +26346,17 @@
       <c r="H724" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="725" spans="1:8">
+      <c r="I724" s="1">
+        <v>1</v>
+      </c>
+      <c r="J724">
+        <v>0</v>
+      </c>
+      <c r="K724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:11">
       <c r="A725" s="2">
         <v>1</v>
       </c>
@@ -26300,8 +26381,17 @@
       <c r="H725" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="726" spans="1:8">
+      <c r="I725" s="1">
+        <v>1</v>
+      </c>
+      <c r="J725">
+        <v>1</v>
+      </c>
+      <c r="K725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:11">
       <c r="A726" s="2">
         <v>1</v>
       </c>
@@ -26327,7 +26417,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="727" spans="1:8">
+    <row r="727" spans="1:11">
       <c r="A727" s="2">
         <v>0</v>
       </c>
@@ -26353,7 +26443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="728" spans="1:8">
+    <row r="728" spans="1:11">
       <c r="A728" s="2">
         <v>1</v>
       </c>
@@ -26379,7 +26469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="729" spans="1:8">
+    <row r="729" spans="1:11">
       <c r="A729" s="2">
         <v>1</v>
       </c>
@@ -26405,7 +26495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="730" spans="1:8">
+    <row r="730" spans="1:11">
       <c r="A730" s="2">
         <v>1</v>
       </c>
@@ -26431,7 +26521,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="731" spans="1:8">
+    <row r="731" spans="1:11">
       <c r="A731" s="2">
         <v>0</v>
       </c>
@@ -26457,7 +26547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="732" spans="1:8">
+    <row r="732" spans="1:11">
       <c r="A732" s="2">
         <v>1</v>
       </c>
@@ -26483,7 +26573,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="733" spans="1:8">
+    <row r="733" spans="1:11">
       <c r="A733" s="2">
         <v>1</v>
       </c>
@@ -26509,7 +26599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="734" spans="1:8">
+    <row r="734" spans="1:11">
       <c r="A734" s="2">
         <v>1</v>
       </c>
@@ -26535,7 +26625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="735" spans="1:8">
+    <row r="735" spans="1:11">
       <c r="A735" s="2">
         <v>1</v>
       </c>
@@ -26561,7 +26651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="736" spans="1:8">
+    <row r="736" spans="1:11">
       <c r="A736" s="2">
         <v>1</v>
       </c>
@@ -27419,7 +27509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="769" spans="1:8">
+    <row r="769" spans="1:11">
       <c r="A769" s="2">
         <v>1</v>
       </c>
@@ -27445,7 +27535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="770" spans="1:8">
+    <row r="770" spans="1:11">
       <c r="A770" s="2">
         <v>1</v>
       </c>
@@ -27470,8 +27560,17 @@
       <c r="H770" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="771" spans="1:8">
+      <c r="I770" s="1">
+        <v>1</v>
+      </c>
+      <c r="J770">
+        <v>1</v>
+      </c>
+      <c r="K770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:11">
       <c r="A771" s="2">
         <v>1</v>
       </c>
@@ -27496,8 +27595,17 @@
       <c r="H771" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="772" spans="1:8">
+      <c r="I771" s="1">
+        <v>1</v>
+      </c>
+      <c r="J771">
+        <v>1</v>
+      </c>
+      <c r="K771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:11">
       <c r="A772" s="2">
         <v>1</v>
       </c>
@@ -27522,8 +27630,17 @@
       <c r="H772" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="773" spans="1:8">
+      <c r="I772" s="1">
+        <v>1</v>
+      </c>
+      <c r="J772">
+        <v>1</v>
+      </c>
+      <c r="K772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:11">
       <c r="A773" s="2">
         <v>1</v>
       </c>
@@ -27548,8 +27665,17 @@
       <c r="H773" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="774" spans="1:8">
+      <c r="I773" s="1">
+        <v>1</v>
+      </c>
+      <c r="J773">
+        <v>1</v>
+      </c>
+      <c r="K773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:11">
       <c r="A774" s="2">
         <v>1</v>
       </c>
@@ -27575,7 +27701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="775" spans="1:8">
+    <row r="775" spans="1:11">
       <c r="A775" s="2">
         <v>0</v>
       </c>
@@ -27601,7 +27727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="776" spans="1:8">
+    <row r="776" spans="1:11">
       <c r="A776" s="2">
         <v>1</v>
       </c>
@@ -27627,7 +27753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="777" spans="1:8">
+    <row r="777" spans="1:11">
       <c r="A777" s="2">
         <v>1</v>
       </c>
@@ -27653,7 +27779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="778" spans="1:8">
+    <row r="778" spans="1:11">
       <c r="A778" s="2">
         <v>1</v>
       </c>
@@ -27679,7 +27805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="779" spans="1:8">
+    <row r="779" spans="1:11">
       <c r="A779" s="2">
         <v>0</v>
       </c>
@@ -27705,7 +27831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="780" spans="1:8">
+    <row r="780" spans="1:11">
       <c r="A780" s="2">
         <v>1</v>
       </c>
@@ -27731,7 +27857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="781" spans="1:8">
+    <row r="781" spans="1:11">
       <c r="A781" s="2">
         <v>1</v>
       </c>
@@ -27757,7 +27883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="782" spans="1:8">
+    <row r="782" spans="1:11">
       <c r="A782" s="2">
         <v>1</v>
       </c>
@@ -27783,7 +27909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="783" spans="1:8">
+    <row r="783" spans="1:11">
       <c r="A783" s="2">
         <v>1</v>
       </c>
@@ -27809,7 +27935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="784" spans="1:8">
+    <row r="784" spans="1:11">
       <c r="A784" s="2">
         <v>1</v>
       </c>
@@ -28667,7 +28793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="817" spans="1:8">
+    <row r="817" spans="1:11">
       <c r="A817" s="2">
         <v>1</v>
       </c>
@@ -28693,7 +28819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="818" spans="1:8">
+    <row r="818" spans="1:11">
       <c r="A818" s="2">
         <v>0</v>
       </c>
@@ -28718,8 +28844,17 @@
       <c r="H818" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="819" spans="1:8">
+      <c r="I818" s="1">
+        <v>0</v>
+      </c>
+      <c r="J818">
+        <v>1</v>
+      </c>
+      <c r="K818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:11">
       <c r="A819" s="2">
         <v>1</v>
       </c>
@@ -28744,8 +28879,17 @@
       <c r="H819" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="820" spans="1:8">
+      <c r="I819" s="1">
+        <v>1</v>
+      </c>
+      <c r="J819">
+        <v>1</v>
+      </c>
+      <c r="K819">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:11">
       <c r="A820" s="2">
         <v>1</v>
       </c>
@@ -28770,8 +28914,17 @@
       <c r="H820" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="821" spans="1:8">
+      <c r="I820" s="1">
+        <v>1</v>
+      </c>
+      <c r="J820">
+        <v>1</v>
+      </c>
+      <c r="K820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:11">
       <c r="A821" s="2">
         <v>0</v>
       </c>
@@ -28796,8 +28949,17 @@
       <c r="H821" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="822" spans="1:8">
+      <c r="I821" s="1">
+        <v>0</v>
+      </c>
+      <c r="J821">
+        <v>1</v>
+      </c>
+      <c r="K821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:11">
       <c r="A822" s="2">
         <v>0</v>
       </c>
@@ -28823,7 +28985,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="823" spans="1:8">
+    <row r="823" spans="1:11">
       <c r="A823" s="2">
         <v>0</v>
       </c>
@@ -28849,7 +29011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="824" spans="1:8">
+    <row r="824" spans="1:11">
       <c r="A824" s="2">
         <v>1</v>
       </c>
@@ -28875,7 +29037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="825" spans="1:8">
+    <row r="825" spans="1:11">
       <c r="A825" s="2">
         <v>0</v>
       </c>
@@ -28901,7 +29063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="826" spans="1:8">
+    <row r="826" spans="1:11">
       <c r="A826" s="2">
         <v>1</v>
       </c>
@@ -28927,7 +29089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="827" spans="1:8">
+    <row r="827" spans="1:11">
       <c r="A827" s="2">
         <v>1</v>
       </c>
@@ -28953,7 +29115,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="828" spans="1:8">
+    <row r="828" spans="1:11">
       <c r="A828" s="2">
         <v>1</v>
       </c>
@@ -28979,7 +29141,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="829" spans="1:8">
+    <row r="829" spans="1:11">
       <c r="A829" s="2">
         <v>1</v>
       </c>
@@ -29005,7 +29167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="830" spans="1:8">
+    <row r="830" spans="1:11">
       <c r="A830" s="2">
         <v>0</v>
       </c>
@@ -29031,7 +29193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="831" spans="1:8">
+    <row r="831" spans="1:11">
       <c r="A831" s="2">
         <v>0</v>
       </c>
@@ -29057,7 +29219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="832" spans="1:8">
+    <row r="832" spans="1:11">
       <c r="A832" s="2">
         <v>0</v>
       </c>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-4080" yWindow="0" windowWidth="18700" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="-4600" yWindow="0" windowWidth="18700" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2445,10 +2445,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F802" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F854" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I818" sqref="I818"/>
+      <selection pane="bottomRight" activeCell="K871" sqref="K871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -30077,7 +30077,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="865" spans="1:8">
+    <row r="865" spans="1:11">
       <c r="A865" s="2">
         <v>1</v>
       </c>
@@ -30103,7 +30103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="866" spans="1:8">
+    <row r="866" spans="1:11">
       <c r="A866" s="2">
         <v>1</v>
       </c>
@@ -30128,8 +30128,17 @@
       <c r="H866" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="867" spans="1:8">
+      <c r="I866" s="1">
+        <v>1</v>
+      </c>
+      <c r="J866">
+        <v>1</v>
+      </c>
+      <c r="K866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:11">
       <c r="A867" s="2">
         <v>1</v>
       </c>
@@ -30154,8 +30163,17 @@
       <c r="H867" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="868" spans="1:8">
+      <c r="I867" s="1">
+        <v>1</v>
+      </c>
+      <c r="J867">
+        <v>1</v>
+      </c>
+      <c r="K867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="1:11">
       <c r="A868" s="2">
         <v>1</v>
       </c>
@@ -30180,8 +30198,17 @@
       <c r="H868" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="869" spans="1:8">
+      <c r="I868" s="1">
+        <v>1</v>
+      </c>
+      <c r="J868">
+        <v>1</v>
+      </c>
+      <c r="K868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:11">
       <c r="A869" s="2">
         <v>1</v>
       </c>
@@ -30206,8 +30233,17 @@
       <c r="H869" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="870" spans="1:8">
+      <c r="I869" s="1">
+        <v>1</v>
+      </c>
+      <c r="J869">
+        <v>1</v>
+      </c>
+      <c r="K869">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" spans="1:11">
       <c r="A870" s="2">
         <v>1</v>
       </c>
@@ -30233,7 +30269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="871" spans="1:8">
+    <row r="871" spans="1:11">
       <c r="A871" s="2">
         <v>0</v>
       </c>
@@ -30259,7 +30295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="872" spans="1:8">
+    <row r="872" spans="1:11">
       <c r="A872" s="2">
         <v>1</v>
       </c>
@@ -30285,7 +30321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="873" spans="1:8">
+    <row r="873" spans="1:11">
       <c r="A873" s="2">
         <v>0</v>
       </c>
@@ -30311,7 +30347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="874" spans="1:8">
+    <row r="874" spans="1:11">
       <c r="A874" s="2">
         <v>1</v>
       </c>
@@ -30337,7 +30373,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="875" spans="1:8">
+    <row r="875" spans="1:11">
       <c r="A875" s="2">
         <v>1</v>
       </c>
@@ -30363,7 +30399,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="876" spans="1:8">
+    <row r="876" spans="1:11">
       <c r="A876" s="2">
         <v>1</v>
       </c>
@@ -30389,7 +30425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="877" spans="1:8">
+    <row r="877" spans="1:11">
       <c r="A877" s="2">
         <v>1</v>
       </c>
@@ -30415,7 +30451,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="878" spans="1:8">
+    <row r="878" spans="1:11">
       <c r="A878" s="2">
         <v>1</v>
       </c>
@@ -30441,7 +30477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="879" spans="1:8">
+    <row r="879" spans="1:11">
       <c r="A879" s="2">
         <v>1</v>
       </c>
@@ -30467,7 +30503,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="880" spans="1:8">
+    <row r="880" spans="1:11">
       <c r="A880" s="2">
         <v>0</v>
       </c>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-4600" yWindow="0" windowWidth="18700" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="-4480" yWindow="0" windowWidth="16620" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6810" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6807" uniqueCount="643">
   <si>
     <t>Agent.Embod</t>
   </si>
@@ -2445,10 +2445,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F854" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F694" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K871" sqref="K871"/>
+      <selection pane="bottomRight" activeCell="I707" sqref="I707"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23869,7 +23869,7 @@
         <v>0</v>
       </c>
       <c r="J631">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K631">
         <v>0</v>
@@ -23900,6 +23900,15 @@
       <c r="H632" t="s">
         <v>13</v>
       </c>
+      <c r="I632" s="1">
+        <v>1</v>
+      </c>
+      <c r="J632">
+        <v>0</v>
+      </c>
+      <c r="K632">
+        <v>0</v>
+      </c>
     </row>
     <row r="633" spans="1:11">
       <c r="A633" s="2">
@@ -23926,6 +23935,15 @@
       <c r="H633" t="s">
         <v>13</v>
       </c>
+      <c r="I633" s="1">
+        <v>0</v>
+      </c>
+      <c r="J633">
+        <v>0</v>
+      </c>
+      <c r="K633">
+        <v>0</v>
+      </c>
     </row>
     <row r="634" spans="1:11">
       <c r="A634" s="2">
@@ -23952,6 +23970,15 @@
       <c r="H634" t="s">
         <v>17</v>
       </c>
+      <c r="I634" s="1">
+        <v>1</v>
+      </c>
+      <c r="J634">
+        <v>1</v>
+      </c>
+      <c r="K634">
+        <v>1</v>
+      </c>
     </row>
     <row r="635" spans="1:11">
       <c r="A635" s="2">
@@ -23978,6 +24005,15 @@
       <c r="H635" t="s">
         <v>74</v>
       </c>
+      <c r="I635" s="1">
+        <v>1</v>
+      </c>
+      <c r="J635">
+        <v>1</v>
+      </c>
+      <c r="K635">
+        <v>1</v>
+      </c>
     </row>
     <row r="636" spans="1:11">
       <c r="A636" s="2">
@@ -24004,6 +24040,15 @@
       <c r="H636" t="s">
         <v>69</v>
       </c>
+      <c r="I636" s="1">
+        <v>0</v>
+      </c>
+      <c r="J636">
+        <v>1</v>
+      </c>
+      <c r="K636">
+        <v>0</v>
+      </c>
     </row>
     <row r="637" spans="1:11">
       <c r="A637" s="2">
@@ -24030,6 +24075,15 @@
       <c r="H637" t="s">
         <v>17</v>
       </c>
+      <c r="I637" s="1">
+        <v>1</v>
+      </c>
+      <c r="J637">
+        <v>0</v>
+      </c>
+      <c r="K637">
+        <v>1</v>
+      </c>
     </row>
     <row r="638" spans="1:11">
       <c r="A638" s="2">
@@ -24056,6 +24110,15 @@
       <c r="H638" t="s">
         <v>13</v>
       </c>
+      <c r="I638" s="1">
+        <v>0</v>
+      </c>
+      <c r="J638">
+        <v>0</v>
+      </c>
+      <c r="K638">
+        <v>0</v>
+      </c>
     </row>
     <row r="639" spans="1:11">
       <c r="A639" s="2">
@@ -24082,6 +24145,15 @@
       <c r="H639" t="s">
         <v>17</v>
       </c>
+      <c r="I639" s="1">
+        <v>1</v>
+      </c>
+      <c r="J639">
+        <v>1</v>
+      </c>
+      <c r="K639">
+        <v>1</v>
+      </c>
     </row>
     <row r="640" spans="1:11">
       <c r="A640" s="2">
@@ -24108,8 +24180,17 @@
       <c r="H640" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="641" spans="1:8">
+      <c r="I640" s="1">
+        <v>0</v>
+      </c>
+      <c r="J640">
+        <v>0</v>
+      </c>
+      <c r="K640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:11">
       <c r="A641" s="2">
         <v>1</v>
       </c>
@@ -24134,8 +24215,17 @@
       <c r="H641" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="642" spans="1:8">
+      <c r="I641" s="1">
+        <v>1</v>
+      </c>
+      <c r="J641">
+        <v>1</v>
+      </c>
+      <c r="K641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:11">
       <c r="A642" s="2">
         <v>0</v>
       </c>
@@ -24160,8 +24250,17 @@
       <c r="H642" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="643" spans="1:8">
+      <c r="I642" s="1">
+        <v>0</v>
+      </c>
+      <c r="J642">
+        <v>1</v>
+      </c>
+      <c r="K642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:11">
       <c r="A643" s="2">
         <v>1</v>
       </c>
@@ -24186,8 +24285,17 @@
       <c r="H643" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="644" spans="1:8">
+      <c r="I643" s="1">
+        <v>1</v>
+      </c>
+      <c r="J643">
+        <v>1</v>
+      </c>
+      <c r="K643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:11">
       <c r="A644" s="2">
         <v>0</v>
       </c>
@@ -24212,8 +24320,17 @@
       <c r="H644" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="645" spans="1:8">
+      <c r="I644" s="1">
+        <v>0</v>
+      </c>
+      <c r="J644">
+        <v>0</v>
+      </c>
+      <c r="K644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:11">
       <c r="A645" s="2">
         <v>1</v>
       </c>
@@ -24238,8 +24355,17 @@
       <c r="H645" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="646" spans="1:8">
+      <c r="I645" s="1">
+        <v>1</v>
+      </c>
+      <c r="J645">
+        <v>1</v>
+      </c>
+      <c r="K645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:11">
       <c r="A646" s="2">
         <v>1</v>
       </c>
@@ -24264,8 +24390,17 @@
       <c r="H646" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="647" spans="1:8">
+      <c r="I646" s="1">
+        <v>1</v>
+      </c>
+      <c r="J646">
+        <v>1</v>
+      </c>
+      <c r="K646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:11">
       <c r="A647" s="2">
         <v>1</v>
       </c>
@@ -24290,8 +24425,17 @@
       <c r="H647" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="648" spans="1:8">
+      <c r="I647" s="1">
+        <v>1</v>
+      </c>
+      <c r="J647">
+        <v>1</v>
+      </c>
+      <c r="K647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:11">
       <c r="A648" s="2">
         <v>1</v>
       </c>
@@ -24316,8 +24460,17 @@
       <c r="H648" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="649" spans="1:8">
+      <c r="I648" s="1">
+        <v>1</v>
+      </c>
+      <c r="J648">
+        <v>1</v>
+      </c>
+      <c r="K648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:11">
       <c r="A649" s="2">
         <v>0</v>
       </c>
@@ -24342,8 +24495,17 @@
       <c r="H649" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="650" spans="1:8">
+      <c r="I649" s="1">
+        <v>0</v>
+      </c>
+      <c r="J649">
+        <v>0</v>
+      </c>
+      <c r="K649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:11">
       <c r="A650" s="2">
         <v>1</v>
       </c>
@@ -24368,8 +24530,17 @@
       <c r="H650" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="651" spans="1:8">
+      <c r="I650" s="1">
+        <v>1</v>
+      </c>
+      <c r="J650">
+        <v>0</v>
+      </c>
+      <c r="K650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:11">
       <c r="A651" s="2">
         <v>1</v>
       </c>
@@ -24394,8 +24565,17 @@
       <c r="H651" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="652" spans="1:8">
+      <c r="I651" s="1">
+        <v>1</v>
+      </c>
+      <c r="J651">
+        <v>0</v>
+      </c>
+      <c r="K651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:11">
       <c r="A652" s="2">
         <v>1</v>
       </c>
@@ -24420,8 +24600,17 @@
       <c r="H652" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="653" spans="1:8">
+      <c r="I652" s="1">
+        <v>1</v>
+      </c>
+      <c r="J652">
+        <v>1</v>
+      </c>
+      <c r="K652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:11">
       <c r="A653" s="2">
         <v>1</v>
       </c>
@@ -24446,8 +24635,17 @@
       <c r="H653" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="654" spans="1:8">
+      <c r="I653" s="1">
+        <v>1</v>
+      </c>
+      <c r="J653">
+        <v>1</v>
+      </c>
+      <c r="K653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:11">
       <c r="A654" s="2">
         <v>1</v>
       </c>
@@ -24472,8 +24670,17 @@
       <c r="H654" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="655" spans="1:8">
+      <c r="I654" s="1">
+        <v>1</v>
+      </c>
+      <c r="J654">
+        <v>1</v>
+      </c>
+      <c r="K654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:11">
       <c r="A655" s="2">
         <v>0</v>
       </c>
@@ -24498,8 +24705,17 @@
       <c r="H655" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="656" spans="1:8">
+      <c r="I655" s="1">
+        <v>0</v>
+      </c>
+      <c r="J655">
+        <v>0</v>
+      </c>
+      <c r="K655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:11">
       <c r="A656" s="2">
         <v>1</v>
       </c>
@@ -24524,8 +24740,17 @@
       <c r="H656" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="657" spans="1:8">
+      <c r="I656" s="1">
+        <v>1</v>
+      </c>
+      <c r="J656">
+        <v>0</v>
+      </c>
+      <c r="K656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:11">
       <c r="A657" s="2">
         <v>0</v>
       </c>
@@ -24550,8 +24775,17 @@
       <c r="H657" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="658" spans="1:8">
+      <c r="I657" s="1">
+        <v>0</v>
+      </c>
+      <c r="J657">
+        <v>0</v>
+      </c>
+      <c r="K657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:11">
       <c r="A658" s="2">
         <v>1</v>
       </c>
@@ -24576,8 +24810,17 @@
       <c r="H658" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="659" spans="1:8">
+      <c r="I658" s="1">
+        <v>1</v>
+      </c>
+      <c r="J658">
+        <v>1</v>
+      </c>
+      <c r="K658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:11">
       <c r="A659" s="2">
         <v>1</v>
       </c>
@@ -24602,8 +24845,17 @@
       <c r="H659" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="660" spans="1:8">
+      <c r="I659" s="1">
+        <v>1</v>
+      </c>
+      <c r="J659">
+        <v>1</v>
+      </c>
+      <c r="K659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:11">
       <c r="A660" s="2">
         <v>1</v>
       </c>
@@ -24628,8 +24880,17 @@
       <c r="H660" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="661" spans="1:8">
+      <c r="I660" s="1">
+        <v>1</v>
+      </c>
+      <c r="J660">
+        <v>1</v>
+      </c>
+      <c r="K660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:11">
       <c r="A661" s="2">
         <v>1</v>
       </c>
@@ -24654,8 +24915,17 @@
       <c r="H661" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="662" spans="1:8">
+      <c r="I661" s="1">
+        <v>1</v>
+      </c>
+      <c r="J661">
+        <v>0</v>
+      </c>
+      <c r="K661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:11">
       <c r="A662" s="2">
         <v>1</v>
       </c>
@@ -24680,8 +24950,17 @@
       <c r="H662" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="663" spans="1:8">
+      <c r="I662" s="1">
+        <v>1</v>
+      </c>
+      <c r="J662">
+        <v>0</v>
+      </c>
+      <c r="K662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:11">
       <c r="A663" s="2">
         <v>1</v>
       </c>
@@ -24706,8 +24985,17 @@
       <c r="H663" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="664" spans="1:8">
+      <c r="I663" s="1">
+        <v>1</v>
+      </c>
+      <c r="J663">
+        <v>0</v>
+      </c>
+      <c r="K663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:11">
       <c r="A664" s="2">
         <v>0</v>
       </c>
@@ -24732,8 +25020,17 @@
       <c r="H664" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="665" spans="1:8">
+      <c r="I664" s="1">
+        <v>0</v>
+      </c>
+      <c r="J664">
+        <v>0</v>
+      </c>
+      <c r="K664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:11">
       <c r="A665" s="2">
         <v>1</v>
       </c>
@@ -24758,8 +25055,17 @@
       <c r="H665" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="666" spans="1:8">
+      <c r="I665" s="1">
+        <v>1</v>
+      </c>
+      <c r="J665">
+        <v>1</v>
+      </c>
+      <c r="K665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:11">
       <c r="A666" s="2">
         <v>1</v>
       </c>
@@ -24784,8 +25090,17 @@
       <c r="H666" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="667" spans="1:8">
+      <c r="I666" s="1">
+        <v>1</v>
+      </c>
+      <c r="J666">
+        <v>1</v>
+      </c>
+      <c r="K666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:11">
       <c r="A667" s="2">
         <v>1</v>
       </c>
@@ -24810,8 +25125,17 @@
       <c r="H667" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="668" spans="1:8">
+      <c r="I667" s="1">
+        <v>1</v>
+      </c>
+      <c r="J667">
+        <v>1</v>
+      </c>
+      <c r="K667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:11">
       <c r="A668" s="2">
         <v>0</v>
       </c>
@@ -24836,8 +25160,17 @@
       <c r="H668" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="669" spans="1:8">
+      <c r="I668" s="1">
+        <v>0</v>
+      </c>
+      <c r="J668">
+        <v>0</v>
+      </c>
+      <c r="K668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:11">
       <c r="A669" s="2">
         <v>1</v>
       </c>
@@ -24862,8 +25195,17 @@
       <c r="H669" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="670" spans="1:8">
+      <c r="I669" s="1">
+        <v>1</v>
+      </c>
+      <c r="J669">
+        <v>1</v>
+      </c>
+      <c r="K669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:11">
       <c r="A670" s="2">
         <v>1</v>
       </c>
@@ -24888,8 +25230,17 @@
       <c r="H670" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="671" spans="1:8">
+      <c r="I670" s="1">
+        <v>1</v>
+      </c>
+      <c r="J670">
+        <v>0</v>
+      </c>
+      <c r="K670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:11">
       <c r="A671" s="2">
         <v>1</v>
       </c>
@@ -24914,8 +25265,17 @@
       <c r="H671" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="672" spans="1:8">
+      <c r="I671" s="1">
+        <v>1</v>
+      </c>
+      <c r="J671">
+        <v>1</v>
+      </c>
+      <c r="K671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:11">
       <c r="A672" s="2">
         <v>1</v>
       </c>
@@ -24940,8 +25300,17 @@
       <c r="H672" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="673" spans="1:8">
+      <c r="I672" s="1">
+        <v>1</v>
+      </c>
+      <c r="J672">
+        <v>1</v>
+      </c>
+      <c r="K672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:11">
       <c r="A673" s="2">
         <v>1</v>
       </c>
@@ -24966,8 +25335,17 @@
       <c r="H673" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="674" spans="1:8">
+      <c r="I673" s="1">
+        <v>1</v>
+      </c>
+      <c r="J673">
+        <v>0</v>
+      </c>
+      <c r="K673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:11">
       <c r="A674" s="2">
         <v>1</v>
       </c>
@@ -24992,8 +25370,17 @@
       <c r="H674" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="675" spans="1:8">
+      <c r="I674" s="1">
+        <v>0</v>
+      </c>
+      <c r="J674">
+        <v>1</v>
+      </c>
+      <c r="K674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:11">
       <c r="A675" s="2">
         <v>1</v>
       </c>
@@ -25018,8 +25405,17 @@
       <c r="H675" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="676" spans="1:8">
+      <c r="I675" s="1">
+        <v>1</v>
+      </c>
+      <c r="J675">
+        <v>1</v>
+      </c>
+      <c r="K675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:11">
       <c r="A676" s="2">
         <v>1</v>
       </c>
@@ -25044,8 +25440,17 @@
       <c r="H676" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="677" spans="1:8">
+      <c r="I676" s="1">
+        <v>1</v>
+      </c>
+      <c r="J676">
+        <v>1</v>
+      </c>
+      <c r="K676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:11">
       <c r="A677" s="2">
         <v>0</v>
       </c>
@@ -25070,8 +25475,17 @@
       <c r="H677" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="678" spans="1:8">
+      <c r="I677" s="1">
+        <v>0</v>
+      </c>
+      <c r="J677">
+        <v>1</v>
+      </c>
+      <c r="K677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:11">
       <c r="A678" s="2">
         <v>0</v>
       </c>
@@ -25096,8 +25510,17 @@
       <c r="H678" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="679" spans="1:8">
+      <c r="I678" s="1">
+        <v>0</v>
+      </c>
+      <c r="J678">
+        <v>1</v>
+      </c>
+      <c r="K678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:11">
       <c r="A679" s="2">
         <v>0</v>
       </c>
@@ -25122,8 +25545,17 @@
       <c r="H679" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="680" spans="1:8">
+      <c r="I679" s="1">
+        <v>0</v>
+      </c>
+      <c r="J679">
+        <v>0</v>
+      </c>
+      <c r="K679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:11">
       <c r="A680" s="2">
         <v>0</v>
       </c>
@@ -25148,8 +25580,17 @@
       <c r="H680" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="681" spans="1:8">
+      <c r="I680" s="1">
+        <v>0</v>
+      </c>
+      <c r="J680">
+        <v>0</v>
+      </c>
+      <c r="K680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:11">
       <c r="A681" s="2">
         <v>0</v>
       </c>
@@ -25174,8 +25615,17 @@
       <c r="H681" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="682" spans="1:8">
+      <c r="I681" s="1">
+        <v>0</v>
+      </c>
+      <c r="J681">
+        <v>0</v>
+      </c>
+      <c r="K681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:11">
       <c r="A682" s="2">
         <v>1</v>
       </c>
@@ -25200,8 +25650,17 @@
       <c r="H682" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="683" spans="1:8">
+      <c r="I682" s="1">
+        <v>1</v>
+      </c>
+      <c r="J682">
+        <v>1</v>
+      </c>
+      <c r="K682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:11">
       <c r="A683" s="2">
         <v>0</v>
       </c>
@@ -25226,8 +25685,17 @@
       <c r="H683" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="684" spans="1:8">
+      <c r="I683" s="1">
+        <v>0</v>
+      </c>
+      <c r="J683">
+        <v>1</v>
+      </c>
+      <c r="K683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:11">
       <c r="A684" s="2">
         <v>0</v>
       </c>
@@ -25252,8 +25720,17 @@
       <c r="H684" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="685" spans="1:8">
+      <c r="I684" s="1">
+        <v>0</v>
+      </c>
+      <c r="J684">
+        <v>1</v>
+      </c>
+      <c r="K684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:11">
       <c r="A685" s="2">
         <v>0</v>
       </c>
@@ -25278,8 +25755,17 @@
       <c r="H685" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="686" spans="1:8">
+      <c r="I685" s="1">
+        <v>0</v>
+      </c>
+      <c r="J685">
+        <v>1</v>
+      </c>
+      <c r="K685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:11">
       <c r="A686" s="2">
         <v>0</v>
       </c>
@@ -25304,8 +25790,17 @@
       <c r="H686" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="687" spans="1:8">
+      <c r="I686" s="1">
+        <v>0</v>
+      </c>
+      <c r="J686">
+        <v>0</v>
+      </c>
+      <c r="K686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:11">
       <c r="A687" s="2">
         <v>0</v>
       </c>
@@ -25330,8 +25825,17 @@
       <c r="H687" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="688" spans="1:8">
+      <c r="I687" s="1">
+        <v>0</v>
+      </c>
+      <c r="J687">
+        <v>1</v>
+      </c>
+      <c r="K687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:11">
       <c r="A688" s="2">
         <v>0</v>
       </c>
@@ -25356,6 +25860,15 @@
       <c r="H688" t="s">
         <v>47</v>
       </c>
+      <c r="I688" s="1">
+        <v>0</v>
+      </c>
+      <c r="J688">
+        <v>0</v>
+      </c>
+      <c r="K688">
+        <v>0</v>
+      </c>
     </row>
     <row r="689" spans="1:11">
       <c r="A689" s="2">
@@ -25382,6 +25895,15 @@
       <c r="H689" t="s">
         <v>69</v>
       </c>
+      <c r="I689" s="1">
+        <v>0</v>
+      </c>
+      <c r="J689">
+        <v>1</v>
+      </c>
+      <c r="K689">
+        <v>0</v>
+      </c>
     </row>
     <row r="690" spans="1:11">
       <c r="A690" s="2">
@@ -25408,14 +25930,14 @@
       <c r="H690" t="s">
         <v>13</v>
       </c>
-      <c r="I690" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="J690" t="s">
-        <v>349</v>
-      </c>
-      <c r="K690" t="s">
-        <v>349</v>
+      <c r="I690" s="1">
+        <v>1</v>
+      </c>
+      <c r="J690">
+        <v>1</v>
+      </c>
+      <c r="K690">
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:11">
@@ -25479,7 +26001,7 @@
         <v>13</v>
       </c>
       <c r="I692" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J692">
         <v>0</v>
@@ -25548,6 +26070,15 @@
       <c r="H694" t="s">
         <v>17</v>
       </c>
+      <c r="I694" s="1">
+        <v>1</v>
+      </c>
+      <c r="J694">
+        <v>1</v>
+      </c>
+      <c r="K694">
+        <v>0</v>
+      </c>
     </row>
     <row r="695" spans="1:11">
       <c r="A695" s="2">
@@ -25574,6 +26105,15 @@
       <c r="H695" t="s">
         <v>13</v>
       </c>
+      <c r="I695" s="1">
+        <v>1</v>
+      </c>
+      <c r="J695">
+        <v>1</v>
+      </c>
+      <c r="K695">
+        <v>0</v>
+      </c>
     </row>
     <row r="696" spans="1:11">
       <c r="A696" s="2">
@@ -25600,6 +26140,15 @@
       <c r="H696" t="s">
         <v>20</v>
       </c>
+      <c r="I696" s="1">
+        <v>1</v>
+      </c>
+      <c r="J696">
+        <v>1</v>
+      </c>
+      <c r="K696">
+        <v>0</v>
+      </c>
     </row>
     <row r="697" spans="1:11">
       <c r="A697" s="2">
@@ -25626,6 +26175,15 @@
       <c r="H697" t="s">
         <v>69</v>
       </c>
+      <c r="I697" s="1">
+        <v>0</v>
+      </c>
+      <c r="J697">
+        <v>1</v>
+      </c>
+      <c r="K697">
+        <v>0</v>
+      </c>
     </row>
     <row r="698" spans="1:11">
       <c r="A698" s="2">
@@ -25652,6 +26210,15 @@
       <c r="H698" t="s">
         <v>20</v>
       </c>
+      <c r="I698" s="1">
+        <v>1</v>
+      </c>
+      <c r="J698">
+        <v>1</v>
+      </c>
+      <c r="K698">
+        <v>0</v>
+      </c>
     </row>
     <row r="699" spans="1:11">
       <c r="A699" s="2">
@@ -25678,6 +26245,15 @@
       <c r="H699" t="s">
         <v>13</v>
       </c>
+      <c r="I699" s="1">
+        <v>1</v>
+      </c>
+      <c r="J699">
+        <v>1</v>
+      </c>
+      <c r="K699">
+        <v>0</v>
+      </c>
     </row>
     <row r="700" spans="1:11">
       <c r="A700" s="2">
@@ -25704,6 +26280,15 @@
       <c r="H700" t="s">
         <v>20</v>
       </c>
+      <c r="I700" s="1">
+        <v>1</v>
+      </c>
+      <c r="J700">
+        <v>1</v>
+      </c>
+      <c r="K700">
+        <v>0</v>
+      </c>
     </row>
     <row r="701" spans="1:11">
       <c r="A701" s="2">
@@ -25730,6 +26315,15 @@
       <c r="H701" t="s">
         <v>17</v>
       </c>
+      <c r="I701" s="1">
+        <v>1</v>
+      </c>
+      <c r="J701">
+        <v>1</v>
+      </c>
+      <c r="K701">
+        <v>0</v>
+      </c>
     </row>
     <row r="702" spans="1:11">
       <c r="A702" s="2">
@@ -25756,6 +26350,15 @@
       <c r="H702" t="s">
         <v>20</v>
       </c>
+      <c r="I702" s="1">
+        <v>0</v>
+      </c>
+      <c r="J702">
+        <v>1</v>
+      </c>
+      <c r="K702">
+        <v>1</v>
+      </c>
     </row>
     <row r="703" spans="1:11">
       <c r="A703" s="2">
@@ -25782,6 +26385,15 @@
       <c r="H703" t="s">
         <v>13</v>
       </c>
+      <c r="I703" s="1">
+        <v>0</v>
+      </c>
+      <c r="J703">
+        <v>0</v>
+      </c>
+      <c r="K703">
+        <v>0</v>
+      </c>
     </row>
     <row r="704" spans="1:11">
       <c r="A704" s="2">
@@ -25808,8 +26420,17 @@
       <c r="H704" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="705" spans="1:8">
+      <c r="I704" s="1">
+        <v>0</v>
+      </c>
+      <c r="J704">
+        <v>0</v>
+      </c>
+      <c r="K704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:11">
       <c r="A705" s="2">
         <v>0</v>
       </c>
@@ -25834,8 +26455,17 @@
       <c r="H705" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="706" spans="1:8">
+      <c r="I705" s="1">
+        <v>0</v>
+      </c>
+      <c r="J705">
+        <v>0</v>
+      </c>
+      <c r="K705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:11">
       <c r="A706" s="2">
         <v>1</v>
       </c>
@@ -25861,7 +26491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:11">
       <c r="A707" s="2">
         <v>1</v>
       </c>
@@ -25887,7 +26517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:11">
       <c r="A708" s="2">
         <v>1</v>
       </c>
@@ -25913,7 +26543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:11">
       <c r="A709" s="2">
         <v>1</v>
       </c>
@@ -25939,7 +26569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:11">
       <c r="A710" s="2">
         <v>0</v>
       </c>
@@ -25965,7 +26595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:11">
       <c r="A711" s="2">
         <v>1</v>
       </c>
@@ -25991,7 +26621,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:11">
       <c r="A712" s="2">
         <v>0</v>
       </c>
@@ -26017,7 +26647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:11">
       <c r="A713" s="2">
         <v>1</v>
       </c>
@@ -26043,7 +26673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="714" spans="1:8">
+    <row r="714" spans="1:11">
       <c r="A714" s="2">
         <v>1</v>
       </c>
@@ -26069,7 +26699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="715" spans="1:8">
+    <row r="715" spans="1:11">
       <c r="A715" s="2">
         <v>1</v>
       </c>
@@ -26095,7 +26725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="716" spans="1:8">
+    <row r="716" spans="1:11">
       <c r="A716" s="2">
         <v>0</v>
       </c>
@@ -26121,7 +26751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:11">
       <c r="A717" s="2">
         <v>1</v>
       </c>
@@ -26147,7 +26777,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="718" spans="1:8">
+    <row r="718" spans="1:11">
       <c r="A718" s="2">
         <v>0</v>
       </c>
@@ -26173,7 +26803,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:11">
       <c r="A719" s="2">
         <v>1</v>
       </c>
@@ -26199,7 +26829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:11">
       <c r="A720" s="2">
         <v>1</v>
       </c>
@@ -26318,7 +26948,7 @@
         <v>1</v>
       </c>
       <c r="K723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:11">
@@ -27602,7 +28232,7 @@
         <v>1</v>
       </c>
       <c r="K771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:11">
@@ -30205,7 +30835,7 @@
         <v>1</v>
       </c>
       <c r="K868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:11">

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-4480" yWindow="0" windowWidth="16620" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="580" yWindow="20" windowWidth="16160" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2445,10 +2445,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F694" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F722" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I707" sqref="I707"/>
+      <selection pane="bottomRight" activeCell="I726" sqref="I726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -26490,6 +26490,15 @@
       <c r="H706" t="s">
         <v>20</v>
       </c>
+      <c r="I706" s="1">
+        <v>1</v>
+      </c>
+      <c r="J706">
+        <v>0</v>
+      </c>
+      <c r="K706">
+        <v>1</v>
+      </c>
     </row>
     <row r="707" spans="1:11">
       <c r="A707" s="2">
@@ -26516,6 +26525,15 @@
       <c r="H707" t="s">
         <v>20</v>
       </c>
+      <c r="I707" s="1">
+        <v>1</v>
+      </c>
+      <c r="J707">
+        <v>1</v>
+      </c>
+      <c r="K707">
+        <v>0</v>
+      </c>
     </row>
     <row r="708" spans="1:11">
       <c r="A708" s="2">
@@ -26542,6 +26560,15 @@
       <c r="H708" t="s">
         <v>20</v>
       </c>
+      <c r="I708" s="1">
+        <v>1</v>
+      </c>
+      <c r="J708">
+        <v>1</v>
+      </c>
+      <c r="K708">
+        <v>0</v>
+      </c>
     </row>
     <row r="709" spans="1:11">
       <c r="A709" s="2">
@@ -26568,6 +26595,15 @@
       <c r="H709" t="s">
         <v>20</v>
       </c>
+      <c r="I709" s="1">
+        <v>0</v>
+      </c>
+      <c r="J709">
+        <v>0</v>
+      </c>
+      <c r="K709">
+        <v>1</v>
+      </c>
     </row>
     <row r="710" spans="1:11">
       <c r="A710" s="2">
@@ -26594,6 +26630,15 @@
       <c r="H710" t="s">
         <v>13</v>
       </c>
+      <c r="I710" s="1">
+        <v>0</v>
+      </c>
+      <c r="J710">
+        <v>0</v>
+      </c>
+      <c r="K710">
+        <v>0</v>
+      </c>
     </row>
     <row r="711" spans="1:11">
       <c r="A711" s="2">
@@ -26620,6 +26665,15 @@
       <c r="H711" t="s">
         <v>74</v>
       </c>
+      <c r="I711" s="1">
+        <v>1</v>
+      </c>
+      <c r="J711">
+        <v>1</v>
+      </c>
+      <c r="K711">
+        <v>1</v>
+      </c>
     </row>
     <row r="712" spans="1:11">
       <c r="A712" s="2">
@@ -26646,6 +26700,15 @@
       <c r="H712" t="s">
         <v>13</v>
       </c>
+      <c r="I712" s="1">
+        <v>0</v>
+      </c>
+      <c r="J712">
+        <v>0</v>
+      </c>
+      <c r="K712">
+        <v>0</v>
+      </c>
     </row>
     <row r="713" spans="1:11">
       <c r="A713" s="2">
@@ -26672,6 +26735,15 @@
       <c r="H713" t="s">
         <v>20</v>
       </c>
+      <c r="I713" s="1">
+        <v>0</v>
+      </c>
+      <c r="J713">
+        <v>0</v>
+      </c>
+      <c r="K713">
+        <v>0</v>
+      </c>
     </row>
     <row r="714" spans="1:11">
       <c r="A714" s="2">
@@ -26698,6 +26770,15 @@
       <c r="H714" t="s">
         <v>20</v>
       </c>
+      <c r="I714" s="1">
+        <v>0</v>
+      </c>
+      <c r="J714">
+        <v>1</v>
+      </c>
+      <c r="K714">
+        <v>1</v>
+      </c>
     </row>
     <row r="715" spans="1:11">
       <c r="A715" s="2">
@@ -26724,6 +26805,15 @@
       <c r="H715" t="s">
         <v>20</v>
       </c>
+      <c r="I715" s="1">
+        <v>1</v>
+      </c>
+      <c r="J715">
+        <v>1</v>
+      </c>
+      <c r="K715">
+        <v>0</v>
+      </c>
     </row>
     <row r="716" spans="1:11">
       <c r="A716" s="2">
@@ -26750,6 +26840,15 @@
       <c r="H716" t="s">
         <v>13</v>
       </c>
+      <c r="I716" s="1">
+        <v>0</v>
+      </c>
+      <c r="J716">
+        <v>0</v>
+      </c>
+      <c r="K716">
+        <v>0</v>
+      </c>
     </row>
     <row r="717" spans="1:11">
       <c r="A717" s="2">
@@ -26776,6 +26875,15 @@
       <c r="H717" t="s">
         <v>74</v>
       </c>
+      <c r="I717" s="1">
+        <v>1</v>
+      </c>
+      <c r="J717">
+        <v>1</v>
+      </c>
+      <c r="K717">
+        <v>0</v>
+      </c>
     </row>
     <row r="718" spans="1:11">
       <c r="A718" s="2">
@@ -26802,6 +26910,15 @@
       <c r="H718" t="s">
         <v>223</v>
       </c>
+      <c r="I718" s="1">
+        <v>0</v>
+      </c>
+      <c r="J718">
+        <v>1</v>
+      </c>
+      <c r="K718">
+        <v>0</v>
+      </c>
     </row>
     <row r="719" spans="1:11">
       <c r="A719" s="2">
@@ -26828,6 +26945,15 @@
       <c r="H719" t="s">
         <v>13</v>
       </c>
+      <c r="I719" s="1">
+        <v>1</v>
+      </c>
+      <c r="J719">
+        <v>1</v>
+      </c>
+      <c r="K719">
+        <v>0</v>
+      </c>
     </row>
     <row r="720" spans="1:11">
       <c r="A720" s="2">
@@ -26854,6 +26980,15 @@
       <c r="H720" t="s">
         <v>20</v>
       </c>
+      <c r="I720" s="1">
+        <v>1</v>
+      </c>
+      <c r="J720">
+        <v>1</v>
+      </c>
+      <c r="K720">
+        <v>0</v>
+      </c>
     </row>
     <row r="721" spans="1:11">
       <c r="A721" s="2">
@@ -26880,6 +27015,15 @@
       <c r="H721" t="s">
         <v>20</v>
       </c>
+      <c r="I721" s="1">
+        <v>0</v>
+      </c>
+      <c r="J721">
+        <v>0</v>
+      </c>
+      <c r="K721">
+        <v>0</v>
+      </c>
     </row>
     <row r="722" spans="1:11">
       <c r="A722" s="2">
@@ -27045,6 +27189,15 @@
       </c>
       <c r="H726" t="s">
         <v>227</v>
+      </c>
+      <c r="I726" s="1">
+        <v>1</v>
+      </c>
+      <c r="J726">
+        <v>1</v>
+      </c>
+      <c r="K726">
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:11">

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="20" windowWidth="16160" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="-4680" yWindow="0" windowWidth="16160" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6807" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6813" uniqueCount="643">
   <si>
     <t>Agent.Embod</t>
   </si>
@@ -2445,10 +2445,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F722" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G826" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I726" sqref="I726"/>
+      <selection pane="bottomRight" activeCell="J847" sqref="J847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27225,6 +27225,15 @@
       <c r="H727" t="s">
         <v>13</v>
       </c>
+      <c r="I727" s="1">
+        <v>0</v>
+      </c>
+      <c r="J727">
+        <v>0</v>
+      </c>
+      <c r="K727">
+        <v>0</v>
+      </c>
     </row>
     <row r="728" spans="1:11">
       <c r="A728" s="2">
@@ -27251,6 +27260,15 @@
       <c r="H728" t="s">
         <v>20</v>
       </c>
+      <c r="I728" s="1">
+        <v>1</v>
+      </c>
+      <c r="J728">
+        <v>1</v>
+      </c>
+      <c r="K728">
+        <v>0</v>
+      </c>
     </row>
     <row r="729" spans="1:11">
       <c r="A729" s="2">
@@ -27277,6 +27295,15 @@
       <c r="H729" t="s">
         <v>17</v>
       </c>
+      <c r="I729" s="1">
+        <v>1</v>
+      </c>
+      <c r="J729">
+        <v>1</v>
+      </c>
+      <c r="K729">
+        <v>1</v>
+      </c>
     </row>
     <row r="730" spans="1:11">
       <c r="A730" s="2">
@@ -27303,6 +27330,15 @@
       <c r="H730" t="s">
         <v>261</v>
       </c>
+      <c r="I730" s="1">
+        <v>1</v>
+      </c>
+      <c r="J730">
+        <v>1</v>
+      </c>
+      <c r="K730">
+        <v>0</v>
+      </c>
     </row>
     <row r="731" spans="1:11">
       <c r="A731" s="2">
@@ -27329,6 +27365,15 @@
       <c r="H731" t="s">
         <v>13</v>
       </c>
+      <c r="I731" s="1">
+        <v>0</v>
+      </c>
+      <c r="J731">
+        <v>0</v>
+      </c>
+      <c r="K731">
+        <v>0</v>
+      </c>
     </row>
     <row r="732" spans="1:11">
       <c r="A732" s="2">
@@ -27355,6 +27400,15 @@
       <c r="H732" t="s">
         <v>227</v>
       </c>
+      <c r="I732" s="1">
+        <v>1</v>
+      </c>
+      <c r="J732">
+        <v>1</v>
+      </c>
+      <c r="K732">
+        <v>1</v>
+      </c>
     </row>
     <row r="733" spans="1:11">
       <c r="A733" s="2">
@@ -27381,6 +27435,15 @@
       <c r="H733" t="s">
         <v>13</v>
       </c>
+      <c r="I733" s="1">
+        <v>1</v>
+      </c>
+      <c r="J733">
+        <v>0</v>
+      </c>
+      <c r="K733">
+        <v>0</v>
+      </c>
     </row>
     <row r="734" spans="1:11">
       <c r="A734" s="2">
@@ -27407,6 +27470,15 @@
       <c r="H734" t="s">
         <v>20</v>
       </c>
+      <c r="I734" s="1">
+        <v>1</v>
+      </c>
+      <c r="J734">
+        <v>0</v>
+      </c>
+      <c r="K734">
+        <v>1</v>
+      </c>
     </row>
     <row r="735" spans="1:11">
       <c r="A735" s="2">
@@ -27433,6 +27505,15 @@
       <c r="H735" t="s">
         <v>17</v>
       </c>
+      <c r="I735" s="1">
+        <v>1</v>
+      </c>
+      <c r="J735">
+        <v>1</v>
+      </c>
+      <c r="K735">
+        <v>0</v>
+      </c>
     </row>
     <row r="736" spans="1:11">
       <c r="A736" s="2">
@@ -27459,8 +27540,17 @@
       <c r="H736" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="737" spans="1:8">
+      <c r="I736" s="1">
+        <v>1</v>
+      </c>
+      <c r="J736">
+        <v>1</v>
+      </c>
+      <c r="K736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:11">
       <c r="A737" s="2">
         <v>1</v>
       </c>
@@ -27485,8 +27575,17 @@
       <c r="H737" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="738" spans="1:8">
+      <c r="I737" s="1">
+        <v>1</v>
+      </c>
+      <c r="J737">
+        <v>1</v>
+      </c>
+      <c r="K737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:11">
       <c r="A738" s="2">
         <v>0</v>
       </c>
@@ -27511,8 +27610,17 @@
       <c r="H738" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="739" spans="1:8">
+      <c r="I738" s="1">
+        <v>0</v>
+      </c>
+      <c r="J738">
+        <v>0</v>
+      </c>
+      <c r="K738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:11">
       <c r="A739" s="2">
         <v>1</v>
       </c>
@@ -27537,8 +27645,17 @@
       <c r="H739" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="740" spans="1:8">
+      <c r="I739" s="1">
+        <v>1</v>
+      </c>
+      <c r="J739">
+        <v>0</v>
+      </c>
+      <c r="K739">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:11">
       <c r="A740" s="2">
         <v>0</v>
       </c>
@@ -27563,8 +27680,17 @@
       <c r="H740" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="741" spans="1:8">
+      <c r="I740" s="1">
+        <v>0</v>
+      </c>
+      <c r="J740">
+        <v>0</v>
+      </c>
+      <c r="K740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:11">
       <c r="A741" s="2">
         <v>1</v>
       </c>
@@ -27589,8 +27715,17 @@
       <c r="H741" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="742" spans="1:8">
+      <c r="I741" s="1">
+        <v>1</v>
+      </c>
+      <c r="J741">
+        <v>1</v>
+      </c>
+      <c r="K741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:11">
       <c r="A742" s="2">
         <v>1</v>
       </c>
@@ -27615,8 +27750,17 @@
       <c r="H742" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="743" spans="1:8">
+      <c r="I742" s="1">
+        <v>1</v>
+      </c>
+      <c r="J742">
+        <v>1</v>
+      </c>
+      <c r="K742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:11">
       <c r="A743" s="2">
         <v>1</v>
       </c>
@@ -27641,8 +27785,17 @@
       <c r="H743" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="744" spans="1:8">
+      <c r="I743" s="1">
+        <v>1</v>
+      </c>
+      <c r="J743">
+        <v>1</v>
+      </c>
+      <c r="K743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:11">
       <c r="A744" s="2">
         <v>1</v>
       </c>
@@ -27667,8 +27820,17 @@
       <c r="H744" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="745" spans="1:8">
+      <c r="I744" s="1">
+        <v>1</v>
+      </c>
+      <c r="J744">
+        <v>0</v>
+      </c>
+      <c r="K744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:11">
       <c r="A745" s="2">
         <v>1</v>
       </c>
@@ -27693,8 +27855,17 @@
       <c r="H745" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="746" spans="1:8">
+      <c r="I745" s="1">
+        <v>1</v>
+      </c>
+      <c r="J745">
+        <v>1</v>
+      </c>
+      <c r="K745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:11">
       <c r="A746" s="2">
         <v>0</v>
       </c>
@@ -27719,8 +27890,17 @@
       <c r="H746" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="747" spans="1:8">
+      <c r="I746" s="1">
+        <v>0</v>
+      </c>
+      <c r="J746">
+        <v>0</v>
+      </c>
+      <c r="K746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:11">
       <c r="A747" s="2">
         <v>0</v>
       </c>
@@ -27745,8 +27925,17 @@
       <c r="H747" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="748" spans="1:8">
+      <c r="I747" s="1">
+        <v>1</v>
+      </c>
+      <c r="J747">
+        <v>1</v>
+      </c>
+      <c r="K747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:11">
       <c r="A748" s="2">
         <v>1</v>
       </c>
@@ -27771,8 +27960,17 @@
       <c r="H748" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="749" spans="1:8">
+      <c r="I748" s="1">
+        <v>1</v>
+      </c>
+      <c r="J748">
+        <v>0</v>
+      </c>
+      <c r="K748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:11">
       <c r="A749" s="2">
         <v>1</v>
       </c>
@@ -27797,8 +27995,17 @@
       <c r="H749" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="750" spans="1:8">
+      <c r="I749" s="1">
+        <v>1</v>
+      </c>
+      <c r="J749">
+        <v>1</v>
+      </c>
+      <c r="K749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:11">
       <c r="A750" s="2">
         <v>1</v>
       </c>
@@ -27823,8 +28030,17 @@
       <c r="H750" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="751" spans="1:8">
+      <c r="I750" s="1">
+        <v>1</v>
+      </c>
+      <c r="J750">
+        <v>1</v>
+      </c>
+      <c r="K750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:11">
       <c r="A751" s="2">
         <v>0</v>
       </c>
@@ -27849,8 +28065,17 @@
       <c r="H751" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="752" spans="1:8">
+      <c r="I751" s="1">
+        <v>0</v>
+      </c>
+      <c r="J751">
+        <v>0</v>
+      </c>
+      <c r="K751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:11">
       <c r="A752" s="2">
         <v>1</v>
       </c>
@@ -27875,8 +28100,17 @@
       <c r="H752" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="753" spans="1:8">
+      <c r="I752" s="1">
+        <v>1</v>
+      </c>
+      <c r="J752">
+        <v>1</v>
+      </c>
+      <c r="K752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:11">
       <c r="A753" s="2">
         <v>1</v>
       </c>
@@ -27901,8 +28135,17 @@
       <c r="H753" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="754" spans="1:8">
+      <c r="I753" s="1">
+        <v>1</v>
+      </c>
+      <c r="J753">
+        <v>1</v>
+      </c>
+      <c r="K753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:11">
       <c r="A754" s="2">
         <v>1</v>
       </c>
@@ -27927,8 +28170,17 @@
       <c r="H754" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="755" spans="1:8">
+      <c r="I754" s="1">
+        <v>1</v>
+      </c>
+      <c r="J754">
+        <v>1</v>
+      </c>
+      <c r="K754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:11">
       <c r="A755" s="2">
         <v>0</v>
       </c>
@@ -27953,8 +28205,17 @@
       <c r="H755" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="756" spans="1:8">
+      <c r="I755" s="1">
+        <v>0</v>
+      </c>
+      <c r="J755">
+        <v>0</v>
+      </c>
+      <c r="K755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:11">
       <c r="A756" s="2">
         <v>1</v>
       </c>
@@ -27979,8 +28240,17 @@
       <c r="H756" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="757" spans="1:8">
+      <c r="I756" s="1">
+        <v>1</v>
+      </c>
+      <c r="J756">
+        <v>1</v>
+      </c>
+      <c r="K756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:11">
       <c r="A757" s="2">
         <v>1</v>
       </c>
@@ -28005,8 +28275,17 @@
       <c r="H757" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="758" spans="1:8">
+      <c r="I757" s="1">
+        <v>1</v>
+      </c>
+      <c r="J757">
+        <v>0</v>
+      </c>
+      <c r="K757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:11">
       <c r="A758" s="2">
         <v>1</v>
       </c>
@@ -28031,8 +28310,17 @@
       <c r="H758" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="759" spans="1:8">
+      <c r="I758" s="1">
+        <v>1</v>
+      </c>
+      <c r="J758">
+        <v>0</v>
+      </c>
+      <c r="K758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:11">
       <c r="A759" s="2">
         <v>1</v>
       </c>
@@ -28057,8 +28345,17 @@
       <c r="H759" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="760" spans="1:8">
+      <c r="I759" s="1">
+        <v>1</v>
+      </c>
+      <c r="J759">
+        <v>1</v>
+      </c>
+      <c r="K759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:11">
       <c r="A760" s="2">
         <v>1</v>
       </c>
@@ -28083,8 +28380,17 @@
       <c r="H760" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="761" spans="1:8">
+      <c r="I760" s="1">
+        <v>1</v>
+      </c>
+      <c r="J760">
+        <v>1</v>
+      </c>
+      <c r="K760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:11">
       <c r="A761" s="2">
         <v>1</v>
       </c>
@@ -28109,8 +28415,17 @@
       <c r="H761" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="762" spans="1:8">
+      <c r="I761" s="1">
+        <v>1</v>
+      </c>
+      <c r="J761">
+        <v>1</v>
+      </c>
+      <c r="K761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:11">
       <c r="A762" s="2">
         <v>0</v>
       </c>
@@ -28135,8 +28450,17 @@
       <c r="H762" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="763" spans="1:8">
+      <c r="I762" s="1">
+        <v>0</v>
+      </c>
+      <c r="J762">
+        <v>0</v>
+      </c>
+      <c r="K762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:11">
       <c r="A763" s="2">
         <v>1</v>
       </c>
@@ -28161,8 +28485,17 @@
       <c r="H763" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="764" spans="1:8">
+      <c r="I763" s="1">
+        <v>1</v>
+      </c>
+      <c r="J763">
+        <v>0</v>
+      </c>
+      <c r="K763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:11">
       <c r="A764" s="2">
         <v>0</v>
       </c>
@@ -28187,8 +28520,17 @@
       <c r="H764" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="765" spans="1:8">
+      <c r="I764" s="1">
+        <v>0</v>
+      </c>
+      <c r="J764">
+        <v>0</v>
+      </c>
+      <c r="K764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:11">
       <c r="A765" s="2">
         <v>1</v>
       </c>
@@ -28213,8 +28555,17 @@
       <c r="H765" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="766" spans="1:8">
+      <c r="I765" s="1">
+        <v>1</v>
+      </c>
+      <c r="J765">
+        <v>1</v>
+      </c>
+      <c r="K765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:11">
       <c r="A766" s="2">
         <v>1</v>
       </c>
@@ -28239,8 +28590,17 @@
       <c r="H766" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="767" spans="1:8">
+      <c r="I766" s="1">
+        <v>1</v>
+      </c>
+      <c r="J766">
+        <v>1</v>
+      </c>
+      <c r="K766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:11">
       <c r="A767" s="2">
         <v>1</v>
       </c>
@@ -28265,8 +28625,17 @@
       <c r="H767" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="768" spans="1:8">
+      <c r="I767" s="1">
+        <v>1</v>
+      </c>
+      <c r="J767">
+        <v>1</v>
+      </c>
+      <c r="K767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:11">
       <c r="A768" s="2">
         <v>1</v>
       </c>
@@ -28291,6 +28660,15 @@
       <c r="H768" t="s">
         <v>13</v>
       </c>
+      <c r="I768" s="1">
+        <v>1</v>
+      </c>
+      <c r="J768">
+        <v>0</v>
+      </c>
+      <c r="K768">
+        <v>0</v>
+      </c>
     </row>
     <row r="769" spans="1:11">
       <c r="A769" s="2">
@@ -28317,6 +28695,15 @@
       <c r="H769" t="s">
         <v>17</v>
       </c>
+      <c r="I769" s="1">
+        <v>1</v>
+      </c>
+      <c r="J769">
+        <v>1</v>
+      </c>
+      <c r="K769">
+        <v>1</v>
+      </c>
     </row>
     <row r="770" spans="1:11">
       <c r="A770" s="2">
@@ -28483,6 +28870,15 @@
       <c r="H774" t="s">
         <v>17</v>
       </c>
+      <c r="I774" s="1">
+        <v>1</v>
+      </c>
+      <c r="J774">
+        <v>1</v>
+      </c>
+      <c r="K774">
+        <v>0</v>
+      </c>
     </row>
     <row r="775" spans="1:11">
       <c r="A775" s="2">
@@ -28509,6 +28905,15 @@
       <c r="H775" t="s">
         <v>13</v>
       </c>
+      <c r="I775" s="1">
+        <v>0</v>
+      </c>
+      <c r="J775">
+        <v>0</v>
+      </c>
+      <c r="K775">
+        <v>0</v>
+      </c>
     </row>
     <row r="776" spans="1:11">
       <c r="A776" s="2">
@@ -28535,6 +28940,15 @@
       <c r="H776" t="s">
         <v>20</v>
       </c>
+      <c r="I776" s="1">
+        <v>1</v>
+      </c>
+      <c r="J776">
+        <v>1</v>
+      </c>
+      <c r="K776">
+        <v>0</v>
+      </c>
     </row>
     <row r="777" spans="1:11">
       <c r="A777" s="2">
@@ -28561,6 +28975,15 @@
       <c r="H777" t="s">
         <v>17</v>
       </c>
+      <c r="I777" s="1">
+        <v>1</v>
+      </c>
+      <c r="J777">
+        <v>1</v>
+      </c>
+      <c r="K777">
+        <v>1</v>
+      </c>
     </row>
     <row r="778" spans="1:11">
       <c r="A778" s="2">
@@ -28587,6 +29010,15 @@
       <c r="H778" t="s">
         <v>17</v>
       </c>
+      <c r="I778" s="1">
+        <v>1</v>
+      </c>
+      <c r="J778">
+        <v>1</v>
+      </c>
+      <c r="K778">
+        <v>0</v>
+      </c>
     </row>
     <row r="779" spans="1:11">
       <c r="A779" s="2">
@@ -28613,6 +29045,15 @@
       <c r="H779" t="s">
         <v>13</v>
       </c>
+      <c r="I779" s="1">
+        <v>0</v>
+      </c>
+      <c r="J779">
+        <v>0</v>
+      </c>
+      <c r="K779">
+        <v>0</v>
+      </c>
     </row>
     <row r="780" spans="1:11">
       <c r="A780" s="2">
@@ -28639,6 +29080,15 @@
       <c r="H780" t="s">
         <v>17</v>
       </c>
+      <c r="I780" s="1">
+        <v>1</v>
+      </c>
+      <c r="J780">
+        <v>1</v>
+      </c>
+      <c r="K780">
+        <v>1</v>
+      </c>
     </row>
     <row r="781" spans="1:11">
       <c r="A781" s="2">
@@ -28665,6 +29115,15 @@
       <c r="H781" t="s">
         <v>13</v>
       </c>
+      <c r="I781" s="1">
+        <v>1</v>
+      </c>
+      <c r="J781">
+        <v>0</v>
+      </c>
+      <c r="K781">
+        <v>0</v>
+      </c>
     </row>
     <row r="782" spans="1:11">
       <c r="A782" s="2">
@@ -28691,6 +29150,15 @@
       <c r="H782" t="s">
         <v>17</v>
       </c>
+      <c r="I782" s="1">
+        <v>1</v>
+      </c>
+      <c r="J782">
+        <v>1</v>
+      </c>
+      <c r="K782">
+        <v>1</v>
+      </c>
     </row>
     <row r="783" spans="1:11">
       <c r="A783" s="2">
@@ -28717,6 +29185,15 @@
       <c r="H783" t="s">
         <v>17</v>
       </c>
+      <c r="I783" s="1">
+        <v>1</v>
+      </c>
+      <c r="J783">
+        <v>1</v>
+      </c>
+      <c r="K783">
+        <v>0</v>
+      </c>
     </row>
     <row r="784" spans="1:11">
       <c r="A784" s="2">
@@ -28743,8 +29220,17 @@
       <c r="H784" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="785" spans="1:8">
+      <c r="I784" s="1">
+        <v>1</v>
+      </c>
+      <c r="J784">
+        <v>1</v>
+      </c>
+      <c r="K784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:11">
       <c r="A785" s="2">
         <v>1</v>
       </c>
@@ -28769,8 +29255,17 @@
       <c r="H785" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="786" spans="1:8">
+      <c r="I785" s="1">
+        <v>1</v>
+      </c>
+      <c r="J785">
+        <v>1</v>
+      </c>
+      <c r="K785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:11">
       <c r="A786" s="2">
         <v>0</v>
       </c>
@@ -28795,8 +29290,17 @@
       <c r="H786" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="787" spans="1:8">
+      <c r="I786" s="1">
+        <v>0</v>
+      </c>
+      <c r="J786">
+        <v>0</v>
+      </c>
+      <c r="K786">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:11">
       <c r="A787" s="2">
         <v>1</v>
       </c>
@@ -28821,8 +29325,17 @@
       <c r="H787" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="788" spans="1:8">
+      <c r="I787" s="1">
+        <v>1</v>
+      </c>
+      <c r="J787">
+        <v>0</v>
+      </c>
+      <c r="K787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:11">
       <c r="A788" s="2">
         <v>0</v>
       </c>
@@ -28847,8 +29360,17 @@
       <c r="H788" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="789" spans="1:8">
+      <c r="I788" s="1">
+        <v>0</v>
+      </c>
+      <c r="J788">
+        <v>0</v>
+      </c>
+      <c r="K788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:11">
       <c r="A789" s="2">
         <v>1</v>
       </c>
@@ -28873,8 +29395,17 @@
       <c r="H789" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="790" spans="1:8">
+      <c r="I789" s="1">
+        <v>1</v>
+      </c>
+      <c r="J789">
+        <v>1</v>
+      </c>
+      <c r="K789">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:11">
       <c r="A790" s="2">
         <v>1</v>
       </c>
@@ -28899,8 +29430,17 @@
       <c r="H790" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="791" spans="1:8">
+      <c r="I790" s="1">
+        <v>1</v>
+      </c>
+      <c r="J790">
+        <v>1</v>
+      </c>
+      <c r="K790">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:11">
       <c r="A791" s="2">
         <v>1</v>
       </c>
@@ -28925,8 +29465,17 @@
       <c r="H791" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="792" spans="1:8">
+      <c r="I791" s="1">
+        <v>1</v>
+      </c>
+      <c r="J791">
+        <v>1</v>
+      </c>
+      <c r="K791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:11">
       <c r="A792" s="2">
         <v>1</v>
       </c>
@@ -28951,8 +29500,17 @@
       <c r="H792" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="793" spans="1:8">
+      <c r="I792" s="1">
+        <v>1</v>
+      </c>
+      <c r="J792">
+        <v>0</v>
+      </c>
+      <c r="K792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:11">
       <c r="A793" s="2">
         <v>1</v>
       </c>
@@ -28977,8 +29535,17 @@
       <c r="H793" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="794" spans="1:8">
+      <c r="I793" s="1">
+        <v>1</v>
+      </c>
+      <c r="J793">
+        <v>1</v>
+      </c>
+      <c r="K793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:11">
       <c r="A794" s="2">
         <v>1</v>
       </c>
@@ -29003,8 +29570,17 @@
       <c r="H794" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="795" spans="1:8">
+      <c r="I794" s="1">
+        <v>1</v>
+      </c>
+      <c r="J794">
+        <v>0</v>
+      </c>
+      <c r="K794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:11">
       <c r="A795" s="2">
         <v>1</v>
       </c>
@@ -29029,8 +29605,17 @@
       <c r="H795" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="796" spans="1:8">
+      <c r="I795" s="1">
+        <v>1</v>
+      </c>
+      <c r="J795" t="s">
+        <v>349</v>
+      </c>
+      <c r="K795">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:11">
       <c r="A796" s="2">
         <v>1</v>
       </c>
@@ -29055,8 +29640,17 @@
       <c r="H796" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="797" spans="1:8">
+      <c r="I796" s="1">
+        <v>1</v>
+      </c>
+      <c r="J796">
+        <v>0</v>
+      </c>
+      <c r="K796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:11">
       <c r="A797" s="2">
         <v>1</v>
       </c>
@@ -29081,8 +29675,17 @@
       <c r="H797" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="798" spans="1:8">
+      <c r="I797" s="1">
+        <v>1</v>
+      </c>
+      <c r="J797" t="s">
+        <v>349</v>
+      </c>
+      <c r="K797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:11">
       <c r="A798" s="2">
         <v>1</v>
       </c>
@@ -29107,8 +29710,17 @@
       <c r="H798" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="799" spans="1:8">
+      <c r="I798" s="1">
+        <v>1</v>
+      </c>
+      <c r="J798" t="s">
+        <v>349</v>
+      </c>
+      <c r="K798">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:11">
       <c r="A799" s="2">
         <v>0</v>
       </c>
@@ -29133,8 +29745,17 @@
       <c r="H799" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="800" spans="1:8">
+      <c r="I799" s="1">
+        <v>0</v>
+      </c>
+      <c r="J799">
+        <v>0</v>
+      </c>
+      <c r="K799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:11">
       <c r="A800" s="2">
         <v>1</v>
       </c>
@@ -29159,8 +29780,17 @@
       <c r="H800" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="801" spans="1:8">
+      <c r="I800" s="1">
+        <v>1</v>
+      </c>
+      <c r="J800" t="s">
+        <v>349</v>
+      </c>
+      <c r="K800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:11">
       <c r="A801" s="2">
         <v>1</v>
       </c>
@@ -29185,8 +29815,17 @@
       <c r="H801" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="802" spans="1:8">
+      <c r="I801" s="1">
+        <v>1</v>
+      </c>
+      <c r="J801">
+        <v>1</v>
+      </c>
+      <c r="K801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:11">
       <c r="A802" s="2">
         <v>1</v>
       </c>
@@ -29211,8 +29850,17 @@
       <c r="H802" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="803" spans="1:8">
+      <c r="I802" s="1">
+        <v>1</v>
+      </c>
+      <c r="J802">
+        <v>1</v>
+      </c>
+      <c r="K802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:11">
       <c r="A803" s="2">
         <v>0</v>
       </c>
@@ -29237,8 +29885,17 @@
       <c r="H803" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="804" spans="1:8">
+      <c r="I803" s="1">
+        <v>0</v>
+      </c>
+      <c r="J803">
+        <v>0</v>
+      </c>
+      <c r="K803">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:11">
       <c r="A804" s="2">
         <v>1</v>
       </c>
@@ -29263,8 +29920,17 @@
       <c r="H804" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="805" spans="1:8">
+      <c r="I804" s="1">
+        <v>1</v>
+      </c>
+      <c r="J804" t="s">
+        <v>349</v>
+      </c>
+      <c r="K804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:11">
       <c r="A805" s="2">
         <v>1</v>
       </c>
@@ -29289,8 +29955,17 @@
       <c r="H805" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="806" spans="1:8">
+      <c r="I805" s="1">
+        <v>1</v>
+      </c>
+      <c r="J805">
+        <v>0</v>
+      </c>
+      <c r="K805">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:11">
       <c r="A806" s="2">
         <v>1</v>
       </c>
@@ -29315,8 +29990,17 @@
       <c r="H806" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="807" spans="1:8">
+      <c r="I806" s="1">
+        <v>1</v>
+      </c>
+      <c r="J806">
+        <v>0</v>
+      </c>
+      <c r="K806">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:11">
       <c r="A807" s="2">
         <v>1</v>
       </c>
@@ -29341,8 +30025,17 @@
       <c r="H807" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="808" spans="1:8">
+      <c r="I807" s="1">
+        <v>1</v>
+      </c>
+      <c r="J807">
+        <v>0</v>
+      </c>
+      <c r="K807">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="1:11">
       <c r="A808" s="2">
         <v>1</v>
       </c>
@@ -29367,8 +30060,17 @@
       <c r="H808" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="809" spans="1:8">
+      <c r="I808" s="1">
+        <v>1</v>
+      </c>
+      <c r="J808" t="s">
+        <v>349</v>
+      </c>
+      <c r="K808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:11">
       <c r="A809" s="2">
         <v>1</v>
       </c>
@@ -29394,7 +30096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="810" spans="1:8">
+    <row r="810" spans="1:11">
       <c r="A810" s="2">
         <v>0</v>
       </c>
@@ -29420,7 +30122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="811" spans="1:8">
+    <row r="811" spans="1:11">
       <c r="A811" s="2">
         <v>1</v>
       </c>
@@ -29446,7 +30148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="812" spans="1:8">
+    <row r="812" spans="1:11">
       <c r="A812" s="2">
         <v>0</v>
       </c>
@@ -29472,7 +30174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="813" spans="1:8">
+    <row r="813" spans="1:11">
       <c r="A813" s="2">
         <v>1</v>
       </c>
@@ -29498,7 +30200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="814" spans="1:8">
+    <row r="814" spans="1:11">
       <c r="A814" s="2">
         <v>1</v>
       </c>
@@ -29524,7 +30226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="815" spans="1:8">
+    <row r="815" spans="1:11">
       <c r="A815" s="2">
         <v>1</v>
       </c>
@@ -29550,7 +30252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="816" spans="1:8">
+    <row r="816" spans="1:11">
       <c r="A816" s="2">
         <v>1</v>
       </c>
@@ -29767,6 +30469,15 @@
       <c r="H822" t="s">
         <v>183</v>
       </c>
+      <c r="I822" s="1">
+        <v>0</v>
+      </c>
+      <c r="J822">
+        <v>1</v>
+      </c>
+      <c r="K822">
+        <v>0</v>
+      </c>
     </row>
     <row r="823" spans="1:11">
       <c r="A823" s="2">
@@ -29793,6 +30504,15 @@
       <c r="H823" t="s">
         <v>13</v>
       </c>
+      <c r="I823" s="1">
+        <v>0</v>
+      </c>
+      <c r="J823">
+        <v>0</v>
+      </c>
+      <c r="K823">
+        <v>0</v>
+      </c>
     </row>
     <row r="824" spans="1:11">
       <c r="A824" s="2">
@@ -29819,6 +30539,15 @@
       <c r="H824" t="s">
         <v>13</v>
       </c>
+      <c r="I824" s="1">
+        <v>1</v>
+      </c>
+      <c r="J824">
+        <v>1</v>
+      </c>
+      <c r="K824">
+        <v>0</v>
+      </c>
     </row>
     <row r="825" spans="1:11">
       <c r="A825" s="2">
@@ -29845,6 +30574,15 @@
       <c r="H825" t="s">
         <v>13</v>
       </c>
+      <c r="I825" s="1">
+        <v>0</v>
+      </c>
+      <c r="J825">
+        <v>0</v>
+      </c>
+      <c r="K825">
+        <v>0</v>
+      </c>
     </row>
     <row r="826" spans="1:11">
       <c r="A826" s="2">
@@ -29871,6 +30609,15 @@
       <c r="H826" t="s">
         <v>20</v>
       </c>
+      <c r="I826" s="1">
+        <v>1</v>
+      </c>
+      <c r="J826">
+        <v>1</v>
+      </c>
+      <c r="K826">
+        <v>1</v>
+      </c>
     </row>
     <row r="827" spans="1:11">
       <c r="A827" s="2">
@@ -29897,6 +30644,15 @@
       <c r="H827" t="s">
         <v>74</v>
       </c>
+      <c r="I827" s="1">
+        <v>0</v>
+      </c>
+      <c r="J827">
+        <v>1</v>
+      </c>
+      <c r="K827">
+        <v>1</v>
+      </c>
     </row>
     <row r="828" spans="1:11">
       <c r="A828" s="2">
@@ -29923,6 +30679,15 @@
       <c r="H828" t="s">
         <v>74</v>
       </c>
+      <c r="I828" s="1">
+        <v>1</v>
+      </c>
+      <c r="J828">
+        <v>1</v>
+      </c>
+      <c r="K828">
+        <v>0</v>
+      </c>
     </row>
     <row r="829" spans="1:11">
       <c r="A829" s="2">
@@ -29949,6 +30714,15 @@
       <c r="H829" t="s">
         <v>20</v>
       </c>
+      <c r="I829" s="1">
+        <v>0</v>
+      </c>
+      <c r="J829">
+        <v>1</v>
+      </c>
+      <c r="K829">
+        <v>1</v>
+      </c>
     </row>
     <row r="830" spans="1:11">
       <c r="A830" s="2">
@@ -29975,6 +30749,15 @@
       <c r="H830" t="s">
         <v>13</v>
       </c>
+      <c r="I830" s="1">
+        <v>0</v>
+      </c>
+      <c r="J830">
+        <v>0</v>
+      </c>
+      <c r="K830">
+        <v>0</v>
+      </c>
     </row>
     <row r="831" spans="1:11">
       <c r="A831" s="2">
@@ -30001,6 +30784,15 @@
       <c r="H831" t="s">
         <v>20</v>
       </c>
+      <c r="I831" s="1">
+        <v>0</v>
+      </c>
+      <c r="J831">
+        <v>1</v>
+      </c>
+      <c r="K831">
+        <v>1</v>
+      </c>
     </row>
     <row r="832" spans="1:11">
       <c r="A832" s="2">
@@ -30027,8 +30819,17 @@
       <c r="H832" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="833" spans="1:8">
+      <c r="I832" s="1">
+        <v>0</v>
+      </c>
+      <c r="J832">
+        <v>0</v>
+      </c>
+      <c r="K832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:11">
       <c r="A833" s="2">
         <v>0</v>
       </c>
@@ -30053,8 +30854,17 @@
       <c r="H833" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="834" spans="1:8">
+      <c r="I833" s="1">
+        <v>0</v>
+      </c>
+      <c r="J833">
+        <v>1</v>
+      </c>
+      <c r="K833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:11">
       <c r="A834" s="2">
         <v>0</v>
       </c>
@@ -30079,8 +30889,17 @@
       <c r="H834" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="835" spans="1:8">
+      <c r="I834" s="1">
+        <v>0</v>
+      </c>
+      <c r="J834">
+        <v>1</v>
+      </c>
+      <c r="K834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:11">
       <c r="A835" s="2">
         <v>1</v>
       </c>
@@ -30105,8 +30924,17 @@
       <c r="H835" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="836" spans="1:8">
+      <c r="I835" s="1">
+        <v>0</v>
+      </c>
+      <c r="J835">
+        <v>1</v>
+      </c>
+      <c r="K835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:11">
       <c r="A836" s="2">
         <v>0</v>
       </c>
@@ -30131,8 +30959,17 @@
       <c r="H836" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="837" spans="1:8">
+      <c r="I836" s="1">
+        <v>0</v>
+      </c>
+      <c r="J836">
+        <v>0</v>
+      </c>
+      <c r="K836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:11">
       <c r="A837" s="2">
         <v>1</v>
       </c>
@@ -30157,8 +30994,17 @@
       <c r="H837" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="838" spans="1:8">
+      <c r="I837" s="1">
+        <v>1</v>
+      </c>
+      <c r="J837">
+        <v>1</v>
+      </c>
+      <c r="K837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:11">
       <c r="A838" s="2">
         <v>0</v>
       </c>
@@ -30183,8 +31029,17 @@
       <c r="H838" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="839" spans="1:8">
+      <c r="I838" s="1">
+        <v>0</v>
+      </c>
+      <c r="J838">
+        <v>1</v>
+      </c>
+      <c r="K838">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="1:11">
       <c r="A839" s="2">
         <v>1</v>
       </c>
@@ -30209,8 +31064,17 @@
       <c r="H839" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="840" spans="1:8">
+      <c r="I839" s="1">
+        <v>1</v>
+      </c>
+      <c r="J839">
+        <v>1</v>
+      </c>
+      <c r="K839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:11">
       <c r="A840" s="2">
         <v>0</v>
       </c>
@@ -30235,8 +31099,17 @@
       <c r="H840" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="841" spans="1:8">
+      <c r="I840" s="1">
+        <v>0</v>
+      </c>
+      <c r="J840">
+        <v>1</v>
+      </c>
+      <c r="K840">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="1:11">
       <c r="A841" s="2">
         <v>0</v>
       </c>
@@ -30261,8 +31134,17 @@
       <c r="H841" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="842" spans="1:8">
+      <c r="I841" s="1">
+        <v>0</v>
+      </c>
+      <c r="J841">
+        <v>1</v>
+      </c>
+      <c r="K841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:11">
       <c r="A842" s="2">
         <v>0</v>
       </c>
@@ -30287,8 +31169,17 @@
       <c r="H842" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="843" spans="1:8">
+      <c r="I842" s="1">
+        <v>0</v>
+      </c>
+      <c r="J842">
+        <v>0</v>
+      </c>
+      <c r="K842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:11">
       <c r="A843" s="2">
         <v>0</v>
       </c>
@@ -30313,8 +31204,17 @@
       <c r="H843" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="844" spans="1:8">
+      <c r="I843" s="1">
+        <v>0</v>
+      </c>
+      <c r="J843">
+        <v>0</v>
+      </c>
+      <c r="K843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:11">
       <c r="A844" s="2">
         <v>1</v>
       </c>
@@ -30339,8 +31239,17 @@
       <c r="H844" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="845" spans="1:8">
+      <c r="I844" s="1">
+        <v>1</v>
+      </c>
+      <c r="J844">
+        <v>1</v>
+      </c>
+      <c r="K844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:11">
       <c r="A845" s="2">
         <v>1</v>
       </c>
@@ -30365,8 +31274,17 @@
       <c r="H845" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="846" spans="1:8">
+      <c r="I845" s="1">
+        <v>1</v>
+      </c>
+      <c r="J845">
+        <v>1</v>
+      </c>
+      <c r="K845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:11">
       <c r="A846" s="2">
         <v>1</v>
       </c>
@@ -30391,8 +31309,17 @@
       <c r="H846" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="847" spans="1:8">
+      <c r="I846" s="1">
+        <v>1</v>
+      </c>
+      <c r="J846">
+        <v>1</v>
+      </c>
+      <c r="K846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:11">
       <c r="A847" s="2">
         <v>0</v>
       </c>
@@ -30418,7 +31345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="848" spans="1:8">
+    <row r="848" spans="1:11">
       <c r="A848" s="2">
         <v>1</v>
       </c>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-4680" yWindow="0" windowWidth="16160" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="2540" yWindow="120" windowWidth="16160" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2445,10 +2445,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G826" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G832" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J847" sqref="J847"/>
+      <selection pane="bottomRight" activeCell="K850" sqref="K850"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="120" windowWidth="16160" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="-4220" yWindow="100" windowWidth="16160" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6813" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6807" uniqueCount="643">
   <si>
     <t>Agent.Embod</t>
   </si>
@@ -2445,10 +2445,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G832" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F844" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K850" sqref="K850"/>
+      <selection pane="bottomRight" activeCell="I847" sqref="I847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -29608,8 +29608,8 @@
       <c r="I795" s="1">
         <v>1</v>
       </c>
-      <c r="J795" t="s">
-        <v>349</v>
+      <c r="J795">
+        <v>0</v>
       </c>
       <c r="K795">
         <v>0</v>
@@ -29678,8 +29678,8 @@
       <c r="I797" s="1">
         <v>1</v>
       </c>
-      <c r="J797" t="s">
-        <v>349</v>
+      <c r="J797">
+        <v>0</v>
       </c>
       <c r="K797">
         <v>1</v>
@@ -29713,8 +29713,8 @@
       <c r="I798" s="1">
         <v>1</v>
       </c>
-      <c r="J798" t="s">
-        <v>349</v>
+      <c r="J798">
+        <v>0</v>
       </c>
       <c r="K798">
         <v>0</v>
@@ -29783,8 +29783,8 @@
       <c r="I800" s="1">
         <v>1</v>
       </c>
-      <c r="J800" t="s">
-        <v>349</v>
+      <c r="J800">
+        <v>0</v>
       </c>
       <c r="K800">
         <v>0</v>
@@ -29819,7 +29819,7 @@
         <v>1</v>
       </c>
       <c r="J801">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K801">
         <v>1</v>
@@ -29854,7 +29854,7 @@
         <v>1</v>
       </c>
       <c r="J802">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K802">
         <v>1</v>
@@ -29923,8 +29923,8 @@
       <c r="I804" s="1">
         <v>1</v>
       </c>
-      <c r="J804" t="s">
-        <v>349</v>
+      <c r="J804">
+        <v>0</v>
       </c>
       <c r="K804">
         <v>1</v>
@@ -30063,8 +30063,8 @@
       <c r="I808" s="1">
         <v>1</v>
       </c>
-      <c r="J808" t="s">
-        <v>349</v>
+      <c r="J808">
+        <v>0</v>
       </c>
       <c r="K808">
         <v>0</v>
@@ -31138,7 +31138,7 @@
         <v>0</v>
       </c>
       <c r="J841">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K841">
         <v>0</v>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -2445,10 +2445,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F844" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F840" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I847" sqref="I847"/>
+      <selection pane="bottomRight" activeCell="I857" sqref="I857"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -30095,6 +30095,15 @@
       <c r="H809" t="s">
         <v>20</v>
       </c>
+      <c r="I809" s="1">
+        <v>1</v>
+      </c>
+      <c r="J809">
+        <v>0</v>
+      </c>
+      <c r="K809">
+        <v>1</v>
+      </c>
     </row>
     <row r="810" spans="1:11">
       <c r="A810" s="2">
@@ -30121,6 +30130,15 @@
       <c r="H810" t="s">
         <v>13</v>
       </c>
+      <c r="I810" s="1">
+        <v>0</v>
+      </c>
+      <c r="J810">
+        <v>0</v>
+      </c>
+      <c r="K810">
+        <v>0</v>
+      </c>
     </row>
     <row r="811" spans="1:11">
       <c r="A811" s="2">
@@ -30147,6 +30165,15 @@
       <c r="H811" t="s">
         <v>13</v>
       </c>
+      <c r="I811" s="1">
+        <v>1</v>
+      </c>
+      <c r="J811">
+        <v>0</v>
+      </c>
+      <c r="K811">
+        <v>0</v>
+      </c>
     </row>
     <row r="812" spans="1:11">
       <c r="A812" s="2">
@@ -30173,6 +30200,15 @@
       <c r="H812" t="s">
         <v>13</v>
       </c>
+      <c r="I812" s="1">
+        <v>0</v>
+      </c>
+      <c r="J812">
+        <v>0</v>
+      </c>
+      <c r="K812">
+        <v>0</v>
+      </c>
     </row>
     <row r="813" spans="1:11">
       <c r="A813" s="2">
@@ -30199,6 +30235,15 @@
       <c r="H813" t="s">
         <v>20</v>
       </c>
+      <c r="I813" s="1">
+        <v>1</v>
+      </c>
+      <c r="J813">
+        <v>0</v>
+      </c>
+      <c r="K813">
+        <v>0</v>
+      </c>
     </row>
     <row r="814" spans="1:11">
       <c r="A814" s="2">
@@ -30225,6 +30270,15 @@
       <c r="H814" t="s">
         <v>20</v>
       </c>
+      <c r="I814" s="1">
+        <v>1</v>
+      </c>
+      <c r="J814">
+        <v>0</v>
+      </c>
+      <c r="K814">
+        <v>0</v>
+      </c>
     </row>
     <row r="815" spans="1:11">
       <c r="A815" s="2">
@@ -30251,6 +30305,15 @@
       <c r="H815" t="s">
         <v>20</v>
       </c>
+      <c r="I815" s="1">
+        <v>1</v>
+      </c>
+      <c r="J815">
+        <v>0</v>
+      </c>
+      <c r="K815">
+        <v>1</v>
+      </c>
     </row>
     <row r="816" spans="1:11">
       <c r="A816" s="2">
@@ -30277,6 +30340,15 @@
       <c r="H816" t="s">
         <v>13</v>
       </c>
+      <c r="I816" s="1">
+        <v>1</v>
+      </c>
+      <c r="J816">
+        <v>0</v>
+      </c>
+      <c r="K816">
+        <v>0</v>
+      </c>
     </row>
     <row r="817" spans="1:11">
       <c r="A817" s="2">
@@ -30303,6 +30375,15 @@
       <c r="H817" t="s">
         <v>20</v>
       </c>
+      <c r="I817" s="1">
+        <v>1</v>
+      </c>
+      <c r="J817">
+        <v>0</v>
+      </c>
+      <c r="K817">
+        <v>1</v>
+      </c>
     </row>
     <row r="818" spans="1:11">
       <c r="A818" s="2">
@@ -31313,7 +31394,7 @@
         <v>1</v>
       </c>
       <c r="J846">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K846">
         <v>0</v>
@@ -31344,6 +31425,15 @@
       <c r="H847" t="s">
         <v>13</v>
       </c>
+      <c r="I847" s="1">
+        <v>0</v>
+      </c>
+      <c r="J847">
+        <v>0</v>
+      </c>
+      <c r="K847">
+        <v>0</v>
+      </c>
     </row>
     <row r="848" spans="1:11">
       <c r="A848" s="2">
@@ -31370,8 +31460,17 @@
       <c r="H848" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="849" spans="1:8">
+      <c r="I848" s="1">
+        <v>1</v>
+      </c>
+      <c r="J848">
+        <v>0</v>
+      </c>
+      <c r="K848">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="1:11">
       <c r="A849" s="2">
         <v>0</v>
       </c>
@@ -31396,8 +31495,17 @@
       <c r="H849" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="850" spans="1:8">
+      <c r="I849" s="1">
+        <v>0</v>
+      </c>
+      <c r="J849">
+        <v>0</v>
+      </c>
+      <c r="K849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="1:11">
       <c r="A850" s="2">
         <v>0</v>
       </c>
@@ -31422,8 +31530,17 @@
       <c r="H850" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="851" spans="1:8">
+      <c r="I850" s="1">
+        <v>0</v>
+      </c>
+      <c r="J850">
+        <v>0</v>
+      </c>
+      <c r="K850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:11">
       <c r="A851" s="2">
         <v>1</v>
       </c>
@@ -31449,7 +31566,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="852" spans="1:8">
+    <row r="852" spans="1:11">
       <c r="A852" s="2">
         <v>1</v>
       </c>
@@ -31475,7 +31592,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="853" spans="1:8">
+    <row r="853" spans="1:11">
       <c r="A853" s="2">
         <v>1</v>
       </c>
@@ -31501,7 +31618,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="854" spans="1:8">
+    <row r="854" spans="1:11">
       <c r="A854" s="2">
         <v>1</v>
       </c>
@@ -31527,7 +31644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="855" spans="1:8">
+    <row r="855" spans="1:11">
       <c r="A855" s="2">
         <v>0</v>
       </c>
@@ -31553,7 +31670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="856" spans="1:8">
+    <row r="856" spans="1:11">
       <c r="A856" s="2">
         <v>0</v>
       </c>
@@ -31579,7 +31696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="857" spans="1:8">
+    <row r="857" spans="1:11">
       <c r="A857" s="2">
         <v>1</v>
       </c>
@@ -31605,7 +31722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="858" spans="1:8">
+    <row r="858" spans="1:11">
       <c r="A858" s="2">
         <v>0</v>
       </c>
@@ -31631,7 +31748,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="859" spans="1:8">
+    <row r="859" spans="1:11">
       <c r="A859" s="2">
         <v>1</v>
       </c>
@@ -31657,7 +31774,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="860" spans="1:8">
+    <row r="860" spans="1:11">
       <c r="A860" s="2">
         <v>0</v>
       </c>
@@ -31683,7 +31800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="861" spans="1:8">
+    <row r="861" spans="1:11">
       <c r="A861" s="2">
         <v>1</v>
       </c>
@@ -31709,7 +31826,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="862" spans="1:8">
+    <row r="862" spans="1:11">
       <c r="A862" s="2">
         <v>1</v>
       </c>
@@ -31735,7 +31852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="863" spans="1:8">
+    <row r="863" spans="1:11">
       <c r="A863" s="2">
         <v>1</v>
       </c>
@@ -31761,7 +31878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="864" spans="1:8">
+    <row r="864" spans="1:11">
       <c r="A864" s="2">
         <v>1</v>
       </c>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-4220" yWindow="100" windowWidth="16160" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="-960" yWindow="0" windowWidth="19340" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2445,10 +2445,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F840" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F876" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I857" sqref="I857"/>
+      <selection pane="bottomRight" activeCell="I890" sqref="I890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -31565,6 +31565,15 @@
       <c r="H851" t="s">
         <v>74</v>
       </c>
+      <c r="I851" s="1">
+        <v>1</v>
+      </c>
+      <c r="J851">
+        <v>0</v>
+      </c>
+      <c r="K851">
+        <v>1</v>
+      </c>
     </row>
     <row r="852" spans="1:11">
       <c r="A852" s="2">
@@ -31591,6 +31600,15 @@
       <c r="H852" t="s">
         <v>74</v>
       </c>
+      <c r="I852" s="1">
+        <v>1</v>
+      </c>
+      <c r="J852">
+        <v>0</v>
+      </c>
+      <c r="K852">
+        <v>0</v>
+      </c>
     </row>
     <row r="853" spans="1:11">
       <c r="A853" s="2">
@@ -31617,6 +31635,15 @@
       <c r="H853" t="s">
         <v>74</v>
       </c>
+      <c r="I853" s="1">
+        <v>1</v>
+      </c>
+      <c r="J853">
+        <v>0</v>
+      </c>
+      <c r="K853">
+        <v>0</v>
+      </c>
     </row>
     <row r="854" spans="1:11">
       <c r="A854" s="2">
@@ -31643,6 +31670,15 @@
       <c r="H854" t="s">
         <v>13</v>
       </c>
+      <c r="I854" s="1">
+        <v>1</v>
+      </c>
+      <c r="J854">
+        <v>0</v>
+      </c>
+      <c r="K854">
+        <v>0</v>
+      </c>
     </row>
     <row r="855" spans="1:11">
       <c r="A855" s="2">
@@ -31669,6 +31705,15 @@
       <c r="H855" t="s">
         <v>20</v>
       </c>
+      <c r="I855" s="1">
+        <v>0</v>
+      </c>
+      <c r="J855">
+        <v>0</v>
+      </c>
+      <c r="K855">
+        <v>1</v>
+      </c>
     </row>
     <row r="856" spans="1:11">
       <c r="A856" s="2">
@@ -31695,6 +31740,15 @@
       <c r="H856" t="s">
         <v>13</v>
       </c>
+      <c r="I856" s="1">
+        <v>0</v>
+      </c>
+      <c r="J856">
+        <v>0</v>
+      </c>
+      <c r="K856">
+        <v>0</v>
+      </c>
     </row>
     <row r="857" spans="1:11">
       <c r="A857" s="2">
@@ -31721,6 +31775,15 @@
       <c r="H857" t="s">
         <v>20</v>
       </c>
+      <c r="I857" s="1">
+        <v>1</v>
+      </c>
+      <c r="J857">
+        <v>0</v>
+      </c>
+      <c r="K857">
+        <v>0</v>
+      </c>
     </row>
     <row r="858" spans="1:11">
       <c r="A858" s="2">
@@ -31747,6 +31810,15 @@
       <c r="H858" t="s">
         <v>74</v>
       </c>
+      <c r="I858" s="1">
+        <v>1</v>
+      </c>
+      <c r="J858">
+        <v>0</v>
+      </c>
+      <c r="K858">
+        <v>0</v>
+      </c>
     </row>
     <row r="859" spans="1:11">
       <c r="A859" s="2">
@@ -31773,6 +31845,15 @@
       <c r="H859" t="s">
         <v>74</v>
       </c>
+      <c r="I859" s="1">
+        <v>1</v>
+      </c>
+      <c r="J859">
+        <v>0</v>
+      </c>
+      <c r="K859">
+        <v>0</v>
+      </c>
     </row>
     <row r="860" spans="1:11">
       <c r="A860" s="2">
@@ -31799,6 +31880,15 @@
       <c r="H860" t="s">
         <v>13</v>
       </c>
+      <c r="I860" s="1">
+        <v>0</v>
+      </c>
+      <c r="J860">
+        <v>0</v>
+      </c>
+      <c r="K860">
+        <v>0</v>
+      </c>
     </row>
     <row r="861" spans="1:11">
       <c r="A861" s="2">
@@ -31825,6 +31915,15 @@
       <c r="H861" t="s">
         <v>74</v>
       </c>
+      <c r="I861" s="1">
+        <v>1</v>
+      </c>
+      <c r="J861">
+        <v>1</v>
+      </c>
+      <c r="K861">
+        <v>0</v>
+      </c>
     </row>
     <row r="862" spans="1:11">
       <c r="A862" s="2">
@@ -31851,6 +31950,15 @@
       <c r="H862" t="s">
         <v>20</v>
       </c>
+      <c r="I862" s="1">
+        <v>1</v>
+      </c>
+      <c r="J862">
+        <v>0</v>
+      </c>
+      <c r="K862">
+        <v>1</v>
+      </c>
     </row>
     <row r="863" spans="1:11">
       <c r="A863" s="2">
@@ -31877,6 +31985,15 @@
       <c r="H863" t="s">
         <v>13</v>
       </c>
+      <c r="I863" s="1">
+        <v>1</v>
+      </c>
+      <c r="J863">
+        <v>1</v>
+      </c>
+      <c r="K863">
+        <v>0</v>
+      </c>
     </row>
     <row r="864" spans="1:11">
       <c r="A864" s="2">
@@ -31903,6 +32020,15 @@
       <c r="H864" t="s">
         <v>74</v>
       </c>
+      <c r="I864" s="1">
+        <v>1</v>
+      </c>
+      <c r="J864">
+        <v>0</v>
+      </c>
+      <c r="K864">
+        <v>0</v>
+      </c>
     </row>
     <row r="865" spans="1:11">
       <c r="A865" s="2">
@@ -31929,6 +32055,15 @@
       <c r="H865" t="s">
         <v>20</v>
       </c>
+      <c r="I865" s="1">
+        <v>1</v>
+      </c>
+      <c r="J865">
+        <v>0</v>
+      </c>
+      <c r="K865">
+        <v>0</v>
+      </c>
     </row>
     <row r="866" spans="1:11">
       <c r="A866" s="2">
@@ -32095,6 +32230,15 @@
       <c r="H870" t="s">
         <v>20</v>
       </c>
+      <c r="I870" s="1">
+        <v>1</v>
+      </c>
+      <c r="J870">
+        <v>1</v>
+      </c>
+      <c r="K870">
+        <v>1</v>
+      </c>
     </row>
     <row r="871" spans="1:11">
       <c r="A871" s="2">
@@ -32121,6 +32265,15 @@
       <c r="H871" t="s">
         <v>13</v>
       </c>
+      <c r="I871" s="1">
+        <v>1</v>
+      </c>
+      <c r="J871">
+        <v>0</v>
+      </c>
+      <c r="K871">
+        <v>0</v>
+      </c>
     </row>
     <row r="872" spans="1:11">
       <c r="A872" s="2">
@@ -32147,6 +32300,15 @@
       <c r="H872" t="s">
         <v>13</v>
       </c>
+      <c r="I872" s="1">
+        <v>1</v>
+      </c>
+      <c r="J872">
+        <v>0</v>
+      </c>
+      <c r="K872">
+        <v>0</v>
+      </c>
     </row>
     <row r="873" spans="1:11">
       <c r="A873" s="2">
@@ -32173,6 +32335,15 @@
       <c r="H873" t="s">
         <v>13</v>
       </c>
+      <c r="I873" s="1">
+        <v>0</v>
+      </c>
+      <c r="J873">
+        <v>0</v>
+      </c>
+      <c r="K873">
+        <v>0</v>
+      </c>
     </row>
     <row r="874" spans="1:11">
       <c r="A874" s="2">
@@ -32199,6 +32370,15 @@
       <c r="H874" t="s">
         <v>106</v>
       </c>
+      <c r="I874" s="1">
+        <v>1</v>
+      </c>
+      <c r="J874">
+        <v>1</v>
+      </c>
+      <c r="K874">
+        <v>1</v>
+      </c>
     </row>
     <row r="875" spans="1:11">
       <c r="A875" s="2">
@@ -32225,6 +32405,15 @@
       <c r="H875" t="s">
         <v>106</v>
       </c>
+      <c r="I875" s="1">
+        <v>1</v>
+      </c>
+      <c r="J875">
+        <v>1</v>
+      </c>
+      <c r="K875">
+        <v>1</v>
+      </c>
     </row>
     <row r="876" spans="1:11">
       <c r="A876" s="2">
@@ -32251,6 +32440,15 @@
       <c r="H876" t="s">
         <v>20</v>
       </c>
+      <c r="I876" s="1">
+        <v>1</v>
+      </c>
+      <c r="J876">
+        <v>1</v>
+      </c>
+      <c r="K876">
+        <v>0</v>
+      </c>
     </row>
     <row r="877" spans="1:11">
       <c r="A877" s="2">
@@ -32277,6 +32475,15 @@
       <c r="H877" t="s">
         <v>272</v>
       </c>
+      <c r="I877" s="1">
+        <v>1</v>
+      </c>
+      <c r="J877">
+        <v>0</v>
+      </c>
+      <c r="K877">
+        <v>1</v>
+      </c>
     </row>
     <row r="878" spans="1:11">
       <c r="A878" s="2">
@@ -32303,6 +32510,15 @@
       <c r="H878" t="s">
         <v>13</v>
       </c>
+      <c r="I878" s="1">
+        <v>1</v>
+      </c>
+      <c r="J878">
+        <v>0</v>
+      </c>
+      <c r="K878">
+        <v>0</v>
+      </c>
     </row>
     <row r="879" spans="1:11">
       <c r="A879" s="2">
@@ -32329,6 +32545,15 @@
       <c r="H879" t="s">
         <v>74</v>
       </c>
+      <c r="I879" s="1">
+        <v>1</v>
+      </c>
+      <c r="J879">
+        <v>1</v>
+      </c>
+      <c r="K879">
+        <v>1</v>
+      </c>
     </row>
     <row r="880" spans="1:11">
       <c r="A880" s="2">
@@ -32355,8 +32580,17 @@
       <c r="H880" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="881" spans="1:8">
+      <c r="I880" s="1">
+        <v>0</v>
+      </c>
+      <c r="J880">
+        <v>0</v>
+      </c>
+      <c r="K880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:11">
       <c r="A881" s="2">
         <v>1</v>
       </c>
@@ -32381,8 +32615,17 @@
       <c r="H881" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="882" spans="1:8">
+      <c r="I881" s="1">
+        <v>1</v>
+      </c>
+      <c r="J881">
+        <v>1</v>
+      </c>
+      <c r="K881">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="1:11">
       <c r="A882" s="2">
         <v>1</v>
       </c>
@@ -32407,8 +32650,17 @@
       <c r="H882" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="883" spans="1:8">
+      <c r="I882" s="1">
+        <v>1</v>
+      </c>
+      <c r="J882">
+        <v>1</v>
+      </c>
+      <c r="K882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:11">
       <c r="A883" s="2">
         <v>1</v>
       </c>
@@ -32433,8 +32685,17 @@
       <c r="H883" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="884" spans="1:8">
+      <c r="I883" s="1">
+        <v>1</v>
+      </c>
+      <c r="J883">
+        <v>1</v>
+      </c>
+      <c r="K883">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:11">
       <c r="A884" s="2">
         <v>0</v>
       </c>
@@ -32459,8 +32720,17 @@
       <c r="H884" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="885" spans="1:8">
+      <c r="I884" s="1">
+        <v>0</v>
+      </c>
+      <c r="J884">
+        <v>0</v>
+      </c>
+      <c r="K884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:11">
       <c r="A885" s="2">
         <v>1</v>
       </c>
@@ -32485,8 +32755,17 @@
       <c r="H885" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="886" spans="1:8">
+      <c r="I885" s="1">
+        <v>1</v>
+      </c>
+      <c r="J885">
+        <v>1</v>
+      </c>
+      <c r="K885">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="1:11">
       <c r="A886" s="2">
         <v>1</v>
       </c>
@@ -32511,8 +32790,17 @@
       <c r="H886" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="887" spans="1:8">
+      <c r="I886" s="1">
+        <v>1</v>
+      </c>
+      <c r="J886">
+        <v>1</v>
+      </c>
+      <c r="K886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:11">
       <c r="A887" s="2">
         <v>1</v>
       </c>
@@ -32537,8 +32825,17 @@
       <c r="H887" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="888" spans="1:8">
+      <c r="I887" s="1">
+        <v>1</v>
+      </c>
+      <c r="J887">
+        <v>1</v>
+      </c>
+      <c r="K887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="1:11">
       <c r="A888" s="2">
         <v>1</v>
       </c>
@@ -32563,8 +32860,17 @@
       <c r="H888" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="889" spans="1:8">
+      <c r="I888" s="1">
+        <v>1</v>
+      </c>
+      <c r="J888">
+        <v>1</v>
+      </c>
+      <c r="K888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="1:11">
       <c r="A889" s="2">
         <v>1</v>
       </c>
@@ -32589,8 +32895,17 @@
       <c r="H889" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="890" spans="1:8">
+      <c r="I889" s="1">
+        <v>1</v>
+      </c>
+      <c r="J889">
+        <v>0</v>
+      </c>
+      <c r="K889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:11">
       <c r="A890" s="2">
         <v>1</v>
       </c>
@@ -32616,7 +32931,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="891" spans="1:8">
+    <row r="891" spans="1:11">
       <c r="A891" s="2">
         <v>1</v>
       </c>
@@ -32642,7 +32957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="892" spans="1:8">
+    <row r="892" spans="1:11">
       <c r="A892" s="2">
         <v>1</v>
       </c>
@@ -32668,7 +32983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="893" spans="1:8">
+    <row r="893" spans="1:11">
       <c r="A893" s="2">
         <v>1</v>
       </c>
@@ -32694,7 +33009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="894" spans="1:8">
+    <row r="894" spans="1:11">
       <c r="A894" s="2">
         <v>1</v>
       </c>
@@ -32720,7 +33035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="895" spans="1:8">
+    <row r="895" spans="1:11">
       <c r="A895" s="2">
         <v>0</v>
       </c>
@@ -32746,7 +33061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="896" spans="1:8">
+    <row r="896" spans="1:11">
       <c r="A896" s="2">
         <v>1</v>
       </c>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-960" yWindow="0" windowWidth="19340" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="-5380" yWindow="0" windowWidth="16140" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6807" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6810" uniqueCount="647">
   <si>
     <t>Agent.Embod</t>
   </si>
@@ -1948,6 +1948,18 @@
   </si>
   <si>
     <t>(OS)V</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Girl kisses boy</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look at video 242 and 248 where he gestures "boy lifts girl". He always does boy and girl the same way which leads me to believe the word order on this video 246 "girl kisses boy" is SOV. He hesitates after doing the gesture for boy and then does girl. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watch in previous clips how he does old lady (always points to glasses)  and watch how he does girl in clip 256 "Fireman kicks girl. Based on that, in this clip 256 "girl elbows old lady" the word order might be OSV. Old lady  when he points to glasses and girl might be the triangle figure he draws. </t>
   </si>
 </sst>
 </file>
@@ -2445,10 +2457,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F876" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F986" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I890" sqref="I890"/>
+      <selection pane="bottomRight" activeCell="I1004" sqref="I1004"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2462,7 +2474,7 @@
     <col min="9" max="9" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2496,8 +2508,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2532,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2567,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2602,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2637,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2672,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -2707,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -2742,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -2777,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -2812,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -2847,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -2882,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -2917,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -2952,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -2987,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -32930,6 +32945,15 @@
       <c r="H890" t="s">
         <v>304</v>
       </c>
+      <c r="I890" s="1">
+        <v>1</v>
+      </c>
+      <c r="J890">
+        <v>1</v>
+      </c>
+      <c r="K890">
+        <v>1</v>
+      </c>
     </row>
     <row r="891" spans="1:11">
       <c r="A891" s="2">
@@ -32956,6 +32980,15 @@
       <c r="H891" t="s">
         <v>13</v>
       </c>
+      <c r="I891" s="1">
+        <v>1</v>
+      </c>
+      <c r="J891">
+        <v>0</v>
+      </c>
+      <c r="K891">
+        <v>0</v>
+      </c>
     </row>
     <row r="892" spans="1:11">
       <c r="A892" s="2">
@@ -32982,6 +33015,15 @@
       <c r="H892" t="s">
         <v>20</v>
       </c>
+      <c r="I892" s="1">
+        <v>1</v>
+      </c>
+      <c r="J892">
+        <v>1</v>
+      </c>
+      <c r="K892">
+        <v>1</v>
+      </c>
     </row>
     <row r="893" spans="1:11">
       <c r="A893" s="2">
@@ -33008,6 +33050,15 @@
       <c r="H893" t="s">
         <v>20</v>
       </c>
+      <c r="I893" s="1">
+        <v>1</v>
+      </c>
+      <c r="J893">
+        <v>1</v>
+      </c>
+      <c r="K893">
+        <v>0</v>
+      </c>
     </row>
     <row r="894" spans="1:11">
       <c r="A894" s="2">
@@ -33034,6 +33085,9 @@
       <c r="H894" t="s">
         <v>20</v>
       </c>
+      <c r="I894" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="895" spans="1:11">
       <c r="A895" s="2">
@@ -33503,7 +33557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="913" spans="1:8">
+    <row r="913" spans="1:11">
       <c r="A913" s="2">
         <v>1</v>
       </c>
@@ -33529,7 +33583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="914" spans="1:8">
+    <row r="914" spans="1:11">
       <c r="A914" s="2">
         <v>1</v>
       </c>
@@ -33554,8 +33608,17 @@
       <c r="H914" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="915" spans="1:8">
+      <c r="I914" s="1">
+        <v>1</v>
+      </c>
+      <c r="J914">
+        <v>1</v>
+      </c>
+      <c r="K914">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="1:11">
       <c r="A915" s="2">
         <v>1</v>
       </c>
@@ -33580,8 +33643,17 @@
       <c r="H915" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="916" spans="1:8">
+      <c r="I915" s="1">
+        <v>1</v>
+      </c>
+      <c r="J915">
+        <v>1</v>
+      </c>
+      <c r="K915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:11">
       <c r="A916" s="2">
         <v>1</v>
       </c>
@@ -33606,8 +33678,17 @@
       <c r="H916" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="917" spans="1:8">
+      <c r="I916" s="1">
+        <v>1</v>
+      </c>
+      <c r="J916">
+        <v>0</v>
+      </c>
+      <c r="K916">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="1:11">
       <c r="A917" s="2">
         <v>1</v>
       </c>
@@ -33632,8 +33713,17 @@
       <c r="H917" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="918" spans="1:8">
+      <c r="I917" s="1">
+        <v>1</v>
+      </c>
+      <c r="J917">
+        <v>1</v>
+      </c>
+      <c r="K917">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:11">
       <c r="A918" s="2">
         <v>1</v>
       </c>
@@ -33658,8 +33748,17 @@
       <c r="H918" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="919" spans="1:8">
+      <c r="I918" s="1">
+        <v>1</v>
+      </c>
+      <c r="J918">
+        <v>1</v>
+      </c>
+      <c r="K918">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:11">
       <c r="A919" s="2">
         <v>0</v>
       </c>
@@ -33684,8 +33783,17 @@
       <c r="H919" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="920" spans="1:8">
+      <c r="I919" s="1">
+        <v>0</v>
+      </c>
+      <c r="J919">
+        <v>0</v>
+      </c>
+      <c r="K919">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:11">
       <c r="A920" s="2">
         <v>1</v>
       </c>
@@ -33710,8 +33818,17 @@
       <c r="H920" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="921" spans="1:8">
+      <c r="I920" s="1">
+        <v>1</v>
+      </c>
+      <c r="J920">
+        <v>1</v>
+      </c>
+      <c r="K920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:11">
       <c r="A921" s="2">
         <v>1</v>
       </c>
@@ -33736,8 +33853,17 @@
       <c r="H921" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="922" spans="1:8">
+      <c r="I921" s="1">
+        <v>1</v>
+      </c>
+      <c r="J921">
+        <v>1</v>
+      </c>
+      <c r="K921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:11">
       <c r="A922" s="2">
         <v>1</v>
       </c>
@@ -33762,8 +33888,17 @@
       <c r="H922" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="923" spans="1:8">
+      <c r="I922" s="1">
+        <v>1</v>
+      </c>
+      <c r="J922">
+        <v>1</v>
+      </c>
+      <c r="K922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="1:11">
       <c r="A923" s="2">
         <v>0</v>
       </c>
@@ -33788,8 +33923,17 @@
       <c r="H923" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="924" spans="1:8">
+      <c r="I923" s="1">
+        <v>0</v>
+      </c>
+      <c r="J923">
+        <v>0</v>
+      </c>
+      <c r="K923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="1:11">
       <c r="A924" s="2">
         <v>1</v>
       </c>
@@ -33814,8 +33958,17 @@
       <c r="H924" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="925" spans="1:8">
+      <c r="I924" s="1">
+        <v>1</v>
+      </c>
+      <c r="J924">
+        <v>1</v>
+      </c>
+      <c r="K924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:11">
       <c r="A925" s="2">
         <v>1</v>
       </c>
@@ -33840,8 +33993,17 @@
       <c r="H925" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="926" spans="1:8">
+      <c r="I925" s="1">
+        <v>1</v>
+      </c>
+      <c r="J925">
+        <v>0</v>
+      </c>
+      <c r="K925">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:11">
       <c r="A926" s="2">
         <v>1</v>
       </c>
@@ -33866,8 +34028,17 @@
       <c r="H926" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="927" spans="1:8">
+      <c r="I926" s="1">
+        <v>1</v>
+      </c>
+      <c r="J926">
+        <v>1</v>
+      </c>
+      <c r="K926">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:11">
       <c r="A927" s="2">
         <v>1</v>
       </c>
@@ -33892,8 +34063,17 @@
       <c r="H927" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="928" spans="1:8">
+      <c r="I927" s="1">
+        <v>1</v>
+      </c>
+      <c r="J927">
+        <v>1</v>
+      </c>
+      <c r="K927">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="1:11">
       <c r="A928" s="2">
         <v>1</v>
       </c>
@@ -33918,8 +34098,17 @@
       <c r="H928" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="929" spans="1:8">
+      <c r="I928" s="1">
+        <v>1</v>
+      </c>
+      <c r="J928">
+        <v>1</v>
+      </c>
+      <c r="K928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:12">
       <c r="A929" s="2">
         <v>1</v>
       </c>
@@ -33944,8 +34133,17 @@
       <c r="H929" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="930" spans="1:8">
+      <c r="I929" s="1">
+        <v>1</v>
+      </c>
+      <c r="J929">
+        <v>1</v>
+      </c>
+      <c r="K929">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" spans="1:12">
       <c r="A930" s="2">
         <v>0</v>
       </c>
@@ -33970,8 +34168,17 @@
       <c r="H930" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="931" spans="1:8">
+      <c r="I930" s="1">
+        <v>0</v>
+      </c>
+      <c r="J930">
+        <v>0</v>
+      </c>
+      <c r="K930">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="1:12">
       <c r="A931" s="2">
         <v>1</v>
       </c>
@@ -33996,8 +34203,17 @@
       <c r="H931" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="932" spans="1:8">
+      <c r="I931" s="1">
+        <v>1</v>
+      </c>
+      <c r="J931">
+        <v>1</v>
+      </c>
+      <c r="K931">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:12">
       <c r="A932" s="2">
         <v>0</v>
       </c>
@@ -34022,8 +34238,17 @@
       <c r="H932" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="933" spans="1:8">
+      <c r="I932" s="1">
+        <v>1</v>
+      </c>
+      <c r="J932">
+        <v>0</v>
+      </c>
+      <c r="K932">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="1:12">
       <c r="A933" s="2">
         <v>1</v>
       </c>
@@ -34048,8 +34273,17 @@
       <c r="H933" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="934" spans="1:8">
+      <c r="I933" s="1">
+        <v>1</v>
+      </c>
+      <c r="J933">
+        <v>1</v>
+      </c>
+      <c r="K933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:12">
       <c r="A934" s="2">
         <v>1</v>
       </c>
@@ -34074,8 +34308,17 @@
       <c r="H934" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="935" spans="1:8">
+      <c r="I934" s="1">
+        <v>1</v>
+      </c>
+      <c r="J934">
+        <v>1</v>
+      </c>
+      <c r="K934">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="1:12">
       <c r="A935" s="2">
         <v>1</v>
       </c>
@@ -34100,8 +34343,17 @@
       <c r="H935" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="936" spans="1:8">
+      <c r="I935" s="1">
+        <v>1</v>
+      </c>
+      <c r="J935">
+        <v>1</v>
+      </c>
+      <c r="K935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" spans="1:12">
       <c r="A936" s="2">
         <v>1</v>
       </c>
@@ -34126,8 +34378,17 @@
       <c r="H936" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="937" spans="1:8">
+      <c r="I936" s="1">
+        <v>1</v>
+      </c>
+      <c r="J936">
+        <v>0</v>
+      </c>
+      <c r="K936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="1:12">
       <c r="A937" s="2">
         <v>1</v>
       </c>
@@ -34147,13 +34408,25 @@
         <v>28</v>
       </c>
       <c r="G937" t="s">
-        <v>43</v>
+        <v>643</v>
       </c>
       <c r="H937" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="938" spans="1:8">
+      <c r="I937" s="1">
+        <v>1</v>
+      </c>
+      <c r="J937">
+        <v>1</v>
+      </c>
+      <c r="K937">
+        <v>0</v>
+      </c>
+      <c r="L937" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="938" spans="1:12">
       <c r="A938" s="2">
         <v>1</v>
       </c>
@@ -34178,8 +34451,17 @@
       <c r="H938" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="939" spans="1:8">
+      <c r="I938" s="1">
+        <v>1</v>
+      </c>
+      <c r="J938">
+        <v>0</v>
+      </c>
+      <c r="K938">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="1:12">
       <c r="A939" s="2">
         <v>1</v>
       </c>
@@ -34204,8 +34486,17 @@
       <c r="H939" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="940" spans="1:8">
+      <c r="I939" s="1">
+        <v>1</v>
+      </c>
+      <c r="J939">
+        <v>0</v>
+      </c>
+      <c r="K939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:12">
       <c r="A940" s="2">
         <v>1</v>
       </c>
@@ -34230,8 +34521,17 @@
       <c r="H940" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="941" spans="1:8">
+      <c r="I940" s="1">
+        <v>1</v>
+      </c>
+      <c r="J940">
+        <v>0</v>
+      </c>
+      <c r="K940">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" spans="1:12">
       <c r="A941" s="2">
         <v>1</v>
       </c>
@@ -34256,8 +34556,17 @@
       <c r="H941" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="942" spans="1:8">
+      <c r="I941" s="1">
+        <v>1</v>
+      </c>
+      <c r="J941">
+        <v>0</v>
+      </c>
+      <c r="K941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:12">
       <c r="A942" s="2">
         <v>1</v>
       </c>
@@ -34282,8 +34591,17 @@
       <c r="H942" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="943" spans="1:8">
+      <c r="I942" s="1">
+        <v>1</v>
+      </c>
+      <c r="J942">
+        <v>0</v>
+      </c>
+      <c r="K942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="1:12">
       <c r="A943" s="2">
         <v>0</v>
       </c>
@@ -34308,8 +34626,17 @@
       <c r="H943" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="944" spans="1:8">
+      <c r="I943" s="1">
+        <v>0</v>
+      </c>
+      <c r="J943">
+        <v>0</v>
+      </c>
+      <c r="K943">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="1:12">
       <c r="A944" s="2">
         <v>1</v>
       </c>
@@ -34334,8 +34661,17 @@
       <c r="H944" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="945" spans="1:8">
+      <c r="I944" s="1">
+        <v>1</v>
+      </c>
+      <c r="J944">
+        <v>0</v>
+      </c>
+      <c r="K944">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="1:11">
       <c r="A945" s="2">
         <v>1</v>
       </c>
@@ -34360,8 +34696,17 @@
       <c r="H945" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="946" spans="1:8">
+      <c r="I945" s="1">
+        <v>1</v>
+      </c>
+      <c r="J945">
+        <v>0</v>
+      </c>
+      <c r="K945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" spans="1:11">
       <c r="A946" s="2">
         <v>1</v>
       </c>
@@ -34386,8 +34731,17 @@
       <c r="H946" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="947" spans="1:8">
+      <c r="I946" s="1">
+        <v>1</v>
+      </c>
+      <c r="J946">
+        <v>0</v>
+      </c>
+      <c r="K946">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="1:11">
       <c r="A947" s="2">
         <v>0</v>
       </c>
@@ -34412,8 +34766,17 @@
       <c r="H947" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="948" spans="1:8">
+      <c r="I947" s="1">
+        <v>0</v>
+      </c>
+      <c r="J947">
+        <v>0</v>
+      </c>
+      <c r="K947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="1:11">
       <c r="A948" s="2">
         <v>1</v>
       </c>
@@ -34438,8 +34801,17 @@
       <c r="H948" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="949" spans="1:8">
+      <c r="I948" s="1">
+        <v>1</v>
+      </c>
+      <c r="J948">
+        <v>0</v>
+      </c>
+      <c r="K948">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949" spans="1:11">
       <c r="A949" s="2">
         <v>1</v>
       </c>
@@ -34464,8 +34836,17 @@
       <c r="H949" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="950" spans="1:8">
+      <c r="I949" s="1">
+        <v>1</v>
+      </c>
+      <c r="J949">
+        <v>0</v>
+      </c>
+      <c r="K949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:11">
       <c r="A950" s="2">
         <v>1</v>
       </c>
@@ -34490,8 +34871,17 @@
       <c r="H950" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="951" spans="1:8">
+      <c r="I950" s="1">
+        <v>1</v>
+      </c>
+      <c r="J950">
+        <v>0</v>
+      </c>
+      <c r="K950">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951" spans="1:11">
       <c r="A951" s="2">
         <v>1</v>
       </c>
@@ -34516,8 +34906,17 @@
       <c r="H951" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="952" spans="1:8">
+      <c r="I951" s="1">
+        <v>1</v>
+      </c>
+      <c r="J951">
+        <v>0</v>
+      </c>
+      <c r="K951">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:11">
       <c r="A952" s="2">
         <v>1</v>
       </c>
@@ -34542,8 +34941,17 @@
       <c r="H952" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="953" spans="1:8">
+      <c r="I952" s="1">
+        <v>1</v>
+      </c>
+      <c r="J952">
+        <v>1</v>
+      </c>
+      <c r="K952">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953" spans="1:11">
       <c r="A953" s="2">
         <v>1</v>
       </c>
@@ -34568,8 +34976,17 @@
       <c r="H953" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="954" spans="1:8">
+      <c r="I953" s="1">
+        <v>1</v>
+      </c>
+      <c r="J953">
+        <v>0</v>
+      </c>
+      <c r="K953">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954" spans="1:11">
       <c r="A954" s="2">
         <v>0</v>
       </c>
@@ -34594,8 +35011,17 @@
       <c r="H954" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="955" spans="1:8">
+      <c r="I954" s="1">
+        <v>0</v>
+      </c>
+      <c r="J954">
+        <v>0</v>
+      </c>
+      <c r="K954">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="1:11">
       <c r="A955" s="2">
         <v>1</v>
       </c>
@@ -34620,8 +35046,17 @@
       <c r="H955" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="956" spans="1:8">
+      <c r="I955" s="1">
+        <v>1</v>
+      </c>
+      <c r="J955">
+        <v>0</v>
+      </c>
+      <c r="K955">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="1:11">
       <c r="A956" s="2">
         <v>0</v>
       </c>
@@ -34646,8 +35081,17 @@
       <c r="H956" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="957" spans="1:8">
+      <c r="I956" s="1">
+        <v>0</v>
+      </c>
+      <c r="J956">
+        <v>0</v>
+      </c>
+      <c r="K956">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957" spans="1:11">
       <c r="A957" s="2">
         <v>1</v>
       </c>
@@ -34672,8 +35116,17 @@
       <c r="H957" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="958" spans="1:8">
+      <c r="I957" s="1">
+        <v>1</v>
+      </c>
+      <c r="J957">
+        <v>0</v>
+      </c>
+      <c r="K957">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="1:11">
       <c r="A958" s="2">
         <v>1</v>
       </c>
@@ -34698,8 +35151,17 @@
       <c r="H958" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="959" spans="1:8">
+      <c r="I958" s="1">
+        <v>1</v>
+      </c>
+      <c r="J958">
+        <v>0</v>
+      </c>
+      <c r="K958">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959" spans="1:11">
       <c r="A959" s="2">
         <v>1</v>
       </c>
@@ -34724,8 +35186,17 @@
       <c r="H959" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="960" spans="1:8">
+      <c r="I959" s="1">
+        <v>1</v>
+      </c>
+      <c r="J959">
+        <v>0</v>
+      </c>
+      <c r="K959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" spans="1:11">
       <c r="A960" s="2">
         <v>1</v>
       </c>
@@ -34750,8 +35221,17 @@
       <c r="H960" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="961" spans="1:8">
+      <c r="I960" s="1">
+        <v>1</v>
+      </c>
+      <c r="J960">
+        <v>0</v>
+      </c>
+      <c r="K960">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961" spans="1:12">
       <c r="A961" s="2">
         <v>1</v>
       </c>
@@ -34776,8 +35256,17 @@
       <c r="H961" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="962" spans="1:8">
+      <c r="I961" s="1">
+        <v>1</v>
+      </c>
+      <c r="J961">
+        <v>0</v>
+      </c>
+      <c r="K961">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962" spans="1:12">
       <c r="A962" s="2">
         <v>0</v>
       </c>
@@ -34802,8 +35291,17 @@
       <c r="H962" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="963" spans="1:8">
+      <c r="I962" s="1">
+        <v>0</v>
+      </c>
+      <c r="J962">
+        <v>1</v>
+      </c>
+      <c r="K962">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963" spans="1:12">
       <c r="A963" s="2">
         <v>0</v>
       </c>
@@ -34828,8 +35326,17 @@
       <c r="H963" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="964" spans="1:8">
+      <c r="I963" s="1">
+        <v>0</v>
+      </c>
+      <c r="J963">
+        <v>1</v>
+      </c>
+      <c r="K963">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" spans="1:12">
       <c r="A964" s="2">
         <v>1</v>
       </c>
@@ -34854,8 +35361,17 @@
       <c r="H964" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="965" spans="1:8">
+      <c r="I964" s="1">
+        <v>1</v>
+      </c>
+      <c r="J964">
+        <v>1</v>
+      </c>
+      <c r="K964">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965" spans="1:12">
       <c r="A965" s="2">
         <v>1</v>
       </c>
@@ -34880,8 +35396,17 @@
       <c r="H965" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="966" spans="1:8">
+      <c r="I965" s="1">
+        <v>1</v>
+      </c>
+      <c r="J965">
+        <v>1</v>
+      </c>
+      <c r="K965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" spans="1:12">
       <c r="A966" s="2">
         <v>0</v>
       </c>
@@ -34906,8 +35431,17 @@
       <c r="H966" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="967" spans="1:8">
+      <c r="I966" s="1">
+        <v>1</v>
+      </c>
+      <c r="J966">
+        <v>1</v>
+      </c>
+      <c r="K966">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967" spans="1:12">
       <c r="A967" s="2">
         <v>0</v>
       </c>
@@ -34932,8 +35466,17 @@
       <c r="H967" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="968" spans="1:8">
+      <c r="I967" s="1">
+        <v>0</v>
+      </c>
+      <c r="J967">
+        <v>0</v>
+      </c>
+      <c r="K967">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968" spans="1:12">
       <c r="A968" s="2">
         <v>1</v>
       </c>
@@ -34958,8 +35501,17 @@
       <c r="H968" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="969" spans="1:8">
+      <c r="I968" s="1">
+        <v>1</v>
+      </c>
+      <c r="J968">
+        <v>1</v>
+      </c>
+      <c r="K968">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969" spans="1:12">
       <c r="A969" s="2">
         <v>1</v>
       </c>
@@ -34984,8 +35536,17 @@
       <c r="H969" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="970" spans="1:8">
+      <c r="I969" s="1">
+        <v>1</v>
+      </c>
+      <c r="J969">
+        <v>1</v>
+      </c>
+      <c r="K969">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970" spans="1:12">
       <c r="A970" s="2">
         <v>1</v>
       </c>
@@ -35010,8 +35571,17 @@
       <c r="H970" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="971" spans="1:8">
+      <c r="I970" s="1">
+        <v>1</v>
+      </c>
+      <c r="J970">
+        <v>1</v>
+      </c>
+      <c r="K970">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971" spans="1:12">
       <c r="A971" s="2">
         <v>0</v>
       </c>
@@ -35036,8 +35606,17 @@
       <c r="H971" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="972" spans="1:8">
+      <c r="I971" s="1">
+        <v>0</v>
+      </c>
+      <c r="J971">
+        <v>0</v>
+      </c>
+      <c r="K971">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972" spans="1:12">
       <c r="A972" s="2">
         <v>1</v>
       </c>
@@ -35062,8 +35641,20 @@
       <c r="H972" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="973" spans="1:8">
+      <c r="I972" s="1">
+        <v>0</v>
+      </c>
+      <c r="J972">
+        <v>1</v>
+      </c>
+      <c r="K972">
+        <v>0</v>
+      </c>
+      <c r="L972" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="973" spans="1:12">
       <c r="A973" s="2">
         <v>1</v>
       </c>
@@ -35088,8 +35679,17 @@
       <c r="H973" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="974" spans="1:8">
+      <c r="I973" s="1">
+        <v>1</v>
+      </c>
+      <c r="J973">
+        <v>0</v>
+      </c>
+      <c r="K973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="1:12">
       <c r="A974" s="2">
         <v>1</v>
       </c>
@@ -35114,8 +35714,17 @@
       <c r="H974" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="975" spans="1:8">
+      <c r="I974" s="1">
+        <v>1</v>
+      </c>
+      <c r="J974">
+        <v>1</v>
+      </c>
+      <c r="K974">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975" spans="1:12">
       <c r="A975" s="2">
         <v>1</v>
       </c>
@@ -35140,8 +35749,17 @@
       <c r="H975" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="976" spans="1:8">
+      <c r="I975" s="1">
+        <v>1</v>
+      </c>
+      <c r="J975">
+        <v>1</v>
+      </c>
+      <c r="K975">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976" spans="1:12">
       <c r="A976" s="2">
         <v>1</v>
       </c>
@@ -35166,8 +35784,17 @@
       <c r="H976" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="977" spans="1:8">
+      <c r="I976" s="1">
+        <v>1</v>
+      </c>
+      <c r="J976">
+        <v>1</v>
+      </c>
+      <c r="K976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" spans="1:11">
       <c r="A977" s="2">
         <v>0</v>
       </c>
@@ -35192,8 +35819,17 @@
       <c r="H977" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="978" spans="1:8">
+      <c r="I977" s="1">
+        <v>0</v>
+      </c>
+      <c r="J977">
+        <v>1</v>
+      </c>
+      <c r="K977">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978" spans="1:11">
       <c r="A978" s="2">
         <v>0</v>
       </c>
@@ -35218,8 +35854,17 @@
       <c r="H978" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="979" spans="1:8">
+      <c r="I978" s="1">
+        <v>0</v>
+      </c>
+      <c r="J978">
+        <v>0</v>
+      </c>
+      <c r="K978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="1:11">
       <c r="A979" s="2">
         <v>1</v>
       </c>
@@ -35244,8 +35889,17 @@
       <c r="H979" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="980" spans="1:8">
+      <c r="I979" s="1">
+        <v>1</v>
+      </c>
+      <c r="J979">
+        <v>0</v>
+      </c>
+      <c r="K979">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980" spans="1:11">
       <c r="A980" s="2">
         <v>0</v>
       </c>
@@ -35270,8 +35924,17 @@
       <c r="H980" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="981" spans="1:8">
+      <c r="I980" s="1">
+        <v>0</v>
+      </c>
+      <c r="J980">
+        <v>0</v>
+      </c>
+      <c r="K980">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981" spans="1:11">
       <c r="A981" s="2">
         <v>1</v>
       </c>
@@ -35296,8 +35959,17 @@
       <c r="H981" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="982" spans="1:8">
+      <c r="I981" s="1">
+        <v>1</v>
+      </c>
+      <c r="J981">
+        <v>1</v>
+      </c>
+      <c r="K981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="1:11">
       <c r="A982" s="2">
         <v>1</v>
       </c>
@@ -35322,8 +35994,17 @@
       <c r="H982" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="983" spans="1:8">
+      <c r="I982" s="1">
+        <v>1</v>
+      </c>
+      <c r="J982">
+        <v>1</v>
+      </c>
+      <c r="K982">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" spans="1:11">
       <c r="A983" s="2">
         <v>1</v>
       </c>
@@ -35348,8 +36029,17 @@
       <c r="H983" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="984" spans="1:8">
+      <c r="I983" s="1">
+        <v>1</v>
+      </c>
+      <c r="J983">
+        <v>1</v>
+      </c>
+      <c r="K983">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" spans="1:11">
       <c r="A984" s="2">
         <v>0</v>
       </c>
@@ -35374,8 +36064,17 @@
       <c r="H984" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="985" spans="1:8">
+      <c r="I984" s="1">
+        <v>0</v>
+      </c>
+      <c r="J984">
+        <v>0</v>
+      </c>
+      <c r="K984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" spans="1:11">
       <c r="A985" s="2">
         <v>0</v>
       </c>
@@ -35400,8 +36099,17 @@
       <c r="H985" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="986" spans="1:8">
+      <c r="I985" s="1">
+        <v>0</v>
+      </c>
+      <c r="J985">
+        <v>1</v>
+      </c>
+      <c r="K985">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" spans="1:11">
       <c r="A986" s="2">
         <v>1</v>
       </c>
@@ -35426,8 +36134,17 @@
       <c r="H986" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="987" spans="1:8">
+      <c r="I986" s="1">
+        <v>1</v>
+      </c>
+      <c r="J986">
+        <v>0</v>
+      </c>
+      <c r="K986">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987" spans="1:11">
       <c r="A987" s="2">
         <v>0</v>
       </c>
@@ -35452,8 +36169,17 @@
       <c r="H987" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="988" spans="1:8">
+      <c r="I987" s="1">
+        <v>0</v>
+      </c>
+      <c r="J987">
+        <v>0</v>
+      </c>
+      <c r="K987">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988" spans="1:11">
       <c r="A988" s="2">
         <v>1</v>
       </c>
@@ -35478,8 +36204,17 @@
       <c r="H988" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="989" spans="1:8">
+      <c r="I988" s="1">
+        <v>1</v>
+      </c>
+      <c r="J988">
+        <v>0</v>
+      </c>
+      <c r="K988">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989" spans="1:11">
       <c r="A989" s="2">
         <v>1</v>
       </c>
@@ -35504,8 +36239,17 @@
       <c r="H989" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="990" spans="1:8">
+      <c r="I989" s="1">
+        <v>1</v>
+      </c>
+      <c r="J989">
+        <v>0</v>
+      </c>
+      <c r="K989">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990" spans="1:11">
       <c r="A990" s="2">
         <v>1</v>
       </c>
@@ -35530,8 +36274,17 @@
       <c r="H990" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="991" spans="1:8">
+      <c r="I990" s="1">
+        <v>1</v>
+      </c>
+      <c r="J990">
+        <v>0</v>
+      </c>
+      <c r="K990">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" spans="1:11">
       <c r="A991" s="2">
         <v>0</v>
       </c>
@@ -35556,8 +36309,17 @@
       <c r="H991" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="992" spans="1:8">
+      <c r="I991" s="1">
+        <v>0</v>
+      </c>
+      <c r="J991">
+        <v>0</v>
+      </c>
+      <c r="K991">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" spans="1:11">
       <c r="A992" s="2">
         <v>0</v>
       </c>
@@ -35582,8 +36344,17 @@
       <c r="H992" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="993" spans="1:8">
+      <c r="I992" s="1">
+        <v>0</v>
+      </c>
+      <c r="J992">
+        <v>0</v>
+      </c>
+      <c r="K992">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993" spans="1:11">
       <c r="A993" s="2">
         <v>1</v>
       </c>
@@ -35608,8 +36379,17 @@
       <c r="H993" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="994" spans="1:8">
+      <c r="I993" s="1">
+        <v>1</v>
+      </c>
+      <c r="J993">
+        <v>0</v>
+      </c>
+      <c r="K993">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994" spans="1:11">
       <c r="A994" s="2">
         <v>1</v>
       </c>
@@ -35634,8 +36414,17 @@
       <c r="H994" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="995" spans="1:8">
+      <c r="I994" s="1">
+        <v>1</v>
+      </c>
+      <c r="J994">
+        <v>0</v>
+      </c>
+      <c r="K994">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995" spans="1:11">
       <c r="A995" s="2">
         <v>0</v>
       </c>
@@ -35660,8 +36449,17 @@
       <c r="H995" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="996" spans="1:8">
+      <c r="I995" s="1">
+        <v>0</v>
+      </c>
+      <c r="J995">
+        <v>0</v>
+      </c>
+      <c r="K995">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996" spans="1:11">
       <c r="A996" s="2">
         <v>1</v>
       </c>
@@ -35686,8 +36484,17 @@
       <c r="H996" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="997" spans="1:8">
+      <c r="I996" s="1">
+        <v>0</v>
+      </c>
+      <c r="J996">
+        <v>0</v>
+      </c>
+      <c r="K996">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997" spans="1:11">
       <c r="A997" s="2">
         <v>1</v>
       </c>
@@ -35712,8 +36519,17 @@
       <c r="H997" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="998" spans="1:8">
+      <c r="I997" s="1">
+        <v>1</v>
+      </c>
+      <c r="J997">
+        <v>0</v>
+      </c>
+      <c r="K997">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="1:11">
       <c r="A998" s="2">
         <v>1</v>
       </c>
@@ -35739,7 +36555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="999" spans="1:8">
+    <row r="999" spans="1:11">
       <c r="A999" s="2">
         <v>1</v>
       </c>
@@ -35765,7 +36581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1000" spans="1:8">
+    <row r="1000" spans="1:11">
       <c r="A1000" s="2">
         <v>1</v>
       </c>
@@ -35791,7 +36607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1001" spans="1:8">
+    <row r="1001" spans="1:11">
       <c r="A1001" s="2">
         <v>0</v>
       </c>
@@ -35817,7 +36633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1002" spans="1:8">
+    <row r="1002" spans="1:11">
       <c r="A1002" s="2">
         <v>0</v>
       </c>
@@ -35843,7 +36659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1003" spans="1:8">
+    <row r="1003" spans="1:11">
       <c r="A1003" s="2">
         <v>1</v>
       </c>
@@ -35869,7 +36685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1004" spans="1:8">
+    <row r="1004" spans="1:11">
       <c r="A1004" s="2">
         <v>0</v>
       </c>
@@ -35895,7 +36711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1005" spans="1:8">
+    <row r="1005" spans="1:11">
       <c r="A1005" s="2">
         <v>1</v>
       </c>
@@ -35921,7 +36737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1006" spans="1:8">
+    <row r="1006" spans="1:11">
       <c r="A1006" s="2">
         <v>1</v>
       </c>
@@ -35947,7 +36763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1007" spans="1:8">
+    <row r="1007" spans="1:11">
       <c r="A1007" s="2">
         <v>1</v>
       </c>
@@ -35973,7 +36789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1008" spans="1:8">
+    <row r="1008" spans="1:11">
       <c r="A1008" s="2">
         <v>0</v>
       </c>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -2457,10 +2457,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F986" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G1026" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1004" sqref="I1004"/>
+      <selection pane="bottomRight" activeCell="I1038" sqref="I1038"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -36554,6 +36554,15 @@
       <c r="H998" t="s">
         <v>20</v>
       </c>
+      <c r="I998" s="1">
+        <v>1</v>
+      </c>
+      <c r="J998">
+        <v>0</v>
+      </c>
+      <c r="K998">
+        <v>0</v>
+      </c>
     </row>
     <row r="999" spans="1:11">
       <c r="A999" s="2">
@@ -36580,6 +36589,15 @@
       <c r="H999" t="s">
         <v>20</v>
       </c>
+      <c r="I999" s="1">
+        <v>1</v>
+      </c>
+      <c r="J999">
+        <v>0</v>
+      </c>
+      <c r="K999">
+        <v>0</v>
+      </c>
     </row>
     <row r="1000" spans="1:11">
       <c r="A1000" s="2">
@@ -36606,6 +36624,15 @@
       <c r="H1000" t="s">
         <v>20</v>
       </c>
+      <c r="I1000" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1000">
+        <v>0</v>
+      </c>
+      <c r="K1000">
+        <v>0</v>
+      </c>
     </row>
     <row r="1001" spans="1:11">
       <c r="A1001" s="2">
@@ -36632,6 +36659,15 @@
       <c r="H1001" t="s">
         <v>20</v>
       </c>
+      <c r="I1001" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1001">
+        <v>0</v>
+      </c>
+      <c r="K1001">
+        <v>1</v>
+      </c>
     </row>
     <row r="1002" spans="1:11">
       <c r="A1002" s="2">
@@ -36658,6 +36694,15 @@
       <c r="H1002" t="s">
         <v>13</v>
       </c>
+      <c r="I1002" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1002">
+        <v>0</v>
+      </c>
+      <c r="K1002">
+        <v>0</v>
+      </c>
     </row>
     <row r="1003" spans="1:11">
       <c r="A1003" s="2">
@@ -36684,6 +36729,15 @@
       <c r="H1003" t="s">
         <v>13</v>
       </c>
+      <c r="I1003" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1003">
+        <v>0</v>
+      </c>
+      <c r="K1003">
+        <v>0</v>
+      </c>
     </row>
     <row r="1004" spans="1:11">
       <c r="A1004" s="2">
@@ -36710,6 +36764,15 @@
       <c r="H1004" t="s">
         <v>13</v>
       </c>
+      <c r="I1004" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1004">
+        <v>0</v>
+      </c>
+      <c r="K1004">
+        <v>0</v>
+      </c>
     </row>
     <row r="1005" spans="1:11">
       <c r="A1005" s="2">
@@ -36736,6 +36799,15 @@
       <c r="H1005" t="s">
         <v>20</v>
       </c>
+      <c r="I1005" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1005">
+        <v>0</v>
+      </c>
+      <c r="K1005">
+        <v>0</v>
+      </c>
     </row>
     <row r="1006" spans="1:11">
       <c r="A1006" s="2">
@@ -36762,6 +36834,15 @@
       <c r="H1006" t="s">
         <v>20</v>
       </c>
+      <c r="I1006" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1006">
+        <v>0</v>
+      </c>
+      <c r="K1006">
+        <v>0</v>
+      </c>
     </row>
     <row r="1007" spans="1:11">
       <c r="A1007" s="2">
@@ -36788,6 +36869,15 @@
       <c r="H1007" t="s">
         <v>20</v>
       </c>
+      <c r="I1007" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1007">
+        <v>0</v>
+      </c>
+      <c r="K1007">
+        <v>0</v>
+      </c>
     </row>
     <row r="1008" spans="1:11">
       <c r="A1008" s="2">
@@ -36814,8 +36904,17 @@
       <c r="H1008" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1009" spans="1:8">
+      <c r="I1008" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1008">
+        <v>0</v>
+      </c>
+      <c r="K1008">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:11">
       <c r="A1009" s="2">
         <v>0</v>
       </c>
@@ -36840,8 +36939,17 @@
       <c r="H1009" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1010" spans="1:8">
+      <c r="I1009" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1009">
+        <v>0</v>
+      </c>
+      <c r="K1009">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:11">
       <c r="A1010" s="2">
         <v>1</v>
       </c>
@@ -36866,8 +36974,17 @@
       <c r="H1010" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1011" spans="1:8">
+      <c r="I1010" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1010">
+        <v>1</v>
+      </c>
+      <c r="K1010">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:11">
       <c r="A1011" s="2">
         <v>1</v>
       </c>
@@ -36892,8 +37009,17 @@
       <c r="H1011" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1012" spans="1:8">
+      <c r="I1011" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1011">
+        <v>0</v>
+      </c>
+      <c r="K1011">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:11">
       <c r="A1012" s="2">
         <v>1</v>
       </c>
@@ -36918,8 +37044,17 @@
       <c r="H1012" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1013" spans="1:8">
+      <c r="I1012" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1012">
+        <v>1</v>
+      </c>
+      <c r="K1012">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:11">
       <c r="A1013" s="2">
         <v>1</v>
       </c>
@@ -36944,8 +37079,17 @@
       <c r="H1013" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1014" spans="1:8">
+      <c r="I1013" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1013">
+        <v>1</v>
+      </c>
+      <c r="K1013">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:11">
       <c r="A1014" s="2">
         <v>1</v>
       </c>
@@ -36970,8 +37114,17 @@
       <c r="H1014" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1015" spans="1:8">
+      <c r="I1014" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1014">
+        <v>1</v>
+      </c>
+      <c r="K1014">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:11">
       <c r="A1015" s="2">
         <v>1</v>
       </c>
@@ -36996,8 +37149,17 @@
       <c r="H1015" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1016" spans="1:8">
+      <c r="I1015" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1015">
+        <v>0</v>
+      </c>
+      <c r="K1015">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:11">
       <c r="A1016" s="2">
         <v>1</v>
       </c>
@@ -37022,8 +37184,17 @@
       <c r="H1016" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1017" spans="1:8">
+      <c r="I1016" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1016">
+        <v>0</v>
+      </c>
+      <c r="K1016">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:11">
       <c r="A1017" s="2">
         <v>0</v>
       </c>
@@ -37048,8 +37219,17 @@
       <c r="H1017" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1018" spans="1:8">
+      <c r="I1017" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1017">
+        <v>0</v>
+      </c>
+      <c r="K1017">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:11">
       <c r="A1018" s="2">
         <v>1</v>
       </c>
@@ -37074,8 +37254,17 @@
       <c r="H1018" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1019" spans="1:8">
+      <c r="I1018" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1018">
+        <v>1</v>
+      </c>
+      <c r="K1018">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:11">
       <c r="A1019" s="2">
         <v>1</v>
       </c>
@@ -37100,8 +37289,17 @@
       <c r="H1019" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1020" spans="1:8">
+      <c r="I1019" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1019">
+        <v>1</v>
+      </c>
+      <c r="K1019">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:11">
       <c r="A1020" s="2">
         <v>1</v>
       </c>
@@ -37126,8 +37324,17 @@
       <c r="H1020" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1021" spans="1:8">
+      <c r="I1020" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1020">
+        <v>1</v>
+      </c>
+      <c r="K1020">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:11">
       <c r="A1021" s="2">
         <v>1</v>
       </c>
@@ -37152,8 +37359,17 @@
       <c r="H1021" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1022" spans="1:8">
+      <c r="I1021" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1021">
+        <v>1</v>
+      </c>
+      <c r="K1021">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:11">
       <c r="A1022" s="2">
         <v>1</v>
       </c>
@@ -37178,8 +37394,17 @@
       <c r="H1022" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1023" spans="1:8">
+      <c r="I1022" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1022">
+        <v>0</v>
+      </c>
+      <c r="K1022">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:11">
       <c r="A1023" s="2">
         <v>1</v>
       </c>
@@ -37204,8 +37429,17 @@
       <c r="H1023" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1024" spans="1:8">
+      <c r="I1023" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1023">
+        <v>1</v>
+      </c>
+      <c r="K1023">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:11">
       <c r="A1024" s="2">
         <v>0</v>
       </c>
@@ -37230,8 +37464,17 @@
       <c r="H1024" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1025" spans="1:8">
+      <c r="I1024" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1024">
+        <v>0</v>
+      </c>
+      <c r="K1024">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:11">
       <c r="A1025" s="2">
         <v>1</v>
       </c>
@@ -37256,8 +37499,17 @@
       <c r="H1025" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1026" spans="1:8">
+      <c r="I1025" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1025">
+        <v>1</v>
+      </c>
+      <c r="K1025">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:11">
       <c r="A1026" s="2">
         <v>1</v>
       </c>
@@ -37282,8 +37534,17 @@
       <c r="H1026" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1027" spans="1:8">
+      <c r="I1026" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1026">
+        <v>1</v>
+      </c>
+      <c r="K1026">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:11">
       <c r="A1027" s="2">
         <v>1</v>
       </c>
@@ -37308,8 +37569,17 @@
       <c r="H1027" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1028" spans="1:8">
+      <c r="I1027" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1027">
+        <v>1</v>
+      </c>
+      <c r="K1027">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:11">
       <c r="A1028" s="2">
         <v>0</v>
       </c>
@@ -37334,8 +37604,17 @@
       <c r="H1028" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1029" spans="1:8">
+      <c r="I1028" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1028">
+        <v>0</v>
+      </c>
+      <c r="K1028">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:11">
       <c r="A1029" s="2">
         <v>1</v>
       </c>
@@ -37360,8 +37639,17 @@
       <c r="H1029" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1030" spans="1:8">
+      <c r="I1029" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1029">
+        <v>1</v>
+      </c>
+      <c r="K1029">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:11">
       <c r="A1030" s="2">
         <v>1</v>
       </c>
@@ -37386,8 +37674,17 @@
       <c r="H1030" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1031" spans="1:8">
+      <c r="I1030" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1030">
+        <v>1</v>
+      </c>
+      <c r="K1030">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:11">
       <c r="A1031" s="2">
         <v>1</v>
       </c>
@@ -37412,8 +37709,17 @@
       <c r="H1031" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1032" spans="1:8">
+      <c r="I1031" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1031">
+        <v>1</v>
+      </c>
+      <c r="K1031">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:11">
       <c r="A1032" s="2">
         <v>1</v>
       </c>
@@ -37438,8 +37744,17 @@
       <c r="H1032" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1033" spans="1:8">
+      <c r="I1032" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1032">
+        <v>1</v>
+      </c>
+      <c r="K1032">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:11">
       <c r="A1033" s="2">
         <v>1</v>
       </c>
@@ -37464,8 +37779,17 @@
       <c r="H1033" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1034" spans="1:8">
+      <c r="I1033" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1033">
+        <v>0</v>
+      </c>
+      <c r="K1033">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:11">
       <c r="A1034" s="2">
         <v>1</v>
       </c>
@@ -37490,8 +37814,17 @@
       <c r="H1034" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1035" spans="1:8">
+      <c r="I1034" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1034">
+        <v>1</v>
+      </c>
+      <c r="K1034">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:11">
       <c r="A1035" s="2">
         <v>0</v>
       </c>
@@ -37516,8 +37849,17 @@
       <c r="H1035" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1036" spans="1:8">
+      <c r="I1035" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1035">
+        <v>0</v>
+      </c>
+      <c r="K1035">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:11">
       <c r="A1036" s="2">
         <v>1</v>
       </c>
@@ -37542,8 +37884,17 @@
       <c r="H1036" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1037" spans="1:8">
+      <c r="I1036" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1036">
+        <v>0</v>
+      </c>
+      <c r="K1036">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:11">
       <c r="A1037" s="2">
         <v>0</v>
       </c>
@@ -37568,8 +37919,17 @@
       <c r="H1037" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1038" spans="1:8">
+      <c r="I1037" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1037">
+        <v>1</v>
+      </c>
+      <c r="K1037">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:11">
       <c r="A1038" s="2">
         <v>1</v>
       </c>
@@ -37595,7 +37955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1039" spans="1:8">
+    <row r="1039" spans="1:11">
       <c r="A1039" s="2">
         <v>0</v>
       </c>
@@ -37621,7 +37981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1040" spans="1:8">
+    <row r="1040" spans="1:11">
       <c r="A1040" s="2">
         <v>1</v>
       </c>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-5380" yWindow="0" windowWidth="16140" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="-6520" yWindow="0" windowWidth="16780" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6810" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7112" uniqueCount="648">
   <si>
     <t>Agent.Embod</t>
   </si>
@@ -1960,6 +1960,9 @@
   </si>
   <si>
     <t xml:space="preserve">Watch in previous clips how he does old lady (always points to glasses)  and watch how he does girl in clip 256 "Fireman kicks girl. Based on that, in this clip 256 "girl elbows old lady" the word order might be OSV. Old lady  when he points to glasses and girl might be the triangle figure he draws. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you open the clip it's 7 mins long and says it's clip 279 instead. Weird. </t>
   </si>
 </sst>
 </file>
@@ -2027,8 +2030,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2082,7 +2089,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
@@ -2100,6 +2107,8 @@
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
@@ -2117,6 +2126,8 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2457,10 +2468,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G1026" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F1135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1038" sqref="I1038"/>
+      <selection pane="bottomRight" activeCell="I1152" sqref="I1152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -37954,6 +37965,15 @@
       <c r="H1038" t="s">
         <v>20</v>
       </c>
+      <c r="I1038" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1038">
+        <v>1</v>
+      </c>
+      <c r="K1038">
+        <v>1</v>
+      </c>
     </row>
     <row r="1039" spans="1:11">
       <c r="A1039" s="2">
@@ -37980,6 +38000,15 @@
       <c r="H1039" t="s">
         <v>13</v>
       </c>
+      <c r="I1039" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1039">
+        <v>0</v>
+      </c>
+      <c r="K1039">
+        <v>0</v>
+      </c>
     </row>
     <row r="1040" spans="1:11">
       <c r="A1040" s="2">
@@ -38006,8 +38035,17 @@
       <c r="H1040" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1041" spans="1:8">
+      <c r="I1040" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1040">
+        <v>0</v>
+      </c>
+      <c r="K1040">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:12">
       <c r="A1041" s="2">
         <v>0</v>
       </c>
@@ -38032,8 +38070,17 @@
       <c r="H1041" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1042" spans="1:8">
+      <c r="I1041" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1041">
+        <v>0</v>
+      </c>
+      <c r="K1041">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:12">
       <c r="A1042" s="2" t="s">
         <v>349</v>
       </c>
@@ -38058,8 +38105,20 @@
       <c r="H1042" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1043" spans="1:8">
+      <c r="I1042" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1042" t="s">
+        <v>349</v>
+      </c>
+      <c r="K1042" t="s">
+        <v>349</v>
+      </c>
+      <c r="L1042" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:12">
       <c r="A1043" s="2" t="s">
         <v>349</v>
       </c>
@@ -38084,8 +38143,17 @@
       <c r="H1043" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="1044" spans="1:8">
+      <c r="I1043" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1043" t="s">
+        <v>349</v>
+      </c>
+      <c r="K1043" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:12">
       <c r="A1044" s="2" t="s">
         <v>349</v>
       </c>
@@ -38110,8 +38178,17 @@
       <c r="H1044" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1045" spans="1:8">
+      <c r="I1044" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1044" t="s">
+        <v>349</v>
+      </c>
+      <c r="K1044" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:12">
       <c r="A1045" s="2" t="s">
         <v>349</v>
       </c>
@@ -38136,8 +38213,17 @@
       <c r="H1045" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="1046" spans="1:8">
+      <c r="I1045" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1045" t="s">
+        <v>349</v>
+      </c>
+      <c r="K1045" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:12">
       <c r="A1046" s="2">
         <v>1</v>
       </c>
@@ -38162,8 +38248,17 @@
       <c r="H1046" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1047" spans="1:8">
+      <c r="I1046" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1046">
+        <v>0</v>
+      </c>
+      <c r="K1046">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:12">
       <c r="A1047" s="2">
         <v>1</v>
       </c>
@@ -38188,8 +38283,17 @@
       <c r="H1047" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1048" spans="1:8">
+      <c r="I1047" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1047">
+        <v>1</v>
+      </c>
+      <c r="K1047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:12">
       <c r="A1048" s="2">
         <v>0</v>
       </c>
@@ -38214,8 +38318,17 @@
       <c r="H1048" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1049" spans="1:8">
+      <c r="I1048" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1048">
+        <v>0</v>
+      </c>
+      <c r="K1048">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:12">
       <c r="A1049" s="2">
         <v>1</v>
       </c>
@@ -38240,8 +38353,17 @@
       <c r="H1049" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1050" spans="1:8">
+      <c r="I1049" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1049">
+        <v>1</v>
+      </c>
+      <c r="K1049">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:12">
       <c r="A1050" s="2">
         <v>1</v>
       </c>
@@ -38266,8 +38388,17 @@
       <c r="H1050" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="1051" spans="1:8">
+      <c r="I1050" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1050">
+        <v>1</v>
+      </c>
+      <c r="K1050">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:12">
       <c r="A1051" s="2">
         <v>1</v>
       </c>
@@ -38292,8 +38423,17 @@
       <c r="H1051" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1052" spans="1:8">
+      <c r="I1051" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1051">
+        <v>1</v>
+      </c>
+      <c r="K1051">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:12">
       <c r="A1052" s="2">
         <v>0</v>
       </c>
@@ -38318,8 +38458,17 @@
       <c r="H1052" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1053" spans="1:8">
+      <c r="I1052" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1052">
+        <v>0</v>
+      </c>
+      <c r="K1052">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:12">
       <c r="A1053" s="2">
         <v>1</v>
       </c>
@@ -38344,8 +38493,17 @@
       <c r="H1053" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1054" spans="1:8">
+      <c r="I1053" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1053">
+        <v>1</v>
+      </c>
+      <c r="K1053">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:12">
       <c r="A1054" s="2">
         <v>1</v>
       </c>
@@ -38370,8 +38528,17 @@
       <c r="H1054" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="1055" spans="1:8">
+      <c r="I1054" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1054">
+        <v>1</v>
+      </c>
+      <c r="K1054">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:12">
       <c r="A1055" s="2">
         <v>1</v>
       </c>
@@ -38396,8 +38563,17 @@
       <c r="H1055" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1056" spans="1:8">
+      <c r="I1055" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1055">
+        <v>0</v>
+      </c>
+      <c r="K1055">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:12">
       <c r="A1056" s="2">
         <v>1</v>
       </c>
@@ -38422,8 +38598,17 @@
       <c r="H1056" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1057" spans="1:8">
+      <c r="I1056" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1056">
+        <v>1</v>
+      </c>
+      <c r="K1056">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:11">
       <c r="A1057" s="2">
         <v>1</v>
       </c>
@@ -38448,8 +38633,17 @@
       <c r="H1057" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1058" spans="1:8">
+      <c r="I1057" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1057">
+        <v>0</v>
+      </c>
+      <c r="K1057">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:11">
       <c r="A1058" s="2">
         <v>1</v>
       </c>
@@ -38474,8 +38668,17 @@
       <c r="H1058" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1059" spans="1:8">
+      <c r="I1058" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1058">
+        <v>1</v>
+      </c>
+      <c r="K1058">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:11">
       <c r="A1059" s="2">
         <v>1</v>
       </c>
@@ -38500,8 +38703,17 @@
       <c r="H1059" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1060" spans="1:8">
+      <c r="I1059" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1059">
+        <v>1</v>
+      </c>
+      <c r="K1059">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:11">
       <c r="A1060" s="2">
         <v>1</v>
       </c>
@@ -38526,8 +38738,17 @@
       <c r="H1060" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1061" spans="1:8">
+      <c r="I1060" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1060">
+        <v>1</v>
+      </c>
+      <c r="K1060">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:11">
       <c r="A1061" s="2">
         <v>1</v>
       </c>
@@ -38552,8 +38773,17 @@
       <c r="H1061" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1062" spans="1:8">
+      <c r="I1061" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1061">
+        <v>1</v>
+      </c>
+      <c r="K1061">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:11">
       <c r="A1062" s="2">
         <v>1</v>
       </c>
@@ -38578,8 +38808,17 @@
       <c r="H1062" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1063" spans="1:8">
+      <c r="I1062" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1062">
+        <v>1</v>
+      </c>
+      <c r="K1062">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:11">
       <c r="A1063" s="2">
         <v>0</v>
       </c>
@@ -38604,8 +38843,17 @@
       <c r="H1063" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1064" spans="1:8">
+      <c r="I1063" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1063">
+        <v>0</v>
+      </c>
+      <c r="K1063">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:11">
       <c r="A1064" s="2">
         <v>1</v>
       </c>
@@ -38630,8 +38878,17 @@
       <c r="H1064" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1065" spans="1:8">
+      <c r="I1064" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1064">
+        <v>1</v>
+      </c>
+      <c r="K1064">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:11">
       <c r="A1065" s="2">
         <v>1</v>
       </c>
@@ -38656,8 +38913,17 @@
       <c r="H1065" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1066" spans="1:8">
+      <c r="I1065" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1065">
+        <v>1</v>
+      </c>
+      <c r="K1065">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:11">
       <c r="A1066" s="2">
         <v>1</v>
       </c>
@@ -38682,8 +38948,17 @@
       <c r="H1066" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1067" spans="1:8">
+      <c r="I1066" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1066">
+        <v>1</v>
+      </c>
+      <c r="K1066">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:11">
       <c r="A1067" s="2">
         <v>0</v>
       </c>
@@ -38708,8 +38983,17 @@
       <c r="H1067" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1068" spans="1:8">
+      <c r="I1067" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1067">
+        <v>0</v>
+      </c>
+      <c r="K1067">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:11">
       <c r="A1068" s="2">
         <v>1</v>
       </c>
@@ -38734,8 +39018,17 @@
       <c r="H1068" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1069" spans="1:8">
+      <c r="I1068" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1068">
+        <v>1</v>
+      </c>
+      <c r="K1068">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:11">
       <c r="A1069" s="2">
         <v>1</v>
       </c>
@@ -38760,8 +39053,17 @@
       <c r="H1069" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1070" spans="1:8">
+      <c r="I1069" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1069" t="s">
+        <v>349</v>
+      </c>
+      <c r="K1069">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:11">
       <c r="A1070" s="2">
         <v>1</v>
       </c>
@@ -38786,8 +39088,17 @@
       <c r="H1070" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1071" spans="1:8">
+      <c r="I1070" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1070">
+        <v>1</v>
+      </c>
+      <c r="K1070">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:11">
       <c r="A1071" s="2">
         <v>1</v>
       </c>
@@ -38812,8 +39123,17 @@
       <c r="H1071" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1072" spans="1:8">
+      <c r="I1071" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1071">
+        <v>1</v>
+      </c>
+      <c r="K1071">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:11">
       <c r="A1072" s="2">
         <v>1</v>
       </c>
@@ -38838,8 +39158,17 @@
       <c r="H1072" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1073" spans="1:8">
+      <c r="I1072" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1072">
+        <v>1</v>
+      </c>
+      <c r="K1072">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:11">
       <c r="A1073" s="2">
         <v>1</v>
       </c>
@@ -38864,8 +39193,17 @@
       <c r="H1073" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1074" spans="1:8">
+      <c r="I1073" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1073">
+        <v>1</v>
+      </c>
+      <c r="K1073">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:11">
       <c r="A1074" s="2">
         <v>0</v>
       </c>
@@ -38890,8 +39228,17 @@
       <c r="H1074" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1075" spans="1:8">
+      <c r="I1074" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1074">
+        <v>0</v>
+      </c>
+      <c r="K1074">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:11">
       <c r="A1075" s="2">
         <v>1</v>
       </c>
@@ -38916,8 +39263,17 @@
       <c r="H1075" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1076" spans="1:8">
+      <c r="I1075" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1075">
+        <v>0</v>
+      </c>
+      <c r="K1075">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:11">
       <c r="A1076" s="2">
         <v>0</v>
       </c>
@@ -38942,8 +39298,17 @@
       <c r="H1076" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1077" spans="1:8">
+      <c r="I1076" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1076">
+        <v>0</v>
+      </c>
+      <c r="K1076">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:11">
       <c r="A1077" s="2">
         <v>1</v>
       </c>
@@ -38968,8 +39333,17 @@
       <c r="H1077" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1078" spans="1:8">
+      <c r="I1077" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1077">
+        <v>1</v>
+      </c>
+      <c r="K1077">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:11">
       <c r="A1078" s="2">
         <v>1</v>
       </c>
@@ -38994,8 +39368,17 @@
       <c r="H1078" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1079" spans="1:8">
+      <c r="I1078" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1078">
+        <v>1</v>
+      </c>
+      <c r="K1078">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:11">
       <c r="A1079" s="2">
         <v>1</v>
       </c>
@@ -39020,8 +39403,17 @@
       <c r="H1079" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1080" spans="1:8">
+      <c r="I1079" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1079">
+        <v>1</v>
+      </c>
+      <c r="K1079">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:11">
       <c r="A1080" s="2">
         <v>1</v>
       </c>
@@ -39046,8 +39438,17 @@
       <c r="H1080" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1081" spans="1:8">
+      <c r="I1080" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1080">
+        <v>0</v>
+      </c>
+      <c r="K1080">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:11">
       <c r="A1081" s="2">
         <v>1</v>
       </c>
@@ -39072,8 +39473,17 @@
       <c r="H1081" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1082" spans="1:8">
+      <c r="I1081" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1081">
+        <v>1</v>
+      </c>
+      <c r="K1081">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:11">
       <c r="A1082" s="2">
         <v>0</v>
       </c>
@@ -39098,8 +39508,17 @@
       <c r="H1082" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1083" spans="1:8">
+      <c r="I1082" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1082">
+        <v>1</v>
+      </c>
+      <c r="K1082">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:11">
       <c r="A1083" s="2">
         <v>1</v>
       </c>
@@ -39124,8 +39543,17 @@
       <c r="H1083" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1084" spans="1:8">
+      <c r="I1083" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1083">
+        <v>0</v>
+      </c>
+      <c r="K1083">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:11">
       <c r="A1084" s="2">
         <v>1</v>
       </c>
@@ -39150,8 +39578,17 @@
       <c r="H1084" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1085" spans="1:8">
+      <c r="I1084" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1084">
+        <v>0</v>
+      </c>
+      <c r="K1084">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:11">
       <c r="A1085" s="2">
         <v>1</v>
       </c>
@@ -39176,8 +39613,17 @@
       <c r="H1085" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1086" spans="1:8">
+      <c r="I1085" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1085">
+        <v>0</v>
+      </c>
+      <c r="K1085">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:11">
       <c r="A1086" s="2">
         <v>1</v>
       </c>
@@ -39202,8 +39648,17 @@
       <c r="H1086" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1087" spans="1:8">
+      <c r="I1086" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1086">
+        <v>1</v>
+      </c>
+      <c r="K1086">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:11">
       <c r="A1087" s="2">
         <v>0</v>
       </c>
@@ -39228,8 +39683,17 @@
       <c r="H1087" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1088" spans="1:8">
+      <c r="I1087" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1087">
+        <v>0</v>
+      </c>
+      <c r="K1087">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:11">
       <c r="A1088" s="2">
         <v>1</v>
       </c>
@@ -39254,8 +39718,17 @@
       <c r="H1088" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1089" spans="1:8">
+      <c r="I1088" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1088">
+        <v>0</v>
+      </c>
+      <c r="K1088">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:11">
       <c r="A1089" s="2">
         <v>1</v>
       </c>
@@ -39280,8 +39753,17 @@
       <c r="H1089" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1090" spans="1:8">
+      <c r="I1089" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1089">
+        <v>0</v>
+      </c>
+      <c r="K1089">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:11">
       <c r="A1090" s="2">
         <v>1</v>
       </c>
@@ -39306,8 +39788,17 @@
       <c r="H1090" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1091" spans="1:8">
+      <c r="I1090" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1090">
+        <v>0</v>
+      </c>
+      <c r="K1090">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:11">
       <c r="A1091" s="2">
         <v>0</v>
       </c>
@@ -39332,8 +39823,17 @@
       <c r="H1091" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1092" spans="1:8">
+      <c r="I1091" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1091">
+        <v>0</v>
+      </c>
+      <c r="K1091">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:11">
       <c r="A1092" s="2">
         <v>1</v>
       </c>
@@ -39358,8 +39858,17 @@
       <c r="H1092" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1093" spans="1:8">
+      <c r="I1092" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1092">
+        <v>0</v>
+      </c>
+      <c r="K1092">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:11">
       <c r="A1093" s="2">
         <v>1</v>
       </c>
@@ -39384,8 +39893,17 @@
       <c r="H1093" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1094" spans="1:8">
+      <c r="I1093" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1093">
+        <v>0</v>
+      </c>
+      <c r="K1093">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:11">
       <c r="A1094" s="2">
         <v>1</v>
       </c>
@@ -39410,8 +39928,17 @@
       <c r="H1094" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1095" spans="1:8">
+      <c r="I1094" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1094">
+        <v>0</v>
+      </c>
+      <c r="K1094">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:11">
       <c r="A1095" s="2">
         <v>1</v>
       </c>
@@ -39436,8 +39963,17 @@
       <c r="H1095" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1096" spans="1:8">
+      <c r="I1095" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1095">
+        <v>1</v>
+      </c>
+      <c r="K1095">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:11">
       <c r="A1096" s="2">
         <v>1</v>
       </c>
@@ -39462,8 +39998,17 @@
       <c r="H1096" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1097" spans="1:8">
+      <c r="I1096" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1096">
+        <v>0</v>
+      </c>
+      <c r="K1096">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:11">
       <c r="A1097" s="2">
         <v>1</v>
       </c>
@@ -39488,8 +40033,17 @@
       <c r="H1097" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1098" spans="1:8">
+      <c r="I1097" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1097">
+        <v>0</v>
+      </c>
+      <c r="K1097">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:11">
       <c r="A1098" s="2">
         <v>0</v>
       </c>
@@ -39514,8 +40068,17 @@
       <c r="H1098" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1099" spans="1:8">
+      <c r="I1098" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1098">
+        <v>0</v>
+      </c>
+      <c r="K1098">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:11">
       <c r="A1099" s="2">
         <v>1</v>
       </c>
@@ -39540,8 +40103,17 @@
       <c r="H1099" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1100" spans="1:8">
+      <c r="I1099" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1099">
+        <v>0</v>
+      </c>
+      <c r="K1099">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:11">
       <c r="A1100" s="2">
         <v>0</v>
       </c>
@@ -39566,8 +40138,17 @@
       <c r="H1100" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1101" spans="1:8">
+      <c r="I1100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1100">
+        <v>0</v>
+      </c>
+      <c r="K1100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:11">
       <c r="A1101" s="2">
         <v>1</v>
       </c>
@@ -39592,8 +40173,17 @@
       <c r="H1101" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1102" spans="1:8">
+      <c r="I1101" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1101">
+        <v>0</v>
+      </c>
+      <c r="K1101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:11">
       <c r="A1102" s="2">
         <v>1</v>
       </c>
@@ -39618,8 +40208,17 @@
       <c r="H1102" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1103" spans="1:8">
+      <c r="I1102" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1102">
+        <v>0</v>
+      </c>
+      <c r="K1102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:11">
       <c r="A1103" s="2">
         <v>1</v>
       </c>
@@ -39644,8 +40243,17 @@
       <c r="H1103" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1104" spans="1:8">
+      <c r="I1103" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1103">
+        <v>0</v>
+      </c>
+      <c r="K1103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:11">
       <c r="A1104" s="2">
         <v>1</v>
       </c>
@@ -39670,8 +40278,17 @@
       <c r="H1104" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1105" spans="1:8">
+      <c r="I1104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1104">
+        <v>0</v>
+      </c>
+      <c r="K1104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:11">
       <c r="A1105" s="2">
         <v>1</v>
       </c>
@@ -39696,8 +40313,17 @@
       <c r="H1105" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1106" spans="1:8">
+      <c r="I1105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1105">
+        <v>1</v>
+      </c>
+      <c r="K1105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:11">
       <c r="A1106" s="2">
         <v>0</v>
       </c>
@@ -39722,8 +40348,17 @@
       <c r="H1106" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1107" spans="1:8">
+      <c r="I1106" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1106">
+        <v>0</v>
+      </c>
+      <c r="K1106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:11">
       <c r="A1107" s="2">
         <v>1</v>
       </c>
@@ -39748,8 +40383,17 @@
       <c r="H1107" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1108" spans="1:8">
+      <c r="I1107" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1107">
+        <v>1</v>
+      </c>
+      <c r="K1107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:11">
       <c r="A1108" s="2">
         <v>1</v>
       </c>
@@ -39774,8 +40418,17 @@
       <c r="H1108" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1109" spans="1:8">
+      <c r="I1108" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1108">
+        <v>1</v>
+      </c>
+      <c r="K1108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:11">
       <c r="A1109" s="2">
         <v>1</v>
       </c>
@@ -39800,8 +40453,17 @@
       <c r="H1109" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1110" spans="1:8">
+      <c r="I1109" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1109">
+        <v>1</v>
+      </c>
+      <c r="K1109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:11">
       <c r="A1110" s="2">
         <v>1</v>
       </c>
@@ -39826,8 +40488,17 @@
       <c r="H1110" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="1111" spans="1:8">
+      <c r="I1110" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1110">
+        <v>1</v>
+      </c>
+      <c r="K1110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:11">
       <c r="A1111" s="2">
         <v>0</v>
       </c>
@@ -39852,8 +40523,17 @@
       <c r="H1111" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1112" spans="1:8">
+      <c r="I1111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1111">
+        <v>1</v>
+      </c>
+      <c r="K1111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:11">
       <c r="A1112" s="2">
         <v>1</v>
       </c>
@@ -39878,8 +40558,17 @@
       <c r="H1112" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1113" spans="1:8">
+      <c r="I1112" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1112">
+        <v>1</v>
+      </c>
+      <c r="K1112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:11">
       <c r="A1113" s="2">
         <v>1</v>
       </c>
@@ -39904,8 +40593,17 @@
       <c r="H1113" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1114" spans="1:8">
+      <c r="I1113" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1113">
+        <v>1</v>
+      </c>
+      <c r="K1113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:11">
       <c r="A1114" s="2">
         <v>1</v>
       </c>
@@ -39930,8 +40628,17 @@
       <c r="H1114" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1115" spans="1:8">
+      <c r="I1114" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1114">
+        <v>1</v>
+      </c>
+      <c r="K1114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:11">
       <c r="A1115" s="2">
         <v>0</v>
       </c>
@@ -39956,8 +40663,17 @@
       <c r="H1115" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1116" spans="1:8">
+      <c r="I1115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1115">
+        <v>0</v>
+      </c>
+      <c r="K1115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:11">
       <c r="A1116" s="4">
         <v>1</v>
       </c>
@@ -39982,8 +40698,17 @@
       <c r="H1116" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1117" spans="1:8">
+      <c r="I1116" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1116">
+        <v>1</v>
+      </c>
+      <c r="K1116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:11">
       <c r="A1117" s="4">
         <v>1</v>
       </c>
@@ -40008,8 +40733,17 @@
       <c r="H1117" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1118" spans="1:8">
+      <c r="I1117" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1117">
+        <v>1</v>
+      </c>
+      <c r="K1117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:11">
       <c r="A1118" s="4">
         <v>1</v>
       </c>
@@ -40034,8 +40768,17 @@
       <c r="H1118" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1119" spans="1:8">
+      <c r="I1118" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1118">
+        <v>1</v>
+      </c>
+      <c r="K1118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:11">
       <c r="A1119" s="4">
         <v>1</v>
       </c>
@@ -40060,8 +40803,17 @@
       <c r="H1119" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1120" spans="1:8">
+      <c r="I1119" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1119">
+        <v>1</v>
+      </c>
+      <c r="K1119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:11">
       <c r="A1120" s="4">
         <v>1</v>
       </c>
@@ -40086,8 +40838,17 @@
       <c r="H1120" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1121" spans="1:8">
+      <c r="I1120" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1120">
+        <v>1</v>
+      </c>
+      <c r="K1120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:11">
       <c r="A1121" s="4">
         <v>1</v>
       </c>
@@ -40112,8 +40873,17 @@
       <c r="H1121" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1122" spans="1:8">
+      <c r="I1121" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1121">
+        <v>1</v>
+      </c>
+      <c r="K1121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:11">
       <c r="A1122" s="4">
         <v>0</v>
       </c>
@@ -40138,8 +40908,17 @@
       <c r="H1122" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1123" spans="1:8">
+      <c r="I1122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1122">
+        <v>1</v>
+      </c>
+      <c r="K1122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:11">
       <c r="A1123" s="4">
         <v>1</v>
       </c>
@@ -40164,8 +40943,17 @@
       <c r="H1123" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1124" spans="1:8">
+      <c r="I1123" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1123">
+        <v>1</v>
+      </c>
+      <c r="K1123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:11">
       <c r="A1124" s="4">
         <v>0</v>
       </c>
@@ -40190,8 +40978,17 @@
       <c r="H1124" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1125" spans="1:8">
+      <c r="I1124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1124">
+        <v>0</v>
+      </c>
+      <c r="K1124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:11">
       <c r="A1125" s="4">
         <v>1</v>
       </c>
@@ -40216,8 +41013,17 @@
       <c r="H1125" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="1126" spans="1:8">
+      <c r="I1125" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1125">
+        <v>1</v>
+      </c>
+      <c r="K1125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:11">
       <c r="A1126" s="4">
         <v>1</v>
       </c>
@@ -40242,8 +41048,17 @@
       <c r="H1126" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1127" spans="1:8">
+      <c r="I1126" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1126">
+        <v>1</v>
+      </c>
+      <c r="K1126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:11">
       <c r="A1127" s="4">
         <v>1</v>
       </c>
@@ -40268,8 +41083,17 @@
       <c r="H1127" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1128" spans="1:8">
+      <c r="I1127" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1127">
+        <v>1</v>
+      </c>
+      <c r="K1127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:11">
       <c r="A1128" s="4">
         <v>1</v>
       </c>
@@ -40294,8 +41118,17 @@
       <c r="H1128" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1129" spans="1:8">
+      <c r="I1128" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1128">
+        <v>1</v>
+      </c>
+      <c r="K1128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:11">
       <c r="A1129" s="2">
         <v>1</v>
       </c>
@@ -40320,8 +41153,17 @@
       <c r="H1129" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1130" spans="1:8">
+      <c r="I1129" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1129">
+        <v>1</v>
+      </c>
+      <c r="K1129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:11">
       <c r="A1130" s="2">
         <v>1</v>
       </c>
@@ -40346,8 +41188,17 @@
       <c r="H1130" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1131" spans="1:8">
+      <c r="I1130" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1130">
+        <v>0</v>
+      </c>
+      <c r="K1130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:11">
       <c r="A1131" s="2">
         <v>0</v>
       </c>
@@ -40372,8 +41223,17 @@
       <c r="H1131" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1132" spans="1:8">
+      <c r="I1131" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1131">
+        <v>1</v>
+      </c>
+      <c r="K1131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:11">
       <c r="A1132" s="2">
         <v>0</v>
       </c>
@@ -40398,8 +41258,17 @@
       <c r="H1132" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1133" spans="1:8">
+      <c r="I1132" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1132">
+        <v>1</v>
+      </c>
+      <c r="K1132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:11">
       <c r="A1133" s="2">
         <v>0</v>
       </c>
@@ -40424,8 +41293,17 @@
       <c r="H1133" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="1134" spans="1:8">
+      <c r="I1133" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1133">
+        <v>1</v>
+      </c>
+      <c r="K1133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:11">
       <c r="A1134" s="2">
         <v>0</v>
       </c>
@@ -40450,8 +41328,17 @@
       <c r="H1134" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1135" spans="1:8">
+      <c r="I1134" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1134">
+        <v>1</v>
+      </c>
+      <c r="K1134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:11">
       <c r="A1135" s="2">
         <v>0</v>
       </c>
@@ -40476,8 +41363,17 @@
       <c r="H1135" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1136" spans="1:8">
+      <c r="I1135" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1135">
+        <v>0</v>
+      </c>
+      <c r="K1135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:11">
       <c r="A1136" s="2">
         <v>0</v>
       </c>
@@ -40502,8 +41398,17 @@
       <c r="H1136" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1137" spans="1:8">
+      <c r="I1136" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1136">
+        <v>1</v>
+      </c>
+      <c r="K1136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:11">
       <c r="A1137" s="2">
         <v>0</v>
       </c>
@@ -40528,8 +41433,17 @@
       <c r="H1137" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1138" spans="1:8">
+      <c r="I1137" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1137">
+        <v>1</v>
+      </c>
+      <c r="K1137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:11">
       <c r="A1138" s="2">
         <v>0</v>
       </c>
@@ -40554,8 +41468,17 @@
       <c r="H1138" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1139" spans="1:8">
+      <c r="I1138" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1138">
+        <v>1</v>
+      </c>
+      <c r="K1138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:11">
       <c r="A1139" s="2">
         <v>0</v>
       </c>
@@ -40580,8 +41503,17 @@
       <c r="H1139" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1140" spans="1:8">
+      <c r="I1139" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1139">
+        <v>0</v>
+      </c>
+      <c r="K1139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:11">
       <c r="A1140" s="2">
         <v>0</v>
       </c>
@@ -40606,8 +41538,17 @@
       <c r="H1140" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="1141" spans="1:8">
+      <c r="I1140" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1140">
+        <v>1</v>
+      </c>
+      <c r="K1140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:11">
       <c r="A1141" s="2">
         <v>0</v>
       </c>
@@ -40632,8 +41573,17 @@
       <c r="H1141" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1142" spans="1:8">
+      <c r="I1141" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1141">
+        <v>0</v>
+      </c>
+      <c r="K1141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:11">
       <c r="A1142" s="2">
         <v>0</v>
       </c>
@@ -40658,8 +41608,17 @@
       <c r="H1142" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1143" spans="1:8">
+      <c r="I1142" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1142">
+        <v>0</v>
+      </c>
+      <c r="K1142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:11">
       <c r="A1143" s="2">
         <v>0</v>
       </c>
@@ -40684,8 +41643,17 @@
       <c r="H1143" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1144" spans="1:8">
+      <c r="I1143" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1143">
+        <v>0</v>
+      </c>
+      <c r="K1143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:11">
       <c r="A1144" s="2">
         <v>0</v>
       </c>
@@ -40710,8 +41678,17 @@
       <c r="H1144" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="1145" spans="1:8">
+      <c r="I1144" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1144">
+        <v>1</v>
+      </c>
+      <c r="K1144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:11">
       <c r="A1145" s="2">
         <v>0</v>
       </c>
@@ -40736,8 +41713,17 @@
       <c r="H1145" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1146" spans="1:8">
+      <c r="I1145" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1145">
+        <v>1</v>
+      </c>
+      <c r="K1145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:11">
       <c r="A1146" s="2">
         <v>0</v>
       </c>
@@ -40762,8 +41748,17 @@
       <c r="H1146" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1147" spans="1:8">
+      <c r="I1146" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1146">
+        <v>0</v>
+      </c>
+      <c r="K1146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:11">
       <c r="A1147" s="2">
         <v>0</v>
       </c>
@@ -40788,8 +41783,17 @@
       <c r="H1147" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1148" spans="1:8">
+      <c r="I1147" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1147">
+        <v>1</v>
+      </c>
+      <c r="K1147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:11">
       <c r="A1148" s="2">
         <v>0</v>
       </c>
@@ -40814,8 +41818,17 @@
       <c r="H1148" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1149" spans="1:8">
+      <c r="I1148" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1148">
+        <v>0</v>
+      </c>
+      <c r="K1148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:11">
       <c r="A1149" s="2">
         <v>0</v>
       </c>
@@ -40840,8 +41853,17 @@
       <c r="H1149" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="1150" spans="1:8">
+      <c r="I1149" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1149">
+        <v>1</v>
+      </c>
+      <c r="K1149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:11">
       <c r="A1150" s="2">
         <v>0</v>
       </c>
@@ -40867,7 +41889,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1151" spans="1:8">
+    <row r="1151" spans="1:11">
       <c r="A1151" s="2">
         <v>0</v>
       </c>
@@ -40893,7 +41915,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="1152" spans="1:8">
+    <row r="1152" spans="1:11">
       <c r="A1152" s="2">
         <v>0</v>
       </c>
@@ -48839,7 +49861,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="1441" spans="1:8">
+    <row r="1441" spans="1:11">
       <c r="A1441" s="2">
         <v>1</v>
       </c>
@@ -48865,7 +49887,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="1442" spans="1:8">
+    <row r="1442" spans="1:11">
       <c r="A1442" s="3" t="s">
         <v>82</v>
       </c>
@@ -48890,8 +49912,17 @@
       <c r="H1442" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1443" spans="1:8">
+      <c r="I1442" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1442" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1442" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:11">
       <c r="A1443" s="3" t="s">
         <v>82</v>
       </c>
@@ -48916,8 +49947,17 @@
       <c r="H1443" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1444" spans="1:8">
+      <c r="I1443" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1443" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1443" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:11">
       <c r="A1444" s="3" t="s">
         <v>82</v>
       </c>
@@ -48942,8 +49982,17 @@
       <c r="H1444" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1445" spans="1:8">
+      <c r="I1444" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1444" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1444" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:11">
       <c r="A1445" s="3" t="s">
         <v>82</v>
       </c>
@@ -48968,8 +50017,17 @@
       <c r="H1445" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1446" spans="1:8">
+      <c r="I1445" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1445" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1445" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:11">
       <c r="A1446" s="3" t="s">
         <v>82</v>
       </c>
@@ -48994,8 +50052,17 @@
       <c r="H1446" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1447" spans="1:8">
+      <c r="I1446" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1446" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1446" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:11">
       <c r="A1447" s="3" t="s">
         <v>82</v>
       </c>
@@ -49020,8 +50087,17 @@
       <c r="H1447" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1448" spans="1:8">
+      <c r="I1447" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1447" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1447" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:11">
       <c r="A1448" s="3" t="s">
         <v>82</v>
       </c>
@@ -49046,8 +50122,17 @@
       <c r="H1448" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1449" spans="1:8">
+      <c r="I1448" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1448" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1448" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:11">
       <c r="A1449" s="3" t="s">
         <v>82</v>
       </c>
@@ -49072,8 +50157,17 @@
       <c r="H1449" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1450" spans="1:8">
+      <c r="I1449" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1449" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1449" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:11">
       <c r="A1450" s="3" t="s">
         <v>82</v>
       </c>
@@ -49098,8 +50192,17 @@
       <c r="H1450" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1451" spans="1:8">
+      <c r="I1450" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1450" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1450" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:11">
       <c r="A1451" s="3" t="s">
         <v>82</v>
       </c>
@@ -49124,8 +50227,17 @@
       <c r="H1451" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1452" spans="1:8">
+      <c r="I1451" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1451" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1451" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:11">
       <c r="A1452" s="3" t="s">
         <v>82</v>
       </c>
@@ -49150,8 +50262,17 @@
       <c r="H1452" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1453" spans="1:8">
+      <c r="I1452" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1452" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1452" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:11">
       <c r="A1453" s="3" t="s">
         <v>82</v>
       </c>
@@ -49176,8 +50297,17 @@
       <c r="H1453" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1454" spans="1:8">
+      <c r="I1453" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1453" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1453" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:11">
       <c r="A1454" s="3" t="s">
         <v>82</v>
       </c>
@@ -49202,8 +50332,17 @@
       <c r="H1454" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1455" spans="1:8">
+      <c r="I1454" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1454" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1454" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:11">
       <c r="A1455" s="3" t="s">
         <v>82</v>
       </c>
@@ -49228,8 +50367,17 @@
       <c r="H1455" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1456" spans="1:8">
+      <c r="I1455" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1455" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1455" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:11">
       <c r="A1456" s="3" t="s">
         <v>82</v>
       </c>
@@ -49254,8 +50402,17 @@
       <c r="H1456" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1457" spans="1:8">
+      <c r="I1456" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1456" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1456" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:11">
       <c r="A1457" s="3" t="s">
         <v>82</v>
       </c>
@@ -49280,8 +50437,17 @@
       <c r="H1457" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1458" spans="1:8">
+      <c r="I1457" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1457" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1457" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:11">
       <c r="A1458" s="3" t="s">
         <v>82</v>
       </c>
@@ -49306,8 +50472,17 @@
       <c r="H1458" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1459" spans="1:8">
+      <c r="I1458" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1458" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1458" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:11">
       <c r="A1459" s="3" t="s">
         <v>82</v>
       </c>
@@ -49332,8 +50507,17 @@
       <c r="H1459" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1460" spans="1:8">
+      <c r="I1459" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1459" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1459" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:11">
       <c r="A1460" s="3" t="s">
         <v>82</v>
       </c>
@@ -49358,8 +50542,17 @@
       <c r="H1460" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1461" spans="1:8">
+      <c r="I1460" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1460" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1460" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:11">
       <c r="A1461" s="3" t="s">
         <v>82</v>
       </c>
@@ -49384,8 +50577,17 @@
       <c r="H1461" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1462" spans="1:8">
+      <c r="I1461" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1461" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1461" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:11">
       <c r="A1462" s="3" t="s">
         <v>82</v>
       </c>
@@ -49410,8 +50612,17 @@
       <c r="H1462" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1463" spans="1:8">
+      <c r="I1462" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1462" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1462" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:11">
       <c r="A1463" s="3" t="s">
         <v>82</v>
       </c>
@@ -49436,8 +50647,17 @@
       <c r="H1463" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="1464" spans="1:8">
+      <c r="I1463" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1463" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1463" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:11">
       <c r="A1464" s="3" t="s">
         <v>82</v>
       </c>
@@ -49462,8 +50682,17 @@
       <c r="H1464" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1465" spans="1:8">
+      <c r="I1464" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1464" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1464" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:11">
       <c r="A1465" s="3" t="s">
         <v>82</v>
       </c>
@@ -49488,8 +50717,17 @@
       <c r="H1465" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1466" spans="1:8">
+      <c r="I1465" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1465" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1465" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:11">
       <c r="A1466" s="3" t="s">
         <v>82</v>
       </c>
@@ -49514,8 +50752,17 @@
       <c r="H1466" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1467" spans="1:8">
+      <c r="I1466" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1466" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1466" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:11">
       <c r="A1467" s="3" t="s">
         <v>82</v>
       </c>
@@ -49540,8 +50787,17 @@
       <c r="H1467" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1468" spans="1:8">
+      <c r="I1467" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1467" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1467" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:11">
       <c r="A1468" s="3" t="s">
         <v>82</v>
       </c>
@@ -49566,8 +50822,17 @@
       <c r="H1468" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1469" spans="1:8">
+      <c r="I1468" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1468" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1468" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:11">
       <c r="A1469" s="3" t="s">
         <v>82</v>
       </c>
@@ -49592,8 +50857,17 @@
       <c r="H1469" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1470" spans="1:8">
+      <c r="I1469" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1469" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1469" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:11">
       <c r="A1470" s="3" t="s">
         <v>82</v>
       </c>
@@ -49618,8 +50892,17 @@
       <c r="H1470" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1471" spans="1:8">
+      <c r="I1470" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1470" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1470" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:11">
       <c r="A1471" s="3" t="s">
         <v>82</v>
       </c>
@@ -49644,8 +50927,17 @@
       <c r="H1471" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1472" spans="1:8">
+      <c r="I1471" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1471" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1471" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:11">
       <c r="A1472" s="3" t="s">
         <v>82</v>
       </c>
@@ -49670,8 +50962,17 @@
       <c r="H1472" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1473" spans="1:8">
+      <c r="I1472" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1472" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1472" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:11">
       <c r="A1473" s="3" t="s">
         <v>82</v>
       </c>
@@ -49696,8 +50997,17 @@
       <c r="H1473" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1474" spans="1:8">
+      <c r="I1473" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1473" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1473" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:11">
       <c r="A1474" s="3" t="s">
         <v>82</v>
       </c>
@@ -49722,8 +51032,17 @@
       <c r="H1474" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1475" spans="1:8">
+      <c r="I1474" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1474" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1474" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:11">
       <c r="A1475" s="3" t="s">
         <v>82</v>
       </c>
@@ -49748,8 +51067,17 @@
       <c r="H1475" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1476" spans="1:8">
+      <c r="I1475" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1475" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1475" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:11">
       <c r="A1476" s="3" t="s">
         <v>82</v>
       </c>
@@ -49774,8 +51102,17 @@
       <c r="H1476" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1477" spans="1:8">
+      <c r="I1476" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1476" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1476" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:11">
       <c r="A1477" s="3" t="s">
         <v>82</v>
       </c>
@@ -49800,8 +51137,17 @@
       <c r="H1477" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1478" spans="1:8">
+      <c r="I1477" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1477" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1477" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:11">
       <c r="A1478" s="3" t="s">
         <v>82</v>
       </c>
@@ -49826,8 +51172,17 @@
       <c r="H1478" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1479" spans="1:8">
+      <c r="I1478" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1478" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1478" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:11">
       <c r="A1479" s="3" t="s">
         <v>82</v>
       </c>
@@ -49852,8 +51207,17 @@
       <c r="H1479" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1480" spans="1:8">
+      <c r="I1479" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1479" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1479" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:11">
       <c r="A1480" s="3" t="s">
         <v>82</v>
       </c>
@@ -49878,8 +51242,17 @@
       <c r="H1480" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1481" spans="1:8">
+      <c r="I1480" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1480" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1480" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:11">
       <c r="A1481" s="3" t="s">
         <v>82</v>
       </c>
@@ -49904,8 +51277,17 @@
       <c r="H1481" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="1482" spans="1:8">
+      <c r="I1481" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1481" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1481" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:11">
       <c r="A1482" s="3" t="s">
         <v>82</v>
       </c>
@@ -49930,8 +51312,17 @@
       <c r="H1482" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1483" spans="1:8">
+      <c r="I1482" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1482" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1482" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:11">
       <c r="A1483" s="3" t="s">
         <v>82</v>
       </c>
@@ -49956,8 +51347,17 @@
       <c r="H1483" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="1484" spans="1:8">
+      <c r="I1483" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1483" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1483" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:11">
       <c r="A1484" s="3" t="s">
         <v>82</v>
       </c>
@@ -49982,8 +51382,17 @@
       <c r="H1484" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1485" spans="1:8">
+      <c r="I1484" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1484" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1484" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:11">
       <c r="A1485" s="3" t="s">
         <v>82</v>
       </c>
@@ -50008,8 +51417,17 @@
       <c r="H1485" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1486" spans="1:8">
+      <c r="I1485" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1485" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1485" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:11">
       <c r="A1486" s="3" t="s">
         <v>82</v>
       </c>
@@ -50034,8 +51452,17 @@
       <c r="H1486" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1487" spans="1:8">
+      <c r="I1486" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1486" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1486" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:11">
       <c r="A1487" s="3" t="s">
         <v>82</v>
       </c>
@@ -50060,8 +51487,17 @@
       <c r="H1487" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="1488" spans="1:8">
+      <c r="I1487" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1487" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1487" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:11">
       <c r="A1488" s="3" t="s">
         <v>82</v>
       </c>
@@ -50086,8 +51522,17 @@
       <c r="H1488" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1489" spans="1:8">
+      <c r="I1488" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1488" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1488" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:11">
       <c r="A1489" s="3" t="s">
         <v>82</v>
       </c>
@@ -50112,8 +51557,17 @@
       <c r="H1489" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1490" spans="1:8">
+      <c r="I1489" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1489" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1489" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:11">
       <c r="A1490" s="3" t="s">
         <v>82</v>
       </c>
@@ -50138,8 +51592,17 @@
       <c r="H1490" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1491" spans="1:8">
+      <c r="I1490" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1490" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1490" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:11">
       <c r="A1491" s="3" t="s">
         <v>82</v>
       </c>
@@ -50164,8 +51627,17 @@
       <c r="H1491" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1492" spans="1:8">
+      <c r="I1491" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1491" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1491" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:11">
       <c r="A1492" s="3" t="s">
         <v>82</v>
       </c>
@@ -50190,8 +51662,17 @@
       <c r="H1492" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1493" spans="1:8">
+      <c r="I1492" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1492" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1492" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:11">
       <c r="A1493" s="3" t="s">
         <v>82</v>
       </c>
@@ -50216,8 +51697,17 @@
       <c r="H1493" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1494" spans="1:8">
+      <c r="I1493" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1493" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1493" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:11">
       <c r="A1494" s="3" t="s">
         <v>82</v>
       </c>
@@ -50242,8 +51732,17 @@
       <c r="H1494" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1495" spans="1:8">
+      <c r="I1494" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1494" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1494" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:11">
       <c r="A1495" s="3" t="s">
         <v>82</v>
       </c>
@@ -50268,8 +51767,17 @@
       <c r="H1495" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1496" spans="1:8">
+      <c r="I1495" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1495" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1495" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:11">
       <c r="A1496" s="3" t="s">
         <v>82</v>
       </c>
@@ -50294,8 +51802,17 @@
       <c r="H1496" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1497" spans="1:8">
+      <c r="I1496" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1496" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1496" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:11">
       <c r="A1497" s="3" t="s">
         <v>82</v>
       </c>
@@ -50320,8 +51837,17 @@
       <c r="H1497" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1498" spans="1:8">
+      <c r="I1497" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1497" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1497" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:11">
       <c r="A1498" s="3" t="s">
         <v>82</v>
       </c>
@@ -50346,8 +51872,17 @@
       <c r="H1498" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1499" spans="1:8">
+      <c r="I1498" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1498" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1498" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:11">
       <c r="A1499" s="3" t="s">
         <v>82</v>
       </c>
@@ -50372,8 +51907,17 @@
       <c r="H1499" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1500" spans="1:8">
+      <c r="I1499" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1499" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1499" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:11">
       <c r="A1500" s="3" t="s">
         <v>82</v>
       </c>
@@ -50398,8 +51942,17 @@
       <c r="H1500" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1501" spans="1:8">
+      <c r="I1500" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1500" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1500" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:11">
       <c r="A1501" s="3" t="s">
         <v>82</v>
       </c>
@@ -50424,8 +51977,17 @@
       <c r="H1501" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1502" spans="1:8">
+      <c r="I1501" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1501" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1501" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:11">
       <c r="A1502" s="3" t="s">
         <v>82</v>
       </c>
@@ -50450,8 +52012,17 @@
       <c r="H1502" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1503" spans="1:8">
+      <c r="I1502" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1502" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1502" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:11">
       <c r="A1503" s="3" t="s">
         <v>82</v>
       </c>
@@ -50476,8 +52047,17 @@
       <c r="H1503" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1504" spans="1:8">
+      <c r="I1503" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1503" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1503" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:11">
       <c r="A1504" s="3" t="s">
         <v>82</v>
       </c>
@@ -50502,8 +52082,17 @@
       <c r="H1504" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1505" spans="1:8">
+      <c r="I1504" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1504" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1504" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:11">
       <c r="A1505" s="3" t="s">
         <v>82</v>
       </c>
@@ -50528,8 +52117,17 @@
       <c r="H1505" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1506" spans="1:8">
+      <c r="I1505" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1505" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1505" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:11">
       <c r="A1506" s="3" t="s">
         <v>82</v>
       </c>
@@ -50554,8 +52152,17 @@
       <c r="H1506" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1507" spans="1:8">
+      <c r="I1506" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1506" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1506" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:11">
       <c r="A1507" s="3" t="s">
         <v>82</v>
       </c>
@@ -50580,8 +52187,17 @@
       <c r="H1507" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1508" spans="1:8">
+      <c r="I1507" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1507" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1507" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:11">
       <c r="A1508" s="3" t="s">
         <v>82</v>
       </c>
@@ -50606,8 +52222,17 @@
       <c r="H1508" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1509" spans="1:8">
+      <c r="I1508" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1508" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1508" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:11">
       <c r="A1509" s="3" t="s">
         <v>82</v>
       </c>
@@ -50632,8 +52257,17 @@
       <c r="H1509" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1510" spans="1:8">
+      <c r="I1509" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1509" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1509" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:11">
       <c r="A1510" s="3" t="s">
         <v>82</v>
       </c>
@@ -50658,8 +52292,17 @@
       <c r="H1510" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1511" spans="1:8">
+      <c r="I1510" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1510" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1510" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:11">
       <c r="A1511" s="3" t="s">
         <v>82</v>
       </c>
@@ -50684,8 +52327,17 @@
       <c r="H1511" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1512" spans="1:8">
+      <c r="I1511" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1511" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1511" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:11">
       <c r="A1512" s="3" t="s">
         <v>82</v>
       </c>
@@ -50710,8 +52362,17 @@
       <c r="H1512" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1513" spans="1:8">
+      <c r="I1512" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1512" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1512" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:11">
       <c r="A1513" s="3" t="s">
         <v>82</v>
       </c>
@@ -50736,8 +52397,17 @@
       <c r="H1513" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1514" spans="1:8">
+      <c r="I1513" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1513" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1513" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:11">
       <c r="A1514" s="3" t="s">
         <v>82</v>
       </c>
@@ -50762,8 +52432,17 @@
       <c r="H1514" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1515" spans="1:8">
+      <c r="I1514" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1514" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1514" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:11">
       <c r="A1515" s="3" t="s">
         <v>82</v>
       </c>
@@ -50788,8 +52467,17 @@
       <c r="H1515" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1516" spans="1:8">
+      <c r="I1515" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1515" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1515" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:11">
       <c r="A1516" s="3" t="s">
         <v>82</v>
       </c>
@@ -50814,8 +52502,17 @@
       <c r="H1516" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1517" spans="1:8">
+      <c r="I1516" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1516" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1516" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:11">
       <c r="A1517" s="3" t="s">
         <v>82</v>
       </c>
@@ -50840,8 +52537,17 @@
       <c r="H1517" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1518" spans="1:8">
+      <c r="I1517" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1517" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1517" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:11">
       <c r="A1518" s="3" t="s">
         <v>82</v>
       </c>
@@ -50866,8 +52572,17 @@
       <c r="H1518" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1519" spans="1:8">
+      <c r="I1518" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1518" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1518" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:11">
       <c r="A1519" s="3" t="s">
         <v>82</v>
       </c>
@@ -50892,8 +52607,17 @@
       <c r="H1519" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1520" spans="1:8">
+      <c r="I1519" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1519" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1519" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:11">
       <c r="A1520" s="3" t="s">
         <v>82</v>
       </c>
@@ -50918,8 +52642,17 @@
       <c r="H1520" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1521" spans="1:8">
+      <c r="I1520" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1520" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1520" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:11">
       <c r="A1521" s="3" t="s">
         <v>82</v>
       </c>
@@ -50944,8 +52677,17 @@
       <c r="H1521" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1522" spans="1:8">
+      <c r="I1521" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1521" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1521" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:11">
       <c r="A1522" s="3" t="s">
         <v>82</v>
       </c>
@@ -50970,8 +52712,17 @@
       <c r="H1522" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1523" spans="1:8">
+      <c r="I1522" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1522" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1522" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:11">
       <c r="A1523" s="3" t="s">
         <v>82</v>
       </c>
@@ -50996,8 +52747,17 @@
       <c r="H1523" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1524" spans="1:8">
+      <c r="I1523" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1523" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1523" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:11">
       <c r="A1524" s="3" t="s">
         <v>82</v>
       </c>
@@ -51022,8 +52782,17 @@
       <c r="H1524" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1525" spans="1:8">
+      <c r="I1524" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1524" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1524" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:11">
       <c r="A1525" s="3" t="s">
         <v>82</v>
       </c>
@@ -51048,8 +52817,17 @@
       <c r="H1525" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1526" spans="1:8">
+      <c r="I1525" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1525" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1525" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:11">
       <c r="A1526" s="3" t="s">
         <v>82</v>
       </c>
@@ -51074,8 +52852,17 @@
       <c r="H1526" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1527" spans="1:8">
+      <c r="I1526" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1526" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1526" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:11">
       <c r="A1527" s="3" t="s">
         <v>82</v>
       </c>
@@ -51100,8 +52887,17 @@
       <c r="H1527" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1528" spans="1:8">
+      <c r="I1527" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1527" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1527" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:11">
       <c r="A1528" s="3" t="s">
         <v>82</v>
       </c>
@@ -51126,8 +52922,17 @@
       <c r="H1528" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1529" spans="1:8">
+      <c r="I1528" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1528" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1528" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:11">
       <c r="A1529" s="3" t="s">
         <v>82</v>
       </c>
@@ -51152,8 +52957,17 @@
       <c r="H1529" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1530" spans="1:8">
+      <c r="I1529" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1529" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1529" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:11">
       <c r="A1530" s="3" t="s">
         <v>82</v>
       </c>
@@ -51178,8 +52992,17 @@
       <c r="H1530" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1531" spans="1:8">
+      <c r="I1530" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1530" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1530" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:11">
       <c r="A1531" s="3" t="s">
         <v>82</v>
       </c>
@@ -51204,8 +53027,17 @@
       <c r="H1531" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1532" spans="1:8">
+      <c r="I1531" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1531" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1531" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:11">
       <c r="A1532" s="3" t="s">
         <v>82</v>
       </c>
@@ -51230,8 +53062,17 @@
       <c r="H1532" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1533" spans="1:8">
+      <c r="I1532" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1532" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1532" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:11">
       <c r="A1533" s="3" t="s">
         <v>82</v>
       </c>
@@ -51256,8 +53097,17 @@
       <c r="H1533" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1534" spans="1:8">
+      <c r="I1533" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1533" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1533" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:11">
       <c r="A1534" s="3" t="s">
         <v>82</v>
       </c>
@@ -51282,8 +53132,17 @@
       <c r="H1534" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1535" spans="1:8">
+      <c r="I1534" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1534" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1534" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:11">
       <c r="A1535" s="3" t="s">
         <v>82</v>
       </c>
@@ -51308,8 +53167,17 @@
       <c r="H1535" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1536" spans="1:8">
+      <c r="I1535" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1535" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1535" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:11">
       <c r="A1536" s="3" t="s">
         <v>82</v>
       </c>
@@ -51334,8 +53202,17 @@
       <c r="H1536" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1537" spans="1:8">
+      <c r="I1536" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1536" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1536" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:11">
       <c r="A1537" s="3" t="s">
         <v>82</v>
       </c>
@@ -51360,8 +53237,17 @@
       <c r="H1537" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1538" spans="1:8">
+      <c r="I1537" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1537" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1537" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:11">
       <c r="A1538" s="2">
         <v>1</v>
       </c>
@@ -51387,7 +53273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1539" spans="1:8">
+    <row r="1539" spans="1:11">
       <c r="A1539" s="2">
         <v>0</v>
       </c>
@@ -51413,7 +53299,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1540" spans="1:8">
+    <row r="1540" spans="1:11">
       <c r="A1540" s="2">
         <v>1</v>
       </c>
@@ -51439,7 +53325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1541" spans="1:8">
+    <row r="1541" spans="1:11">
       <c r="A1541" s="2">
         <v>1</v>
       </c>
@@ -51465,7 +53351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1542" spans="1:8">
+    <row r="1542" spans="1:11">
       <c r="A1542" s="2">
         <v>1</v>
       </c>
@@ -51491,7 +53377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1543" spans="1:8">
+    <row r="1543" spans="1:11">
       <c r="A1543" s="2">
         <v>0</v>
       </c>
@@ -51517,7 +53403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1544" spans="1:8">
+    <row r="1544" spans="1:11">
       <c r="A1544" s="2">
         <v>1</v>
       </c>
@@ -51543,7 +53429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1545" spans="1:8">
+    <row r="1545" spans="1:11">
       <c r="A1545" s="2">
         <v>1</v>
       </c>
@@ -51569,7 +53455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1546" spans="1:8">
+    <row r="1546" spans="1:11">
       <c r="A1546" s="2">
         <v>1</v>
       </c>
@@ -51595,7 +53481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1547" spans="1:8">
+    <row r="1547" spans="1:11">
       <c r="A1547" s="2">
         <v>0</v>
       </c>
@@ -51621,7 +53507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1548" spans="1:8">
+    <row r="1548" spans="1:11">
       <c r="A1548" s="2">
         <v>1</v>
       </c>
@@ -51647,7 +53533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1549" spans="1:8">
+    <row r="1549" spans="1:11">
       <c r="A1549" s="2">
         <v>1</v>
       </c>
@@ -51673,7 +53559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1550" spans="1:8">
+    <row r="1550" spans="1:11">
       <c r="A1550" s="2">
         <v>1</v>
       </c>
@@ -51699,7 +53585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1551" spans="1:8">
+    <row r="1551" spans="1:11">
       <c r="A1551" s="2">
         <v>1</v>
       </c>
@@ -51725,7 +53611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1552" spans="1:8">
+    <row r="1552" spans="1:11">
       <c r="A1552" s="2">
         <v>1</v>
       </c>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-6520" yWindow="0" windowWidth="16780" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="0" windowWidth="16560" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7112" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7117" uniqueCount="648">
   <si>
     <t>Agent.Embod</t>
   </si>
@@ -2468,10 +2468,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F1135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F1285" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1152" sqref="I1152"/>
+      <selection pane="bottomRight" activeCell="J1308" sqref="J1308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -39056,8 +39056,8 @@
       <c r="I1069" s="1">
         <v>1</v>
       </c>
-      <c r="J1069" t="s">
-        <v>349</v>
+      <c r="J1069">
+        <v>1</v>
       </c>
       <c r="K1069">
         <v>0</v>
@@ -41888,6 +41888,15 @@
       <c r="H1150" t="s">
         <v>69</v>
       </c>
+      <c r="I1150" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1150">
+        <v>1</v>
+      </c>
+      <c r="K1150">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151" spans="1:11">
       <c r="A1151" s="2">
@@ -41914,6 +41923,15 @@
       <c r="H1151" t="s">
         <v>67</v>
       </c>
+      <c r="I1151" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1151">
+        <v>1</v>
+      </c>
+      <c r="K1151">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152" spans="1:11">
       <c r="A1152" s="2">
@@ -41940,8 +41958,17 @@
       <c r="H1152" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1153" spans="1:8">
+      <c r="I1152" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1152">
+        <v>0</v>
+      </c>
+      <c r="K1152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:11">
       <c r="A1153" s="2">
         <v>0</v>
       </c>
@@ -41966,8 +41993,17 @@
       <c r="H1153" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1154" spans="1:8">
+      <c r="I1153" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1153">
+        <v>0</v>
+      </c>
+      <c r="K1153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:11">
       <c r="A1154" s="4">
         <v>0</v>
       </c>
@@ -41992,8 +42028,17 @@
       <c r="H1154" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1155" spans="1:8">
+      <c r="I1154" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1154">
+        <v>1</v>
+      </c>
+      <c r="K1154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:11">
       <c r="A1155" s="4">
         <v>0</v>
       </c>
@@ -42018,8 +42063,17 @@
       <c r="H1155" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="1156" spans="1:8">
+      <c r="I1155" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1155">
+        <v>1</v>
+      </c>
+      <c r="K1155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:11">
       <c r="A1156" s="4">
         <v>0</v>
       </c>
@@ -42044,8 +42098,17 @@
       <c r="H1156" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="1157" spans="1:8">
+      <c r="I1156" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1156">
+        <v>1</v>
+      </c>
+      <c r="K1156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:11">
       <c r="A1157" s="4">
         <v>0</v>
       </c>
@@ -42070,8 +42133,17 @@
       <c r="H1157" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="1158" spans="1:8">
+      <c r="I1157" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1157">
+        <v>1</v>
+      </c>
+      <c r="K1157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:11">
       <c r="A1158" s="4">
         <v>1</v>
       </c>
@@ -42096,8 +42168,17 @@
       <c r="H1158" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1159" spans="1:8">
+      <c r="I1158" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1158">
+        <v>1</v>
+      </c>
+      <c r="K1158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:11">
       <c r="A1159" s="4">
         <v>0</v>
       </c>
@@ -42122,8 +42203,17 @@
       <c r="H1159" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="1160" spans="1:8">
+      <c r="I1159" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1159">
+        <v>0</v>
+      </c>
+      <c r="K1159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:11">
       <c r="A1160" s="4">
         <v>0</v>
       </c>
@@ -42148,8 +42238,17 @@
       <c r="H1160" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1161" spans="1:8">
+      <c r="I1160" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1160">
+        <v>1</v>
+      </c>
+      <c r="K1160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:11">
       <c r="A1161" s="4">
         <v>0</v>
       </c>
@@ -42174,8 +42273,17 @@
       <c r="H1161" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1162" spans="1:8">
+      <c r="I1161" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1161">
+        <v>1</v>
+      </c>
+      <c r="K1161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:11">
       <c r="A1162" s="4">
         <v>0</v>
       </c>
@@ -42200,8 +42308,17 @@
       <c r="H1162" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="1163" spans="1:8">
+      <c r="I1162" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1162">
+        <v>1</v>
+      </c>
+      <c r="K1162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:11">
       <c r="A1163" s="4">
         <v>1</v>
       </c>
@@ -42226,8 +42343,17 @@
       <c r="H1163" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="1164" spans="1:8">
+      <c r="I1163" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1163">
+        <v>1</v>
+      </c>
+      <c r="K1163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:11">
       <c r="A1164" s="4">
         <v>1</v>
       </c>
@@ -42252,8 +42378,17 @@
       <c r="H1164" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="1165" spans="1:8">
+      <c r="I1164" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1164">
+        <v>1</v>
+      </c>
+      <c r="K1164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:11">
       <c r="A1165" s="2">
         <v>1</v>
       </c>
@@ -42278,8 +42413,17 @@
       <c r="H1165" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="1166" spans="1:8">
+      <c r="I1165" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1165">
+        <v>0</v>
+      </c>
+      <c r="K1165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:11">
       <c r="A1166" s="2">
         <v>0</v>
       </c>
@@ -42304,8 +42448,17 @@
       <c r="H1166" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1167" spans="1:8">
+      <c r="I1166" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1166">
+        <v>1</v>
+      </c>
+      <c r="K1166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:11">
       <c r="A1167" s="2">
         <v>1</v>
       </c>
@@ -42330,8 +42483,17 @@
       <c r="H1167" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1168" spans="1:8">
+      <c r="I1167" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1167">
+        <v>1</v>
+      </c>
+      <c r="K1167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:11">
       <c r="A1168" s="2">
         <v>0</v>
       </c>
@@ -42356,8 +42518,17 @@
       <c r="H1168" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1169" spans="1:8">
+      <c r="I1168" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1168">
+        <v>0</v>
+      </c>
+      <c r="K1168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:11">
       <c r="A1169" s="2">
         <v>1</v>
       </c>
@@ -42382,8 +42553,17 @@
       <c r="H1169" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1170" spans="1:8">
+      <c r="I1169" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1169">
+        <v>1</v>
+      </c>
+      <c r="K1169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:11">
       <c r="A1170" s="2">
         <v>0</v>
       </c>
@@ -42408,8 +42588,17 @@
       <c r="H1170" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="1171" spans="1:8">
+      <c r="I1170" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1170">
+        <v>1</v>
+      </c>
+      <c r="K1170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:11">
       <c r="A1171" s="2">
         <v>1</v>
       </c>
@@ -42434,8 +42623,17 @@
       <c r="H1171" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1172" spans="1:8">
+      <c r="I1171" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1171">
+        <v>1</v>
+      </c>
+      <c r="K1171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:11">
       <c r="A1172" s="2">
         <v>0</v>
       </c>
@@ -42460,8 +42658,17 @@
       <c r="H1172" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1173" spans="1:8">
+      <c r="I1172" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1172">
+        <v>1</v>
+      </c>
+      <c r="K1172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:11">
       <c r="A1173" s="2">
         <v>1</v>
       </c>
@@ -42486,8 +42693,17 @@
       <c r="H1173" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="1174" spans="1:8">
+      <c r="I1173" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1173">
+        <v>1</v>
+      </c>
+      <c r="K1173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:11">
       <c r="A1174" s="2">
         <v>1</v>
       </c>
@@ -42512,8 +42728,17 @@
       <c r="H1174" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="1175" spans="1:8">
+      <c r="I1174" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1174">
+        <v>1</v>
+      </c>
+      <c r="K1174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:11">
       <c r="A1175" s="2">
         <v>1</v>
       </c>
@@ -42538,8 +42763,17 @@
       <c r="H1175" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1176" spans="1:8">
+      <c r="I1175" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1175">
+        <v>1</v>
+      </c>
+      <c r="K1175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:11">
       <c r="A1176" s="2">
         <v>1</v>
       </c>
@@ -42564,8 +42798,17 @@
       <c r="H1176" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1177" spans="1:8">
+      <c r="I1176" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1176">
+        <v>1</v>
+      </c>
+      <c r="K1176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:11">
       <c r="A1177" s="2">
         <v>1</v>
       </c>
@@ -42590,8 +42833,17 @@
       <c r="H1177" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="1178" spans="1:8">
+      <c r="I1177" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1177">
+        <v>0</v>
+      </c>
+      <c r="K1177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:11">
       <c r="A1178" s="2">
         <v>1</v>
       </c>
@@ -42616,8 +42868,17 @@
       <c r="H1178" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1179" spans="1:8">
+      <c r="I1178" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1178">
+        <v>1</v>
+      </c>
+      <c r="K1178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:11">
       <c r="A1179" s="2">
         <v>1</v>
       </c>
@@ -42642,8 +42903,17 @@
       <c r="H1179" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1180" spans="1:8">
+      <c r="I1179" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1179">
+        <v>0</v>
+      </c>
+      <c r="K1179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:11">
       <c r="A1180" s="2">
         <v>1</v>
       </c>
@@ -42668,8 +42938,17 @@
       <c r="H1180" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1181" spans="1:8">
+      <c r="I1180" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1180">
+        <v>0</v>
+      </c>
+      <c r="K1180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:11">
       <c r="A1181" s="2">
         <v>1</v>
       </c>
@@ -42694,8 +42973,17 @@
       <c r="H1181" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1182" spans="1:8">
+      <c r="I1181" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1181">
+        <v>1</v>
+      </c>
+      <c r="K1181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:11">
       <c r="A1182" s="2">
         <v>1</v>
       </c>
@@ -42720,8 +43008,17 @@
       <c r="H1182" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="1183" spans="1:8">
+      <c r="I1182" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1182">
+        <v>1</v>
+      </c>
+      <c r="K1182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:11">
       <c r="A1183" s="2">
         <v>0</v>
       </c>
@@ -42746,8 +43043,17 @@
       <c r="H1183" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="1184" spans="1:8">
+      <c r="I1183" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1183">
+        <v>0</v>
+      </c>
+      <c r="K1183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:11">
       <c r="A1184" s="2">
         <v>1</v>
       </c>
@@ -42772,8 +43078,17 @@
       <c r="H1184" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1185" spans="1:8">
+      <c r="I1184" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1184">
+        <v>0</v>
+      </c>
+      <c r="K1184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:11">
       <c r="A1185" s="2">
         <v>0</v>
       </c>
@@ -42798,8 +43113,17 @@
       <c r="H1185" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1186" spans="1:8">
+      <c r="I1185" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1185">
+        <v>0</v>
+      </c>
+      <c r="K1185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:11">
       <c r="A1186" s="2">
         <v>1</v>
       </c>
@@ -42824,8 +43148,17 @@
       <c r="H1186" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="1187" spans="1:8">
+      <c r="I1186" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1186">
+        <v>1</v>
+      </c>
+      <c r="K1186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:11">
       <c r="A1187" s="2">
         <v>1</v>
       </c>
@@ -42850,8 +43183,17 @@
       <c r="H1187" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1188" spans="1:8">
+      <c r="I1187" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1187">
+        <v>1</v>
+      </c>
+      <c r="K1187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:11">
       <c r="A1188" s="2">
         <v>1</v>
       </c>
@@ -42876,8 +43218,17 @@
       <c r="H1188" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="1189" spans="1:8">
+      <c r="I1188" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1188">
+        <v>1</v>
+      </c>
+      <c r="K1188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:11">
       <c r="A1189" s="2">
         <v>1</v>
       </c>
@@ -42902,8 +43253,17 @@
       <c r="H1189" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1190" spans="1:8">
+      <c r="I1189" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1189">
+        <v>0</v>
+      </c>
+      <c r="K1189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:11">
       <c r="A1190" s="2">
         <v>1</v>
       </c>
@@ -42928,8 +43288,17 @@
       <c r="H1190" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1191" spans="1:8">
+      <c r="I1190" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1190">
+        <v>1</v>
+      </c>
+      <c r="K1190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:11">
       <c r="A1191" s="2">
         <v>1</v>
       </c>
@@ -42954,8 +43323,17 @@
       <c r="H1191" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1192" spans="1:8">
+      <c r="I1191" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1191">
+        <v>1</v>
+      </c>
+      <c r="K1191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:11">
       <c r="A1192" s="2">
         <v>0</v>
       </c>
@@ -42980,8 +43358,17 @@
       <c r="H1192" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1193" spans="1:8">
+      <c r="I1192" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1192">
+        <v>0</v>
+      </c>
+      <c r="K1192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:11">
       <c r="A1193" s="2">
         <v>1</v>
       </c>
@@ -43006,8 +43393,17 @@
       <c r="H1193" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1194" spans="1:8">
+      <c r="I1193" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1193">
+        <v>1</v>
+      </c>
+      <c r="K1193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:11">
       <c r="A1194" s="2">
         <v>1</v>
       </c>
@@ -43032,8 +43428,17 @@
       <c r="H1194" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="1195" spans="1:8">
+      <c r="I1194" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1194">
+        <v>1</v>
+      </c>
+      <c r="K1194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:11">
       <c r="A1195" s="2">
         <v>1</v>
       </c>
@@ -43058,8 +43463,17 @@
       <c r="H1195" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="1196" spans="1:8">
+      <c r="I1195" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1195">
+        <v>1</v>
+      </c>
+      <c r="K1195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:11">
       <c r="A1196" s="2">
         <v>0</v>
       </c>
@@ -43084,8 +43498,17 @@
       <c r="H1196" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1197" spans="1:8">
+      <c r="I1196" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1196" t="s">
+        <v>349</v>
+      </c>
+      <c r="K1196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:11">
       <c r="A1197" s="2">
         <v>1</v>
       </c>
@@ -43110,8 +43533,17 @@
       <c r="H1197" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="1198" spans="1:8">
+      <c r="I1197" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1197">
+        <v>1</v>
+      </c>
+      <c r="K1197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:11">
       <c r="A1198" s="2">
         <v>1</v>
       </c>
@@ -43136,8 +43568,17 @@
       <c r="H1198" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="1199" spans="1:8">
+      <c r="I1198" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1198">
+        <v>1</v>
+      </c>
+      <c r="K1198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:11">
       <c r="A1199" s="2">
         <v>1</v>
       </c>
@@ -43162,8 +43603,17 @@
       <c r="H1199" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1200" spans="1:8">
+      <c r="I1199" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1199">
+        <v>1</v>
+      </c>
+      <c r="K1199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:11">
       <c r="A1200" s="4">
         <v>1</v>
       </c>
@@ -43188,6 +43638,15 @@
       <c r="H1200" t="s">
         <v>397</v>
       </c>
+      <c r="I1200" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1200">
+        <v>1</v>
+      </c>
+      <c r="K1200">
+        <v>0</v>
+      </c>
     </row>
     <row r="1201" spans="1:11">
       <c r="A1201" s="4">
@@ -43214,6 +43673,15 @@
       <c r="H1201" t="s">
         <v>106</v>
       </c>
+      <c r="I1201" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1201">
+        <v>0</v>
+      </c>
+      <c r="K1201">
+        <v>0</v>
+      </c>
     </row>
     <row r="1202" spans="1:11">
       <c r="A1202" s="3" t="s">
@@ -44920,6 +45388,15 @@
       <c r="H1250" t="s">
         <v>13</v>
       </c>
+      <c r="I1250" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1250">
+        <v>0</v>
+      </c>
+      <c r="K1250">
+        <v>0</v>
+      </c>
     </row>
     <row r="1251" spans="1:11">
       <c r="A1251" s="2">
@@ -44946,6 +45423,15 @@
       <c r="H1251" t="s">
         <v>13</v>
       </c>
+      <c r="I1251" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1251">
+        <v>0</v>
+      </c>
+      <c r="K1251">
+        <v>0</v>
+      </c>
     </row>
     <row r="1252" spans="1:11">
       <c r="A1252" s="2">
@@ -44972,6 +45458,15 @@
       <c r="H1252" t="s">
         <v>13</v>
       </c>
+      <c r="I1252" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1252">
+        <v>1</v>
+      </c>
+      <c r="K1252">
+        <v>0</v>
+      </c>
     </row>
     <row r="1253" spans="1:11">
       <c r="A1253" s="2">
@@ -44998,6 +45493,15 @@
       <c r="H1253" t="s">
         <v>377</v>
       </c>
+      <c r="I1253" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1253">
+        <v>1</v>
+      </c>
+      <c r="K1253">
+        <v>0</v>
+      </c>
     </row>
     <row r="1254" spans="1:11">
       <c r="A1254" s="2">
@@ -45024,6 +45528,15 @@
       <c r="H1254" t="s">
         <v>67</v>
       </c>
+      <c r="I1254" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1254">
+        <v>1</v>
+      </c>
+      <c r="K1254">
+        <v>0</v>
+      </c>
     </row>
     <row r="1255" spans="1:11">
       <c r="A1255" s="2">
@@ -45050,6 +45563,15 @@
       <c r="H1255" t="s">
         <v>379</v>
       </c>
+      <c r="I1255" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1255">
+        <v>1</v>
+      </c>
+      <c r="K1255">
+        <v>0</v>
+      </c>
     </row>
     <row r="1256" spans="1:11">
       <c r="A1256" s="2">
@@ -45076,6 +45598,15 @@
       <c r="H1256" t="s">
         <v>13</v>
       </c>
+      <c r="I1256" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1256">
+        <v>1</v>
+      </c>
+      <c r="K1256">
+        <v>0</v>
+      </c>
     </row>
     <row r="1257" spans="1:11">
       <c r="A1257" s="2">
@@ -45102,6 +45633,15 @@
       <c r="H1257" t="s">
         <v>13</v>
       </c>
+      <c r="I1257" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1257">
+        <v>1</v>
+      </c>
+      <c r="K1257">
+        <v>0</v>
+      </c>
     </row>
     <row r="1258" spans="1:11">
       <c r="A1258" s="2">
@@ -45128,6 +45668,15 @@
       <c r="H1258" t="s">
         <v>67</v>
       </c>
+      <c r="I1258" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1258">
+        <v>1</v>
+      </c>
+      <c r="K1258">
+        <v>0</v>
+      </c>
     </row>
     <row r="1259" spans="1:11">
       <c r="A1259" s="2">
@@ -45154,6 +45703,15 @@
       <c r="H1259" t="s">
         <v>13</v>
       </c>
+      <c r="I1259" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1259">
+        <v>1</v>
+      </c>
+      <c r="K1259">
+        <v>0</v>
+      </c>
     </row>
     <row r="1260" spans="1:11">
       <c r="A1260" s="4">
@@ -45180,6 +45738,15 @@
       <c r="H1260" t="s">
         <v>67</v>
       </c>
+      <c r="I1260" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1260">
+        <v>1</v>
+      </c>
+      <c r="K1260">
+        <v>0</v>
+      </c>
     </row>
     <row r="1261" spans="1:11">
       <c r="A1261" s="4">
@@ -45206,6 +45773,15 @@
       <c r="H1261" t="s">
         <v>13</v>
       </c>
+      <c r="I1261" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1261">
+        <v>0</v>
+      </c>
+      <c r="K1261">
+        <v>0</v>
+      </c>
     </row>
     <row r="1262" spans="1:11">
       <c r="A1262" s="4">
@@ -45232,6 +45808,15 @@
       <c r="H1262" t="s">
         <v>13</v>
       </c>
+      <c r="I1262" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1262">
+        <v>0</v>
+      </c>
+      <c r="K1262">
+        <v>0</v>
+      </c>
     </row>
     <row r="1263" spans="1:11">
       <c r="A1263" s="4">
@@ -45258,6 +45843,15 @@
       <c r="H1263" t="s">
         <v>67</v>
       </c>
+      <c r="I1263" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1263">
+        <v>1</v>
+      </c>
+      <c r="K1263">
+        <v>0</v>
+      </c>
     </row>
     <row r="1264" spans="1:11">
       <c r="A1264" s="4">
@@ -45284,8 +45878,17 @@
       <c r="H1264" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1265" spans="1:8">
+      <c r="I1264" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1264">
+        <v>0</v>
+      </c>
+      <c r="K1264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:11">
       <c r="A1265" s="4">
         <v>0</v>
       </c>
@@ -45310,8 +45913,17 @@
       <c r="H1265" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1266" spans="1:8">
+      <c r="I1265" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1265">
+        <v>1</v>
+      </c>
+      <c r="K1265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:11">
       <c r="A1266" s="4">
         <v>0</v>
       </c>
@@ -45336,8 +45948,17 @@
       <c r="H1266" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1267" spans="1:8">
+      <c r="I1266" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1266">
+        <v>1</v>
+      </c>
+      <c r="K1266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:11">
       <c r="A1267" s="4">
         <v>0</v>
       </c>
@@ -45362,8 +45983,17 @@
       <c r="H1267" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1268" spans="1:8">
+      <c r="I1267" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1267">
+        <v>1</v>
+      </c>
+      <c r="K1267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:11">
       <c r="A1268" s="4">
         <v>0</v>
       </c>
@@ -45388,8 +46018,17 @@
       <c r="H1268" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1269" spans="1:8">
+      <c r="I1268" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1268">
+        <v>0</v>
+      </c>
+      <c r="K1268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:11">
       <c r="A1269" s="4">
         <v>0</v>
       </c>
@@ -45414,8 +46053,17 @@
       <c r="H1269" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1270" spans="1:8">
+      <c r="I1269" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1269">
+        <v>1</v>
+      </c>
+      <c r="K1269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:11">
       <c r="A1270" s="4">
         <v>0</v>
       </c>
@@ -45440,8 +46088,17 @@
       <c r="H1270" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1271" spans="1:8">
+      <c r="I1270" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1270">
+        <v>1</v>
+      </c>
+      <c r="K1270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:11">
       <c r="A1271" s="4">
         <v>0</v>
       </c>
@@ -45466,8 +46123,17 @@
       <c r="H1271" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1272" spans="1:8">
+      <c r="I1271" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1271">
+        <v>1</v>
+      </c>
+      <c r="K1271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:11">
       <c r="A1272" s="4">
         <v>0</v>
       </c>
@@ -45492,8 +46158,17 @@
       <c r="H1272" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1273" spans="1:8">
+      <c r="I1272" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1272">
+        <v>1</v>
+      </c>
+      <c r="K1272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:11">
       <c r="A1273" s="2">
         <v>0</v>
       </c>
@@ -45518,8 +46193,17 @@
       <c r="H1273" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1274" spans="1:8">
+      <c r="I1273" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1273">
+        <v>0</v>
+      </c>
+      <c r="K1273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:11">
       <c r="A1274" s="4">
         <v>0</v>
       </c>
@@ -45544,8 +46228,17 @@
       <c r="H1274" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1275" spans="1:8">
+      <c r="I1274" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1274">
+        <v>0</v>
+      </c>
+      <c r="K1274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:11">
       <c r="A1275" s="4">
         <v>0</v>
       </c>
@@ -45570,8 +46263,17 @@
       <c r="H1275" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1276" spans="1:8">
+      <c r="I1275" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1275">
+        <v>0</v>
+      </c>
+      <c r="K1275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:11">
       <c r="A1276" s="4">
         <v>0</v>
       </c>
@@ -45596,8 +46298,17 @@
       <c r="H1276" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1277" spans="1:8">
+      <c r="I1276" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1276">
+        <v>1</v>
+      </c>
+      <c r="K1276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:11">
       <c r="A1277" s="4">
         <v>0</v>
       </c>
@@ -45622,8 +46333,17 @@
       <c r="H1277" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1278" spans="1:8">
+      <c r="I1277" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1277">
+        <v>1</v>
+      </c>
+      <c r="K1277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:11">
       <c r="A1278" s="4">
         <v>0</v>
       </c>
@@ -45648,8 +46368,17 @@
       <c r="H1278" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1279" spans="1:8">
+      <c r="I1278" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1278">
+        <v>0</v>
+      </c>
+      <c r="K1278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:11">
       <c r="A1279" s="4">
         <v>0</v>
       </c>
@@ -45674,8 +46403,17 @@
       <c r="H1279" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1280" spans="1:8">
+      <c r="I1279" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1279">
+        <v>0</v>
+      </c>
+      <c r="K1279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:11">
       <c r="A1280" s="4">
         <v>0</v>
       </c>
@@ -45700,8 +46438,17 @@
       <c r="H1280" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1281" spans="1:8">
+      <c r="I1280" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1280">
+        <v>0</v>
+      </c>
+      <c r="K1280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:11">
       <c r="A1281" s="4">
         <v>0</v>
       </c>
@@ -45726,8 +46473,17 @@
       <c r="H1281" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1282" spans="1:8">
+      <c r="I1281" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1281">
+        <v>0</v>
+      </c>
+      <c r="K1281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:11">
       <c r="A1282" s="4">
         <v>0</v>
       </c>
@@ -45752,8 +46508,17 @@
       <c r="H1282" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1283" spans="1:8">
+      <c r="I1282" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1282">
+        <v>0</v>
+      </c>
+      <c r="K1282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:11">
       <c r="A1283" s="4">
         <v>0</v>
       </c>
@@ -45778,8 +46543,17 @@
       <c r="H1283" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1284" spans="1:8">
+      <c r="I1283" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1283">
+        <v>1</v>
+      </c>
+      <c r="K1283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:11">
       <c r="A1284" s="4">
         <v>0</v>
       </c>
@@ -45804,8 +46578,17 @@
       <c r="H1284" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1285" spans="1:8">
+      <c r="I1284" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1284">
+        <v>0</v>
+      </c>
+      <c r="K1284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:11">
       <c r="A1285" s="2">
         <v>0</v>
       </c>
@@ -45830,8 +46613,17 @@
       <c r="H1285" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1286" spans="1:8">
+      <c r="I1285" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1285">
+        <v>0</v>
+      </c>
+      <c r="K1285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:11">
       <c r="A1286" s="2">
         <v>0</v>
       </c>
@@ -45856,8 +46648,17 @@
       <c r="H1286" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1287" spans="1:8">
+      <c r="I1286" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1286">
+        <v>0</v>
+      </c>
+      <c r="K1286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:11">
       <c r="A1287" s="2">
         <v>0</v>
       </c>
@@ -45882,8 +46683,17 @@
       <c r="H1287" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1288" spans="1:8">
+      <c r="I1287" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1287">
+        <v>0</v>
+      </c>
+      <c r="K1287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:11">
       <c r="A1288" s="2">
         <v>0</v>
       </c>
@@ -45908,8 +46718,17 @@
       <c r="H1288" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1289" spans="1:8">
+      <c r="I1288" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1288">
+        <v>0</v>
+      </c>
+      <c r="K1288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:11">
       <c r="A1289" s="2">
         <v>0</v>
       </c>
@@ -45934,8 +46753,17 @@
       <c r="H1289" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1290" spans="1:8">
+      <c r="I1289" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1289">
+        <v>0</v>
+      </c>
+      <c r="K1289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:11">
       <c r="A1290" s="2">
         <v>0</v>
       </c>
@@ -45960,8 +46788,17 @@
       <c r="H1290" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1291" spans="1:8">
+      <c r="I1290" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1290">
+        <v>0</v>
+      </c>
+      <c r="K1290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:11">
       <c r="A1291" s="2">
         <v>0</v>
       </c>
@@ -45986,8 +46823,17 @@
       <c r="H1291" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1292" spans="1:8">
+      <c r="I1291" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1291">
+        <v>0</v>
+      </c>
+      <c r="K1291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:11">
       <c r="A1292" s="2">
         <v>0</v>
       </c>
@@ -46012,8 +46858,17 @@
       <c r="H1292" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1293" spans="1:8">
+      <c r="I1292" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1292">
+        <v>0</v>
+      </c>
+      <c r="K1292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:11">
       <c r="A1293" s="2">
         <v>0</v>
       </c>
@@ -46038,8 +46893,17 @@
       <c r="H1293" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1294" spans="1:8">
+      <c r="I1293" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1293">
+        <v>0</v>
+      </c>
+      <c r="K1293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:11">
       <c r="A1294" s="2" t="s">
         <v>349</v>
       </c>
@@ -46064,8 +46928,17 @@
       <c r="H1294" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="1295" spans="1:8">
+      <c r="I1294" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1294">
+        <v>0</v>
+      </c>
+      <c r="K1294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:11">
       <c r="A1295" s="2" t="s">
         <v>349</v>
       </c>
@@ -46090,8 +46963,17 @@
       <c r="H1295" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="1296" spans="1:8">
+      <c r="I1295" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1295">
+        <v>0</v>
+      </c>
+      <c r="K1295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:11">
       <c r="A1296" s="2" t="s">
         <v>349</v>
       </c>
@@ -46116,8 +46998,17 @@
       <c r="H1296" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="1297" spans="1:8">
+      <c r="I1296" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1296">
+        <v>0</v>
+      </c>
+      <c r="K1296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:11">
       <c r="A1297" s="2" t="s">
         <v>349</v>
       </c>
@@ -46142,8 +47033,17 @@
       <c r="H1297" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="1298" spans="1:8">
+      <c r="I1297" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1297">
+        <v>0</v>
+      </c>
+      <c r="K1297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:11">
       <c r="A1298" s="4">
         <v>0</v>
       </c>
@@ -46168,8 +47068,17 @@
       <c r="H1298" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="1299" spans="1:8">
+      <c r="I1298" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1298">
+        <v>0</v>
+      </c>
+      <c r="K1298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:11">
       <c r="A1299" s="4">
         <v>0</v>
       </c>
@@ -46194,8 +47103,17 @@
       <c r="H1299" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="1300" spans="1:8">
+      <c r="I1299" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1299">
+        <v>0</v>
+      </c>
+      <c r="K1299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:11">
       <c r="A1300" s="4">
         <v>0</v>
       </c>
@@ -46220,8 +47138,17 @@
       <c r="H1300" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="1301" spans="1:8">
+      <c r="I1300" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1300">
+        <v>1</v>
+      </c>
+      <c r="K1300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:11">
       <c r="A1301" s="4">
         <v>1</v>
       </c>
@@ -46246,8 +47173,17 @@
       <c r="H1301" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1302" spans="1:8">
+      <c r="I1301" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1301">
+        <v>1</v>
+      </c>
+      <c r="K1301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:11">
       <c r="A1302" s="4">
         <v>0</v>
       </c>
@@ -46272,8 +47208,17 @@
       <c r="H1302" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="1303" spans="1:8">
+      <c r="I1302" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1302">
+        <v>1</v>
+      </c>
+      <c r="K1302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:11">
       <c r="A1303" s="4">
         <v>0</v>
       </c>
@@ -46298,8 +47243,17 @@
       <c r="H1303" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1304" spans="1:8">
+      <c r="I1303" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1303">
+        <v>0</v>
+      </c>
+      <c r="K1303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:11">
       <c r="A1304" s="4">
         <v>0</v>
       </c>
@@ -46324,8 +47278,17 @@
       <c r="H1304" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="1305" spans="1:8">
+      <c r="I1304" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1304">
+        <v>1</v>
+      </c>
+      <c r="K1304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:11">
       <c r="A1305" s="4">
         <v>1</v>
       </c>
@@ -46350,8 +47313,17 @@
       <c r="H1305" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1306" spans="1:8">
+      <c r="I1305" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1305">
+        <v>1</v>
+      </c>
+      <c r="K1305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:11">
       <c r="A1306" s="4">
         <v>0</v>
       </c>
@@ -46377,7 +47349,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="1307" spans="1:8">
+    <row r="1307" spans="1:11">
       <c r="A1307" s="4">
         <v>0</v>
       </c>
@@ -46403,7 +47375,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="1308" spans="1:8">
+    <row r="1308" spans="1:11">
       <c r="A1308" s="4">
         <v>1</v>
       </c>
@@ -46429,7 +47401,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="1309" spans="1:8">
+    <row r="1309" spans="1:11">
       <c r="A1309" s="2">
         <v>0</v>
       </c>
@@ -46455,7 +47427,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="1310" spans="1:8">
+    <row r="1310" spans="1:11">
       <c r="A1310" s="2">
         <v>0</v>
       </c>
@@ -46481,7 +47453,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="1311" spans="1:8">
+    <row r="1311" spans="1:11">
       <c r="A1311" s="2">
         <v>0</v>
       </c>
@@ -46507,7 +47479,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="1312" spans="1:8">
+    <row r="1312" spans="1:11">
       <c r="A1312" s="2">
         <v>0</v>
       </c>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="0" windowWidth="16560" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="-680" yWindow="0" windowWidth="16560" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7117" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7120" uniqueCount="648">
   <si>
     <t>Agent.Embod</t>
   </si>
@@ -2468,10 +2468,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F1285" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G1366" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1308" sqref="J1308"/>
+      <selection pane="bottomRight" activeCell="I1378" sqref="I1378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -47348,6 +47348,15 @@
       <c r="H1306" t="s">
         <v>428</v>
       </c>
+      <c r="I1306" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1306">
+        <v>1</v>
+      </c>
+      <c r="K1306">
+        <v>0</v>
+      </c>
     </row>
     <row r="1307" spans="1:11">
       <c r="A1307" s="4">
@@ -47374,6 +47383,15 @@
       <c r="H1307" t="s">
         <v>430</v>
       </c>
+      <c r="I1307" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1307">
+        <v>0</v>
+      </c>
+      <c r="K1307">
+        <v>0</v>
+      </c>
     </row>
     <row r="1308" spans="1:11">
       <c r="A1308" s="4">
@@ -47400,6 +47418,15 @@
       <c r="H1308" t="s">
         <v>430</v>
       </c>
+      <c r="I1308" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1308">
+        <v>1</v>
+      </c>
+      <c r="K1308">
+        <v>0</v>
+      </c>
     </row>
     <row r="1309" spans="1:11">
       <c r="A1309" s="2">
@@ -47426,6 +47453,15 @@
       <c r="H1309" t="s">
         <v>429</v>
       </c>
+      <c r="I1309" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1309">
+        <v>0</v>
+      </c>
+      <c r="K1309">
+        <v>0</v>
+      </c>
     </row>
     <row r="1310" spans="1:11">
       <c r="A1310" s="2">
@@ -47452,6 +47488,15 @@
       <c r="H1310" t="s">
         <v>434</v>
       </c>
+      <c r="I1310" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1310">
+        <v>0</v>
+      </c>
+      <c r="K1310">
+        <v>0</v>
+      </c>
     </row>
     <row r="1311" spans="1:11">
       <c r="A1311" s="2">
@@ -47478,6 +47523,15 @@
       <c r="H1311" t="s">
         <v>435</v>
       </c>
+      <c r="I1311" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1311">
+        <v>0</v>
+      </c>
+      <c r="K1311">
+        <v>0</v>
+      </c>
     </row>
     <row r="1312" spans="1:11">
       <c r="A1312" s="2">
@@ -47504,8 +47558,17 @@
       <c r="H1312" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="1313" spans="1:8">
+      <c r="I1312" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1312">
+        <v>1</v>
+      </c>
+      <c r="K1312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:11">
       <c r="A1313" s="2">
         <v>0</v>
       </c>
@@ -47530,8 +47593,17 @@
       <c r="H1313" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="1314" spans="1:8">
+      <c r="I1313" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1313">
+        <v>1</v>
+      </c>
+      <c r="K1313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:11">
       <c r="A1314" s="2">
         <v>0</v>
       </c>
@@ -47556,8 +47628,17 @@
       <c r="H1314" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1315" spans="1:8">
+      <c r="I1314" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1314">
+        <v>0</v>
+      </c>
+      <c r="K1314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:11">
       <c r="A1315" s="2">
         <v>0</v>
       </c>
@@ -47582,8 +47663,17 @@
       <c r="H1315" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="1316" spans="1:8">
+      <c r="I1315" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1315">
+        <v>0</v>
+      </c>
+      <c r="K1315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:11">
       <c r="A1316" s="2">
         <v>0</v>
       </c>
@@ -47608,8 +47698,17 @@
       <c r="H1316" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="1317" spans="1:8">
+      <c r="I1316" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1316">
+        <v>0</v>
+      </c>
+      <c r="K1316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:11">
       <c r="A1317" s="2">
         <v>0</v>
       </c>
@@ -47634,8 +47733,17 @@
       <c r="H1317" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="1318" spans="1:8">
+      <c r="I1317" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1317">
+        <v>1</v>
+      </c>
+      <c r="K1317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:11">
       <c r="A1318" s="2" t="s">
         <v>82</v>
       </c>
@@ -47660,8 +47768,17 @@
       <c r="H1318" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="1319" spans="1:8">
+      <c r="I1318" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1318" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1318" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:11">
       <c r="A1319" s="2">
         <v>0</v>
       </c>
@@ -47686,8 +47803,17 @@
       <c r="H1319" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="1320" spans="1:8">
+      <c r="I1319" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1319">
+        <v>1</v>
+      </c>
+      <c r="K1319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:11">
       <c r="A1320" s="2">
         <v>0</v>
       </c>
@@ -47712,8 +47838,17 @@
       <c r="H1320" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="1321" spans="1:8">
+      <c r="I1320" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1320">
+        <v>0</v>
+      </c>
+      <c r="K1320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:11">
       <c r="A1321" s="2">
         <v>0</v>
       </c>
@@ -47738,8 +47873,17 @@
       <c r="H1321" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="1322" spans="1:8">
+      <c r="I1321" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1321">
+        <v>0</v>
+      </c>
+      <c r="K1321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:11">
       <c r="A1322" s="2">
         <v>0</v>
       </c>
@@ -47764,8 +47908,17 @@
       <c r="H1322" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="1323" spans="1:8">
+      <c r="I1322" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1322">
+        <v>0</v>
+      </c>
+      <c r="K1322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:11">
       <c r="A1323" s="2">
         <v>0</v>
       </c>
@@ -47790,8 +47943,17 @@
       <c r="H1323" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="1324" spans="1:8">
+      <c r="I1323" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1323">
+        <v>0</v>
+      </c>
+      <c r="K1323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:11">
       <c r="A1324" s="2">
         <v>0</v>
       </c>
@@ -47816,8 +47978,17 @@
       <c r="H1324" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="1325" spans="1:8">
+      <c r="I1324" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1324">
+        <v>0</v>
+      </c>
+      <c r="K1324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:11">
       <c r="A1325" s="2">
         <v>0</v>
       </c>
@@ -47842,8 +48013,17 @@
       <c r="H1325" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="1326" spans="1:8">
+      <c r="I1325" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1325">
+        <v>0</v>
+      </c>
+      <c r="K1325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:11">
       <c r="A1326" s="2">
         <v>0</v>
       </c>
@@ -47868,8 +48048,17 @@
       <c r="H1326" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="1327" spans="1:8">
+      <c r="I1326" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1326">
+        <v>0</v>
+      </c>
+      <c r="K1326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:11">
       <c r="A1327" s="2">
         <v>0</v>
       </c>
@@ -47894,8 +48083,17 @@
       <c r="H1327" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="1328" spans="1:8">
+      <c r="I1327" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1327">
+        <v>0</v>
+      </c>
+      <c r="K1327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:11">
       <c r="A1328" s="2">
         <v>0</v>
       </c>
@@ -47920,8 +48118,17 @@
       <c r="H1328" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="1329" spans="1:8">
+      <c r="I1328" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1328">
+        <v>0</v>
+      </c>
+      <c r="K1328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:11">
       <c r="A1329" s="2">
         <v>0</v>
       </c>
@@ -47946,8 +48153,17 @@
       <c r="H1329" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="1330" spans="1:8">
+      <c r="I1329" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1329">
+        <v>0</v>
+      </c>
+      <c r="K1329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:11">
       <c r="A1330" s="2">
         <v>0</v>
       </c>
@@ -47972,8 +48188,17 @@
       <c r="H1330" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="1331" spans="1:8">
+      <c r="I1330" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1330">
+        <v>0</v>
+      </c>
+      <c r="K1330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:11">
       <c r="A1331" s="2">
         <v>0</v>
       </c>
@@ -47998,8 +48223,17 @@
       <c r="H1331" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="1332" spans="1:8">
+      <c r="I1331" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1331">
+        <v>0</v>
+      </c>
+      <c r="K1331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:11">
       <c r="A1332" s="2">
         <v>0</v>
       </c>
@@ -48024,8 +48258,17 @@
       <c r="H1332" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="1333" spans="1:8">
+      <c r="I1332" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1332">
+        <v>0</v>
+      </c>
+      <c r="K1332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:11">
       <c r="A1333" s="2">
         <v>0</v>
       </c>
@@ -48050,8 +48293,17 @@
       <c r="H1333" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="1334" spans="1:8">
+      <c r="I1333" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1333">
+        <v>0</v>
+      </c>
+      <c r="K1333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:11">
       <c r="A1334" s="2">
         <v>0</v>
       </c>
@@ -48076,8 +48328,17 @@
       <c r="H1334" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="1335" spans="1:8">
+      <c r="I1334" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1334">
+        <v>0</v>
+      </c>
+      <c r="K1334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:11">
       <c r="A1335" s="2">
         <v>0</v>
       </c>
@@ -48102,8 +48363,17 @@
       <c r="H1335" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="1336" spans="1:8">
+      <c r="I1335" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1335">
+        <v>0</v>
+      </c>
+      <c r="K1335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:11">
       <c r="A1336" s="2">
         <v>0</v>
       </c>
@@ -48128,8 +48398,17 @@
       <c r="H1336" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="1337" spans="1:8">
+      <c r="I1336" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1336">
+        <v>0</v>
+      </c>
+      <c r="K1336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:11">
       <c r="A1337" s="2">
         <v>0</v>
       </c>
@@ -48154,8 +48433,17 @@
       <c r="H1337" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="1338" spans="1:8">
+      <c r="I1337" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1337">
+        <v>0</v>
+      </c>
+      <c r="K1337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:11">
       <c r="A1338" s="2">
         <v>0</v>
       </c>
@@ -48180,8 +48468,17 @@
       <c r="H1338" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1339" spans="1:8">
+      <c r="I1338" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1338">
+        <v>0</v>
+      </c>
+      <c r="K1338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:11">
       <c r="A1339" s="2">
         <v>0</v>
       </c>
@@ -48206,8 +48503,17 @@
       <c r="H1339" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="1340" spans="1:8">
+      <c r="I1339" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1339">
+        <v>0</v>
+      </c>
+      <c r="K1339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:11">
       <c r="A1340" s="2">
         <v>0</v>
       </c>
@@ -48232,8 +48538,17 @@
       <c r="H1340" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1341" spans="1:8">
+      <c r="I1340" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1340">
+        <v>0</v>
+      </c>
+      <c r="K1340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:11">
       <c r="A1341" s="2">
         <v>0</v>
       </c>
@@ -48258,8 +48573,17 @@
       <c r="H1341" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="1342" spans="1:8">
+      <c r="I1341" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1341">
+        <v>0</v>
+      </c>
+      <c r="K1341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:11">
       <c r="A1342" s="2">
         <v>0</v>
       </c>
@@ -48284,8 +48608,17 @@
       <c r="H1342" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="1343" spans="1:8">
+      <c r="I1342" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1342">
+        <v>0</v>
+      </c>
+      <c r="K1342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:11">
       <c r="A1343" s="2">
         <v>0</v>
       </c>
@@ -48310,8 +48643,17 @@
       <c r="H1343" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="1344" spans="1:8">
+      <c r="I1343" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1343">
+        <v>0</v>
+      </c>
+      <c r="K1343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:11">
       <c r="A1344" s="2">
         <v>0</v>
       </c>
@@ -48336,8 +48678,17 @@
       <c r="H1344" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="1345" spans="1:8">
+      <c r="I1344" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1344">
+        <v>0</v>
+      </c>
+      <c r="K1344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:11">
       <c r="A1345" s="2">
         <v>0</v>
       </c>
@@ -48362,8 +48713,17 @@
       <c r="H1345" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="1346" spans="1:8">
+      <c r="I1345" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1345">
+        <v>0</v>
+      </c>
+      <c r="K1345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:11">
       <c r="A1346" s="2">
         <v>0</v>
       </c>
@@ -48388,8 +48748,17 @@
       <c r="H1346" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="1347" spans="1:8">
+      <c r="I1346" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1346">
+        <v>0</v>
+      </c>
+      <c r="K1346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:11">
       <c r="A1347" s="2">
         <v>0</v>
       </c>
@@ -48414,8 +48783,17 @@
       <c r="H1347" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1348" spans="1:8">
+      <c r="I1347" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1347">
+        <v>0</v>
+      </c>
+      <c r="K1347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:11">
       <c r="A1348" s="2">
         <v>0</v>
       </c>
@@ -48440,8 +48818,17 @@
       <c r="H1348" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1349" spans="1:8">
+      <c r="I1348" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1348">
+        <v>1</v>
+      </c>
+      <c r="K1348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:11">
       <c r="A1349" s="2">
         <v>0</v>
       </c>
@@ -48466,8 +48853,17 @@
       <c r="H1349" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1350" spans="1:8">
+      <c r="I1349" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1349">
+        <v>1</v>
+      </c>
+      <c r="K1349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:11">
       <c r="A1350" s="2">
         <v>0</v>
       </c>
@@ -48492,8 +48888,17 @@
       <c r="H1350" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="1351" spans="1:8">
+      <c r="I1350" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1350">
+        <v>1</v>
+      </c>
+      <c r="K1350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:11">
       <c r="A1351" s="2">
         <v>0</v>
       </c>
@@ -48518,8 +48923,17 @@
       <c r="H1351" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1352" spans="1:8">
+      <c r="I1351" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1351">
+        <v>0</v>
+      </c>
+      <c r="K1351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:11">
       <c r="A1352" s="2">
         <v>0</v>
       </c>
@@ -48544,8 +48958,17 @@
       <c r="H1352" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="1353" spans="1:8">
+      <c r="I1352" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1352">
+        <v>1</v>
+      </c>
+      <c r="K1352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:11">
       <c r="A1353" s="2">
         <v>0</v>
       </c>
@@ -48570,8 +48993,17 @@
       <c r="H1353" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1354" spans="1:8">
+      <c r="I1353" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1353">
+        <v>1</v>
+      </c>
+      <c r="K1353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:11">
       <c r="A1354" s="2">
         <v>0</v>
       </c>
@@ -48596,8 +49028,17 @@
       <c r="H1354" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1355" spans="1:8">
+      <c r="I1354" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1354">
+        <v>1</v>
+      </c>
+      <c r="K1354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:11">
       <c r="A1355" s="2">
         <v>0</v>
       </c>
@@ -48622,8 +49063,17 @@
       <c r="H1355" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1356" spans="1:8">
+      <c r="I1355" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1355">
+        <v>0</v>
+      </c>
+      <c r="K1355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:11">
       <c r="A1356" s="2">
         <v>0</v>
       </c>
@@ -48648,8 +49098,17 @@
       <c r="H1356" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1357" spans="1:8">
+      <c r="I1356" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1356">
+        <v>1</v>
+      </c>
+      <c r="K1356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:11">
       <c r="A1357" s="2">
         <v>0</v>
       </c>
@@ -48674,8 +49133,17 @@
       <c r="H1357" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1358" spans="1:8">
+      <c r="I1357" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1357">
+        <v>0</v>
+      </c>
+      <c r="K1357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:11">
       <c r="A1358" s="2">
         <v>0</v>
       </c>
@@ -48700,8 +49168,17 @@
       <c r="H1358" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1359" spans="1:8">
+      <c r="I1358" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1358">
+        <v>0</v>
+      </c>
+      <c r="K1358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:11">
       <c r="A1359" s="2">
         <v>0</v>
       </c>
@@ -48726,8 +49203,17 @@
       <c r="H1359" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="1360" spans="1:8">
+      <c r="I1359" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1359">
+        <v>1</v>
+      </c>
+      <c r="K1359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:11">
       <c r="A1360" s="2">
         <v>0</v>
       </c>
@@ -48752,8 +49238,17 @@
       <c r="H1360" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1361" spans="1:8">
+      <c r="I1360" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1360">
+        <v>1</v>
+      </c>
+      <c r="K1360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:11">
       <c r="A1361" s="2">
         <v>0</v>
       </c>
@@ -48778,8 +49273,17 @@
       <c r="H1361" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1362" spans="1:8">
+      <c r="I1361" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1361">
+        <v>1</v>
+      </c>
+      <c r="K1361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:11">
       <c r="A1362" s="2">
         <v>0</v>
       </c>
@@ -48804,8 +49308,17 @@
       <c r="H1362" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1363" spans="1:8">
+      <c r="I1362" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1362">
+        <v>0</v>
+      </c>
+      <c r="K1362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:11">
       <c r="A1363" s="2">
         <v>0</v>
       </c>
@@ -48830,8 +49343,17 @@
       <c r="H1363" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1364" spans="1:8">
+      <c r="I1363" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1363">
+        <v>0</v>
+      </c>
+      <c r="K1363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:11">
       <c r="A1364" s="2">
         <v>0</v>
       </c>
@@ -48856,8 +49378,17 @@
       <c r="H1364" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1365" spans="1:8">
+      <c r="I1364" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1364">
+        <v>0</v>
+      </c>
+      <c r="K1364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:11">
       <c r="A1365" s="2">
         <v>0</v>
       </c>
@@ -48882,8 +49413,17 @@
       <c r="H1365" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1366" spans="1:8">
+      <c r="I1365" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1365">
+        <v>0</v>
+      </c>
+      <c r="K1365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:11">
       <c r="A1366" s="2">
         <v>0</v>
       </c>
@@ -48908,8 +49448,17 @@
       <c r="H1366" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1367" spans="1:8">
+      <c r="I1366" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1366">
+        <v>1</v>
+      </c>
+      <c r="K1366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:11">
       <c r="A1367" s="2">
         <v>0</v>
       </c>
@@ -48934,8 +49483,17 @@
       <c r="H1367" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1368" spans="1:8">
+      <c r="I1367" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1367">
+        <v>0</v>
+      </c>
+      <c r="K1367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:11">
       <c r="A1368" s="2">
         <v>0</v>
       </c>
@@ -48960,8 +49518,17 @@
       <c r="H1368" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1369" spans="1:8">
+      <c r="I1368" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1368">
+        <v>0</v>
+      </c>
+      <c r="K1368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:11">
       <c r="A1369" s="2">
         <v>0</v>
       </c>
@@ -48986,8 +49553,17 @@
       <c r="H1369" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1370" spans="1:8">
+      <c r="I1369" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1369">
+        <v>0</v>
+      </c>
+      <c r="K1369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:11">
       <c r="A1370" s="2">
         <v>0</v>
       </c>
@@ -49012,8 +49588,17 @@
       <c r="H1370" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1371" spans="1:8">
+      <c r="I1370" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1370">
+        <v>0</v>
+      </c>
+      <c r="K1370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:11">
       <c r="A1371" s="2">
         <v>0</v>
       </c>
@@ -49038,8 +49623,17 @@
       <c r="H1371" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1372" spans="1:8">
+      <c r="I1371" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1371">
+        <v>0</v>
+      </c>
+      <c r="K1371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:11">
       <c r="A1372" s="2">
         <v>0</v>
       </c>
@@ -49064,8 +49658,17 @@
       <c r="H1372" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1373" spans="1:8">
+      <c r="I1372" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1372">
+        <v>1</v>
+      </c>
+      <c r="K1372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:11">
       <c r="A1373" s="2">
         <v>0</v>
       </c>
@@ -49090,8 +49693,17 @@
       <c r="H1373" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1374" spans="1:8">
+      <c r="I1373" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1373">
+        <v>0</v>
+      </c>
+      <c r="K1373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:11">
       <c r="A1374" s="2">
         <v>0</v>
       </c>
@@ -49116,8 +49728,17 @@
       <c r="H1374" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="1375" spans="1:8">
+      <c r="I1374" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1374">
+        <v>1</v>
+      </c>
+      <c r="K1374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:11">
       <c r="A1375" s="2">
         <v>0</v>
       </c>
@@ -49142,8 +49763,17 @@
       <c r="H1375" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1376" spans="1:8">
+      <c r="I1375" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1375">
+        <v>0</v>
+      </c>
+      <c r="K1375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:11">
       <c r="A1376" s="2">
         <v>0</v>
       </c>
@@ -49168,8 +49798,17 @@
       <c r="H1376" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="1377" spans="1:8">
+      <c r="I1376" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1376">
+        <v>1</v>
+      </c>
+      <c r="K1376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:11">
       <c r="A1377" s="2">
         <v>0</v>
       </c>
@@ -49194,8 +49833,17 @@
       <c r="H1377" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1378" spans="1:8">
+      <c r="I1377" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1377">
+        <v>1</v>
+      </c>
+      <c r="K1377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:11">
       <c r="A1378" s="2">
         <v>0</v>
       </c>
@@ -49221,7 +49869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1379" spans="1:8">
+    <row r="1379" spans="1:11">
       <c r="A1379" s="2">
         <v>0</v>
       </c>
@@ -49247,7 +49895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1380" spans="1:8">
+    <row r="1380" spans="1:11">
       <c r="A1380" s="4">
         <v>0</v>
       </c>
@@ -49273,7 +49921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1381" spans="1:8">
+    <row r="1381" spans="1:11">
       <c r="A1381" s="4">
         <v>0</v>
       </c>
@@ -49299,7 +49947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1382" spans="1:8">
+    <row r="1382" spans="1:11">
       <c r="A1382" s="4">
         <v>0</v>
       </c>
@@ -49325,7 +49973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1383" spans="1:8">
+    <row r="1383" spans="1:11">
       <c r="A1383" s="4">
         <v>0</v>
       </c>
@@ -49351,7 +49999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1384" spans="1:8">
+    <row r="1384" spans="1:11">
       <c r="A1384" s="4">
         <v>0</v>
       </c>
@@ -49377,7 +50025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1385" spans="1:8">
+    <row r="1385" spans="1:11">
       <c r="A1385" s="4">
         <v>0</v>
       </c>
@@ -49403,7 +50051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1386" spans="1:8">
+    <row r="1386" spans="1:11">
       <c r="A1386" s="4">
         <v>0</v>
       </c>
@@ -49429,7 +50077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1387" spans="1:8">
+    <row r="1387" spans="1:11">
       <c r="A1387" s="4">
         <v>0</v>
       </c>
@@ -49455,7 +50103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1388" spans="1:8">
+    <row r="1388" spans="1:11">
       <c r="A1388" s="4">
         <v>0</v>
       </c>
@@ -49481,7 +50129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1389" spans="1:8">
+    <row r="1389" spans="1:11">
       <c r="A1389" s="4">
         <v>0</v>
       </c>
@@ -49507,7 +50155,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1390" spans="1:8">
+    <row r="1390" spans="1:11">
       <c r="A1390" s="4">
         <v>0</v>
       </c>
@@ -49533,7 +50181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1391" spans="1:8">
+    <row r="1391" spans="1:11">
       <c r="A1391" s="4">
         <v>0</v>
       </c>
@@ -49559,7 +50207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1392" spans="1:8">
+    <row r="1392" spans="1:11">
       <c r="A1392" s="4">
         <v>0</v>
       </c>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-680" yWindow="0" windowWidth="16560" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="-5260" yWindow="0" windowWidth="16560" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2468,10 +2468,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G1366" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G1376" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1378" sqref="I1378"/>
+      <selection pane="bottomRight" activeCell="I1394" sqref="I1394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -49868,6 +49868,15 @@
       <c r="H1378" t="s">
         <v>20</v>
       </c>
+      <c r="I1378" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1378">
+        <v>1</v>
+      </c>
+      <c r="K1378">
+        <v>0</v>
+      </c>
     </row>
     <row r="1379" spans="1:11">
       <c r="A1379" s="2">
@@ -49894,6 +49903,15 @@
       <c r="H1379" t="s">
         <v>13</v>
       </c>
+      <c r="I1379" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1379">
+        <v>0</v>
+      </c>
+      <c r="K1379">
+        <v>0</v>
+      </c>
     </row>
     <row r="1380" spans="1:11">
       <c r="A1380" s="4">
@@ -49920,6 +49938,15 @@
       <c r="H1380" t="s">
         <v>20</v>
       </c>
+      <c r="I1380" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1380">
+        <v>1</v>
+      </c>
+      <c r="K1380">
+        <v>0</v>
+      </c>
     </row>
     <row r="1381" spans="1:11">
       <c r="A1381" s="4">
@@ -49946,6 +49973,15 @@
       <c r="H1381" t="s">
         <v>13</v>
       </c>
+      <c r="I1381" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1381">
+        <v>0</v>
+      </c>
+      <c r="K1381">
+        <v>0</v>
+      </c>
     </row>
     <row r="1382" spans="1:11">
       <c r="A1382" s="4">
@@ -49972,6 +50008,15 @@
       <c r="H1382" t="s">
         <v>20</v>
       </c>
+      <c r="I1382" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1382">
+        <v>0</v>
+      </c>
+      <c r="K1382">
+        <v>0</v>
+      </c>
     </row>
     <row r="1383" spans="1:11">
       <c r="A1383" s="4">
@@ -49998,6 +50043,15 @@
       <c r="H1383" t="s">
         <v>20</v>
       </c>
+      <c r="I1383" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1383">
+        <v>0</v>
+      </c>
+      <c r="K1383">
+        <v>0</v>
+      </c>
     </row>
     <row r="1384" spans="1:11">
       <c r="A1384" s="4">
@@ -50024,6 +50078,15 @@
       <c r="H1384" t="s">
         <v>20</v>
       </c>
+      <c r="I1384" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1384">
+        <v>0</v>
+      </c>
+      <c r="K1384">
+        <v>0</v>
+      </c>
     </row>
     <row r="1385" spans="1:11">
       <c r="A1385" s="4">
@@ -50050,6 +50113,15 @@
       <c r="H1385" t="s">
         <v>20</v>
       </c>
+      <c r="I1385" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1385">
+        <v>0</v>
+      </c>
+      <c r="K1385">
+        <v>0</v>
+      </c>
     </row>
     <row r="1386" spans="1:11">
       <c r="A1386" s="4">
@@ -50076,6 +50148,15 @@
       <c r="H1386" t="s">
         <v>13</v>
       </c>
+      <c r="I1386" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1386">
+        <v>0</v>
+      </c>
+      <c r="K1386">
+        <v>0</v>
+      </c>
     </row>
     <row r="1387" spans="1:11">
       <c r="A1387" s="4">
@@ -50102,6 +50183,15 @@
       <c r="H1387" t="s">
         <v>13</v>
       </c>
+      <c r="I1387" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1387">
+        <v>0</v>
+      </c>
+      <c r="K1387">
+        <v>0</v>
+      </c>
     </row>
     <row r="1388" spans="1:11">
       <c r="A1388" s="4">
@@ -50128,6 +50218,15 @@
       <c r="H1388" t="s">
         <v>13</v>
       </c>
+      <c r="I1388" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1388">
+        <v>0</v>
+      </c>
+      <c r="K1388">
+        <v>0</v>
+      </c>
     </row>
     <row r="1389" spans="1:11">
       <c r="A1389" s="4">
@@ -50153,6 +50252,15 @@
       </c>
       <c r="H1389" t="s">
         <v>74</v>
+      </c>
+      <c r="I1389" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1389">
+        <v>0</v>
+      </c>
+      <c r="K1389">
+        <v>0</v>
       </c>
     </row>
     <row r="1390" spans="1:11">

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-5260" yWindow="0" windowWidth="16560" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="-6480" yWindow="0" windowWidth="15260" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2468,10 +2468,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G1376" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G1564" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1394" sqref="I1394"/>
+      <selection pane="bottomRight" activeCell="I1579" sqref="I1579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -50288,6 +50288,15 @@
       <c r="H1390" t="s">
         <v>20</v>
       </c>
+      <c r="I1390" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1390">
+        <v>1</v>
+      </c>
+      <c r="K1390">
+        <v>0</v>
+      </c>
     </row>
     <row r="1391" spans="1:11">
       <c r="A1391" s="4">
@@ -50314,6 +50323,15 @@
       <c r="H1391" t="s">
         <v>20</v>
       </c>
+      <c r="I1391" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1391">
+        <v>0</v>
+      </c>
+      <c r="K1391">
+        <v>0</v>
+      </c>
     </row>
     <row r="1392" spans="1:11">
       <c r="A1392" s="4">
@@ -50340,8 +50358,17 @@
       <c r="H1392" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1393" spans="1:8">
+      <c r="I1392" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1392">
+        <v>0</v>
+      </c>
+      <c r="K1392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:11">
       <c r="A1393" s="2">
         <v>0</v>
       </c>
@@ -50366,8 +50393,17 @@
       <c r="H1393" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1394" spans="1:8">
+      <c r="I1393" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1393">
+        <v>0</v>
+      </c>
+      <c r="K1393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:11">
       <c r="A1394" s="2">
         <v>1</v>
       </c>
@@ -50392,8 +50428,17 @@
       <c r="H1394" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="1395" spans="1:8">
+      <c r="I1394" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1394">
+        <v>1</v>
+      </c>
+      <c r="K1394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:11">
       <c r="A1395" s="2">
         <v>1</v>
       </c>
@@ -50418,8 +50463,17 @@
       <c r="H1395" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1396" spans="1:8">
+      <c r="I1395" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1395">
+        <v>1</v>
+      </c>
+      <c r="K1395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:11">
       <c r="A1396" s="2">
         <v>1</v>
       </c>
@@ -50444,8 +50498,17 @@
       <c r="H1396" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="1397" spans="1:8">
+      <c r="I1396" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1396">
+        <v>1</v>
+      </c>
+      <c r="K1396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:11">
       <c r="A1397" s="2">
         <v>1</v>
       </c>
@@ -50470,8 +50533,17 @@
       <c r="H1397" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="1398" spans="1:8">
+      <c r="I1397" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1397">
+        <v>0</v>
+      </c>
+      <c r="K1397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:11">
       <c r="A1398" s="2">
         <v>1</v>
       </c>
@@ -50496,8 +50568,17 @@
       <c r="H1398" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="1399" spans="1:8">
+      <c r="I1398" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1398">
+        <v>1</v>
+      </c>
+      <c r="K1398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:11">
       <c r="A1399" s="2">
         <v>0</v>
       </c>
@@ -50522,8 +50603,17 @@
       <c r="H1399" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1400" spans="1:8">
+      <c r="I1399" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1399">
+        <v>0</v>
+      </c>
+      <c r="K1399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:11">
       <c r="A1400" s="2">
         <v>1</v>
       </c>
@@ -50548,8 +50638,17 @@
       <c r="H1400" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1401" spans="1:8">
+      <c r="I1400" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1400">
+        <v>1</v>
+      </c>
+      <c r="K1400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:11">
       <c r="A1401" s="2">
         <v>0</v>
       </c>
@@ -50574,8 +50673,17 @@
       <c r="H1401" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1402" spans="1:8">
+      <c r="I1401" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1401">
+        <v>0</v>
+      </c>
+      <c r="K1401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:11">
       <c r="A1402" s="2">
         <v>1</v>
       </c>
@@ -50600,8 +50708,17 @@
       <c r="H1402" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="1403" spans="1:8">
+      <c r="I1402" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1402">
+        <v>1</v>
+      </c>
+      <c r="K1402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:11">
       <c r="A1403" s="2">
         <v>1</v>
       </c>
@@ -50626,8 +50743,17 @@
       <c r="H1403" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="1404" spans="1:8">
+      <c r="I1403" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1403">
+        <v>1</v>
+      </c>
+      <c r="K1403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:11">
       <c r="A1404" s="2">
         <v>1</v>
       </c>
@@ -50652,8 +50778,17 @@
       <c r="H1404" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="1405" spans="1:8">
+      <c r="I1404" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1404">
+        <v>1</v>
+      </c>
+      <c r="K1404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:11">
       <c r="A1405" s="2">
         <v>1</v>
       </c>
@@ -50678,8 +50813,17 @@
       <c r="H1405" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="1406" spans="1:8">
+      <c r="I1405" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1405">
+        <v>1</v>
+      </c>
+      <c r="K1405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:11">
       <c r="A1406" s="2">
         <v>1</v>
       </c>
@@ -50704,8 +50848,17 @@
       <c r="H1406" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1407" spans="1:8">
+      <c r="I1406" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1406">
+        <v>0</v>
+      </c>
+      <c r="K1406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:11">
       <c r="A1407" s="2">
         <v>1</v>
       </c>
@@ -50730,8 +50883,17 @@
       <c r="H1407" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="1408" spans="1:8">
+      <c r="I1407" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1407">
+        <v>1</v>
+      </c>
+      <c r="K1407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:11">
       <c r="A1408" s="2">
         <v>0</v>
       </c>
@@ -50756,8 +50918,17 @@
       <c r="H1408" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1409" spans="1:8">
+      <c r="I1408" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1408">
+        <v>0</v>
+      </c>
+      <c r="K1408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:11">
       <c r="A1409" s="2">
         <v>1</v>
       </c>
@@ -50782,8 +50953,17 @@
       <c r="H1409" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="1410" spans="1:8">
+      <c r="I1409" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1409">
+        <v>1</v>
+      </c>
+      <c r="K1409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:11">
       <c r="A1410" s="2">
         <v>1</v>
       </c>
@@ -50808,8 +50988,17 @@
       <c r="H1410" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="1411" spans="1:8">
+      <c r="I1410" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1410">
+        <v>1</v>
+      </c>
+      <c r="K1410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:11">
       <c r="A1411" s="2">
         <v>1</v>
       </c>
@@ -50834,8 +51023,17 @@
       <c r="H1411" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="1412" spans="1:8">
+      <c r="I1411" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1411">
+        <v>1</v>
+      </c>
+      <c r="K1411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:11">
       <c r="A1412" s="2">
         <v>0</v>
       </c>
@@ -50860,8 +51058,17 @@
       <c r="H1412" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1413" spans="1:8">
+      <c r="I1412" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1412">
+        <v>0</v>
+      </c>
+      <c r="K1412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:11">
       <c r="A1413" s="2">
         <v>1</v>
       </c>
@@ -50886,8 +51093,17 @@
       <c r="H1413" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="1414" spans="1:8">
+      <c r="I1413" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1413">
+        <v>1</v>
+      </c>
+      <c r="K1413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:11">
       <c r="A1414" s="2">
         <v>1</v>
       </c>
@@ -50912,8 +51128,17 @@
       <c r="H1414" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="1415" spans="1:8">
+      <c r="I1414" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1414">
+        <v>1</v>
+      </c>
+      <c r="K1414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:11">
       <c r="A1415" s="2">
         <v>1</v>
       </c>
@@ -50938,8 +51163,17 @@
       <c r="H1415" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1416" spans="1:8">
+      <c r="I1415" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1415">
+        <v>1</v>
+      </c>
+      <c r="K1415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:11">
       <c r="A1416" s="2">
         <v>1</v>
       </c>
@@ -50964,8 +51198,17 @@
       <c r="H1416" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="1417" spans="1:8">
+      <c r="I1416" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1416">
+        <v>1</v>
+      </c>
+      <c r="K1416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:11">
       <c r="A1417" s="2">
         <v>1</v>
       </c>
@@ -50990,8 +51233,17 @@
       <c r="H1417" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="1418" spans="1:8">
+      <c r="I1417" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1417">
+        <v>1</v>
+      </c>
+      <c r="K1417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:11">
       <c r="A1418" s="2">
         <v>1</v>
       </c>
@@ -51016,8 +51268,17 @@
       <c r="H1418" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="1419" spans="1:8">
+      <c r="I1418" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1418">
+        <v>0</v>
+      </c>
+      <c r="K1418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:11">
       <c r="A1419" s="2">
         <v>1</v>
       </c>
@@ -51042,8 +51303,17 @@
       <c r="H1419" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1420" spans="1:8">
+      <c r="I1419" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1419">
+        <v>0</v>
+      </c>
+      <c r="K1419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:11">
       <c r="A1420" s="2">
         <v>1</v>
       </c>
@@ -51068,8 +51338,17 @@
       <c r="H1420" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="1421" spans="1:8">
+      <c r="I1420" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1420">
+        <v>0</v>
+      </c>
+      <c r="K1420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:11">
       <c r="A1421" s="2">
         <v>1</v>
       </c>
@@ -51094,8 +51373,17 @@
       <c r="H1421" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="1422" spans="1:8">
+      <c r="I1421" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1421">
+        <v>0</v>
+      </c>
+      <c r="K1421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:11">
       <c r="A1422" s="2">
         <v>1</v>
       </c>
@@ -51120,8 +51408,17 @@
       <c r="H1422" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="1423" spans="1:8">
+      <c r="I1422" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1422">
+        <v>0</v>
+      </c>
+      <c r="K1422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:11">
       <c r="A1423" s="2">
         <v>0</v>
       </c>
@@ -51146,8 +51443,17 @@
       <c r="H1423" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1424" spans="1:8">
+      <c r="I1423" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1423">
+        <v>0</v>
+      </c>
+      <c r="K1423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:11">
       <c r="A1424" s="2">
         <v>1</v>
       </c>
@@ -51172,8 +51478,17 @@
       <c r="H1424" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1425" spans="1:8">
+      <c r="I1424" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1424">
+        <v>0</v>
+      </c>
+      <c r="K1424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:11">
       <c r="A1425" s="2">
         <v>0</v>
       </c>
@@ -51198,8 +51513,17 @@
       <c r="H1425" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1426" spans="1:8">
+      <c r="I1425" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1425">
+        <v>0</v>
+      </c>
+      <c r="K1425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:11">
       <c r="A1426" s="2">
         <v>1</v>
       </c>
@@ -51224,8 +51548,17 @@
       <c r="H1426" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="1427" spans="1:8">
+      <c r="I1426" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1426">
+        <v>0</v>
+      </c>
+      <c r="K1426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:11">
       <c r="A1427" s="2">
         <v>1</v>
       </c>
@@ -51250,8 +51583,17 @@
       <c r="H1427" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="1428" spans="1:8">
+      <c r="I1427" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1427">
+        <v>0</v>
+      </c>
+      <c r="K1427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:11">
       <c r="A1428" s="2">
         <v>1</v>
       </c>
@@ -51276,8 +51618,17 @@
       <c r="H1428" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="1429" spans="1:8">
+      <c r="I1428" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1428">
+        <v>0</v>
+      </c>
+      <c r="K1428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:11">
       <c r="A1429" s="2">
         <v>1</v>
       </c>
@@ -51302,8 +51653,17 @@
       <c r="H1429" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="1430" spans="1:8">
+      <c r="I1429" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1429">
+        <v>0</v>
+      </c>
+      <c r="K1429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:11">
       <c r="A1430" s="2">
         <v>1</v>
       </c>
@@ -51328,8 +51688,17 @@
       <c r="H1430" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1431" spans="1:8">
+      <c r="I1430" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1430">
+        <v>0</v>
+      </c>
+      <c r="K1430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:11">
       <c r="A1431" s="2">
         <v>1</v>
       </c>
@@ -51354,8 +51723,17 @@
       <c r="H1431" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="1432" spans="1:8">
+      <c r="I1431" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1431">
+        <v>0</v>
+      </c>
+      <c r="K1431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:11">
       <c r="A1432" s="2">
         <v>0</v>
       </c>
@@ -51380,8 +51758,17 @@
       <c r="H1432" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1433" spans="1:8">
+      <c r="I1432" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1432">
+        <v>0</v>
+      </c>
+      <c r="K1432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:11">
       <c r="A1433" s="2">
         <v>1</v>
       </c>
@@ -51406,8 +51793,17 @@
       <c r="H1433" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="1434" spans="1:8">
+      <c r="I1433" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1433">
+        <v>0</v>
+      </c>
+      <c r="K1433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:11">
       <c r="A1434" s="2">
         <v>1</v>
       </c>
@@ -51432,8 +51828,17 @@
       <c r="H1434" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="1435" spans="1:8">
+      <c r="I1434" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1434">
+        <v>0</v>
+      </c>
+      <c r="K1434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:11">
       <c r="A1435" s="2">
         <v>1</v>
       </c>
@@ -51458,8 +51863,17 @@
       <c r="H1435" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="1436" spans="1:8">
+      <c r="I1435" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1435">
+        <v>0</v>
+      </c>
+      <c r="K1435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:11">
       <c r="A1436" s="2">
         <v>0</v>
       </c>
@@ -51484,8 +51898,17 @@
       <c r="H1436" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1437" spans="1:8">
+      <c r="I1436" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1436">
+        <v>0</v>
+      </c>
+      <c r="K1436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:11">
       <c r="A1437" s="2">
         <v>1</v>
       </c>
@@ -51510,8 +51933,17 @@
       <c r="H1437" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="1438" spans="1:8">
+      <c r="I1437" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1437">
+        <v>0</v>
+      </c>
+      <c r="K1437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:11">
       <c r="A1438" s="2">
         <v>1</v>
       </c>
@@ -51536,8 +51968,17 @@
       <c r="H1438" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="1439" spans="1:8">
+      <c r="I1438" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1438">
+        <v>0</v>
+      </c>
+      <c r="K1438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:11">
       <c r="A1439" s="2">
         <v>1</v>
       </c>
@@ -51562,8 +52003,17 @@
       <c r="H1439" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1440" spans="1:8">
+      <c r="I1439" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1439">
+        <v>0</v>
+      </c>
+      <c r="K1439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:11">
       <c r="A1440" s="2">
         <v>1</v>
       </c>
@@ -51588,6 +52038,15 @@
       <c r="H1440" t="s">
         <v>427</v>
       </c>
+      <c r="I1440" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1440">
+        <v>0</v>
+      </c>
+      <c r="K1440">
+        <v>0</v>
+      </c>
     </row>
     <row r="1441" spans="1:11">
       <c r="A1441" s="2">
@@ -51614,6 +52073,15 @@
       <c r="H1441" t="s">
         <v>427</v>
       </c>
+      <c r="I1441" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1441">
+        <v>0</v>
+      </c>
+      <c r="K1441">
+        <v>0</v>
+      </c>
     </row>
     <row r="1442" spans="1:11">
       <c r="A1442" s="3" t="s">
@@ -55000,6 +55468,15 @@
       <c r="H1538" t="s">
         <v>17</v>
       </c>
+      <c r="I1538" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1538">
+        <v>0</v>
+      </c>
+      <c r="K1538">
+        <v>0</v>
+      </c>
     </row>
     <row r="1539" spans="1:11">
       <c r="A1539" s="2">
@@ -55026,6 +55503,15 @@
       <c r="H1539" t="s">
         <v>69</v>
       </c>
+      <c r="I1539" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1539">
+        <v>1</v>
+      </c>
+      <c r="K1539">
+        <v>0</v>
+      </c>
     </row>
     <row r="1540" spans="1:11">
       <c r="A1540" s="2">
@@ -55052,6 +55538,15 @@
       <c r="H1540" t="s">
         <v>13</v>
       </c>
+      <c r="I1540" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1540">
+        <v>1</v>
+      </c>
+      <c r="K1540">
+        <v>0</v>
+      </c>
     </row>
     <row r="1541" spans="1:11">
       <c r="A1541" s="2">
@@ -55078,6 +55573,15 @@
       <c r="H1541" t="s">
         <v>17</v>
       </c>
+      <c r="I1541" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1541">
+        <v>1</v>
+      </c>
+      <c r="K1541">
+        <v>0</v>
+      </c>
     </row>
     <row r="1542" spans="1:11">
       <c r="A1542" s="2">
@@ -55104,6 +55608,15 @@
       <c r="H1542" t="s">
         <v>17</v>
       </c>
+      <c r="I1542" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1542">
+        <v>1</v>
+      </c>
+      <c r="K1542">
+        <v>0</v>
+      </c>
     </row>
     <row r="1543" spans="1:11">
       <c r="A1543" s="2">
@@ -55130,6 +55643,15 @@
       <c r="H1543" t="s">
         <v>13</v>
       </c>
+      <c r="I1543" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1543">
+        <v>0</v>
+      </c>
+      <c r="K1543">
+        <v>0</v>
+      </c>
     </row>
     <row r="1544" spans="1:11">
       <c r="A1544" s="2">
@@ -55156,6 +55678,15 @@
       <c r="H1544" t="s">
         <v>20</v>
       </c>
+      <c r="I1544" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1544">
+        <v>0</v>
+      </c>
+      <c r="K1544">
+        <v>0</v>
+      </c>
     </row>
     <row r="1545" spans="1:11">
       <c r="A1545" s="2">
@@ -55182,6 +55713,15 @@
       <c r="H1545" t="s">
         <v>17</v>
       </c>
+      <c r="I1545" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1545">
+        <v>1</v>
+      </c>
+      <c r="K1545">
+        <v>1</v>
+      </c>
     </row>
     <row r="1546" spans="1:11">
       <c r="A1546" s="2">
@@ -55208,6 +55748,15 @@
       <c r="H1546" t="s">
         <v>17</v>
       </c>
+      <c r="I1546" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1546">
+        <v>1</v>
+      </c>
+      <c r="K1546">
+        <v>0</v>
+      </c>
     </row>
     <row r="1547" spans="1:11">
       <c r="A1547" s="2">
@@ -55234,6 +55783,15 @@
       <c r="H1547" t="s">
         <v>13</v>
       </c>
+      <c r="I1547" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1547">
+        <v>0</v>
+      </c>
+      <c r="K1547">
+        <v>0</v>
+      </c>
     </row>
     <row r="1548" spans="1:11">
       <c r="A1548" s="2">
@@ -55260,6 +55818,15 @@
       <c r="H1548" t="s">
         <v>17</v>
       </c>
+      <c r="I1548" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1548">
+        <v>1</v>
+      </c>
+      <c r="K1548">
+        <v>1</v>
+      </c>
     </row>
     <row r="1549" spans="1:11">
       <c r="A1549" s="2">
@@ -55286,6 +55853,15 @@
       <c r="H1549" t="s">
         <v>13</v>
       </c>
+      <c r="I1549" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1549">
+        <v>0</v>
+      </c>
+      <c r="K1549">
+        <v>0</v>
+      </c>
     </row>
     <row r="1550" spans="1:11">
       <c r="A1550" s="2">
@@ -55312,6 +55888,15 @@
       <c r="H1550" t="s">
         <v>17</v>
       </c>
+      <c r="I1550" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1550">
+        <v>1</v>
+      </c>
+      <c r="K1550">
+        <v>1</v>
+      </c>
     </row>
     <row r="1551" spans="1:11">
       <c r="A1551" s="2">
@@ -55338,6 +55923,15 @@
       <c r="H1551" t="s">
         <v>17</v>
       </c>
+      <c r="I1551" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1551">
+        <v>1</v>
+      </c>
+      <c r="K1551">
+        <v>0</v>
+      </c>
     </row>
     <row r="1552" spans="1:11">
       <c r="A1552" s="2">
@@ -55364,8 +55958,17 @@
       <c r="H1552" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1553" spans="1:8">
+      <c r="I1552" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1552">
+        <v>1</v>
+      </c>
+      <c r="K1552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:11">
       <c r="A1553" s="2">
         <v>1</v>
       </c>
@@ -55390,8 +55993,17 @@
       <c r="H1553" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1554" spans="1:8">
+      <c r="I1553" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1553">
+        <v>1</v>
+      </c>
+      <c r="K1553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:11">
       <c r="A1554" s="2">
         <v>0</v>
       </c>
@@ -55416,8 +56028,17 @@
       <c r="H1554" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1555" spans="1:8">
+      <c r="I1554" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1554">
+        <v>0</v>
+      </c>
+      <c r="K1554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:11">
       <c r="A1555" s="2">
         <v>1</v>
       </c>
@@ -55442,8 +56063,17 @@
       <c r="H1555" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1556" spans="1:8">
+      <c r="I1555" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1555">
+        <v>0</v>
+      </c>
+      <c r="K1555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:11">
       <c r="A1556" s="2">
         <v>0</v>
       </c>
@@ -55468,8 +56098,17 @@
       <c r="H1556" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1557" spans="1:8">
+      <c r="I1556" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1556">
+        <v>0</v>
+      </c>
+      <c r="K1556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:11">
       <c r="A1557" s="2">
         <v>1</v>
       </c>
@@ -55494,8 +56133,17 @@
       <c r="H1557" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1558" spans="1:8">
+      <c r="I1557" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1557">
+        <v>1</v>
+      </c>
+      <c r="K1557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:11">
       <c r="A1558" s="2">
         <v>1</v>
       </c>
@@ -55520,8 +56168,17 @@
       <c r="H1558" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1559" spans="1:8">
+      <c r="I1558" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1558">
+        <v>1</v>
+      </c>
+      <c r="K1558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:11">
       <c r="A1559" s="2">
         <v>1</v>
       </c>
@@ -55546,8 +56203,17 @@
       <c r="H1559" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1560" spans="1:8">
+      <c r="I1559" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1559">
+        <v>1</v>
+      </c>
+      <c r="K1559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:11">
       <c r="A1560" s="2">
         <v>1</v>
       </c>
@@ -55572,8 +56238,17 @@
       <c r="H1560" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1561" spans="1:8">
+      <c r="I1560" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1560">
+        <v>0</v>
+      </c>
+      <c r="K1560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:11">
       <c r="A1561" s="2">
         <v>1</v>
       </c>
@@ -55598,8 +56273,17 @@
       <c r="H1561" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1562" spans="1:8">
+      <c r="I1561" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1561">
+        <v>1</v>
+      </c>
+      <c r="K1561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:11">
       <c r="A1562" s="2">
         <v>1</v>
       </c>
@@ -55624,8 +56308,17 @@
       <c r="H1562" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="1563" spans="1:8">
+      <c r="I1562" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1562">
+        <v>0</v>
+      </c>
+      <c r="K1562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:11">
       <c r="A1563" s="2">
         <v>1</v>
       </c>
@@ -55650,8 +56343,17 @@
       <c r="H1563" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1564" spans="1:8">
+      <c r="I1563" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1563">
+        <v>1</v>
+      </c>
+      <c r="K1563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:11">
       <c r="A1564" s="2">
         <v>1</v>
       </c>
@@ -55676,8 +56378,17 @@
       <c r="H1564" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1565" spans="1:8">
+      <c r="I1564" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1564">
+        <v>1</v>
+      </c>
+      <c r="K1564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:11">
       <c r="A1565" s="2">
         <v>1</v>
       </c>
@@ -55702,8 +56413,17 @@
       <c r="H1565" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1566" spans="1:8">
+      <c r="I1565" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1565">
+        <v>1</v>
+      </c>
+      <c r="K1565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:11">
       <c r="A1566" s="2">
         <v>1</v>
       </c>
@@ -55728,8 +56448,17 @@
       <c r="H1566" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1567" spans="1:8">
+      <c r="I1566" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1566">
+        <v>1</v>
+      </c>
+      <c r="K1566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:11">
       <c r="A1567" s="2">
         <v>0</v>
       </c>
@@ -55754,8 +56483,17 @@
       <c r="H1567" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1568" spans="1:8">
+      <c r="I1567" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1567">
+        <v>0</v>
+      </c>
+      <c r="K1567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:11">
       <c r="A1568" s="2">
         <v>1</v>
       </c>
@@ -55780,8 +56518,17 @@
       <c r="H1568" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1569" spans="1:8">
+      <c r="I1568" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1568">
+        <v>1</v>
+      </c>
+      <c r="K1568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:11">
       <c r="A1569" s="2">
         <v>1</v>
       </c>
@@ -55806,8 +56553,17 @@
       <c r="H1569" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1570" spans="1:8">
+      <c r="I1569" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1569">
+        <v>0</v>
+      </c>
+      <c r="K1569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:11">
       <c r="A1570" s="2">
         <v>1</v>
       </c>
@@ -55832,8 +56588,17 @@
       <c r="H1570" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1571" spans="1:8">
+      <c r="I1570" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1570">
+        <v>1</v>
+      </c>
+      <c r="K1570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:11">
       <c r="A1571" s="2">
         <v>0</v>
       </c>
@@ -55858,8 +56623,17 @@
       <c r="H1571" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1572" spans="1:8">
+      <c r="I1571" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1571">
+        <v>0</v>
+      </c>
+      <c r="K1571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:11">
       <c r="A1572" s="2">
         <v>1</v>
       </c>
@@ -55884,8 +56658,17 @@
       <c r="H1572" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1573" spans="1:8">
+      <c r="I1572" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1572">
+        <v>1</v>
+      </c>
+      <c r="K1572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:11">
       <c r="A1573" s="2">
         <v>1</v>
       </c>
@@ -55910,8 +56693,17 @@
       <c r="H1573" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1574" spans="1:8">
+      <c r="I1573" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1573">
+        <v>0</v>
+      </c>
+      <c r="K1573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:11">
       <c r="A1574" s="2">
         <v>1</v>
       </c>
@@ -55936,8 +56728,17 @@
       <c r="H1574" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1575" spans="1:8">
+      <c r="I1574" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1574">
+        <v>0</v>
+      </c>
+      <c r="K1574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:11">
       <c r="A1575" s="2">
         <v>1</v>
       </c>
@@ -55962,8 +56763,17 @@
       <c r="H1575" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1576" spans="1:8">
+      <c r="I1575" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1575">
+        <v>1</v>
+      </c>
+      <c r="K1575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:11">
       <c r="A1576" s="2">
         <v>1</v>
       </c>
@@ -55988,8 +56798,17 @@
       <c r="H1576" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1577" spans="1:8">
+      <c r="I1576" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1576">
+        <v>1</v>
+      </c>
+      <c r="K1576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:11">
       <c r="A1577" s="2">
         <v>1</v>
       </c>
@@ -56014,8 +56833,17 @@
       <c r="H1577" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1578" spans="1:8">
+      <c r="I1577" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1577">
+        <v>1</v>
+      </c>
+      <c r="K1577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:11">
       <c r="A1578" s="2">
         <v>0</v>
       </c>
@@ -56041,7 +56869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1579" spans="1:8">
+    <row r="1579" spans="1:11">
       <c r="A1579" s="2">
         <v>1</v>
       </c>
@@ -56067,7 +56895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1580" spans="1:8">
+    <row r="1580" spans="1:11">
       <c r="A1580" s="2">
         <v>0</v>
       </c>
@@ -56093,7 +56921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1581" spans="1:8">
+    <row r="1581" spans="1:11">
       <c r="A1581" s="2">
         <v>1</v>
       </c>
@@ -56119,7 +56947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1582" spans="1:8">
+    <row r="1582" spans="1:11">
       <c r="A1582" s="2">
         <v>1</v>
       </c>
@@ -56145,7 +56973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1583" spans="1:8">
+    <row r="1583" spans="1:11">
       <c r="A1583" s="2">
         <v>1</v>
       </c>
@@ -56171,7 +56999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1584" spans="1:8">
+    <row r="1584" spans="1:11">
       <c r="A1584" s="2">
         <v>1</v>
       </c>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-6480" yWindow="0" windowWidth="15260" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="-5980" yWindow="120" windowWidth="15260" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7120" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7123" uniqueCount="648">
   <si>
     <t>Agent.Embod</t>
   </si>
@@ -2468,10 +2468,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G1564" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G1624" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1579" sqref="I1579"/>
+      <selection pane="bottomRight" activeCell="I1634" sqref="I1634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -56868,6 +56868,15 @@
       <c r="H1578" t="s">
         <v>13</v>
       </c>
+      <c r="I1578" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1578">
+        <v>0</v>
+      </c>
+      <c r="K1578">
+        <v>0</v>
+      </c>
     </row>
     <row r="1579" spans="1:11">
       <c r="A1579" s="2">
@@ -56894,6 +56903,15 @@
       <c r="H1579" t="s">
         <v>13</v>
       </c>
+      <c r="I1579" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1579">
+        <v>0</v>
+      </c>
+      <c r="K1579">
+        <v>0</v>
+      </c>
     </row>
     <row r="1580" spans="1:11">
       <c r="A1580" s="2">
@@ -56920,6 +56938,15 @@
       <c r="H1580" t="s">
         <v>13</v>
       </c>
+      <c r="I1580" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1580">
+        <v>0</v>
+      </c>
+      <c r="K1580">
+        <v>0</v>
+      </c>
     </row>
     <row r="1581" spans="1:11">
       <c r="A1581" s="2">
@@ -56946,6 +56973,15 @@
       <c r="H1581" t="s">
         <v>20</v>
       </c>
+      <c r="I1581" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1581" t="s">
+        <v>349</v>
+      </c>
+      <c r="K1581" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="1582" spans="1:11">
       <c r="A1582" s="2">
@@ -56972,6 +57008,15 @@
       <c r="H1582" t="s">
         <v>20</v>
       </c>
+      <c r="I1582" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1582">
+        <v>1</v>
+      </c>
+      <c r="K1582">
+        <v>0</v>
+      </c>
     </row>
     <row r="1583" spans="1:11">
       <c r="A1583" s="2">
@@ -56998,6 +57043,15 @@
       <c r="H1583" t="s">
         <v>20</v>
       </c>
+      <c r="I1583" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1583">
+        <v>1</v>
+      </c>
+      <c r="K1583">
+        <v>1</v>
+      </c>
     </row>
     <row r="1584" spans="1:11">
       <c r="A1584" s="2">
@@ -57024,8 +57078,17 @@
       <c r="H1584" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1585" spans="1:8">
+      <c r="I1584" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1584">
+        <v>1</v>
+      </c>
+      <c r="K1584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:11">
       <c r="A1585" s="2">
         <v>1</v>
       </c>
@@ -57050,8 +57113,17 @@
       <c r="H1585" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1586" spans="1:8">
+      <c r="I1585" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1585">
+        <v>1</v>
+      </c>
+      <c r="K1585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:11">
       <c r="A1586" s="2">
         <v>1</v>
       </c>
@@ -57076,8 +57148,17 @@
       <c r="H1586" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1587" spans="1:8">
+      <c r="I1586" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1586">
+        <v>1</v>
+      </c>
+      <c r="K1586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:11">
       <c r="A1587" s="2">
         <v>0</v>
       </c>
@@ -57102,8 +57183,17 @@
       <c r="H1587" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1588" spans="1:8">
+      <c r="I1587" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1587">
+        <v>1</v>
+      </c>
+      <c r="K1587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:11">
       <c r="A1588" s="2">
         <v>0</v>
       </c>
@@ -57128,8 +57218,17 @@
       <c r="H1588" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1589" spans="1:8">
+      <c r="I1588" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1588">
+        <v>1</v>
+      </c>
+      <c r="K1588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:11">
       <c r="A1589" s="2">
         <v>0</v>
       </c>
@@ -57154,8 +57253,17 @@
       <c r="H1589" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="1590" spans="1:8">
+      <c r="I1589" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1589">
+        <v>1</v>
+      </c>
+      <c r="K1589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:11">
       <c r="A1590" s="2">
         <v>0</v>
       </c>
@@ -57180,8 +57288,17 @@
       <c r="H1590" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1591" spans="1:8">
+      <c r="I1590" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1590">
+        <v>1</v>
+      </c>
+      <c r="K1590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:11">
       <c r="A1591" s="2">
         <v>0</v>
       </c>
@@ -57206,8 +57323,17 @@
       <c r="H1591" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1592" spans="1:8">
+      <c r="I1591" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1591">
+        <v>0</v>
+      </c>
+      <c r="K1591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:11">
       <c r="A1592" s="2">
         <v>0</v>
       </c>
@@ -57232,8 +57358,17 @@
       <c r="H1592" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1593" spans="1:8">
+      <c r="I1592" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1592">
+        <v>1</v>
+      </c>
+      <c r="K1592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:11">
       <c r="A1593" s="2">
         <v>0</v>
       </c>
@@ -57258,8 +57393,17 @@
       <c r="H1593" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1594" spans="1:8">
+      <c r="I1593" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1593">
+        <v>0</v>
+      </c>
+      <c r="K1593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:11">
       <c r="A1594" s="2">
         <v>0</v>
       </c>
@@ -57284,8 +57428,17 @@
       <c r="H1594" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1595" spans="1:8">
+      <c r="I1594" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1594">
+        <v>1</v>
+      </c>
+      <c r="K1594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:11">
       <c r="A1595" s="2">
         <v>0</v>
       </c>
@@ -57310,8 +57463,17 @@
       <c r="H1595" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1596" spans="1:8">
+      <c r="I1595" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1595">
+        <v>0</v>
+      </c>
+      <c r="K1595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:11">
       <c r="A1596" s="2">
         <v>0</v>
       </c>
@@ -57336,8 +57498,17 @@
       <c r="H1596" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1597" spans="1:8">
+      <c r="I1596" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1596">
+        <v>1</v>
+      </c>
+      <c r="K1596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:11">
       <c r="A1597" s="2">
         <v>1</v>
       </c>
@@ -57362,8 +57533,17 @@
       <c r="H1597" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1598" spans="1:8">
+      <c r="I1597" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1597">
+        <v>0</v>
+      </c>
+      <c r="K1597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:11">
       <c r="A1598" s="2">
         <v>1</v>
       </c>
@@ -57388,8 +57568,17 @@
       <c r="H1598" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1599" spans="1:8">
+      <c r="I1598" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1598">
+        <v>1</v>
+      </c>
+      <c r="K1598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:11">
       <c r="A1599" s="2">
         <v>0</v>
       </c>
@@ -57414,8 +57603,17 @@
       <c r="H1599" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1600" spans="1:8">
+      <c r="I1599" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1599">
+        <v>1</v>
+      </c>
+      <c r="K1599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:11">
       <c r="A1600" s="2">
         <v>0</v>
       </c>
@@ -57440,8 +57638,17 @@
       <c r="H1600" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1601" spans="1:8">
+      <c r="I1600" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1600">
+        <v>1</v>
+      </c>
+      <c r="K1600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:11">
       <c r="A1601" s="2">
         <v>0</v>
       </c>
@@ -57466,8 +57673,17 @@
       <c r="H1601" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="1602" spans="1:8">
+      <c r="I1601" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1601">
+        <v>0</v>
+      </c>
+      <c r="K1601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:11">
       <c r="A1602" s="2">
         <v>0</v>
       </c>
@@ -57492,8 +57708,17 @@
       <c r="H1602" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1603" spans="1:8">
+      <c r="I1602" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1602">
+        <v>0</v>
+      </c>
+      <c r="K1602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:11">
       <c r="A1603" s="2">
         <v>1</v>
       </c>
@@ -57518,8 +57743,17 @@
       <c r="H1603" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1604" spans="1:8">
+      <c r="I1603" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1603">
+        <v>0</v>
+      </c>
+      <c r="K1603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:11">
       <c r="A1604" s="2">
         <v>0</v>
       </c>
@@ -57544,8 +57778,17 @@
       <c r="H1604" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1605" spans="1:8">
+      <c r="I1604" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1604">
+        <v>0</v>
+      </c>
+      <c r="K1604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:11">
       <c r="A1605" s="2">
         <v>1</v>
       </c>
@@ -57570,8 +57813,17 @@
       <c r="H1605" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1606" spans="1:8">
+      <c r="I1605" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1605">
+        <v>1</v>
+      </c>
+      <c r="K1605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:11">
       <c r="A1606" s="2">
         <v>1</v>
       </c>
@@ -57596,8 +57848,17 @@
       <c r="H1606" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1607" spans="1:8">
+      <c r="I1606" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1606">
+        <v>1</v>
+      </c>
+      <c r="K1606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:11">
       <c r="A1607" s="2">
         <v>0</v>
       </c>
@@ -57622,8 +57883,17 @@
       <c r="H1607" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1608" spans="1:8">
+      <c r="I1607" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1607">
+        <v>1</v>
+      </c>
+      <c r="K1607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:11">
       <c r="A1608" s="2">
         <v>0</v>
       </c>
@@ -57648,8 +57918,17 @@
       <c r="H1608" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1609" spans="1:8">
+      <c r="I1608" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1608">
+        <v>0</v>
+      </c>
+      <c r="K1608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:11">
       <c r="A1609" s="2">
         <v>1</v>
       </c>
@@ -57674,8 +57953,17 @@
       <c r="H1609" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1610" spans="1:8">
+      <c r="I1609" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1609">
+        <v>1</v>
+      </c>
+      <c r="K1609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:11">
       <c r="A1610" s="2">
         <v>0</v>
       </c>
@@ -57700,8 +57988,17 @@
       <c r="H1610" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1611" spans="1:8">
+      <c r="I1610" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1610">
+        <v>0</v>
+      </c>
+      <c r="K1610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:11">
       <c r="A1611" s="2">
         <v>0</v>
       </c>
@@ -57726,8 +58023,17 @@
       <c r="H1611" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1612" spans="1:8">
+      <c r="I1611" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1611">
+        <v>1</v>
+      </c>
+      <c r="K1611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:11">
       <c r="A1612" s="2">
         <v>0</v>
       </c>
@@ -57752,8 +58058,17 @@
       <c r="H1612" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="1613" spans="1:8">
+      <c r="I1612" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1612">
+        <v>0</v>
+      </c>
+      <c r="K1612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:11">
       <c r="A1613" s="2">
         <v>0</v>
       </c>
@@ -57778,8 +58093,17 @@
       <c r="H1613" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="1614" spans="1:8">
+      <c r="I1613" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1613">
+        <v>0</v>
+      </c>
+      <c r="K1613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:11">
       <c r="A1614" s="2">
         <v>0</v>
       </c>
@@ -57804,8 +58128,17 @@
       <c r="H1614" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="1615" spans="1:8">
+      <c r="I1614" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1614">
+        <v>1</v>
+      </c>
+      <c r="K1614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:11">
       <c r="A1615" s="2">
         <v>0</v>
       </c>
@@ -57830,8 +58163,17 @@
       <c r="H1615" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1616" spans="1:8">
+      <c r="I1615" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1615">
+        <v>0</v>
+      </c>
+      <c r="K1615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:11">
       <c r="A1616" s="2">
         <v>0</v>
       </c>
@@ -57856,8 +58198,17 @@
       <c r="H1616" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1617" spans="1:8">
+      <c r="I1616" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1616">
+        <v>0</v>
+      </c>
+      <c r="K1616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:11">
       <c r="A1617" s="2">
         <v>0</v>
       </c>
@@ -57882,8 +58233,17 @@
       <c r="H1617" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="1618" spans="1:8">
+      <c r="I1617" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1617">
+        <v>0</v>
+      </c>
+      <c r="K1617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:11">
       <c r="A1618" s="2">
         <v>0</v>
       </c>
@@ -57908,8 +58268,17 @@
       <c r="H1618" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1619" spans="1:8">
+      <c r="I1618" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1618">
+        <v>0</v>
+      </c>
+      <c r="K1618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:11">
       <c r="A1619" s="2">
         <v>0</v>
       </c>
@@ -57934,8 +58303,17 @@
       <c r="H1619" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1620" spans="1:8">
+      <c r="I1619" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1619">
+        <v>0</v>
+      </c>
+      <c r="K1619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:11">
       <c r="A1620" s="2">
         <v>0</v>
       </c>
@@ -57960,8 +58338,17 @@
       <c r="H1620" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1621" spans="1:8">
+      <c r="I1620" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1620">
+        <v>0</v>
+      </c>
+      <c r="K1620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:11">
       <c r="A1621" s="2">
         <v>0</v>
       </c>
@@ -57986,8 +58373,17 @@
       <c r="H1621" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1622" spans="1:8">
+      <c r="I1621" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1621">
+        <v>0</v>
+      </c>
+      <c r="K1621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:11">
       <c r="A1622" s="2">
         <v>0</v>
       </c>
@@ -58012,8 +58408,17 @@
       <c r="H1622" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="1623" spans="1:8">
+      <c r="I1622" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1622">
+        <v>0</v>
+      </c>
+      <c r="K1622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:11">
       <c r="A1623" s="2">
         <v>0</v>
       </c>
@@ -58038,8 +58443,17 @@
       <c r="H1623" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1624" spans="1:8">
+      <c r="I1623" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1623">
+        <v>0</v>
+      </c>
+      <c r="K1623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:11">
       <c r="A1624" s="2">
         <v>0</v>
       </c>
@@ -58064,8 +58478,17 @@
       <c r="H1624" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1625" spans="1:8">
+      <c r="I1624" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1624">
+        <v>0</v>
+      </c>
+      <c r="K1624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:11">
       <c r="A1625" s="2">
         <v>0</v>
       </c>
@@ -58090,8 +58513,17 @@
       <c r="H1625" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1626" spans="1:8">
+      <c r="I1625" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1625">
+        <v>0</v>
+      </c>
+      <c r="K1625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:11">
       <c r="A1626" s="2">
         <v>0</v>
       </c>
@@ -58116,8 +58548,17 @@
       <c r="H1626" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1627" spans="1:8">
+      <c r="I1626" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1626">
+        <v>0</v>
+      </c>
+      <c r="K1626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:11">
       <c r="A1627" s="2">
         <v>0</v>
       </c>
@@ -58142,8 +58583,17 @@
       <c r="H1627" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1628" spans="1:8">
+      <c r="I1627" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1627">
+        <v>0</v>
+      </c>
+      <c r="K1627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:11">
       <c r="A1628" s="2">
         <v>0</v>
       </c>
@@ -58168,8 +58618,17 @@
       <c r="H1628" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1629" spans="1:8">
+      <c r="I1628" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1628">
+        <v>0</v>
+      </c>
+      <c r="K1628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:11">
       <c r="A1629" s="2">
         <v>0</v>
       </c>
@@ -58194,8 +58653,17 @@
       <c r="H1629" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1630" spans="1:8">
+      <c r="I1629" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1629">
+        <v>0</v>
+      </c>
+      <c r="K1629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:11">
       <c r="A1630" s="2">
         <v>0</v>
       </c>
@@ -58220,8 +58688,17 @@
       <c r="H1630" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1631" spans="1:8">
+      <c r="I1630" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1630">
+        <v>0</v>
+      </c>
+      <c r="K1630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:11">
       <c r="A1631" s="2">
         <v>0</v>
       </c>
@@ -58246,8 +58723,17 @@
       <c r="H1631" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="1632" spans="1:8">
+      <c r="I1631" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1631">
+        <v>0</v>
+      </c>
+      <c r="K1631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:11">
       <c r="A1632" s="2">
         <v>0</v>
       </c>
@@ -58272,8 +58758,17 @@
       <c r="H1632" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1633" spans="1:8">
+      <c r="I1632" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1632">
+        <v>0</v>
+      </c>
+      <c r="K1632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:11">
       <c r="A1633" s="2">
         <v>0</v>
       </c>
@@ -58298,8 +58793,17 @@
       <c r="H1633" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1634" spans="1:8">
+      <c r="I1633" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1633">
+        <v>0</v>
+      </c>
+      <c r="K1633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:11">
       <c r="A1634" s="2">
         <v>0</v>
       </c>
@@ -58325,7 +58829,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="1635" spans="1:8">
+    <row r="1635" spans="1:11">
       <c r="A1635" s="2">
         <v>0</v>
       </c>
@@ -58351,7 +58855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1636" spans="1:8">
+    <row r="1636" spans="1:11">
       <c r="A1636" s="2">
         <v>0</v>
       </c>
@@ -58377,7 +58881,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="1637" spans="1:8">
+    <row r="1637" spans="1:11">
       <c r="A1637" s="2">
         <v>0</v>
       </c>
@@ -58403,7 +58907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1638" spans="1:8">
+    <row r="1638" spans="1:11">
       <c r="A1638" s="2">
         <v>0</v>
       </c>
@@ -58429,7 +58933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1639" spans="1:8">
+    <row r="1639" spans="1:11">
       <c r="A1639" s="2">
         <v>0</v>
       </c>
@@ -58455,7 +58959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1640" spans="1:8">
+    <row r="1640" spans="1:11">
       <c r="A1640" s="2">
         <v>0</v>
       </c>
@@ -58481,7 +58985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1641" spans="1:8">
+    <row r="1641" spans="1:11">
       <c r="A1641" s="2">
         <v>0</v>
       </c>
@@ -58507,7 +59011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1642" spans="1:8">
+    <row r="1642" spans="1:11">
       <c r="A1642" s="2">
         <v>0</v>
       </c>
@@ -58533,7 +59037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1643" spans="1:8">
+    <row r="1643" spans="1:11">
       <c r="A1643" s="2">
         <v>0</v>
       </c>
@@ -58559,7 +59063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1644" spans="1:8">
+    <row r="1644" spans="1:11">
       <c r="A1644" s="2">
         <v>0</v>
       </c>
@@ -58585,7 +59089,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="1645" spans="1:8">
+    <row r="1645" spans="1:11">
       <c r="A1645" s="2">
         <v>0</v>
       </c>
@@ -58611,7 +59115,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="1646" spans="1:8">
+    <row r="1646" spans="1:11">
       <c r="A1646" s="2">
         <v>0</v>
       </c>
@@ -58637,7 +59141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1647" spans="1:8">
+    <row r="1647" spans="1:11">
       <c r="A1647" s="2">
         <v>0</v>
       </c>
@@ -58663,7 +59167,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="1648" spans="1:8">
+    <row r="1648" spans="1:11">
       <c r="A1648" s="2">
         <v>0</v>
       </c>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -2468,10 +2468,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G1624" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G1693" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1634" sqref="I1634"/>
+      <selection pane="bottomRight" activeCell="I1710" sqref="I1710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -58828,6 +58828,15 @@
       <c r="H1634" t="s">
         <v>517</v>
       </c>
+      <c r="I1634" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1634">
+        <v>0</v>
+      </c>
+      <c r="K1634">
+        <v>0</v>
+      </c>
     </row>
     <row r="1635" spans="1:11">
       <c r="A1635" s="2">
@@ -58854,6 +58863,15 @@
       <c r="H1635" t="s">
         <v>13</v>
       </c>
+      <c r="I1635" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1635">
+        <v>0</v>
+      </c>
+      <c r="K1635">
+        <v>0</v>
+      </c>
     </row>
     <row r="1636" spans="1:11">
       <c r="A1636" s="2">
@@ -58880,6 +58898,15 @@
       <c r="H1636" t="s">
         <v>517</v>
       </c>
+      <c r="I1636" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1636">
+        <v>0</v>
+      </c>
+      <c r="K1636">
+        <v>0</v>
+      </c>
     </row>
     <row r="1637" spans="1:11">
       <c r="A1637" s="2">
@@ -58906,6 +58933,15 @@
       <c r="H1637" t="s">
         <v>20</v>
       </c>
+      <c r="I1637" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1637">
+        <v>0</v>
+      </c>
+      <c r="K1637">
+        <v>0</v>
+      </c>
     </row>
     <row r="1638" spans="1:11">
       <c r="A1638" s="2">
@@ -58932,6 +58968,15 @@
       <c r="H1638" t="s">
         <v>17</v>
       </c>
+      <c r="I1638" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1638">
+        <v>0</v>
+      </c>
+      <c r="K1638">
+        <v>0</v>
+      </c>
     </row>
     <row r="1639" spans="1:11">
       <c r="A1639" s="2">
@@ -58958,6 +59003,15 @@
       <c r="H1639" t="s">
         <v>13</v>
       </c>
+      <c r="I1639" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1639">
+        <v>0</v>
+      </c>
+      <c r="K1639">
+        <v>0</v>
+      </c>
     </row>
     <row r="1640" spans="1:11">
       <c r="A1640" s="2">
@@ -58984,6 +59038,15 @@
       <c r="H1640" t="s">
         <v>13</v>
       </c>
+      <c r="I1640" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1640">
+        <v>0</v>
+      </c>
+      <c r="K1640">
+        <v>0</v>
+      </c>
     </row>
     <row r="1641" spans="1:11">
       <c r="A1641" s="2">
@@ -59010,6 +59073,15 @@
       <c r="H1641" t="s">
         <v>13</v>
       </c>
+      <c r="I1641" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1641">
+        <v>0</v>
+      </c>
+      <c r="K1641">
+        <v>0</v>
+      </c>
     </row>
     <row r="1642" spans="1:11">
       <c r="A1642" s="2">
@@ -59036,6 +59108,15 @@
       <c r="H1642" t="s">
         <v>20</v>
       </c>
+      <c r="I1642" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1642">
+        <v>0</v>
+      </c>
+      <c r="K1642">
+        <v>0</v>
+      </c>
     </row>
     <row r="1643" spans="1:11">
       <c r="A1643" s="2">
@@ -59062,6 +59143,15 @@
       <c r="H1643" t="s">
         <v>20</v>
       </c>
+      <c r="I1643" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1643">
+        <v>0</v>
+      </c>
+      <c r="K1643">
+        <v>0</v>
+      </c>
     </row>
     <row r="1644" spans="1:11">
       <c r="A1644" s="2">
@@ -59088,6 +59178,15 @@
       <c r="H1644" t="s">
         <v>517</v>
       </c>
+      <c r="I1644" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1644">
+        <v>0</v>
+      </c>
+      <c r="K1644">
+        <v>0</v>
+      </c>
     </row>
     <row r="1645" spans="1:11">
       <c r="A1645" s="2">
@@ -59114,6 +59213,15 @@
       <c r="H1645" t="s">
         <v>517</v>
       </c>
+      <c r="I1645" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1645">
+        <v>0</v>
+      </c>
+      <c r="K1645">
+        <v>0</v>
+      </c>
     </row>
     <row r="1646" spans="1:11">
       <c r="A1646" s="2">
@@ -59140,6 +59248,15 @@
       <c r="H1646" t="s">
         <v>13</v>
       </c>
+      <c r="I1646" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1646">
+        <v>0</v>
+      </c>
+      <c r="K1646">
+        <v>0</v>
+      </c>
     </row>
     <row r="1647" spans="1:11">
       <c r="A1647" s="2">
@@ -59166,6 +59283,15 @@
       <c r="H1647" t="s">
         <v>517</v>
       </c>
+      <c r="I1647" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1647">
+        <v>0</v>
+      </c>
+      <c r="K1647">
+        <v>0</v>
+      </c>
     </row>
     <row r="1648" spans="1:11">
       <c r="A1648" s="2">
@@ -59192,8 +59318,17 @@
       <c r="H1648" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1649" spans="1:8">
+      <c r="I1648" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1648">
+        <v>0</v>
+      </c>
+      <c r="K1648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:11">
       <c r="A1649" s="2">
         <v>0</v>
       </c>
@@ -59218,8 +59353,17 @@
       <c r="H1649" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1650" spans="1:8">
+      <c r="I1649" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1649">
+        <v>0</v>
+      </c>
+      <c r="K1649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:11">
       <c r="A1650" s="2">
         <v>0</v>
       </c>
@@ -59244,8 +59388,17 @@
       <c r="H1650" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1651" spans="1:8">
+      <c r="I1650" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1650">
+        <v>0</v>
+      </c>
+      <c r="K1650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:11">
       <c r="A1651" s="2">
         <v>0</v>
       </c>
@@ -59270,8 +59423,17 @@
       <c r="H1651" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1652" spans="1:8">
+      <c r="I1651" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1651">
+        <v>0</v>
+      </c>
+      <c r="K1651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:11">
       <c r="A1652" s="2">
         <v>0</v>
       </c>
@@ -59296,8 +59458,17 @@
       <c r="H1652" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1653" spans="1:8">
+      <c r="I1652" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1652">
+        <v>0</v>
+      </c>
+      <c r="K1652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:11">
       <c r="A1653" s="2">
         <v>0</v>
       </c>
@@ -59322,8 +59493,17 @@
       <c r="H1653" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="1654" spans="1:8">
+      <c r="I1653" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1653">
+        <v>0</v>
+      </c>
+      <c r="K1653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:11">
       <c r="A1654" s="2">
         <v>0</v>
       </c>
@@ -59348,8 +59528,17 @@
       <c r="H1654" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="1655" spans="1:8">
+      <c r="I1654" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1654">
+        <v>0</v>
+      </c>
+      <c r="K1654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:11">
       <c r="A1655" s="2">
         <v>0</v>
       </c>
@@ -59374,8 +59563,17 @@
       <c r="H1655" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1656" spans="1:8">
+      <c r="I1655" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1655">
+        <v>0</v>
+      </c>
+      <c r="K1655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:11">
       <c r="A1656" s="2">
         <v>0</v>
       </c>
@@ -59400,8 +59598,17 @@
       <c r="H1656" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1657" spans="1:8">
+      <c r="I1656" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1656">
+        <v>0</v>
+      </c>
+      <c r="K1656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:11">
       <c r="A1657" s="2">
         <v>0</v>
       </c>
@@ -59426,8 +59633,17 @@
       <c r="H1657" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1658" spans="1:8">
+      <c r="I1657" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1657">
+        <v>0</v>
+      </c>
+      <c r="K1657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:11">
       <c r="A1658" s="2">
         <v>0</v>
       </c>
@@ -59452,8 +59668,17 @@
       <c r="H1658" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="1659" spans="1:8">
+      <c r="I1658" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1658">
+        <v>0</v>
+      </c>
+      <c r="K1658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:11">
       <c r="A1659" s="2">
         <v>0</v>
       </c>
@@ -59478,8 +59703,17 @@
       <c r="H1659" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1660" spans="1:8">
+      <c r="I1659" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1659">
+        <v>0</v>
+      </c>
+      <c r="K1659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:11">
       <c r="A1660" s="2">
         <v>0</v>
       </c>
@@ -59504,8 +59738,17 @@
       <c r="H1660" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="1661" spans="1:8">
+      <c r="I1660" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1660">
+        <v>0</v>
+      </c>
+      <c r="K1660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:11">
       <c r="A1661" s="2">
         <v>0</v>
       </c>
@@ -59530,8 +59773,17 @@
       <c r="H1661" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="1662" spans="1:8">
+      <c r="I1661" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1661">
+        <v>0</v>
+      </c>
+      <c r="K1661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:11">
       <c r="A1662" s="2">
         <v>0</v>
       </c>
@@ -59556,8 +59808,17 @@
       <c r="H1662" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1663" spans="1:8">
+      <c r="I1662" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1662">
+        <v>0</v>
+      </c>
+      <c r="K1662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:11">
       <c r="A1663" s="2">
         <v>0</v>
       </c>
@@ -59582,8 +59843,17 @@
       <c r="H1663" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1664" spans="1:8">
+      <c r="I1663" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1663">
+        <v>0</v>
+      </c>
+      <c r="K1663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:11">
       <c r="A1664" s="2">
         <v>0</v>
       </c>
@@ -59608,8 +59878,17 @@
       <c r="H1664" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1665" spans="1:8">
+      <c r="I1664" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1664">
+        <v>0</v>
+      </c>
+      <c r="K1664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:11">
       <c r="A1665" s="2">
         <v>0</v>
       </c>
@@ -59634,8 +59913,17 @@
       <c r="H1665" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1666" spans="1:8">
+      <c r="I1665" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1665">
+        <v>0</v>
+      </c>
+      <c r="K1665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:11">
       <c r="A1666" s="2">
         <v>0</v>
       </c>
@@ -59660,8 +59948,17 @@
       <c r="H1666" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1667" spans="1:8">
+      <c r="I1666" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1666">
+        <v>0</v>
+      </c>
+      <c r="K1666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:11">
       <c r="A1667" s="2">
         <v>0</v>
       </c>
@@ -59686,8 +59983,17 @@
       <c r="H1667" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1668" spans="1:8">
+      <c r="I1667" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1667">
+        <v>0</v>
+      </c>
+      <c r="K1667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:11">
       <c r="A1668" s="2">
         <v>0</v>
       </c>
@@ -59712,8 +60018,17 @@
       <c r="H1668" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1669" spans="1:8">
+      <c r="I1668" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1668">
+        <v>0</v>
+      </c>
+      <c r="K1668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:11">
       <c r="A1669" s="2">
         <v>0</v>
       </c>
@@ -59738,8 +60053,17 @@
       <c r="H1669" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="1670" spans="1:8">
+      <c r="I1669" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1669">
+        <v>0</v>
+      </c>
+      <c r="K1669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:11">
       <c r="A1670" s="2">
         <v>0</v>
       </c>
@@ -59764,8 +60088,17 @@
       <c r="H1670" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1671" spans="1:8">
+      <c r="I1670" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1670">
+        <v>0</v>
+      </c>
+      <c r="K1670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:11">
       <c r="A1671" s="2">
         <v>0</v>
       </c>
@@ -59790,8 +60123,17 @@
       <c r="H1671" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="1672" spans="1:8">
+      <c r="I1671" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1671">
+        <v>0</v>
+      </c>
+      <c r="K1671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:11">
       <c r="A1672" s="2">
         <v>0</v>
       </c>
@@ -59816,8 +60158,17 @@
       <c r="H1672" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1673" spans="1:8">
+      <c r="I1672" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1672">
+        <v>0</v>
+      </c>
+      <c r="K1672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:11">
       <c r="A1673" s="2">
         <v>0</v>
       </c>
@@ -59842,8 +60193,17 @@
       <c r="H1673" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1674" spans="1:8">
+      <c r="I1673" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1673">
+        <v>0</v>
+      </c>
+      <c r="K1673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:11">
       <c r="A1674" s="2">
         <v>0</v>
       </c>
@@ -59868,8 +60228,17 @@
       <c r="H1674" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="1675" spans="1:8">
+      <c r="I1674" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1674">
+        <v>0</v>
+      </c>
+      <c r="K1674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:11">
       <c r="A1675" s="2">
         <v>0</v>
       </c>
@@ -59894,8 +60263,17 @@
       <c r="H1675" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1676" spans="1:8">
+      <c r="I1675" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1675">
+        <v>0</v>
+      </c>
+      <c r="K1675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:11">
       <c r="A1676" s="2">
         <v>0</v>
       </c>
@@ -59920,8 +60298,17 @@
       <c r="H1676" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1677" spans="1:8">
+      <c r="I1676" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1676">
+        <v>0</v>
+      </c>
+      <c r="K1676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:11">
       <c r="A1677" s="2">
         <v>0</v>
       </c>
@@ -59946,8 +60333,17 @@
       <c r="H1677" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1678" spans="1:8">
+      <c r="I1677" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1677">
+        <v>0</v>
+      </c>
+      <c r="K1677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:11">
       <c r="A1678" s="2">
         <v>0</v>
       </c>
@@ -59972,8 +60368,17 @@
       <c r="H1678" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="1679" spans="1:8">
+      <c r="I1678" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1678">
+        <v>0</v>
+      </c>
+      <c r="K1678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:11">
       <c r="A1679" s="2">
         <v>0</v>
       </c>
@@ -59998,8 +60403,17 @@
       <c r="H1679" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1680" spans="1:8">
+      <c r="I1679" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1679">
+        <v>0</v>
+      </c>
+      <c r="K1679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:11">
       <c r="A1680" s="2">
         <v>0</v>
       </c>
@@ -60024,8 +60438,17 @@
       <c r="H1680" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1681" spans="1:8">
+      <c r="I1680" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1680">
+        <v>0</v>
+      </c>
+      <c r="K1680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:11">
       <c r="A1681" s="2">
         <v>0</v>
       </c>
@@ -60050,8 +60473,17 @@
       <c r="H1681" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1682" spans="1:8">
+      <c r="I1681" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1681">
+        <v>0</v>
+      </c>
+      <c r="K1681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:11">
       <c r="A1682" s="2">
         <v>1</v>
       </c>
@@ -60076,8 +60508,17 @@
       <c r="H1682" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="1683" spans="1:8">
+      <c r="I1682" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1682">
+        <v>1</v>
+      </c>
+      <c r="K1682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:11">
       <c r="A1683" s="2">
         <v>1</v>
       </c>
@@ -60102,8 +60543,17 @@
       <c r="H1683" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="1684" spans="1:8">
+      <c r="I1683" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1683">
+        <v>1</v>
+      </c>
+      <c r="K1683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:11">
       <c r="A1684" s="2">
         <v>1</v>
       </c>
@@ -60128,8 +60578,17 @@
       <c r="H1684" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="1685" spans="1:8">
+      <c r="I1684" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1684">
+        <v>1</v>
+      </c>
+      <c r="K1684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:11">
       <c r="A1685" s="2">
         <v>1</v>
       </c>
@@ -60154,8 +60613,17 @@
       <c r="H1685" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1686" spans="1:8">
+      <c r="I1685" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1685">
+        <v>1</v>
+      </c>
+      <c r="K1685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:11">
       <c r="A1686" s="2">
         <v>1</v>
       </c>
@@ -60180,8 +60648,17 @@
       <c r="H1686" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1687" spans="1:8">
+      <c r="I1686" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1686">
+        <v>1</v>
+      </c>
+      <c r="K1686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:11">
       <c r="A1687" s="2">
         <v>0</v>
       </c>
@@ -60206,8 +60683,17 @@
       <c r="H1687" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="1688" spans="1:8">
+      <c r="I1687" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1687">
+        <v>0</v>
+      </c>
+      <c r="K1687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:11">
       <c r="A1688" s="2">
         <v>1</v>
       </c>
@@ -60232,8 +60718,17 @@
       <c r="H1688" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1689" spans="1:8">
+      <c r="I1688" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1688">
+        <v>1</v>
+      </c>
+      <c r="K1688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:11">
       <c r="A1689" s="2">
         <v>1</v>
       </c>
@@ -60258,8 +60753,17 @@
       <c r="H1689" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1690" spans="1:8">
+      <c r="I1689" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1689">
+        <v>1</v>
+      </c>
+      <c r="K1689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:11">
       <c r="A1690" s="2">
         <v>1</v>
       </c>
@@ -60284,8 +60788,17 @@
       <c r="H1690" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1691" spans="1:8">
+      <c r="I1690" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1690">
+        <v>1</v>
+      </c>
+      <c r="K1690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:11">
       <c r="A1691" s="2">
         <v>0</v>
       </c>
@@ -60310,8 +60823,17 @@
       <c r="H1691" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="1692" spans="1:8">
+      <c r="I1691" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1691">
+        <v>0</v>
+      </c>
+      <c r="K1691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:11">
       <c r="A1692" s="2">
         <v>1</v>
       </c>
@@ -60336,8 +60858,17 @@
       <c r="H1692" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1693" spans="1:8">
+      <c r="I1692" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1692">
+        <v>1</v>
+      </c>
+      <c r="K1692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:11">
       <c r="A1693" s="2">
         <v>1</v>
       </c>
@@ -60362,8 +60893,17 @@
       <c r="H1693" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="1694" spans="1:8">
+      <c r="I1693" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1693">
+        <v>1</v>
+      </c>
+      <c r="K1693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:11">
       <c r="A1694" s="2">
         <v>1</v>
       </c>
@@ -60388,8 +60928,17 @@
       <c r="H1694" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1695" spans="1:8">
+      <c r="I1694" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1694">
+        <v>1</v>
+      </c>
+      <c r="K1694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:11">
       <c r="A1695" s="2">
         <v>1</v>
       </c>
@@ -60414,8 +60963,17 @@
       <c r="H1695" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1696" spans="1:8">
+      <c r="I1695" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1695">
+        <v>1</v>
+      </c>
+      <c r="K1695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:11">
       <c r="A1696" s="2">
         <v>1</v>
       </c>
@@ -60440,8 +60998,17 @@
       <c r="H1696" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1697" spans="1:8">
+      <c r="I1696" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1696">
+        <v>1</v>
+      </c>
+      <c r="K1696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:11">
       <c r="A1697" s="2">
         <v>1</v>
       </c>
@@ -60466,8 +61033,17 @@
       <c r="H1697" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1698" spans="1:8">
+      <c r="I1697" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1697">
+        <v>1</v>
+      </c>
+      <c r="K1697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:11">
       <c r="A1698" s="2">
         <v>0</v>
       </c>
@@ -60492,8 +61068,17 @@
       <c r="H1698" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="1699" spans="1:8">
+      <c r="I1698" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1698">
+        <v>0</v>
+      </c>
+      <c r="K1698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:11">
       <c r="A1699" s="2">
         <v>1</v>
       </c>
@@ -60518,8 +61103,17 @@
       <c r="H1699" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="1700" spans="1:8">
+      <c r="I1699" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1699">
+        <v>1</v>
+      </c>
+      <c r="K1699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:11">
       <c r="A1700" s="2">
         <v>0</v>
       </c>
@@ -60544,8 +61138,17 @@
       <c r="H1700" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="1701" spans="1:8">
+      <c r="I1700" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1700">
+        <v>0</v>
+      </c>
+      <c r="K1700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:11">
       <c r="A1701" s="2">
         <v>1</v>
       </c>
@@ -60570,8 +61173,17 @@
       <c r="H1701" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="1702" spans="1:8">
+      <c r="I1701" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1701">
+        <v>1</v>
+      </c>
+      <c r="K1701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:11">
       <c r="A1702" s="2">
         <v>1</v>
       </c>
@@ -60596,8 +61208,17 @@
       <c r="H1702" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1703" spans="1:8">
+      <c r="I1702" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1702">
+        <v>1</v>
+      </c>
+      <c r="K1702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:11">
       <c r="A1703" s="2">
         <v>1</v>
       </c>
@@ -60622,8 +61243,17 @@
       <c r="H1703" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1704" spans="1:8">
+      <c r="I1703" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1703">
+        <v>1</v>
+      </c>
+      <c r="K1703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:11">
       <c r="A1704" s="2">
         <v>1</v>
       </c>
@@ -60648,8 +61278,17 @@
       <c r="H1704" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="1705" spans="1:8">
+      <c r="I1704" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1704">
+        <v>1</v>
+      </c>
+      <c r="K1704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:11">
       <c r="A1705" s="2">
         <v>1</v>
       </c>
@@ -60674,8 +61313,17 @@
       <c r="H1705" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1706" spans="1:8">
+      <c r="I1705" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1705">
+        <v>1</v>
+      </c>
+      <c r="K1705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:11">
       <c r="A1706" s="2">
         <v>1</v>
       </c>
@@ -60700,8 +61348,17 @@
       <c r="H1706" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1707" spans="1:8">
+      <c r="I1706" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1706">
+        <v>1</v>
+      </c>
+      <c r="K1706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:11">
       <c r="A1707" s="2">
         <v>1</v>
       </c>
@@ -60726,8 +61383,17 @@
       <c r="H1707" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1708" spans="1:8">
+      <c r="I1707" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1707">
+        <v>1</v>
+      </c>
+      <c r="K1707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:11">
       <c r="A1708" s="2">
         <v>1</v>
       </c>
@@ -60752,8 +61418,17 @@
       <c r="H1708" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="1709" spans="1:8">
+      <c r="I1708" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1708">
+        <v>1</v>
+      </c>
+      <c r="K1708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:11">
       <c r="A1709" s="2">
         <v>1</v>
       </c>
@@ -60778,8 +61453,17 @@
       <c r="H1709" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1710" spans="1:8">
+      <c r="I1709" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1709">
+        <v>1</v>
+      </c>
+      <c r="K1709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:11">
       <c r="A1710" s="2">
         <v>1</v>
       </c>
@@ -60805,7 +61489,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="1711" spans="1:8">
+    <row r="1711" spans="1:11">
       <c r="A1711" s="2">
         <v>0</v>
       </c>
@@ -60831,7 +61515,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="1712" spans="1:8">
+    <row r="1712" spans="1:11">
       <c r="A1712" s="2">
         <v>1</v>
       </c>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -2468,10 +2468,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G1693" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G1768" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1710" sqref="I1710"/>
+      <selection pane="bottomRight" activeCell="I1778" sqref="I1778"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -61488,6 +61488,15 @@
       <c r="H1710" t="s">
         <v>546</v>
       </c>
+      <c r="I1710" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1710">
+        <v>1</v>
+      </c>
+      <c r="K1710">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711" spans="1:11">
       <c r="A1711" s="2">
@@ -61514,6 +61523,15 @@
       <c r="H1711" t="s">
         <v>542</v>
       </c>
+      <c r="I1711" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1711">
+        <v>0</v>
+      </c>
+      <c r="K1711">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712" spans="1:11">
       <c r="A1712" s="2">
@@ -61540,8 +61558,17 @@
       <c r="H1712" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1713" spans="1:8">
+      <c r="I1712" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1712">
+        <v>1</v>
+      </c>
+      <c r="K1712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:11">
       <c r="A1713" s="2">
         <v>1</v>
       </c>
@@ -61566,8 +61593,17 @@
       <c r="H1713" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1714" spans="1:8">
+      <c r="I1713" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1713">
+        <v>1</v>
+      </c>
+      <c r="K1713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:11">
       <c r="A1714" s="2">
         <v>1</v>
       </c>
@@ -61592,8 +61628,17 @@
       <c r="H1714" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1715" spans="1:8">
+      <c r="I1714" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1714">
+        <v>1</v>
+      </c>
+      <c r="K1714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:11">
       <c r="A1715" s="2">
         <v>0</v>
       </c>
@@ -61618,8 +61663,17 @@
       <c r="H1715" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="1716" spans="1:8">
+      <c r="I1715" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1715">
+        <v>0</v>
+      </c>
+      <c r="K1715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:11">
       <c r="A1716" s="2">
         <v>1</v>
       </c>
@@ -61644,8 +61698,17 @@
       <c r="H1716" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="1717" spans="1:8">
+      <c r="I1716" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1716">
+        <v>1</v>
+      </c>
+      <c r="K1716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:11">
       <c r="A1717" s="2">
         <v>1</v>
       </c>
@@ -61670,8 +61733,17 @@
       <c r="H1717" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="1718" spans="1:8">
+      <c r="I1717" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1717">
+        <v>1</v>
+      </c>
+      <c r="K1717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:11">
       <c r="A1718" s="2">
         <v>1</v>
       </c>
@@ -61696,8 +61768,17 @@
       <c r="H1718" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1719" spans="1:8">
+      <c r="I1718" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1718">
+        <v>1</v>
+      </c>
+      <c r="K1718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:11">
       <c r="A1719" s="2">
         <v>1</v>
       </c>
@@ -61722,8 +61803,17 @@
       <c r="H1719" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1720" spans="1:8">
+      <c r="I1719" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1719">
+        <v>1</v>
+      </c>
+      <c r="K1719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:11">
       <c r="A1720" s="2">
         <v>1</v>
       </c>
@@ -61748,8 +61838,17 @@
       <c r="H1720" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1721" spans="1:8">
+      <c r="I1720" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1720">
+        <v>1</v>
+      </c>
+      <c r="K1720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:11">
       <c r="A1721" s="2">
         <v>1</v>
       </c>
@@ -61774,8 +61873,17 @@
       <c r="H1721" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1722" spans="1:8">
+      <c r="I1721" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1721">
+        <v>1</v>
+      </c>
+      <c r="K1721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:11">
       <c r="A1722" s="2">
         <v>0</v>
       </c>
@@ -61800,8 +61908,17 @@
       <c r="H1722" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="1723" spans="1:8">
+      <c r="I1722" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1722">
+        <v>0</v>
+      </c>
+      <c r="K1722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:11">
       <c r="A1723" s="2">
         <v>1</v>
       </c>
@@ -61826,8 +61943,17 @@
       <c r="H1723" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="1724" spans="1:8">
+      <c r="I1723" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1723">
+        <v>1</v>
+      </c>
+      <c r="K1723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:11">
       <c r="A1724" s="2">
         <v>0</v>
       </c>
@@ -61852,8 +61978,17 @@
       <c r="H1724" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="1725" spans="1:8">
+      <c r="I1724" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1724">
+        <v>0</v>
+      </c>
+      <c r="K1724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:11">
       <c r="A1725" s="2">
         <v>1</v>
       </c>
@@ -61878,8 +62013,17 @@
       <c r="H1725" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1726" spans="1:8">
+      <c r="I1725" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1725">
+        <v>1</v>
+      </c>
+      <c r="K1725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:11">
       <c r="A1726" s="2">
         <v>1</v>
       </c>
@@ -61904,8 +62048,17 @@
       <c r="H1726" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1727" spans="1:8">
+      <c r="I1726" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1726">
+        <v>1</v>
+      </c>
+      <c r="K1726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:11">
       <c r="A1727" s="2">
         <v>1</v>
       </c>
@@ -61930,8 +62083,17 @@
       <c r="H1727" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1728" spans="1:8">
+      <c r="I1727" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1727">
+        <v>1</v>
+      </c>
+      <c r="K1727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:11">
       <c r="A1728" s="2">
         <v>1</v>
       </c>
@@ -61956,8 +62118,17 @@
       <c r="H1728" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="1729" spans="1:8">
+      <c r="I1728" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1728">
+        <v>0</v>
+      </c>
+      <c r="K1728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:11">
       <c r="A1729" s="2">
         <v>1</v>
       </c>
@@ -61982,8 +62153,17 @@
       <c r="H1729" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1730" spans="1:8">
+      <c r="I1729" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1729">
+        <v>1</v>
+      </c>
+      <c r="K1729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:11">
       <c r="A1730" s="2">
         <v>1</v>
       </c>
@@ -62008,8 +62188,17 @@
       <c r="H1730" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1731" spans="1:8">
+      <c r="I1730" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1730">
+        <v>1</v>
+      </c>
+      <c r="K1730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:11">
       <c r="A1731" s="2">
         <v>1</v>
       </c>
@@ -62034,8 +62223,17 @@
       <c r="H1731" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1732" spans="1:8">
+      <c r="I1731" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1731">
+        <v>1</v>
+      </c>
+      <c r="K1731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:11">
       <c r="A1732" s="2">
         <v>1</v>
       </c>
@@ -62060,8 +62258,17 @@
       <c r="H1732" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1733" spans="1:8">
+      <c r="I1732" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1732">
+        <v>1</v>
+      </c>
+      <c r="K1732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:11">
       <c r="A1733" s="2">
         <v>1</v>
       </c>
@@ -62086,8 +62293,17 @@
       <c r="H1733" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1734" spans="1:8">
+      <c r="I1733" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1733">
+        <v>1</v>
+      </c>
+      <c r="K1733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:11">
       <c r="A1734" s="2">
         <v>1</v>
       </c>
@@ -62112,8 +62328,17 @@
       <c r="H1734" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1735" spans="1:8">
+      <c r="I1734" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1734">
+        <v>1</v>
+      </c>
+      <c r="K1734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:11">
       <c r="A1735" s="2">
         <v>0</v>
       </c>
@@ -62138,8 +62363,17 @@
       <c r="H1735" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1736" spans="1:8">
+      <c r="I1735" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1735">
+        <v>0</v>
+      </c>
+      <c r="K1735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:11">
       <c r="A1736" s="2">
         <v>1</v>
       </c>
@@ -62164,8 +62398,17 @@
       <c r="H1736" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1737" spans="1:8">
+      <c r="I1736" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1736">
+        <v>1</v>
+      </c>
+      <c r="K1736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:11">
       <c r="A1737" s="2">
         <v>0</v>
       </c>
@@ -62190,8 +62433,17 @@
       <c r="H1737" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1738" spans="1:8">
+      <c r="I1737" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1737">
+        <v>0</v>
+      </c>
+      <c r="K1737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:11">
       <c r="A1738" s="2">
         <v>1</v>
       </c>
@@ -62216,8 +62468,17 @@
       <c r="H1738" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1739" spans="1:8">
+      <c r="I1738" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1738">
+        <v>1</v>
+      </c>
+      <c r="K1738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:11">
       <c r="A1739" s="2">
         <v>1</v>
       </c>
@@ -62242,8 +62503,17 @@
       <c r="H1739" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1740" spans="1:8">
+      <c r="I1739" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1739">
+        <v>1</v>
+      </c>
+      <c r="K1739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:11">
       <c r="A1740" s="2">
         <v>1</v>
       </c>
@@ -62268,8 +62538,17 @@
       <c r="H1740" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1741" spans="1:8">
+      <c r="I1740" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1740">
+        <v>1</v>
+      </c>
+      <c r="K1740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:11">
       <c r="A1741" s="2">
         <v>1</v>
       </c>
@@ -62294,8 +62573,17 @@
       <c r="H1741" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1742" spans="1:8">
+      <c r="I1741" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1741">
+        <v>0</v>
+      </c>
+      <c r="K1741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:11">
       <c r="A1742" s="2">
         <v>1</v>
       </c>
@@ -62320,8 +62608,17 @@
       <c r="H1742" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1743" spans="1:8">
+      <c r="I1742" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1742">
+        <v>0</v>
+      </c>
+      <c r="K1742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:11">
       <c r="A1743" s="2">
         <v>1</v>
       </c>
@@ -62346,8 +62643,17 @@
       <c r="H1743" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1744" spans="1:8">
+      <c r="I1743" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1743">
+        <v>1</v>
+      </c>
+      <c r="K1743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:11">
       <c r="A1744" s="2">
         <v>0</v>
       </c>
@@ -62372,8 +62678,17 @@
       <c r="H1744" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1745" spans="1:8">
+      <c r="I1744" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1744">
+        <v>0</v>
+      </c>
+      <c r="K1744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:11">
       <c r="A1745" s="2">
         <v>1</v>
       </c>
@@ -62398,8 +62713,17 @@
       <c r="H1745" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1746" spans="1:8">
+      <c r="I1745" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1745">
+        <v>1</v>
+      </c>
+      <c r="K1745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:11">
       <c r="A1746" s="2">
         <v>1</v>
       </c>
@@ -62424,8 +62748,17 @@
       <c r="H1746" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1747" spans="1:8">
+      <c r="I1746" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1746">
+        <v>1</v>
+      </c>
+      <c r="K1746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:11">
       <c r="A1747" s="2">
         <v>1</v>
       </c>
@@ -62450,8 +62783,17 @@
       <c r="H1747" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1748" spans="1:8">
+      <c r="I1747" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1747">
+        <v>1</v>
+      </c>
+      <c r="K1747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:11">
       <c r="A1748" s="2">
         <v>0</v>
       </c>
@@ -62476,8 +62818,17 @@
       <c r="H1748" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1749" spans="1:8">
+      <c r="I1748" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1748">
+        <v>0</v>
+      </c>
+      <c r="K1748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:11">
       <c r="A1749" s="2">
         <v>1</v>
       </c>
@@ -62502,8 +62853,17 @@
       <c r="H1749" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1750" spans="1:8">
+      <c r="I1749" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1749">
+        <v>1</v>
+      </c>
+      <c r="K1749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:11">
       <c r="A1750" s="2">
         <v>1</v>
       </c>
@@ -62528,8 +62888,17 @@
       <c r="H1750" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1751" spans="1:8">
+      <c r="I1750" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1750">
+        <v>1</v>
+      </c>
+      <c r="K1750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:11">
       <c r="A1751" s="2">
         <v>1</v>
       </c>
@@ -62554,8 +62923,17 @@
       <c r="H1751" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1752" spans="1:8">
+      <c r="I1751" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1751">
+        <v>1</v>
+      </c>
+      <c r="K1751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:11">
       <c r="A1752" s="2">
         <v>1</v>
       </c>
@@ -62580,8 +62958,17 @@
       <c r="H1752" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1753" spans="1:8">
+      <c r="I1752" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1752">
+        <v>1</v>
+      </c>
+      <c r="K1752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:11">
       <c r="A1753" s="2">
         <v>1</v>
       </c>
@@ -62606,8 +62993,17 @@
       <c r="H1753" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1754" spans="1:8">
+      <c r="I1753" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1753">
+        <v>0</v>
+      </c>
+      <c r="K1753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:11">
       <c r="A1754" s="2">
         <v>1</v>
       </c>
@@ -62632,8 +63028,17 @@
       <c r="H1754" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1755" spans="1:8">
+      <c r="I1754" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1754">
+        <v>1</v>
+      </c>
+      <c r="K1754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:11">
       <c r="A1755" s="2">
         <v>1</v>
       </c>
@@ -62658,8 +63063,17 @@
       <c r="H1755" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1756" spans="1:8">
+      <c r="I1755" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1755">
+        <v>0</v>
+      </c>
+      <c r="K1755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:11">
       <c r="A1756" s="2">
         <v>1</v>
       </c>
@@ -62684,8 +63098,17 @@
       <c r="H1756" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1757" spans="1:8">
+      <c r="I1756" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1756">
+        <v>1</v>
+      </c>
+      <c r="K1756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:11">
       <c r="A1757" s="2">
         <v>1</v>
       </c>
@@ -62710,8 +63133,17 @@
       <c r="H1757" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1758" spans="1:8">
+      <c r="I1757" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1757">
+        <v>1</v>
+      </c>
+      <c r="K1757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:11">
       <c r="A1758" s="2">
         <v>1</v>
       </c>
@@ -62736,8 +63168,17 @@
       <c r="H1758" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1759" spans="1:8">
+      <c r="I1758" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1758">
+        <v>1</v>
+      </c>
+      <c r="K1758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:11">
       <c r="A1759" s="2">
         <v>0</v>
       </c>
@@ -62762,8 +63203,17 @@
       <c r="H1759" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1760" spans="1:8">
+      <c r="I1759" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1759">
+        <v>0</v>
+      </c>
+      <c r="K1759">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:11">
       <c r="A1760" s="2">
         <v>1</v>
       </c>
@@ -62788,8 +63238,17 @@
       <c r="H1760" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1761" spans="1:8">
+      <c r="I1760" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1760">
+        <v>0</v>
+      </c>
+      <c r="K1760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:11">
       <c r="A1761" s="2">
         <v>0</v>
       </c>
@@ -62814,8 +63273,17 @@
       <c r="H1761" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1762" spans="1:8">
+      <c r="I1761" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1761">
+        <v>0</v>
+      </c>
+      <c r="K1761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:11">
       <c r="A1762" s="2">
         <v>1</v>
       </c>
@@ -62840,8 +63308,17 @@
       <c r="H1762" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1763" spans="1:8">
+      <c r="I1762" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1762">
+        <v>1</v>
+      </c>
+      <c r="K1762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:11">
       <c r="A1763" s="2">
         <v>1</v>
       </c>
@@ -62866,8 +63343,17 @@
       <c r="H1763" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1764" spans="1:8">
+      <c r="I1763" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1763">
+        <v>1</v>
+      </c>
+      <c r="K1763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:11">
       <c r="A1764" s="2">
         <v>1</v>
       </c>
@@ -62892,8 +63378,17 @@
       <c r="H1764" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1765" spans="1:8">
+      <c r="I1764" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1764">
+        <v>1</v>
+      </c>
+      <c r="K1764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:11">
       <c r="A1765" s="2">
         <v>1</v>
       </c>
@@ -62918,8 +63413,17 @@
       <c r="H1765" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1766" spans="1:8">
+      <c r="I1765" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1765">
+        <v>0</v>
+      </c>
+      <c r="K1765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:11">
       <c r="A1766" s="2">
         <v>1</v>
       </c>
@@ -62944,8 +63448,17 @@
       <c r="H1766" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1767" spans="1:8">
+      <c r="I1766" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1766">
+        <v>0</v>
+      </c>
+      <c r="K1766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:11">
       <c r="A1767" s="2">
         <v>1</v>
       </c>
@@ -62970,8 +63483,17 @@
       <c r="H1767" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1768" spans="1:8">
+      <c r="I1767" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1767">
+        <v>1</v>
+      </c>
+      <c r="K1767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:11">
       <c r="A1768" s="2">
         <v>0</v>
       </c>
@@ -62996,8 +63518,17 @@
       <c r="H1768" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1769" spans="1:8">
+      <c r="I1768" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1768">
+        <v>0</v>
+      </c>
+      <c r="K1768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:11">
       <c r="A1769" s="2">
         <v>1</v>
       </c>
@@ -63022,8 +63553,17 @@
       <c r="H1769" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1770" spans="1:8">
+      <c r="I1769" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1769">
+        <v>1</v>
+      </c>
+      <c r="K1769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:11">
       <c r="A1770" s="2">
         <v>1</v>
       </c>
@@ -63048,8 +63588,17 @@
       <c r="H1770" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1771" spans="1:8">
+      <c r="I1770" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1770">
+        <v>1</v>
+      </c>
+      <c r="K1770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:11">
       <c r="A1771" s="2">
         <v>1</v>
       </c>
@@ -63074,8 +63623,17 @@
       <c r="H1771" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1772" spans="1:8">
+      <c r="I1771" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1771">
+        <v>1</v>
+      </c>
+      <c r="K1771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:11">
       <c r="A1772" s="2">
         <v>0</v>
       </c>
@@ -63100,8 +63658,17 @@
       <c r="H1772" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1773" spans="1:8">
+      <c r="I1772" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1772">
+        <v>0</v>
+      </c>
+      <c r="K1772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:11">
       <c r="A1773" s="2">
         <v>1</v>
       </c>
@@ -63126,8 +63693,17 @@
       <c r="H1773" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1774" spans="1:8">
+      <c r="I1773" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1773">
+        <v>1</v>
+      </c>
+      <c r="K1773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:11">
       <c r="A1774" s="2">
         <v>1</v>
       </c>
@@ -63152,8 +63728,17 @@
       <c r="H1774" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1775" spans="1:8">
+      <c r="I1774" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1774">
+        <v>1</v>
+      </c>
+      <c r="K1774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:11">
       <c r="A1775" s="2">
         <v>1</v>
       </c>
@@ -63178,8 +63763,17 @@
       <c r="H1775" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1776" spans="1:8">
+      <c r="I1775" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1775">
+        <v>1</v>
+      </c>
+      <c r="K1775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:11">
       <c r="A1776" s="2">
         <v>1</v>
       </c>
@@ -63204,8 +63798,17 @@
       <c r="H1776" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1777" spans="1:8">
+      <c r="I1776" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1776">
+        <v>1</v>
+      </c>
+      <c r="K1776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:11">
       <c r="A1777" s="2">
         <v>1</v>
       </c>
@@ -63230,8 +63833,17 @@
       <c r="H1777" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1778" spans="1:8">
+      <c r="I1777" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1777">
+        <v>0</v>
+      </c>
+      <c r="K1777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:11">
       <c r="A1778" s="2">
         <v>0</v>
       </c>
@@ -63257,7 +63869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1779" spans="1:8">
+    <row r="1779" spans="1:11">
       <c r="A1779" s="2">
         <v>0</v>
       </c>
@@ -63283,7 +63895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1780" spans="1:8">
+    <row r="1780" spans="1:11">
       <c r="A1780" s="2">
         <v>0</v>
       </c>
@@ -63309,7 +63921,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1781" spans="1:8">
+    <row r="1781" spans="1:11">
       <c r="A1781" s="2">
         <v>0</v>
       </c>
@@ -63335,7 +63947,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="1782" spans="1:8">
+    <row r="1782" spans="1:11">
       <c r="A1782" s="2">
         <v>0</v>
       </c>
@@ -63361,7 +63973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1783" spans="1:8">
+    <row r="1783" spans="1:11">
       <c r="A1783" s="2">
         <v>0</v>
       </c>
@@ -63387,7 +63999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1784" spans="1:8">
+    <row r="1784" spans="1:11">
       <c r="A1784" s="2">
         <v>0</v>
       </c>
@@ -63413,7 +64025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1785" spans="1:8">
+    <row r="1785" spans="1:11">
       <c r="A1785" s="2">
         <v>0</v>
       </c>
@@ -63439,7 +64051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1786" spans="1:8">
+    <row r="1786" spans="1:11">
       <c r="A1786" s="2">
         <v>0</v>
       </c>
@@ -63465,7 +64077,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="1787" spans="1:8">
+    <row r="1787" spans="1:11">
       <c r="A1787" s="2">
         <v>0</v>
       </c>
@@ -63491,7 +64103,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="1788" spans="1:8">
+    <row r="1788" spans="1:11">
       <c r="A1788" s="2">
         <v>0</v>
       </c>
@@ -63517,7 +64129,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="1789" spans="1:8">
+    <row r="1789" spans="1:11">
       <c r="A1789" s="2">
         <v>0</v>
       </c>
@@ -63543,7 +64155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1790" spans="1:8">
+    <row r="1790" spans="1:11">
       <c r="A1790" s="2">
         <v>0</v>
       </c>
@@ -63569,7 +64181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1791" spans="1:8">
+    <row r="1791" spans="1:11">
       <c r="A1791" s="2">
         <v>0</v>
       </c>
@@ -63595,7 +64207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1792" spans="1:8">
+    <row r="1792" spans="1:11">
       <c r="A1792" s="2">
         <v>0</v>
       </c>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -2468,10 +2468,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G1768" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G1862" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1778" sqref="I1778"/>
+      <selection pane="bottomRight" activeCell="I1870" sqref="I1870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -39057,7 +39057,7 @@
         <v>1</v>
       </c>
       <c r="J1069">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1069">
         <v>0</v>
@@ -63868,6 +63868,15 @@
       <c r="H1778" t="s">
         <v>20</v>
       </c>
+      <c r="I1778" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1778">
+        <v>0</v>
+      </c>
+      <c r="K1778">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779" spans="1:11">
       <c r="A1779" s="2">
@@ -63894,6 +63903,15 @@
       <c r="H1779" t="s">
         <v>20</v>
       </c>
+      <c r="I1779" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1779">
+        <v>0</v>
+      </c>
+      <c r="K1779">
+        <v>0</v>
+      </c>
     </row>
     <row r="1780" spans="1:11">
       <c r="A1780" s="2">
@@ -63920,6 +63938,15 @@
       <c r="H1780" t="s">
         <v>84</v>
       </c>
+      <c r="I1780" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1780">
+        <v>0</v>
+      </c>
+      <c r="K1780">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781" spans="1:11">
       <c r="A1781" s="2">
@@ -63946,6 +63973,15 @@
       <c r="H1781" t="s">
         <v>592</v>
       </c>
+      <c r="I1781" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1781">
+        <v>0</v>
+      </c>
+      <c r="K1781">
+        <v>0</v>
+      </c>
     </row>
     <row r="1782" spans="1:11">
       <c r="A1782" s="2">
@@ -63972,6 +64008,15 @@
       <c r="H1782" t="s">
         <v>20</v>
       </c>
+      <c r="I1782" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1782">
+        <v>0</v>
+      </c>
+      <c r="K1782">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783" spans="1:11">
       <c r="A1783" s="2">
@@ -63998,6 +64043,15 @@
       <c r="H1783" t="s">
         <v>13</v>
       </c>
+      <c r="I1783" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1783">
+        <v>0</v>
+      </c>
+      <c r="K1783">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784" spans="1:11">
       <c r="A1784" s="2">
@@ -64024,6 +64078,15 @@
       <c r="H1784" t="s">
         <v>20</v>
       </c>
+      <c r="I1784" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1784">
+        <v>0</v>
+      </c>
+      <c r="K1784">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785" spans="1:11">
       <c r="A1785" s="2">
@@ -64050,6 +64113,15 @@
       <c r="H1785" t="s">
         <v>20</v>
       </c>
+      <c r="I1785" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1785">
+        <v>0</v>
+      </c>
+      <c r="K1785">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786" spans="1:11">
       <c r="A1786" s="2">
@@ -64076,6 +64148,15 @@
       <c r="H1786" t="s">
         <v>108</v>
       </c>
+      <c r="I1786" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1786">
+        <v>0</v>
+      </c>
+      <c r="K1786">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787" spans="1:11">
       <c r="A1787" s="2">
@@ -64102,6 +64183,15 @@
       <c r="H1787" t="s">
         <v>595</v>
       </c>
+      <c r="I1787" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1787">
+        <v>0</v>
+      </c>
+      <c r="K1787">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788" spans="1:11">
       <c r="A1788" s="2">
@@ -64128,6 +64218,15 @@
       <c r="H1788" t="s">
         <v>546</v>
       </c>
+      <c r="I1788" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1788">
+        <v>0</v>
+      </c>
+      <c r="K1788">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789" spans="1:11">
       <c r="A1789" s="2">
@@ -64154,6 +64253,15 @@
       <c r="H1789" t="s">
         <v>13</v>
       </c>
+      <c r="I1789" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1789">
+        <v>0</v>
+      </c>
+      <c r="K1789">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790" spans="1:11">
       <c r="A1790" s="2">
@@ -64180,6 +64288,15 @@
       <c r="H1790" t="s">
         <v>17</v>
       </c>
+      <c r="I1790" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1790">
+        <v>0</v>
+      </c>
+      <c r="K1790">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791" spans="1:11">
       <c r="A1791" s="2">
@@ -64206,6 +64323,15 @@
       <c r="H1791" t="s">
         <v>17</v>
       </c>
+      <c r="I1791" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1791">
+        <v>0</v>
+      </c>
+      <c r="K1791">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792" spans="1:11">
       <c r="A1792" s="2">
@@ -64232,8 +64358,17 @@
       <c r="H1792" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1793" spans="1:8">
+      <c r="I1792" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1792">
+        <v>0</v>
+      </c>
+      <c r="K1792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:11">
       <c r="A1793" s="2">
         <v>0</v>
       </c>
@@ -64258,8 +64393,17 @@
       <c r="H1793" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1794" spans="1:8">
+      <c r="I1793" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1793">
+        <v>0</v>
+      </c>
+      <c r="K1793">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:11">
       <c r="A1794" s="2">
         <v>0</v>
       </c>
@@ -64284,8 +64428,17 @@
       <c r="H1794" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1795" spans="1:8">
+      <c r="I1794" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1794">
+        <v>0</v>
+      </c>
+      <c r="K1794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:11">
       <c r="A1795" s="2">
         <v>0</v>
       </c>
@@ -64310,8 +64463,17 @@
       <c r="H1795" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1796" spans="1:8">
+      <c r="I1795" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1795">
+        <v>0</v>
+      </c>
+      <c r="K1795">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:11">
       <c r="A1796" s="2">
         <v>0</v>
       </c>
@@ -64336,8 +64498,17 @@
       <c r="H1796" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1797" spans="1:8">
+      <c r="I1796" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1796">
+        <v>0</v>
+      </c>
+      <c r="K1796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:11">
       <c r="A1797" s="2">
         <v>0</v>
       </c>
@@ -64362,8 +64533,17 @@
       <c r="H1797" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1798" spans="1:8">
+      <c r="I1797" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1797">
+        <v>0</v>
+      </c>
+      <c r="K1797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:11">
       <c r="A1798" s="2">
         <v>0</v>
       </c>
@@ -64388,8 +64568,17 @@
       <c r="H1798" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1799" spans="1:8">
+      <c r="I1798" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1798">
+        <v>0</v>
+      </c>
+      <c r="K1798">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:11">
       <c r="A1799" s="2">
         <v>0</v>
       </c>
@@ -64414,8 +64603,17 @@
       <c r="H1799" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1800" spans="1:8">
+      <c r="I1799" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1799">
+        <v>0</v>
+      </c>
+      <c r="K1799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:11">
       <c r="A1800" s="2">
         <v>0</v>
       </c>
@@ -64440,8 +64638,17 @@
       <c r="H1800" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1801" spans="1:8">
+      <c r="I1800" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1800">
+        <v>0</v>
+      </c>
+      <c r="K1800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:11">
       <c r="A1801" s="2">
         <v>0</v>
       </c>
@@ -64466,8 +64673,17 @@
       <c r="H1801" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1802" spans="1:8">
+      <c r="I1801" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1801">
+        <v>0</v>
+      </c>
+      <c r="K1801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:11">
       <c r="A1802" s="2">
         <v>0</v>
       </c>
@@ -64492,8 +64708,17 @@
       <c r="H1802" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1803" spans="1:8">
+      <c r="I1802" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1802">
+        <v>0</v>
+      </c>
+      <c r="K1802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:11">
       <c r="A1803" s="2">
         <v>0</v>
       </c>
@@ -64518,8 +64743,17 @@
       <c r="H1803" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1804" spans="1:8">
+      <c r="I1803" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1803">
+        <v>0</v>
+      </c>
+      <c r="K1803">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:11">
       <c r="A1804" s="2">
         <v>0</v>
       </c>
@@ -64544,8 +64778,17 @@
       <c r="H1804" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1805" spans="1:8">
+      <c r="I1804" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1804">
+        <v>0</v>
+      </c>
+      <c r="K1804">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:11">
       <c r="A1805" s="2">
         <v>0</v>
       </c>
@@ -64570,8 +64813,17 @@
       <c r="H1805" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1806" spans="1:8">
+      <c r="I1805" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1805">
+        <v>0</v>
+      </c>
+      <c r="K1805">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:11">
       <c r="A1806" s="2">
         <v>0</v>
       </c>
@@ -64596,8 +64848,17 @@
       <c r="H1806" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1807" spans="1:8">
+      <c r="I1806" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1806">
+        <v>0</v>
+      </c>
+      <c r="K1806">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:11">
       <c r="A1807" s="2">
         <v>0</v>
       </c>
@@ -64622,8 +64883,17 @@
       <c r="H1807" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="1808" spans="1:8">
+      <c r="I1807" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1807">
+        <v>0</v>
+      </c>
+      <c r="K1807">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:11">
       <c r="A1808" s="2">
         <v>0</v>
       </c>
@@ -64648,8 +64918,17 @@
       <c r="H1808" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="1809" spans="1:8">
+      <c r="I1808" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1808">
+        <v>0</v>
+      </c>
+      <c r="K1808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:11">
       <c r="A1809" s="2">
         <v>0</v>
       </c>
@@ -64674,8 +64953,17 @@
       <c r="H1809" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1810" spans="1:8">
+      <c r="I1809" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1809">
+        <v>0</v>
+      </c>
+      <c r="K1809">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:11">
       <c r="A1810" s="2">
         <v>0</v>
       </c>
@@ -64700,8 +64988,17 @@
       <c r="H1810" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="1811" spans="1:8">
+      <c r="I1810" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1810">
+        <v>0</v>
+      </c>
+      <c r="K1810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:11">
       <c r="A1811" s="2">
         <v>0</v>
       </c>
@@ -64726,8 +65023,17 @@
       <c r="H1811" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="1812" spans="1:8">
+      <c r="I1811" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1811">
+        <v>0</v>
+      </c>
+      <c r="K1811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:11">
       <c r="A1812" s="2">
         <v>0</v>
       </c>
@@ -64752,8 +65058,17 @@
       <c r="H1812" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1813" spans="1:8">
+      <c r="I1812" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1812">
+        <v>0</v>
+      </c>
+      <c r="K1812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:11">
       <c r="A1813" s="2">
         <v>0</v>
       </c>
@@ -64778,8 +65093,17 @@
       <c r="H1813" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="1814" spans="1:8">
+      <c r="I1813" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1813">
+        <v>0</v>
+      </c>
+      <c r="K1813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:11">
       <c r="A1814" s="2">
         <v>0</v>
       </c>
@@ -64804,8 +65128,17 @@
       <c r="H1814" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1815" spans="1:8">
+      <c r="I1814" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1814">
+        <v>0</v>
+      </c>
+      <c r="K1814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:11">
       <c r="A1815" s="2">
         <v>0</v>
       </c>
@@ -64830,8 +65163,17 @@
       <c r="H1815" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1816" spans="1:8">
+      <c r="I1815" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1815">
+        <v>0</v>
+      </c>
+      <c r="K1815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:11">
       <c r="A1816" s="2">
         <v>0</v>
       </c>
@@ -64856,8 +65198,17 @@
       <c r="H1816" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1817" spans="1:8">
+      <c r="I1816" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1816">
+        <v>0</v>
+      </c>
+      <c r="K1816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:11">
       <c r="A1817" s="2">
         <v>0</v>
       </c>
@@ -64882,8 +65233,17 @@
       <c r="H1817" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1818" spans="1:8">
+      <c r="I1817" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1817">
+        <v>0</v>
+      </c>
+      <c r="K1817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:11">
       <c r="A1818" s="2">
         <v>0</v>
       </c>
@@ -64908,8 +65268,17 @@
       <c r="H1818" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1819" spans="1:8">
+      <c r="I1818" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1818">
+        <v>0</v>
+      </c>
+      <c r="K1818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:11">
       <c r="A1819" s="2">
         <v>0</v>
       </c>
@@ -64934,8 +65303,17 @@
       <c r="H1819" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1820" spans="1:8">
+      <c r="I1819" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1819">
+        <v>0</v>
+      </c>
+      <c r="K1819">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:11">
       <c r="A1820" s="2">
         <v>0</v>
       </c>
@@ -64960,8 +65338,17 @@
       <c r="H1820" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1821" spans="1:8">
+      <c r="I1820" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1820">
+        <v>0</v>
+      </c>
+      <c r="K1820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:11">
       <c r="A1821" s="2">
         <v>0</v>
       </c>
@@ -64986,8 +65373,17 @@
       <c r="H1821" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1822" spans="1:8">
+      <c r="I1821" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1821">
+        <v>0</v>
+      </c>
+      <c r="K1821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:11">
       <c r="A1822" s="2">
         <v>0</v>
       </c>
@@ -65012,8 +65408,17 @@
       <c r="H1822" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1823" spans="1:8">
+      <c r="I1822" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1822">
+        <v>0</v>
+      </c>
+      <c r="K1822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:11">
       <c r="A1823" s="2">
         <v>0</v>
       </c>
@@ -65038,8 +65443,17 @@
       <c r="H1823" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1824" spans="1:8">
+      <c r="I1823" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1823">
+        <v>0</v>
+      </c>
+      <c r="K1823">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:11">
       <c r="A1824" s="2">
         <v>0</v>
       </c>
@@ -65064,8 +65478,17 @@
       <c r="H1824" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="1825" spans="1:8">
+      <c r="I1824" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1824">
+        <v>0</v>
+      </c>
+      <c r="K1824">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:11">
       <c r="A1825" s="2">
         <v>0</v>
       </c>
@@ -65090,8 +65513,17 @@
       <c r="H1825" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1826" spans="1:8">
+      <c r="I1825" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1825">
+        <v>0</v>
+      </c>
+      <c r="K1825">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:11">
       <c r="A1826" s="2">
         <v>0</v>
       </c>
@@ -65116,8 +65548,17 @@
       <c r="H1826" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1827" spans="1:8">
+      <c r="I1826" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1826">
+        <v>0</v>
+      </c>
+      <c r="K1826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:11">
       <c r="A1827" s="2">
         <v>0</v>
       </c>
@@ -65142,8 +65583,17 @@
       <c r="H1827" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1828" spans="1:8">
+      <c r="I1827" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1827">
+        <v>1</v>
+      </c>
+      <c r="K1827">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:11">
       <c r="A1828" s="2">
         <v>1</v>
       </c>
@@ -65168,8 +65618,17 @@
       <c r="H1828" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1829" spans="1:8">
+      <c r="I1828" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1828">
+        <v>1</v>
+      </c>
+      <c r="K1828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:11">
       <c r="A1829" s="2">
         <v>1</v>
       </c>
@@ -65194,8 +65653,17 @@
       <c r="H1829" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1830" spans="1:8">
+      <c r="I1829" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1829">
+        <v>1</v>
+      </c>
+      <c r="K1829">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:11">
       <c r="A1830" s="2">
         <v>1</v>
       </c>
@@ -65220,8 +65688,17 @@
       <c r="H1830" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1831" spans="1:8">
+      <c r="I1830" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1830">
+        <v>1</v>
+      </c>
+      <c r="K1830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:11">
       <c r="A1831" s="2">
         <v>0</v>
       </c>
@@ -65246,8 +65723,17 @@
       <c r="H1831" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1832" spans="1:8">
+      <c r="I1831" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1831">
+        <v>0</v>
+      </c>
+      <c r="K1831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:11">
       <c r="A1832" s="2">
         <v>0</v>
       </c>
@@ -65272,8 +65758,17 @@
       <c r="H1832" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1833" spans="1:8">
+      <c r="I1832" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1832">
+        <v>1</v>
+      </c>
+      <c r="K1832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:11">
       <c r="A1833" s="2">
         <v>1</v>
       </c>
@@ -65298,8 +65793,17 @@
       <c r="H1833" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1834" spans="1:8">
+      <c r="I1833" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1833">
+        <v>1</v>
+      </c>
+      <c r="K1833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:11">
       <c r="A1834" s="2">
         <v>1</v>
       </c>
@@ -65324,8 +65828,17 @@
       <c r="H1834" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1835" spans="1:8">
+      <c r="I1834" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1834">
+        <v>1</v>
+      </c>
+      <c r="K1834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:11">
       <c r="A1835" s="2">
         <v>0</v>
       </c>
@@ -65350,8 +65863,17 @@
       <c r="H1835" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1836" spans="1:8">
+      <c r="I1835" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1835">
+        <v>0</v>
+      </c>
+      <c r="K1835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:11">
       <c r="A1836" s="2">
         <v>0</v>
       </c>
@@ -65376,8 +65898,17 @@
       <c r="H1836" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1837" spans="1:8">
+      <c r="I1836" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1836">
+        <v>1</v>
+      </c>
+      <c r="K1836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:11">
       <c r="A1837" s="2">
         <v>1</v>
       </c>
@@ -65402,8 +65933,17 @@
       <c r="H1837" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1838" spans="1:8">
+      <c r="I1837" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1837">
+        <v>0</v>
+      </c>
+      <c r="K1837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:11">
       <c r="A1838" s="2">
         <v>1</v>
       </c>
@@ -65428,8 +65968,17 @@
       <c r="H1838" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1839" spans="1:8">
+      <c r="I1838" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1838">
+        <v>0</v>
+      </c>
+      <c r="K1838">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:11">
       <c r="A1839" s="2">
         <v>1</v>
       </c>
@@ -65454,8 +66003,17 @@
       <c r="H1839" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1840" spans="1:8">
+      <c r="I1839" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1839">
+        <v>1</v>
+      </c>
+      <c r="K1839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:11">
       <c r="A1840" s="2">
         <v>1</v>
       </c>
@@ -65480,8 +66038,17 @@
       <c r="H1840" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1841" spans="1:8">
+      <c r="I1840" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1840">
+        <v>1</v>
+      </c>
+      <c r="K1840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:11">
       <c r="A1841" s="2">
         <v>1</v>
       </c>
@@ -65506,8 +66073,17 @@
       <c r="H1841" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1842" spans="1:8">
+      <c r="I1841" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1841">
+        <v>1</v>
+      </c>
+      <c r="K1841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:11">
       <c r="A1842" s="2">
         <v>0</v>
       </c>
@@ -65532,8 +66108,17 @@
       <c r="H1842" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1843" spans="1:8">
+      <c r="I1842" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1842">
+        <v>0</v>
+      </c>
+      <c r="K1842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:11">
       <c r="A1843" s="2">
         <v>1</v>
       </c>
@@ -65558,8 +66143,17 @@
       <c r="H1843" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1844" spans="1:8">
+      <c r="I1843" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1843">
+        <v>1</v>
+      </c>
+      <c r="K1843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:11">
       <c r="A1844" s="2">
         <v>0</v>
       </c>
@@ -65584,8 +66178,17 @@
       <c r="H1844" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1845" spans="1:8">
+      <c r="I1844" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1844">
+        <v>0</v>
+      </c>
+      <c r="K1844">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:11">
       <c r="A1845" s="2">
         <v>1</v>
       </c>
@@ -65610,8 +66213,17 @@
       <c r="H1845" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1846" spans="1:8">
+      <c r="I1845" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1845">
+        <v>1</v>
+      </c>
+      <c r="K1845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:11">
       <c r="A1846" s="2">
         <v>1</v>
       </c>
@@ -65636,8 +66248,17 @@
       <c r="H1846" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1847" spans="1:8">
+      <c r="I1846" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1846">
+        <v>1</v>
+      </c>
+      <c r="K1846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:11">
       <c r="A1847" s="2">
         <v>1</v>
       </c>
@@ -65662,8 +66283,17 @@
       <c r="H1847" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1848" spans="1:8">
+      <c r="I1847" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1847">
+        <v>1</v>
+      </c>
+      <c r="K1847">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:11">
       <c r="A1848" s="2">
         <v>0</v>
       </c>
@@ -65688,8 +66318,17 @@
       <c r="H1848" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1849" spans="1:8">
+      <c r="I1848" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1848">
+        <v>0</v>
+      </c>
+      <c r="K1848">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:11">
       <c r="A1849" s="2">
         <v>0</v>
       </c>
@@ -65714,8 +66353,17 @@
       <c r="H1849" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1850" spans="1:8">
+      <c r="I1849" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1849">
+        <v>1</v>
+      </c>
+      <c r="K1849">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:11">
       <c r="A1850" s="2">
         <v>0</v>
       </c>
@@ -65740,8 +66388,17 @@
       <c r="H1850" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="1851" spans="1:8">
+      <c r="I1850" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1850">
+        <v>0</v>
+      </c>
+      <c r="K1850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:11">
       <c r="A1851" s="2">
         <v>0</v>
       </c>
@@ -65766,8 +66423,17 @@
       <c r="H1851" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1852" spans="1:8">
+      <c r="I1851" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1851">
+        <v>1</v>
+      </c>
+      <c r="K1851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:11">
       <c r="A1852" s="2">
         <v>1</v>
       </c>
@@ -65792,8 +66458,17 @@
       <c r="H1852" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1853" spans="1:8">
+      <c r="I1852" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1852">
+        <v>1</v>
+      </c>
+      <c r="K1852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:11">
       <c r="A1853" s="2">
         <v>1</v>
       </c>
@@ -65818,8 +66493,17 @@
       <c r="H1853" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1854" spans="1:8">
+      <c r="I1853" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1853">
+        <v>1</v>
+      </c>
+      <c r="K1853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:11">
       <c r="A1854" s="2">
         <v>1</v>
       </c>
@@ -65844,8 +66528,17 @@
       <c r="H1854" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1855" spans="1:8">
+      <c r="I1854" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1854">
+        <v>1</v>
+      </c>
+      <c r="K1854">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:11">
       <c r="A1855" s="2">
         <v>0</v>
       </c>
@@ -65870,8 +66563,17 @@
       <c r="H1855" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1856" spans="1:8">
+      <c r="I1855" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1855">
+        <v>0</v>
+      </c>
+      <c r="K1855">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:11">
       <c r="A1856" s="2">
         <v>0</v>
       </c>
@@ -65896,8 +66598,17 @@
       <c r="H1856" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1857" spans="1:8">
+      <c r="I1856" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1856">
+        <v>1</v>
+      </c>
+      <c r="K1856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:11">
       <c r="A1857" s="2">
         <v>0</v>
       </c>
@@ -65922,8 +66633,17 @@
       <c r="H1857" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1858" spans="1:8">
+      <c r="I1857" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1857">
+        <v>1</v>
+      </c>
+      <c r="K1857">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:11">
       <c r="A1858" s="2">
         <v>1</v>
       </c>
@@ -65948,8 +66668,17 @@
       <c r="H1858" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1859" spans="1:8">
+      <c r="I1858" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1858">
+        <v>1</v>
+      </c>
+      <c r="K1858">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:11">
       <c r="A1859" s="2">
         <v>0</v>
       </c>
@@ -65974,8 +66703,17 @@
       <c r="H1859" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1860" spans="1:8">
+      <c r="I1859" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1859">
+        <v>0</v>
+      </c>
+      <c r="K1859">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:11">
       <c r="A1860" s="2">
         <v>0</v>
       </c>
@@ -66000,8 +66738,17 @@
       <c r="H1860" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1861" spans="1:8">
+      <c r="I1860" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1860">
+        <v>1</v>
+      </c>
+      <c r="K1860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:11">
       <c r="A1861" s="2">
         <v>0</v>
       </c>
@@ -66026,8 +66773,17 @@
       <c r="H1861" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1862" spans="1:8">
+      <c r="I1861" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1861">
+        <v>0</v>
+      </c>
+      <c r="K1861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:11">
       <c r="A1862" s="2">
         <v>1</v>
       </c>
@@ -66052,8 +66808,17 @@
       <c r="H1862" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1863" spans="1:8">
+      <c r="I1862" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1862">
+        <v>0</v>
+      </c>
+      <c r="K1862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:11">
       <c r="A1863" s="2">
         <v>1</v>
       </c>
@@ -66078,8 +66843,17 @@
       <c r="H1863" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1864" spans="1:8">
+      <c r="I1863" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1863">
+        <v>1</v>
+      </c>
+      <c r="K1863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:11">
       <c r="A1864" s="2">
         <v>1</v>
       </c>
@@ -66104,8 +66878,17 @@
       <c r="H1864" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1865" spans="1:8">
+      <c r="I1864" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1864">
+        <v>1</v>
+      </c>
+      <c r="K1864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:11">
       <c r="A1865" s="2">
         <v>0</v>
       </c>
@@ -66130,8 +66913,17 @@
       <c r="H1865" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1866" spans="1:8">
+      <c r="I1865" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1865">
+        <v>1</v>
+      </c>
+      <c r="K1865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:11">
       <c r="A1866" s="2">
         <v>0</v>
       </c>
@@ -66156,8 +66948,17 @@
       <c r="H1866" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1867" spans="1:8">
+      <c r="I1866" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1866">
+        <v>0</v>
+      </c>
+      <c r="K1866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:11">
       <c r="A1867" s="2">
         <v>1</v>
       </c>
@@ -66182,8 +66983,17 @@
       <c r="H1867" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1868" spans="1:8">
+      <c r="I1867" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1867">
+        <v>0</v>
+      </c>
+      <c r="K1867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:11">
       <c r="A1868" s="2">
         <v>0</v>
       </c>
@@ -66208,8 +67018,17 @@
       <c r="H1868" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1869" spans="1:8">
+      <c r="I1868" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1868">
+        <v>0</v>
+      </c>
+      <c r="K1868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:11">
       <c r="A1869" s="2">
         <v>0</v>
       </c>
@@ -66234,8 +67053,17 @@
       <c r="H1869" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1870" spans="1:8">
+      <c r="I1869" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1869">
+        <v>1</v>
+      </c>
+      <c r="K1869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:11">
       <c r="A1870" s="2">
         <v>1</v>
       </c>
@@ -66261,7 +67089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1871" spans="1:8">
+    <row r="1871" spans="1:11">
       <c r="A1871" s="2">
         <v>1</v>
       </c>
@@ -66287,7 +67115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1872" spans="1:8">
+    <row r="1872" spans="1:11">
       <c r="A1872" s="2">
         <v>1</v>
       </c>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-5980" yWindow="120" windowWidth="15260" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="-6320" yWindow="0" windowWidth="15480" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2468,10 +2468,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G1862" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G1893" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1870" sqref="I1870"/>
+      <selection pane="bottomRight" activeCell="I1906" sqref="I1906"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -67088,6 +67088,15 @@
       <c r="H1870" t="s">
         <v>20</v>
       </c>
+      <c r="I1870" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1870">
+        <v>1</v>
+      </c>
+      <c r="K1870">
+        <v>0</v>
+      </c>
     </row>
     <row r="1871" spans="1:11">
       <c r="A1871" s="2">
@@ -67114,6 +67123,15 @@
       <c r="H1871" t="s">
         <v>17</v>
       </c>
+      <c r="I1871" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1871">
+        <v>1</v>
+      </c>
+      <c r="K1871">
+        <v>1</v>
+      </c>
     </row>
     <row r="1872" spans="1:11">
       <c r="A1872" s="2">
@@ -67140,8 +67158,17 @@
       <c r="H1872" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1873" spans="1:8">
+      <c r="I1872" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1872">
+        <v>0</v>
+      </c>
+      <c r="K1872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:11">
       <c r="A1873" s="2">
         <v>0</v>
       </c>
@@ -67166,8 +67193,17 @@
       <c r="H1873" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1874" spans="1:8">
+      <c r="I1873" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1873">
+        <v>1</v>
+      </c>
+      <c r="K1873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:11">
       <c r="A1874" s="2">
         <v>1</v>
       </c>
@@ -67192,8 +67228,17 @@
       <c r="H1874" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1875" spans="1:8">
+      <c r="I1874" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1874">
+        <v>1</v>
+      </c>
+      <c r="K1874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:11">
       <c r="A1875" s="2">
         <v>1</v>
       </c>
@@ -67218,8 +67263,17 @@
       <c r="H1875" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1876" spans="1:8">
+      <c r="I1875" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1875">
+        <v>0</v>
+      </c>
+      <c r="K1875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:11">
       <c r="A1876" s="2">
         <v>1</v>
       </c>
@@ -67244,8 +67298,17 @@
       <c r="H1876" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1877" spans="1:8">
+      <c r="I1876" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1876">
+        <v>1</v>
+      </c>
+      <c r="K1876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:11">
       <c r="A1877" s="2">
         <v>1</v>
       </c>
@@ -67270,8 +67333,17 @@
       <c r="H1877" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1878" spans="1:8">
+      <c r="I1877" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1877">
+        <v>1</v>
+      </c>
+      <c r="K1877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:11">
       <c r="A1878" s="2">
         <v>1</v>
       </c>
@@ -67296,8 +67368,17 @@
       <c r="H1878" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1879" spans="1:8">
+      <c r="I1878" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1878">
+        <v>1</v>
+      </c>
+      <c r="K1878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:11">
       <c r="A1879" s="2">
         <v>0</v>
       </c>
@@ -67322,8 +67403,17 @@
       <c r="H1879" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1880" spans="1:8">
+      <c r="I1879" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1879">
+        <v>0</v>
+      </c>
+      <c r="K1879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:11">
       <c r="A1880" s="2">
         <v>1</v>
       </c>
@@ -67348,8 +67438,17 @@
       <c r="H1880" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1881" spans="1:8">
+      <c r="I1880" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1880">
+        <v>0</v>
+      </c>
+      <c r="K1880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:11">
       <c r="A1881" s="2">
         <v>0</v>
       </c>
@@ -67374,8 +67473,17 @@
       <c r="H1881" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1882" spans="1:8">
+      <c r="I1881" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1881">
+        <v>0</v>
+      </c>
+      <c r="K1881">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:11">
       <c r="A1882" s="2">
         <v>1</v>
       </c>
@@ -67400,8 +67508,17 @@
       <c r="H1882" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1883" spans="1:8">
+      <c r="I1882" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1882">
+        <v>1</v>
+      </c>
+      <c r="K1882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:11">
       <c r="A1883" s="2">
         <v>1</v>
       </c>
@@ -67426,8 +67543,17 @@
       <c r="H1883" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1884" spans="1:8">
+      <c r="I1883" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1883">
+        <v>1</v>
+      </c>
+      <c r="K1883">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:11">
       <c r="A1884" s="2">
         <v>1</v>
       </c>
@@ -67452,8 +67578,17 @@
       <c r="H1884" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1885" spans="1:8">
+      <c r="I1884" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1884">
+        <v>1</v>
+      </c>
+      <c r="K1884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:11">
       <c r="A1885" s="2">
         <v>1</v>
       </c>
@@ -67478,8 +67613,17 @@
       <c r="H1885" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1886" spans="1:8">
+      <c r="I1885" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1885">
+        <v>1</v>
+      </c>
+      <c r="K1885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:11">
       <c r="A1886" s="2">
         <v>1</v>
       </c>
@@ -67504,8 +67648,17 @@
       <c r="H1886" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1887" spans="1:8">
+      <c r="I1886" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1886">
+        <v>0</v>
+      </c>
+      <c r="K1886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:11">
       <c r="A1887" s="2">
         <v>1</v>
       </c>
@@ -67530,8 +67683,17 @@
       <c r="H1887" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1888" spans="1:8">
+      <c r="I1887" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1887">
+        <v>1</v>
+      </c>
+      <c r="K1887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:11">
       <c r="A1888" s="2">
         <v>0</v>
       </c>
@@ -67556,8 +67718,17 @@
       <c r="H1888" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1889" spans="1:8">
+      <c r="I1888" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1888">
+        <v>0</v>
+      </c>
+      <c r="K1888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:11">
       <c r="A1889" s="2">
         <v>1</v>
       </c>
@@ -67582,8 +67753,17 @@
       <c r="H1889" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="1890" spans="1:8">
+      <c r="I1889" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1889">
+        <v>1</v>
+      </c>
+      <c r="K1889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:11">
       <c r="A1890" s="2">
         <v>1</v>
       </c>
@@ -67608,8 +67788,17 @@
       <c r="H1890" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1891" spans="1:8">
+      <c r="I1890" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1890">
+        <v>1</v>
+      </c>
+      <c r="K1890">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:11">
       <c r="A1891" s="2">
         <v>1</v>
       </c>
@@ -67634,8 +67823,17 @@
       <c r="H1891" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1892" spans="1:8">
+      <c r="I1891" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1891">
+        <v>1</v>
+      </c>
+      <c r="K1891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:11">
       <c r="A1892" s="2">
         <v>0</v>
       </c>
@@ -67660,8 +67858,17 @@
       <c r="H1892" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1893" spans="1:8">
+      <c r="I1892" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1892">
+        <v>0</v>
+      </c>
+      <c r="K1892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:11">
       <c r="A1893" s="2">
         <v>1</v>
       </c>
@@ -67686,8 +67893,17 @@
       <c r="H1893" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1894" spans="1:8">
+      <c r="I1893" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1893">
+        <v>1</v>
+      </c>
+      <c r="K1893">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:11">
       <c r="A1894" s="2">
         <v>1</v>
       </c>
@@ -67712,8 +67928,17 @@
       <c r="H1894" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1895" spans="1:8">
+      <c r="I1894" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1894">
+        <v>1</v>
+      </c>
+      <c r="K1894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:11">
       <c r="A1895" s="2">
         <v>1</v>
       </c>
@@ -67738,8 +67963,17 @@
       <c r="H1895" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1896" spans="1:8">
+      <c r="I1895" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1895">
+        <v>0</v>
+      </c>
+      <c r="K1895">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:11">
       <c r="A1896" s="2">
         <v>1</v>
       </c>
@@ -67764,8 +67998,17 @@
       <c r="H1896" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1897" spans="1:8">
+      <c r="I1896" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1896">
+        <v>1</v>
+      </c>
+      <c r="K1896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:11">
       <c r="A1897" s="2">
         <v>1</v>
       </c>
@@ -67790,8 +68033,17 @@
       <c r="H1897" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1898" spans="1:8">
+      <c r="I1897" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1897">
+        <v>1</v>
+      </c>
+      <c r="K1897">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:11">
       <c r="A1898" s="2">
         <v>1</v>
       </c>
@@ -67816,8 +68068,17 @@
       <c r="H1898" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1899" spans="1:8">
+      <c r="I1898" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1898">
+        <v>1</v>
+      </c>
+      <c r="K1898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:11">
       <c r="A1899" s="2">
         <v>1</v>
       </c>
@@ -67842,8 +68103,17 @@
       <c r="H1899" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1900" spans="1:8">
+      <c r="I1899" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1899">
+        <v>0</v>
+      </c>
+      <c r="K1899">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:11">
       <c r="A1900" s="2">
         <v>1</v>
       </c>
@@ -67868,8 +68138,17 @@
       <c r="H1900" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1901" spans="1:8">
+      <c r="I1900" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1900">
+        <v>1</v>
+      </c>
+      <c r="K1900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:11">
       <c r="A1901" s="2">
         <v>1</v>
       </c>
@@ -67894,8 +68173,17 @@
       <c r="H1901" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="1902" spans="1:8">
+      <c r="I1901" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1901">
+        <v>1</v>
+      </c>
+      <c r="K1901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:11">
       <c r="A1902" s="2">
         <v>1</v>
       </c>
@@ -67920,8 +68208,17 @@
       <c r="H1902" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1903" spans="1:8">
+      <c r="I1902" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1902">
+        <v>1</v>
+      </c>
+      <c r="K1902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:11">
       <c r="A1903" s="2">
         <v>0</v>
       </c>
@@ -67946,8 +68243,17 @@
       <c r="H1903" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1904" spans="1:8">
+      <c r="I1903" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1903">
+        <v>0</v>
+      </c>
+      <c r="K1903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:11">
       <c r="A1904" s="2">
         <v>1</v>
       </c>
@@ -67972,8 +68278,17 @@
       <c r="H1904" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1905" spans="1:8">
+      <c r="I1904" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1904">
+        <v>0</v>
+      </c>
+      <c r="K1904">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:11">
       <c r="A1905" s="2">
         <v>0</v>
       </c>
@@ -67998,8 +68313,17 @@
       <c r="H1905" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1906" spans="1:8">
+      <c r="I1905" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1905">
+        <v>0</v>
+      </c>
+      <c r="K1905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:11">
       <c r="A1906" s="2">
         <v>1</v>
       </c>
@@ -68025,7 +68349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1907" spans="1:8">
+    <row r="1907" spans="1:11">
       <c r="A1907" s="2">
         <v>1</v>
       </c>
@@ -68051,7 +68375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1908" spans="1:8">
+    <row r="1908" spans="1:11">
       <c r="A1908" s="2">
         <v>1</v>
       </c>
@@ -68077,7 +68401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1909" spans="1:8">
+    <row r="1909" spans="1:11">
       <c r="A1909" s="2">
         <v>1</v>
       </c>
@@ -68103,7 +68427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1910" spans="1:8">
+    <row r="1910" spans="1:11">
       <c r="A1910" s="2">
         <v>1</v>
       </c>
@@ -68129,7 +68453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1911" spans="1:8">
+    <row r="1911" spans="1:11">
       <c r="A1911" s="2">
         <v>1</v>
       </c>
@@ -68155,7 +68479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1912" spans="1:8">
+    <row r="1912" spans="1:11">
       <c r="A1912" s="2">
         <v>0</v>
       </c>
@@ -68181,7 +68505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1913" spans="1:8">
+    <row r="1913" spans="1:11">
       <c r="A1913" s="2">
         <v>1</v>
       </c>
@@ -68207,7 +68531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1914" spans="1:8">
+    <row r="1914" spans="1:11">
       <c r="A1914" s="2">
         <v>1</v>
       </c>
@@ -68233,7 +68557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1915" spans="1:8">
+    <row r="1915" spans="1:11">
       <c r="A1915" s="2">
         <v>1</v>
       </c>
@@ -68259,7 +68583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1916" spans="1:8">
+    <row r="1916" spans="1:11">
       <c r="A1916" s="2">
         <v>0</v>
       </c>
@@ -68285,7 +68609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1917" spans="1:8">
+    <row r="1917" spans="1:11">
       <c r="A1917" s="2">
         <v>1</v>
       </c>
@@ -68311,7 +68635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1918" spans="1:8">
+    <row r="1918" spans="1:11">
       <c r="A1918" s="2">
         <v>1</v>
       </c>
@@ -68337,7 +68661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1919" spans="1:8">
+    <row r="1919" spans="1:11">
       <c r="A1919" s="2">
         <v>1</v>
       </c>
@@ -68363,7 +68687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1920" spans="1:8">
+    <row r="1920" spans="1:11">
       <c r="A1920" s="2">
         <v>1</v>
       </c>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-6320" yWindow="0" windowWidth="15480" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="-3100" yWindow="0" windowWidth="15500" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2468,10 +2468,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G1893" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G890" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1906" sqref="I1906"/>
+      <selection pane="bottomRight" activeCell="K898" sqref="K898"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -33099,6 +33099,12 @@
       <c r="I894" s="1">
         <v>1</v>
       </c>
+      <c r="J894">
+        <v>1</v>
+      </c>
+      <c r="K894">
+        <v>0</v>
+      </c>
     </row>
     <row r="895" spans="1:11">
       <c r="A895" s="2">
@@ -33125,6 +33131,15 @@
       <c r="H895" t="s">
         <v>13</v>
       </c>
+      <c r="I895" s="1">
+        <v>1</v>
+      </c>
+      <c r="J895">
+        <v>0</v>
+      </c>
+      <c r="K895">
+        <v>0</v>
+      </c>
     </row>
     <row r="896" spans="1:11">
       <c r="A896" s="2">
@@ -33151,8 +33166,17 @@
       <c r="H896" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="897" spans="1:8">
+      <c r="I896" s="1">
+        <v>1</v>
+      </c>
+      <c r="J896">
+        <v>0</v>
+      </c>
+      <c r="K896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="1:11">
       <c r="A897" s="2">
         <v>0</v>
       </c>
@@ -33177,8 +33201,17 @@
       <c r="H897" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="898" spans="1:8">
+      <c r="I897" s="1">
+        <v>0</v>
+      </c>
+      <c r="J897">
+        <v>0</v>
+      </c>
+      <c r="K897">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="1:11">
       <c r="A898" s="2">
         <v>1</v>
       </c>
@@ -33204,7 +33237,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="899" spans="1:8">
+    <row r="899" spans="1:11">
       <c r="A899" s="2">
         <v>1</v>
       </c>
@@ -33230,7 +33263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="900" spans="1:8">
+    <row r="900" spans="1:11">
       <c r="A900" s="2">
         <v>1</v>
       </c>
@@ -33256,7 +33289,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="901" spans="1:8">
+    <row r="901" spans="1:11">
       <c r="A901" s="2">
         <v>1</v>
       </c>
@@ -33282,7 +33315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="902" spans="1:8">
+    <row r="902" spans="1:11">
       <c r="A902" s="2">
         <v>1</v>
       </c>
@@ -33308,7 +33341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="903" spans="1:8">
+    <row r="903" spans="1:11">
       <c r="A903" s="2">
         <v>1</v>
       </c>
@@ -33334,7 +33367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="904" spans="1:8">
+    <row r="904" spans="1:11">
       <c r="A904" s="2">
         <v>0</v>
       </c>
@@ -33360,7 +33393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="905" spans="1:8">
+    <row r="905" spans="1:11">
       <c r="A905" s="2">
         <v>1</v>
       </c>
@@ -33386,7 +33419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="906" spans="1:8">
+    <row r="906" spans="1:11">
       <c r="A906" s="2">
         <v>1</v>
       </c>
@@ -33412,7 +33445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="907" spans="1:8">
+    <row r="907" spans="1:11">
       <c r="A907" s="2">
         <v>1</v>
       </c>
@@ -33438,7 +33471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="908" spans="1:8">
+    <row r="908" spans="1:11">
       <c r="A908" s="2">
         <v>0</v>
       </c>
@@ -33464,7 +33497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="909" spans="1:8">
+    <row r="909" spans="1:11">
       <c r="A909" s="2">
         <v>1</v>
       </c>
@@ -33490,7 +33523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="910" spans="1:8">
+    <row r="910" spans="1:11">
       <c r="A910" s="2">
         <v>1</v>
       </c>
@@ -33516,7 +33549,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="911" spans="1:8">
+    <row r="911" spans="1:11">
       <c r="A911" s="2">
         <v>1</v>
       </c>
@@ -33542,7 +33575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="912" spans="1:8">
+    <row r="912" spans="1:11">
       <c r="A912" s="2">
         <v>1</v>
       </c>
@@ -68348,6 +68381,15 @@
       <c r="H1906" t="s">
         <v>17</v>
       </c>
+      <c r="I1906" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1906">
+        <v>1</v>
+      </c>
+      <c r="K1906">
+        <v>1</v>
+      </c>
     </row>
     <row r="1907" spans="1:11">
       <c r="A1907" s="2">
@@ -68374,6 +68416,15 @@
       <c r="H1907" t="s">
         <v>17</v>
       </c>
+      <c r="I1907" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1907">
+        <v>1</v>
+      </c>
+      <c r="K1907">
+        <v>1</v>
+      </c>
     </row>
     <row r="1908" spans="1:11">
       <c r="A1908" s="2">
@@ -68400,6 +68451,15 @@
       <c r="H1908" t="s">
         <v>17</v>
       </c>
+      <c r="I1908" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1908">
+        <v>1</v>
+      </c>
+      <c r="K1908">
+        <v>0</v>
+      </c>
     </row>
     <row r="1909" spans="1:11">
       <c r="A1909" s="2">
@@ -68426,6 +68486,15 @@
       <c r="H1909" t="s">
         <v>17</v>
       </c>
+      <c r="I1909" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1909">
+        <v>1</v>
+      </c>
+      <c r="K1909">
+        <v>1</v>
+      </c>
     </row>
     <row r="1910" spans="1:11">
       <c r="A1910" s="2">
@@ -68452,6 +68521,15 @@
       <c r="H1910" t="s">
         <v>13</v>
       </c>
+      <c r="I1910" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1910">
+        <v>0</v>
+      </c>
+      <c r="K1910">
+        <v>0</v>
+      </c>
     </row>
     <row r="1911" spans="1:11">
       <c r="A1911" s="2">
@@ -68478,6 +68556,15 @@
       <c r="H1911" t="s">
         <v>17</v>
       </c>
+      <c r="I1911" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1911">
+        <v>1</v>
+      </c>
+      <c r="K1911">
+        <v>1</v>
+      </c>
     </row>
     <row r="1912" spans="1:11">
       <c r="A1912" s="2">
@@ -68504,6 +68591,15 @@
       <c r="H1912" t="s">
         <v>13</v>
       </c>
+      <c r="I1912" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1912">
+        <v>0</v>
+      </c>
+      <c r="K1912">
+        <v>0</v>
+      </c>
     </row>
     <row r="1913" spans="1:11">
       <c r="A1913" s="2">
@@ -68530,6 +68626,15 @@
       <c r="H1913" t="s">
         <v>20</v>
       </c>
+      <c r="I1913" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1913">
+        <v>1</v>
+      </c>
+      <c r="K1913">
+        <v>0</v>
+      </c>
     </row>
     <row r="1914" spans="1:11">
       <c r="A1914" s="2">
@@ -68556,6 +68661,15 @@
       <c r="H1914" t="s">
         <v>17</v>
       </c>
+      <c r="I1914" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1914">
+        <v>1</v>
+      </c>
+      <c r="K1914">
+        <v>1</v>
+      </c>
     </row>
     <row r="1915" spans="1:11">
       <c r="A1915" s="2">
@@ -68582,6 +68696,15 @@
       <c r="H1915" t="s">
         <v>20</v>
       </c>
+      <c r="I1915" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1915">
+        <v>1</v>
+      </c>
+      <c r="K1915">
+        <v>0</v>
+      </c>
     </row>
     <row r="1916" spans="1:11">
       <c r="A1916" s="2">
@@ -68608,6 +68731,15 @@
       <c r="H1916" t="s">
         <v>13</v>
       </c>
+      <c r="I1916" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1916">
+        <v>0</v>
+      </c>
+      <c r="K1916">
+        <v>0</v>
+      </c>
     </row>
     <row r="1917" spans="1:11">
       <c r="A1917" s="2">
@@ -68634,6 +68766,15 @@
       <c r="H1917" t="s">
         <v>20</v>
       </c>
+      <c r="I1917" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1917">
+        <v>1</v>
+      </c>
+      <c r="K1917">
+        <v>0</v>
+      </c>
     </row>
     <row r="1918" spans="1:11">
       <c r="A1918" s="2">
@@ -68660,6 +68801,15 @@
       <c r="H1918" t="s">
         <v>17</v>
       </c>
+      <c r="I1918" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1918">
+        <v>1</v>
+      </c>
+      <c r="K1918">
+        <v>1</v>
+      </c>
     </row>
     <row r="1919" spans="1:11">
       <c r="A1919" s="2">
@@ -68686,6 +68836,15 @@
       <c r="H1919" t="s">
         <v>13</v>
       </c>
+      <c r="I1919" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1919">
+        <v>1</v>
+      </c>
+      <c r="K1919">
+        <v>0</v>
+      </c>
     </row>
     <row r="1920" spans="1:11">
       <c r="A1920" s="2">
@@ -68712,8 +68871,17 @@
       <c r="H1920" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1921" spans="1:8">
+      <c r="I1920" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1920">
+        <v>1</v>
+      </c>
+      <c r="K1920">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:11">
       <c r="A1921" s="2">
         <v>1</v>
       </c>
@@ -68738,8 +68906,17 @@
       <c r="H1921" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1922" spans="1:8">
+      <c r="I1921" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1921">
+        <v>1</v>
+      </c>
+      <c r="K1921">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:11">
       <c r="A1922" s="2">
         <v>1</v>
       </c>
@@ -68764,8 +68941,17 @@
       <c r="H1922" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1923" spans="1:8">
+      <c r="I1922" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1922">
+        <v>1</v>
+      </c>
+      <c r="K1922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:11">
       <c r="A1923" s="2">
         <v>0</v>
       </c>
@@ -68790,8 +68976,17 @@
       <c r="H1923" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1924" spans="1:8">
+      <c r="I1923" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1923">
+        <v>1</v>
+      </c>
+      <c r="K1923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:11">
       <c r="A1924" s="2">
         <v>1</v>
       </c>
@@ -68816,8 +69011,17 @@
       <c r="H1924" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1925" spans="1:8">
+      <c r="I1924" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1924">
+        <v>0</v>
+      </c>
+      <c r="K1924">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:11">
       <c r="A1925" s="2">
         <v>0</v>
       </c>
@@ -68842,8 +69046,17 @@
       <c r="H1925" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1926" spans="1:8">
+      <c r="I1925" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1925">
+        <v>1</v>
+      </c>
+      <c r="K1925">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:11">
       <c r="A1926" s="2">
         <v>1</v>
       </c>
@@ -68868,8 +69081,17 @@
       <c r="H1926" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1927" spans="1:8">
+      <c r="I1926" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1926">
+        <v>1</v>
+      </c>
+      <c r="K1926">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:11">
       <c r="A1927" s="2">
         <v>0</v>
       </c>
@@ -68894,8 +69116,17 @@
       <c r="H1927" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1928" spans="1:8">
+      <c r="I1927" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1927">
+        <v>0</v>
+      </c>
+      <c r="K1927">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:11">
       <c r="A1928" s="2">
         <v>0</v>
       </c>
@@ -68920,8 +69151,17 @@
       <c r="H1928" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1929" spans="1:8">
+      <c r="I1928" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1928">
+        <v>1</v>
+      </c>
+      <c r="K1928">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:11">
       <c r="A1929" s="2">
         <v>1</v>
       </c>
@@ -68946,8 +69186,17 @@
       <c r="H1929" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1930" spans="1:8">
+      <c r="I1929" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1929">
+        <v>1</v>
+      </c>
+      <c r="K1929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:11">
       <c r="A1930" s="2">
         <v>0</v>
       </c>
@@ -68972,8 +69221,17 @@
       <c r="H1930" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1931" spans="1:8">
+      <c r="I1930" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1930">
+        <v>1</v>
+      </c>
+      <c r="K1930">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:11">
       <c r="A1931" s="2">
         <v>0</v>
       </c>
@@ -68998,8 +69256,17 @@
       <c r="H1931" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1932" spans="1:8">
+      <c r="I1931" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1931">
+        <v>0</v>
+      </c>
+      <c r="K1931">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:11">
       <c r="A1932" s="2">
         <v>0</v>
       </c>
@@ -69024,8 +69291,17 @@
       <c r="H1932" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="1933" spans="1:8">
+      <c r="I1932" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1932">
+        <v>1</v>
+      </c>
+      <c r="K1932">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:11">
       <c r="A1933" s="2">
         <v>1</v>
       </c>
@@ -69050,8 +69326,17 @@
       <c r="H1933" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1934" spans="1:8">
+      <c r="I1933" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1933">
+        <v>1</v>
+      </c>
+      <c r="K1933">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:11">
       <c r="A1934" s="2">
         <v>0</v>
       </c>
@@ -69076,8 +69361,17 @@
       <c r="H1934" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="1935" spans="1:8">
+      <c r="I1934" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1934">
+        <v>0</v>
+      </c>
+      <c r="K1934">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:11">
       <c r="A1935" s="2">
         <v>1</v>
       </c>
@@ -69102,8 +69396,17 @@
       <c r="H1935" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1936" spans="1:8">
+      <c r="I1935" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1935">
+        <v>1</v>
+      </c>
+      <c r="K1935">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:11">
       <c r="A1936" s="2">
         <v>1</v>
       </c>
@@ -69128,8 +69431,17 @@
       <c r="H1936" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1937" spans="1:8">
+      <c r="I1936" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1936">
+        <v>1</v>
+      </c>
+      <c r="K1936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:11">
       <c r="A1937" s="2">
         <v>0</v>
       </c>
@@ -69154,8 +69466,17 @@
       <c r="H1937" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1938" spans="1:8">
+      <c r="I1937" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1937">
+        <v>1</v>
+      </c>
+      <c r="K1937">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:11">
       <c r="A1938" s="2">
         <v>0</v>
       </c>
@@ -69180,8 +69501,17 @@
       <c r="H1938" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1939" spans="1:8">
+      <c r="I1938" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1938">
+        <v>0</v>
+      </c>
+      <c r="K1938">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:11">
       <c r="A1939" s="2">
         <v>0</v>
       </c>
@@ -69206,8 +69536,17 @@
       <c r="H1939" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1940" spans="1:8">
+      <c r="I1939" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1939">
+        <v>0</v>
+      </c>
+      <c r="K1939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:11">
       <c r="A1940" s="2">
         <v>0</v>
       </c>
@@ -69232,8 +69571,17 @@
       <c r="H1940" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1941" spans="1:8">
+      <c r="I1940" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1940">
+        <v>0</v>
+      </c>
+      <c r="K1940">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:11">
       <c r="A1941" s="2">
         <v>1</v>
       </c>
@@ -69258,8 +69606,17 @@
       <c r="H1941" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1942" spans="1:8">
+      <c r="I1941" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1941">
+        <v>1</v>
+      </c>
+      <c r="K1941">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:11">
       <c r="A1942" s="2">
         <v>0</v>
       </c>
@@ -69284,8 +69641,17 @@
       <c r="H1942" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1943" spans="1:8">
+      <c r="I1942" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1942">
+        <v>1</v>
+      </c>
+      <c r="K1942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:11">
       <c r="A1943" s="2">
         <v>1</v>
       </c>
@@ -69310,8 +69676,17 @@
       <c r="H1943" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1944" spans="1:8">
+      <c r="I1943" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1943">
+        <v>1</v>
+      </c>
+      <c r="K1943">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:11">
       <c r="A1944" s="2">
         <v>0</v>
       </c>
@@ -69336,8 +69711,17 @@
       <c r="H1944" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1945" spans="1:8">
+      <c r="I1944" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1944">
+        <v>0</v>
+      </c>
+      <c r="K1944">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:11">
       <c r="A1945" s="2">
         <v>0</v>
       </c>
@@ -69362,8 +69746,17 @@
       <c r="H1945" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1946" spans="1:8">
+      <c r="I1945" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1945">
+        <v>1</v>
+      </c>
+      <c r="K1945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:11">
       <c r="A1946" s="2">
         <v>1</v>
       </c>
@@ -69388,8 +69781,17 @@
       <c r="H1946" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="1947" spans="1:8">
+      <c r="I1946" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1946">
+        <v>1</v>
+      </c>
+      <c r="K1946">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:11">
       <c r="A1947" s="2">
         <v>1</v>
       </c>
@@ -69414,8 +69816,17 @@
       <c r="H1947" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1948" spans="1:8">
+      <c r="I1947" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1947">
+        <v>0</v>
+      </c>
+      <c r="K1947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:11">
       <c r="A1948" s="2">
         <v>1</v>
       </c>
@@ -69440,8 +69851,17 @@
       <c r="H1948" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1949" spans="1:8">
+      <c r="I1948" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1948">
+        <v>0</v>
+      </c>
+      <c r="K1948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:11">
       <c r="A1949" s="2">
         <v>1</v>
       </c>
@@ -69466,8 +69886,17 @@
       <c r="H1949" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1950" spans="1:8">
+      <c r="I1949" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1949">
+        <v>0</v>
+      </c>
+      <c r="K1949">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:11">
       <c r="A1950" s="2">
         <v>1</v>
       </c>
@@ -69492,8 +69921,17 @@
       <c r="H1950" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1951" spans="1:8">
+      <c r="I1950" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1950">
+        <v>1</v>
+      </c>
+      <c r="K1950">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:11">
       <c r="A1951" s="2">
         <v>0</v>
       </c>
@@ -69518,8 +69956,17 @@
       <c r="H1951" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1952" spans="1:8">
+      <c r="I1951" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1951">
+        <v>0</v>
+      </c>
+      <c r="K1951">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:11">
       <c r="A1952" s="2">
         <v>1</v>
       </c>
@@ -69544,8 +69991,17 @@
       <c r="H1952" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1953" spans="1:8">
+      <c r="I1952" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1952">
+        <v>1</v>
+      </c>
+      <c r="K1952">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:11">
       <c r="A1953" s="2">
         <v>1</v>
       </c>
@@ -69570,8 +70026,17 @@
       <c r="H1953" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1954" spans="1:8">
+      <c r="I1953" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1953">
+        <v>0</v>
+      </c>
+      <c r="K1953">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:11">
       <c r="A1954" s="2">
         <v>1</v>
       </c>
@@ -69596,8 +70061,17 @@
       <c r="H1954" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1955" spans="1:8">
+      <c r="I1954" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1954">
+        <v>0</v>
+      </c>
+      <c r="K1954">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:11">
       <c r="A1955" s="2">
         <v>0</v>
       </c>
@@ -69622,8 +70096,17 @@
       <c r="H1955" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1956" spans="1:8">
+      <c r="I1955" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1955">
+        <v>0</v>
+      </c>
+      <c r="K1955">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:11">
       <c r="A1956" s="2">
         <v>1</v>
       </c>
@@ -69648,8 +70131,17 @@
       <c r="H1956" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1957" spans="1:8">
+      <c r="I1956" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1956">
+        <v>0</v>
+      </c>
+      <c r="K1956">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:11">
       <c r="A1957" s="2">
         <v>1</v>
       </c>
@@ -69674,8 +70166,17 @@
       <c r="H1957" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1958" spans="1:8">
+      <c r="I1957" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1957">
+        <v>0</v>
+      </c>
+      <c r="K1957">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:11">
       <c r="A1958" s="2">
         <v>1</v>
       </c>
@@ -69700,8 +70201,17 @@
       <c r="H1958" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1959" spans="1:8">
+      <c r="I1958" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1958">
+        <v>0</v>
+      </c>
+      <c r="K1958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:11">
       <c r="A1959" s="2">
         <v>1</v>
       </c>
@@ -69726,8 +70236,17 @@
       <c r="H1959" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1960" spans="1:8">
+      <c r="I1959" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1959">
+        <v>1</v>
+      </c>
+      <c r="K1959">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:11">
       <c r="A1960" s="2">
         <v>1</v>
       </c>
@@ -69752,8 +70271,17 @@
       <c r="H1960" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1961" spans="1:8">
+      <c r="I1960" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1960">
+        <v>1</v>
+      </c>
+      <c r="K1960">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:11">
       <c r="A1961" s="2">
         <v>1</v>
       </c>
@@ -69778,8 +70306,17 @@
       <c r="H1961" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1962" spans="1:8">
+      <c r="I1961" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1961">
+        <v>0</v>
+      </c>
+      <c r="K1961">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:11">
       <c r="A1962" s="2">
         <v>0</v>
       </c>
@@ -69804,8 +70341,17 @@
       <c r="H1962" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1963" spans="1:8">
+      <c r="I1962" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1962">
+        <v>0</v>
+      </c>
+      <c r="K1962">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:11">
       <c r="A1963" s="2">
         <v>1</v>
       </c>
@@ -69830,8 +70376,17 @@
       <c r="H1963" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1964" spans="1:8">
+      <c r="I1963" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1963">
+        <v>0</v>
+      </c>
+      <c r="K1963">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:11">
       <c r="A1964" s="2">
         <v>0</v>
       </c>
@@ -69856,8 +70411,17 @@
       <c r="H1964" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1965" spans="1:8">
+      <c r="I1964" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1964">
+        <v>0</v>
+      </c>
+      <c r="K1964">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:11">
       <c r="A1965" s="2">
         <v>1</v>
       </c>
@@ -69882,8 +70446,17 @@
       <c r="H1965" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1966" spans="1:8">
+      <c r="I1965" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1965">
+        <v>0</v>
+      </c>
+      <c r="K1965">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:11">
       <c r="A1966" s="2">
         <v>1</v>
       </c>
@@ -69908,8 +70481,17 @@
       <c r="H1966" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="1967" spans="1:8">
+      <c r="I1966" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1966">
+        <v>0</v>
+      </c>
+      <c r="K1966">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:11">
       <c r="A1967" s="2">
         <v>1</v>
       </c>
@@ -69934,8 +70516,17 @@
       <c r="H1967" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="1968" spans="1:8">
+      <c r="I1967" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1967">
+        <v>0</v>
+      </c>
+      <c r="K1967">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:11">
       <c r="A1968" s="2">
         <v>1</v>
       </c>
@@ -69960,8 +70551,17 @@
       <c r="H1968" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="1969" spans="1:8">
+      <c r="I1968" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1968">
+        <v>0</v>
+      </c>
+      <c r="K1968">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:11">
       <c r="A1969" s="2">
         <v>1</v>
       </c>
@@ -69985,6 +70585,15 @@
       </c>
       <c r="H1969" t="s">
         <v>642</v>
+      </c>
+      <c r="I1969" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1969">
+        <v>1</v>
+      </c>
+      <c r="K1969">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
+++ b/Production-Casemarking/Analysis - Post Blindcoding/EmbodimentHallRecode_Taylor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-3100" yWindow="0" windowWidth="15500" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="2120" yWindow="0" windowWidth="15500" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7123" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7114" uniqueCount="648">
   <si>
     <t>Agent.Embod</t>
   </si>
@@ -2468,10 +2468,10 @@
   <dimension ref="A1:L1969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G890" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G1198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K898" sqref="K898"/>
+      <selection pane="bottomRight" activeCell="J1198" sqref="J1198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7588,6 +7588,15 @@
       <c r="H146" t="s">
         <v>20</v>
       </c>
+      <c r="I146" s="1">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="2" t="s">
@@ -7614,6 +7623,15 @@
       <c r="H147" t="s">
         <v>84</v>
       </c>
+      <c r="I147" s="1">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="2" t="s">
@@ -7640,6 +7658,15 @@
       <c r="H148" t="s">
         <v>20</v>
       </c>
+      <c r="I148" s="1">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="2" t="s">
@@ -7666,6 +7693,15 @@
       <c r="H149" t="s">
         <v>74</v>
       </c>
+      <c r="I149" s="1">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="2" t="s">
@@ -7692,6 +7728,15 @@
       <c r="H150" t="s">
         <v>74</v>
       </c>
+      <c r="I150" s="1">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="2" t="s">
@@ -7718,6 +7763,15 @@
       <c r="H151" t="s">
         <v>13</v>
       </c>
+      <c r="I151" s="1">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="2" t="s">
@@ -7744,6 +7798,15 @@
       <c r="H152" t="s">
         <v>13</v>
       </c>
+      <c r="I152" s="1">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="2" t="s">
@@ -7770,6 +7833,15 @@
       <c r="H153" t="s">
         <v>13</v>
       </c>
+      <c r="I153" s="1">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="2" t="s">
@@ -7796,6 +7868,15 @@
       <c r="H154" t="s">
         <v>20</v>
       </c>
+      <c r="I154" s="1">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="2" t="s">
@@ -7822,6 +7903,15 @@
       <c r="H155" t="s">
         <v>20</v>
       </c>
+      <c r="I155" s="1">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="2" t="s">
@@ -7848,6 +7938,15 @@
       <c r="H156" t="s">
         <v>74</v>
       </c>
+      <c r="I156" s="1">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="2" t="s">
@@ -7874,6 +7973,15 @@
       <c r="H157" t="s">
         <v>74</v>
       </c>
+      <c r="I157" s="1">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="2" t="s">
@@ -7900,6 +8008,15 @@
       <c r="H158" t="s">
         <v>13</v>
       </c>
+      <c r="I158" s="1">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="2" t="s">
@@ -7926,6 +8043,15 @@
       <c r="H159" t="s">
         <v>20</v>
       </c>
+      <c r="I159" s="1">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="2" t="s">
@@ -7952,8 +8078,17 @@
       <c r="H160" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="I160" s="1">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2" t="s">
         <v>82</v>
       </c>
@@ -7978,8 +8113,17 @@
       <c r="H161" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="I161" s="1">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2" t="s">
         <v>82</v>
       </c>
@@ -8004,8 +8148,17 @@
       <c r="H162" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="I162" s="1">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2" t="s">
         <v>82</v>
       </c>
@@ -8030,8 +8183,17 @@
       <c r="H163" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="I163" s="1">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2" t="s">
         <v>82</v>
       </c>
@@ -8056,8 +8218,17 @@
       <c r="H164" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="I164" s="1">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2" t="s">
         <v>82</v>
       </c>
@@ -8082,8 +8253,17 @@
       <c r="H165" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="I165" s="1">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2" t="s">
         <v>82</v>
       </c>
@@ -8108,8 +8288,17 @@
       <c r="H166" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="I166" s="1">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2" t="s">
         <v>82</v>
       </c>
@@ -8134,8 +8323,17 @@
       <c r="H167" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="I167" s="1">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2" t="s">
         <v>82</v>
       </c>
@@ -8160,8 +8358,17 @@
       <c r="H168" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="I168" s="1">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2" t="s">
         <v>82</v>
       </c>
@@ -8186,8 +8393,17 @@
       <c r="H169" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="I169" s="1">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2" t="s">
         <v>82</v>
       </c>
@@ -8212,8 +8428,17 @@
       <c r="H170" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="I170" s="1">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2" t="s">
         <v>82</v>
       </c>
@@ -8238,8 +8463,17 @@
       <c r="H171" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="I171" s="1">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2" t="s">
         <v>82</v>
       </c>
@@ -8264,8 +8498,17 @@
       <c r="H172" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="I172" s="1">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2" t="s">
         <v>82</v>
       </c>
@@ -8290,8 +8533,17 @@
       <c r="H173" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="I173" s="1">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2" t="s">
         <v>82</v>
       </c>
@@ -8316,8 +8568,17 @@
       <c r="H174" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="I174" s="1">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2" t="s">
         <v>82</v>
       </c>
@@ -8342,8 +8603,17 @@
       <c r="H175" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="I175" s="1">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2" t="s">
         <v>82</v>
       </c>
@@ -8368,8 +8638,17 @@
       <c r="H176" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="I176" s="1">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2" t="s">
         <v>82</v>
       </c>
@@ -8394,8 +8673,17 @@
       <c r="H177" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="178" spans="1:8">
+      <c r="I177" s="1">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2" t="s">
         <v>82</v>
       </c>
@@ -8420,8 +8708,17 @@
       <c r="H178" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="I178" s="1">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2" t="s">
         <v>82</v>
       </c>
@@ -8446,8 +8743,17 @@
       <c r="H179" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="I179" s="1">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2" t="s">
         <v>82</v>
       </c>
@@ -8472,8 +8778,17 @@
       <c r="H180" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="I180" s="1">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2" t="s">
         <v>82</v>
       </c>
@@ -8498,8 +8813,17 @@
       <c r="H181" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="I181" s="1">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2" t="s">
         <v>82</v>
       </c>
@@ -8524,8 +8848,17 @@
       <c r="H182" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="I182" s="1">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2" t="s">
         <v>82</v>
       </c>
@@ -8550,8 +8883,17 @@
       <c r="H183" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="I183" s="1">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2" t="s">
         <v>82</v>
       </c>
@@ -8576,8 +8918,17 @@
       <c r="H184" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="I184" s="1">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2" t="s">
         <v>82</v>
       </c>
@@ -8602,8 +8953,17 @@
       <c r="H185" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="186" spans="1:8">
+      <c r="I185" s="1">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2" t="s">
         <v>82</v>
       </c>
@@ -8628,8 +8988,17 @@
       <c r="H186" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="I186" s="1">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2" t="s">
         <v>82</v>
       </c>
@@ -8654,8 +9023,17 @@
       <c r="H187" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="I187" s="1">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2" t="s">
         <v>82</v>
       </c>
@@ -8680,8 +9058,17 @@
       <c r="H188" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="I188" s="1">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2" t="s">
         <v>82</v>
       </c>
@@ -8706,8 +9093,17 @@
       <c r="H189" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="I189" s="1">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2" t="s">
         <v>82</v>
       </c>
@@ -8732,8 +9128,17 @@
       <c r="H190" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="I190" s="1">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2" t="s">
         <v>82</v>
       </c>
@@ -8758,8 +9163,17 @@
       <c r="H191" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="192" spans="1:8">
+      <c r="I191" s="1">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2" t="s">
         <v>82</v>
       </c>
@@ -8784,6 +9198,15 @@
       <c r="H192" t="s">
         <v>102</v>
       </c>
+      <c r="I192" s="1">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="2" t="s">
@@ -8809,6 +9232,15 @@
       </c>
       <c r="H193" t="s">
         <v>102</v>
+      </c>
+      <c r="I193" s="1">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -33236,6 +33668,15 @@
       <c r="H898" t="s">
         <v>310</v>
       </c>
+      <c r="I898" s="1">
+        <v>1</v>
+      </c>
+      <c r="J898">
+        <v>1</v>
+      </c>
+      <c r="K898">
+        <v>1</v>
+      </c>
     </row>
     <row r="899" spans="1:11">
       <c r="A899" s="2">
@@ -33262,6 +33703,15 @@
       <c r="H899" t="s">
         <v>20</v>
       </c>
+      <c r="I899" s="1">
+        <v>1</v>
+      </c>
+      <c r="J899">
+        <v>1</v>
+      </c>
+      <c r="K899">
+        <v>1</v>
+      </c>
     </row>
     <row r="900" spans="1:11">
       <c r="A900" s="2">
@@ -33288,6 +33738,15 @@
       <c r="H900" t="s">
         <v>311</v>
       </c>
+      <c r="I900" s="1">
+        <v>1</v>
+      </c>
+      <c r="J900">
+        <v>1</v>
+      </c>
+      <c r="K900">
+        <v>0</v>
+      </c>
     </row>
     <row r="901" spans="1:11">
       <c r="A901" s="2">
@@ -33314,6 +33773,15 @@
       <c r="H901" t="s">
         <v>20</v>
       </c>
+      <c r="I901" s="1">
+        <v>1</v>
+      </c>
+      <c r="J901">
+        <v>0</v>
+      </c>
+      <c r="K901">
+        <v>1</v>
+      </c>
     </row>
     <row r="902" spans="1:11">
       <c r="A902" s="2">
@@ -33340,6 +33808,15 @@
       <c r="H902" t="s">
         <v>13</v>
       </c>
+      <c r="I902" s="1">
+        <v>1</v>
+      </c>
+      <c r="J902">
+        <v>0</v>
+      </c>
+      <c r="K902">
+        <v>0</v>
+      </c>
     </row>
     <row r="903" spans="1:11">
       <c r="A903" s="2">
@@ -33366,6 +33843,15 @@
       <c r="H903" t="s">
         <v>20</v>
       </c>
+      <c r="I903" s="1">
+        <v>1</v>
+      </c>
+      <c r="J903">
+        <v>1</v>
+      </c>
+      <c r="K903">
+        <v>1</v>
+      </c>
     </row>
     <row r="904" spans="1:11">
       <c r="A904" s="2">
@@ -33392,6 +33878,15 @@
       <c r="H904" t="s">
         <v>13</v>
       </c>
+      <c r="I904" s="1">
+        <v>0</v>
+      </c>
+      <c r="J904">
+        <v>0</v>
+      </c>
+      <c r="K904">
+        <v>0</v>
+      </c>
     </row>
     <row r="905" spans="1:11">
       <c r="A905" s="2">
@@ -33418,6 +33913,15 @@
       <c r="H905" t="s">
         <v>20</v>
       </c>
+      <c r="I905" s="1">
+        <v>1</v>
+      </c>
+      <c r="J905">
+        <v>1</v>
+      </c>
+      <c r="K905">
+        <v>0</v>
+      </c>
     </row>
     <row r="906" spans="1:11">
       <c r="A906" s="2">
@@ -33444,6 +33948,15 @@
       <c r="H906" t="s">
         <v>20</v>
       </c>
+      <c r="I906" s="1">
+        <v>1</v>
+      </c>
+      <c r="J906">
+        <v>1</v>
+      </c>
+      <c r="K906">
+        <v>1</v>
+      </c>
     </row>
     <row r="907" spans="1:11">
       <c r="A907" s="2">
@@ -33470,6 +33983,15 @@
       <c r="H907" t="s">
         <v>20</v>
       </c>
+      <c r="I907" s="1">
+        <v>1</v>
+      </c>
+      <c r="J907">
+        <v>1</v>
+      </c>
+      <c r="K907">
+        <v>1</v>
+      </c>
     </row>
     <row r="908" spans="1:11">
       <c r="A908" s="2">
@@ -33496,6 +34018,15 @@
       <c r="H908" t="s">
         <v>13</v>
       </c>
+      <c r="I908" s="1">
+        <v>0</v>
+      </c>
+      <c r="J908">
+        <v>0</v>
+      </c>
+      <c r="K908">
+        <v>0</v>
+      </c>
     </row>
     <row r="909" spans="1:11">
       <c r="A909" s="2">
@@ -33522,6 +34053,15 @@
       <c r="H909" t="s">
         <v>20</v>
       </c>
+      <c r="I909" s="1">
+        <v>1</v>
+      </c>
+      <c r="J909">
+        <v>1</v>
+      </c>
+      <c r="K909">
+        <v>0</v>
+      </c>
     </row>
     <row r="910" spans="1:11">
       <c r="A910" s="2">
@@ -33548,6 +34088,15 @@
       <c r="H910" t="s">
         <v>304</v>
       </c>
+      <c r="I910" s="1">
+        <v>1</v>
+      </c>
+      <c r="J910">
+        <v>1</v>
+      </c>
+      <c r="K910">
+        <v>1</v>
+      </c>
     </row>
     <row r="911" spans="1:11">
       <c r="A911" s="2">
@@ -33574,6 +34123,15 @@
       <c r="H911" t="s">
         <v>13</v>
       </c>
+      <c r="I911" s="1">
+        <v>1</v>
+      </c>
+      <c r="J911">
+        <v>0</v>
+      </c>
+      <c r="K911">
+        <v>0</v>
+      </c>
     </row>
     <row r="912" spans="1:11">
       <c r="A912" s="2">
@@ -33600,6 +34158,15 @@
       <c r="H912" t="s">
         <v>20</v>
       </c>
+      <c r="I912" s="1">
+        <v>1</v>
+      </c>
+      <c r="J912">
+        <v>1</v>
+      </c>
+      <c r="K912">
+        <v>0</v>
+      </c>
     </row>
     <row r="913" spans="1:11">
       <c r="A913" s="2">
@@ -33625,6 +34192,15 @@
       </c>
       <c r="H913" t="s">
         <v>20</v>
+      </c>
+      <c r="I913" s="1">
+        <v>1</v>
+      </c>
+      <c r="J913">
+        <v>0</v>
+      </c>
+      <c r="K913">
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:11">
@@ -43534,8 +44110,8 @@
       <c r="I1196" s="1">
         <v>0</v>
       </c>
-      <c r="J1196" t="s">
-        <v>349</v>
+      <c r="J1196">
+        <v>0</v>
       </c>
       <c r="K1196">
         <v>0</v>
@@ -45491,8 +46067,8 @@
       <c r="H1252" t="s">
         <v>13</v>
       </c>
-      <c r="I1252" s="1" t="s">
-        <v>349</v>
+      <c r="I1252" s="1">
+        <v>0</v>
       </c>
       <c r="J1252">
         <v>1</v>
@@ -45666,8 +46242,8 @@
       <c r="H1257" t="s">
         <v>13</v>
       </c>
-      <c r="I1257" s="1" t="s">
-        <v>349</v>
+      <c r="I1257" s="1">
+        <v>0</v>
       </c>
       <c r="J1257">
         <v>1</v>
@@ -45736,8 +46312,8 @@
       <c r="H1259" t="s">
         <v>13</v>
       </c>
-      <c r="I1259" s="1" t="s">
-        <v>349</v>
+      <c r="I1259" s="1">
+        <v>0</v>
       </c>
       <c r="J1259">
         <v>1</v>
@@ -45911,8 +46487,8 @@
       <c r="H1264" t="s">
         <v>13</v>
       </c>
-      <c r="I1264" s="1" t="s">
-        <v>349</v>
+      <c r="I1264" s="1">
+        <v>0</v>
       </c>
       <c r="J1264">
         <v>0</v>
@@ -46331,8 +46907,8 @@
       <c r="H1276" t="s">
         <v>17</v>
       </c>
-      <c r="I1276" s="1" t="s">
-        <v>349</v>
+      <c r="I1276" s="1">
+        <v>0</v>
       </c>
       <c r="J1276">
         <v>1</v>
@@ -57006,14 +57582,14 @@
       <c r="H1581" t="s">
         <v>20</v>
       </c>
-      <c r="I1581" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="J1581" t="s">
-        <v>349</v>
-      </c>
-      <c r="K1581" t="s">
-        <v>349</v>
+      <c r="I1581" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1581">
+        <v>1</v>
+      </c>
+      <c r="K1581">
+        <v>0</v>
       </c>
     </row>
     <row r="1582" spans="1:11">
